--- a/kagiyaスケジュール表.xlsx
+++ b/kagiyaスケジュール表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kurumi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BEFA35-5BEE-F243-9329-6D4375630E3E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9622F092-78B0-7340-965E-2B1F2E074604}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,323 +74,323 @@
     <rPh sb="0" eb="3">
       <t>キノウメイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ファイル名</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
       <t>コウテイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>機能実装</t>
     <rPh sb="0" eb="2">
       <t>キノウジッソウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>トップ画面</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ユーザー登録機能</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ログイン認証画面</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>パスワード再設定画面</t>
     <rPh sb="0" eb="5">
       <t>サイセッテイガメン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>商品一覧画面</t>
     <rPh sb="0" eb="2">
       <t>ショウヒンイチランガメン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>商品詳細画面</t>
     <rPh sb="0" eb="2">
       <t>ショウヒンショウサイガメン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>StartAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>CreateuserAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>CreateUserConfirmAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>CreateuserCompleteAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>GologinAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>LoginAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ResultPasswordAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ResultPasswordConfirmAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ResultPasswordCompleteAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ProductListAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ProductDetailsAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>商品検索機能</t>
     <rPh sb="0" eb="2">
       <t>ショウヒンケンサクキノウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>SearchItemAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>HomeAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>AddCartAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>CartAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>DeleteCartAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>settlementConfirmAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>CreateDestinationAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>CreateDestinationConfirmAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>CreateDestinationCompleteAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>settlementCompleteAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>カート機能</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>宛先情報選択機能</t>
     <rPh sb="0" eb="2">
       <t>アテサキジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>宛先情報登録機能</t>
     <rPh sb="0" eb="2">
       <t>アテサキジョユホウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>決済完了機能</t>
     <rPh sb="0" eb="2">
       <t>ケッサイカンリョウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>マイページ機能</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>商品購入履歴機能</t>
     <rPh sb="0" eb="2">
       <t>ショウヒンコウニュウリレキキノウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ログアクト機能</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>管理者画面</t>
     <rPh sb="0" eb="2">
       <t>カンリシャガメン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>商品追加機能</t>
     <rPh sb="0" eb="2">
       <t>ショウヒンツイカイノウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>MyPageAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>PurchasHistoryAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>DeletePurchasehistoryAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>LogoutAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>AdminAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ProductAddAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ProductAddConfirmAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ProductAddCompleteAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ProductDeleteAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ProductDeleteConfirmAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ProductDeleteCompleteAction</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>商品削除機能</t>
     <rPh sb="0" eb="2">
       <t>ショウヒンサクジョ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>尼野</t>
     <rPh sb="0" eb="2">
       <t>アマノ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>天野</t>
     <rPh sb="0" eb="2">
       <t>アマノ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>大澤</t>
     <rPh sb="0" eb="2">
       <t>オオサワ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>井上</t>
     <rPh sb="0" eb="2">
       <t>イノウエ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>具志堅</t>
     <rPh sb="0" eb="2">
       <t>グシケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>宮崎</t>
     <rPh sb="0" eb="2">
       <t>ミヤザキ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>平松</t>
     <rPh sb="0" eb="2">
       <t>ヒラマツ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>白石</t>
     <rPh sb="0" eb="2">
       <t>シライシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>石岡</t>
     <rPh sb="0" eb="2">
       <t>イシオカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>レイアウト会議
@@ -398,331 +398,331 @@
     <rPh sb="0" eb="2">
       <t>カイギ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>画面実装</t>
     <rPh sb="0" eb="2">
       <t>ガメンシッソウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>スタート画面</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ホーム画面</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ヘッダー画面</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>フッター画面</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>エラー画面</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ユーザー情報入力画面</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ユーザー情報確認画面</t>
     <rPh sb="0" eb="4">
       <t>カクニンガメン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ユーザー情報完了画面</t>
     <rPh sb="0" eb="4">
       <t>カンリョウガメn</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ログイン画面</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>パスワード再設定画面</t>
     <rPh sb="0" eb="3">
       <t>サイセッテイガmネン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>パスワード確認画面</t>
     <rPh sb="0" eb="4">
       <t>カクニンガメン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>パスワード完了画面</t>
     <rPh sb="0" eb="4">
       <t>カンリョウガメン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>カート画面</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>決済確認画面</t>
     <rPh sb="0" eb="18">
       <t>ケッサイカクニン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>宛先情報入力画面</t>
     <rPh sb="0" eb="2">
       <t>アテサキジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>宛先情報確認画面</t>
     <rPh sb="0" eb="2">
       <t>アテサキジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>宛先情報完了画面</t>
     <rPh sb="0" eb="2">
       <t>アテサキジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>決済完了画面</t>
     <rPh sb="0" eb="2">
       <t>ケッサイカンリョウガメン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>マイページ画面</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>商品追加画面</t>
     <rPh sb="0" eb="2">
       <t>ショウヒンツイカガメン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>商品追加確認画面</t>
     <rPh sb="0" eb="2">
       <t>ショウヒンツイカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>商品追加完了画面</t>
     <rPh sb="0" eb="2">
       <t>ショウヒンツイカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>商品削除画面</t>
     <rPh sb="0" eb="2">
       <t>ショウヒンツイカガメン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>商品削除確認画面</t>
     <rPh sb="0" eb="2">
       <t>ショウヒンツイカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>商品削除完了画面</t>
     <rPh sb="0" eb="2">
       <t>ショウヒンツイカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>予備日</t>
     <rPh sb="0" eb="2">
       <t>ヨビビ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>単体テスト</t>
     <rPh sb="0" eb="2">
       <t>タンタイテスト</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ケース作成</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>テスト実施</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>シナリオテスト</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ケース作成</t>
     <rPh sb="0" eb="2">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>アドホック試験</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>商品購入履歴画面</t>
     <rPh sb="0" eb="2">
       <t>ショウヒンジョユホウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>index.jsp</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>home.jsp</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>header.jsp</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>footer.jsp</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>error.html</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>createUser.jsp</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>createUserConfirm.jsp</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>createUserComplete.jsp</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>login.jsp</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>resetPassword.jsp</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>resetPasswordConfirm.jsp</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>resetPasswordComnplete,jsp</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>productList.jsp</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>productDetails.jsp</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>cart.jsp</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>settlementConfirm.jsp</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>createDestination,jsp</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>createDestinationConfirm.jsp</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>createDestinationComplete.jsp</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>settlementComplete.jsp</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>mypage,jsp</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>purchasHistory.jsp</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>adminpage.jsp</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>productAdd.jsp</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>productAddConfirm.jsp</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>productAddComplete.jsp</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>productDelete.jsp</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>productDeleteConfirm.jsp</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>productDeleteComplete.jsp</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -769,11 +769,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;ms pgothic&quot;"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="MS PGothic"/>
       <family val="3"/>
@@ -789,6 +784,13 @@
     <font>
       <sz val="11"/>
       <name val="MS PGothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -1322,7 +1324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1404,10 +1406,10 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1419,13 +1421,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1455,10 +1457,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1527,12 +1529,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1542,55 +1538,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1605,10 +1601,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1626,10 +1625,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1638,10 +1637,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1662,49 +1661,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1713,41 +1712,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10685,17 +10693,17 @@
   <dimension ref="A1:AO985"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="H83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="H80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I50" sqref="I50"/>
+      <selection pane="bottomRight" activeCell="I122" sqref="I122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="81" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" style="79" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="110" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="109" customWidth="1"/>
     <col min="4" max="4" width="28.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
@@ -10710,7 +10718,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="50"/>
-      <c r="C1" s="98"/>
+      <c r="C1" s="97"/>
       <c r="D1" s="19"/>
       <c r="E1" s="1"/>
       <c r="K1" s="2" t="s">
@@ -10844,7 +10852,7 @@
       <c r="B2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="98" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="38" t="s">
@@ -10994,9 +11002,9 @@
       </c>
     </row>
     <row r="3" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A3" s="111"/>
+      <c r="A3" s="110"/>
       <c r="B3" s="36"/>
-      <c r="C3" s="100"/>
+      <c r="C3" s="99"/>
       <c r="D3" s="36"/>
       <c r="E3" s="36"/>
       <c r="F3" s="36"/>
@@ -11138,7 +11146,7 @@
       <c r="B4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="96" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="4"/>
@@ -11185,9 +11193,9 @@
       <c r="AO4" s="7"/>
     </row>
     <row r="5" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A5" s="111"/>
+      <c r="A5" s="110"/>
       <c r="B5" s="36"/>
-      <c r="C5" s="100"/>
+      <c r="C5" s="99"/>
       <c r="D5" s="8"/>
       <c r="E5" s="36"/>
       <c r="F5" s="43"/>
@@ -11234,10 +11242,10 @@
       <c r="B6" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="71" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="44" t="s">
@@ -11256,7 +11264,7 @@
       <c r="J6" s="35"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="142"/>
+      <c r="M6" s="141"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -11287,9 +11295,9 @@
       <c r="AO6" s="7"/>
     </row>
     <row r="7" spans="1:41" ht="14">
-      <c r="A7" s="111"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="36"/>
-      <c r="C7" s="100"/>
+      <c r="C7" s="99"/>
       <c r="D7" s="8"/>
       <c r="E7" s="36"/>
       <c r="F7" s="9"/>
@@ -11334,10 +11342,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="112" t="s">
+      <c r="D8" s="111" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="44" t="s">
@@ -11356,8 +11364,8 @@
       <c r="J8" s="35"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="142"/>
-      <c r="N8" s="142"/>
+      <c r="M8" s="141"/>
+      <c r="N8" s="141"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -11387,9 +11395,9 @@
       <c r="AO8" s="7"/>
     </row>
     <row r="9" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A9" s="111"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="48"/>
-      <c r="C9" s="87"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="30"/>
       <c r="E9" s="36"/>
       <c r="F9" s="9"/>
@@ -11434,7 +11442,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="47"/>
-      <c r="C10" s="87"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="28" t="s">
         <v>25</v>
       </c>
@@ -11455,8 +11463,8 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="142"/>
-      <c r="O10" s="142"/>
+      <c r="N10" s="141"/>
+      <c r="O10" s="141"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
@@ -11485,9 +11493,9 @@
       <c r="AO10" s="7"/>
     </row>
     <row r="11" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A11" s="111"/>
+      <c r="A11" s="110"/>
       <c r="B11" s="48"/>
-      <c r="C11" s="87"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="14"/>
       <c r="E11" s="36"/>
       <c r="F11" s="9"/>
@@ -11532,7 +11540,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="42"/>
-      <c r="C12" s="87"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="27" t="s">
         <v>26</v>
       </c>
@@ -11554,8 +11562,8 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="142"/>
-      <c r="P12" s="142"/>
+      <c r="O12" s="141"/>
+      <c r="P12" s="141"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
@@ -11583,9 +11591,9 @@
       <c r="AO12" s="7"/>
     </row>
     <row r="13" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A13" s="111"/>
+      <c r="A13" s="110"/>
       <c r="B13" s="43"/>
-      <c r="C13" s="87"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="21"/>
       <c r="E13" s="36"/>
       <c r="F13" s="9"/>
@@ -11629,8 +11637,8 @@
       <c r="A14" s="42">
         <v>5</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="95" t="s">
+      <c r="B14" s="89"/>
+      <c r="C14" s="94" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="32" t="s">
@@ -11652,9 +11660,9 @@
       <c r="J14" s="35"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="142"/>
-      <c r="N14" s="142"/>
-      <c r="O14" s="142"/>
+      <c r="M14" s="141"/>
+      <c r="N14" s="141"/>
+      <c r="O14" s="141"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
@@ -11683,9 +11691,9 @@
       <c r="AO14" s="7"/>
     </row>
     <row r="15" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A15" s="111"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="101"/>
+      <c r="A15" s="110"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="13"/>
       <c r="E15" s="36"/>
       <c r="F15" s="9"/>
@@ -11729,8 +11737,8 @@
       <c r="A16" s="42">
         <v>6</v>
       </c>
-      <c r="B16" s="92"/>
-      <c r="C16" s="101"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="100"/>
       <c r="D16" s="34" t="s">
         <v>28</v>
       </c>
@@ -11751,9 +11759,9 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="142"/>
-      <c r="O16" s="142"/>
-      <c r="P16" s="142"/>
+      <c r="N16" s="141"/>
+      <c r="O16" s="141"/>
+      <c r="P16" s="141"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -11781,9 +11789,9 @@
       <c r="AO16" s="7"/>
     </row>
     <row r="17" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A17" s="111"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="102"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="101"/>
       <c r="D17" s="14"/>
       <c r="E17" s="36"/>
       <c r="F17" s="9"/>
@@ -11828,7 +11836,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="46"/>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="85" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="32" t="s">
@@ -11850,8 +11858,8 @@
       <c r="J18" s="35"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="142"/>
-      <c r="N18" s="142"/>
+      <c r="M18" s="141"/>
+      <c r="N18" s="141"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
@@ -11881,9 +11889,9 @@
       <c r="AO18" s="7"/>
     </row>
     <row r="19" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A19" s="111"/>
+      <c r="A19" s="110"/>
       <c r="B19" s="40"/>
-      <c r="C19" s="87"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="13"/>
       <c r="E19" s="36"/>
       <c r="F19" s="9"/>
@@ -11928,7 +11936,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="47"/>
-      <c r="C20" s="87"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="33" t="s">
         <v>30</v>
       </c>
@@ -11949,8 +11957,8 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="142"/>
-      <c r="O20" s="142"/>
+      <c r="N20" s="141"/>
+      <c r="O20" s="141"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
@@ -11979,9 +11987,9 @@
       <c r="AO20" s="7"/>
     </row>
     <row r="21" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A21" s="111"/>
+      <c r="A21" s="110"/>
       <c r="B21" s="48"/>
-      <c r="C21" s="87"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="14"/>
       <c r="E21" s="36"/>
       <c r="F21" s="9"/>
@@ -12025,7 +12033,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="42"/>
-      <c r="C22" s="87"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="27" t="s">
         <v>31</v>
       </c>
@@ -12047,8 +12055,8 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="142"/>
-      <c r="P22" s="142"/>
+      <c r="O22" s="141"/>
+      <c r="P22" s="141"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
@@ -12076,9 +12084,9 @@
       <c r="AO22" s="7"/>
     </row>
     <row r="23" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A23" s="111"/>
+      <c r="A23" s="110"/>
       <c r="B23" s="43"/>
-      <c r="C23" s="88"/>
+      <c r="C23" s="86"/>
       <c r="D23" s="21"/>
       <c r="E23" s="36"/>
       <c r="F23" s="9"/>
@@ -12123,7 +12131,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="42"/>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="78" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="27" t="s">
@@ -12145,9 +12153,9 @@
       <c r="J24" s="35"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="142"/>
-      <c r="N24" s="142"/>
-      <c r="O24" s="142"/>
+      <c r="M24" s="141"/>
+      <c r="N24" s="141"/>
+      <c r="O24" s="141"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
@@ -12176,9 +12184,9 @@
       <c r="AO24" s="7"/>
     </row>
     <row r="25" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A25" s="111"/>
+      <c r="A25" s="110"/>
       <c r="B25" s="43"/>
-      <c r="C25" s="103"/>
+      <c r="C25" s="102"/>
       <c r="D25" s="21"/>
       <c r="E25" s="36"/>
       <c r="F25" s="9"/>
@@ -12222,14 +12230,14 @@
       <c r="A26" s="42">
         <v>11</v>
       </c>
-      <c r="B26" s="90"/>
-      <c r="C26" s="95" t="s">
+      <c r="B26" s="88"/>
+      <c r="C26" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="113" t="s">
+      <c r="D26" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="94" t="s">
+      <c r="E26" s="93" t="s">
         <v>66</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -12247,8 +12255,8 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="142"/>
-      <c r="P26" s="142"/>
+      <c r="O26" s="141"/>
+      <c r="P26" s="141"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
@@ -12276,9 +12284,9 @@
       <c r="AO26" s="7"/>
     </row>
     <row r="27" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A27" s="111"/>
+      <c r="A27" s="110"/>
       <c r="B27" s="64"/>
-      <c r="C27" s="104"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="25"/>
       <c r="E27" s="40"/>
       <c r="F27" s="9"/>
@@ -12322,14 +12330,14 @@
       <c r="A28" s="42">
         <v>12</v>
       </c>
-      <c r="B28" s="90"/>
-      <c r="C28" s="95" t="s">
+      <c r="B28" s="88"/>
+      <c r="C28" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="114" t="s">
+      <c r="D28" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="94" t="s">
+      <c r="E28" s="93" t="s">
         <v>70</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -12346,8 +12354,8 @@
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="142"/>
-      <c r="O28" s="142"/>
+      <c r="N28" s="141"/>
+      <c r="O28" s="141"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
@@ -12376,9 +12384,9 @@
       <c r="AO28" s="7"/>
     </row>
     <row r="29" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A29" s="111"/>
+      <c r="A29" s="110"/>
       <c r="B29" s="64"/>
-      <c r="C29" s="101"/>
+      <c r="C29" s="100"/>
       <c r="D29" s="25"/>
       <c r="E29" s="40"/>
       <c r="F29" s="9"/>
@@ -12422,8 +12430,8 @@
       <c r="A30" s="42">
         <v>13</v>
       </c>
-      <c r="B30" s="90"/>
-      <c r="C30" s="101"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="100"/>
       <c r="D30" s="29" t="s">
         <v>36</v>
       </c>
@@ -12445,8 +12453,8 @@
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="142"/>
-      <c r="P30" s="142"/>
+      <c r="O30" s="141"/>
+      <c r="P30" s="141"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
@@ -12474,9 +12482,9 @@
       <c r="AO30" s="7"/>
     </row>
     <row r="31" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A31" s="111"/>
+      <c r="A31" s="110"/>
       <c r="B31" s="64"/>
-      <c r="C31" s="102"/>
+      <c r="C31" s="101"/>
       <c r="D31" s="29"/>
       <c r="E31" s="36"/>
       <c r="F31" s="9"/>
@@ -12521,10 +12529,10 @@
         <v>14</v>
       </c>
       <c r="B32" s="42"/>
-      <c r="C32" s="105" t="s">
+      <c r="C32" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="74" t="s">
+      <c r="D32" s="72" t="s">
         <v>37</v>
       </c>
       <c r="E32" s="44" t="s">
@@ -12543,8 +12551,8 @@
       <c r="J32" s="35"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="142"/>
-      <c r="N32" s="142"/>
+      <c r="M32" s="141"/>
+      <c r="N32" s="141"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
@@ -12574,9 +12582,9 @@
       <c r="AO32" s="7"/>
     </row>
     <row r="33" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A33" s="111"/>
+      <c r="A33" s="110"/>
       <c r="B33" s="43"/>
-      <c r="C33" s="87"/>
+      <c r="C33" s="85"/>
       <c r="D33" s="21"/>
       <c r="E33" s="36"/>
       <c r="F33" s="9"/>
@@ -12621,11 +12629,11 @@
         <v>15</v>
       </c>
       <c r="B34" s="42"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="75" t="s">
+      <c r="C34" s="85"/>
+      <c r="D34" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="78" t="s">
+      <c r="E34" s="76" t="s">
         <v>71</v>
       </c>
       <c r="F34" s="3" t="s">
@@ -12642,8 +12650,8 @@
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
-      <c r="N34" s="142"/>
-      <c r="O34" s="142"/>
+      <c r="N34" s="141"/>
+      <c r="O34" s="141"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
@@ -12672,9 +12680,9 @@
       <c r="AO34" s="7"/>
     </row>
     <row r="35" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A35" s="111"/>
+      <c r="A35" s="110"/>
       <c r="B35" s="43"/>
-      <c r="C35" s="87"/>
+      <c r="C35" s="85"/>
       <c r="D35" s="21"/>
       <c r="E35" s="36"/>
       <c r="F35" s="9"/>
@@ -12719,7 +12727,7 @@
         <v>16</v>
       </c>
       <c r="B36" s="42"/>
-      <c r="C36" s="87"/>
+      <c r="C36" s="85"/>
       <c r="D36" s="27" t="s">
         <v>39</v>
       </c>
@@ -12741,8 +12749,8 @@
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="142"/>
-      <c r="P36" s="142"/>
+      <c r="O36" s="141"/>
+      <c r="P36" s="141"/>
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
       <c r="S36" s="15"/>
@@ -12770,9 +12778,9 @@
       <c r="AO36" s="7"/>
     </row>
     <row r="37" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A37" s="111"/>
+      <c r="A37" s="110"/>
       <c r="B37" s="43"/>
-      <c r="C37" s="88"/>
+      <c r="C37" s="86"/>
       <c r="D37" s="21"/>
       <c r="E37" s="36"/>
       <c r="F37" s="9"/>
@@ -12817,7 +12825,7 @@
         <v>17</v>
       </c>
       <c r="B38" s="42"/>
-      <c r="C38" s="80" t="s">
+      <c r="C38" s="78" t="s">
         <v>46</v>
       </c>
       <c r="D38" s="27" t="s">
@@ -12839,8 +12847,8 @@
       <c r="J38" s="35"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
-      <c r="M38" s="142"/>
-      <c r="N38" s="142"/>
+      <c r="M38" s="141"/>
+      <c r="N38" s="141"/>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
@@ -12870,9 +12878,9 @@
       <c r="AO38" s="7"/>
     </row>
     <row r="39" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A39" s="111"/>
+      <c r="A39" s="110"/>
       <c r="B39" s="43"/>
-      <c r="C39" s="103"/>
+      <c r="C39" s="102"/>
       <c r="D39" s="21"/>
       <c r="E39" s="36"/>
       <c r="F39" s="9"/>
@@ -12917,7 +12925,7 @@
         <v>18</v>
       </c>
       <c r="B40" s="42"/>
-      <c r="C40" s="86" t="s">
+      <c r="C40" s="84" t="s">
         <v>47</v>
       </c>
       <c r="D40" s="27" t="s">
@@ -12939,8 +12947,8 @@
       <c r="J40" s="35"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
-      <c r="M40" s="142"/>
-      <c r="N40" s="142"/>
+      <c r="M40" s="141"/>
+      <c r="N40" s="141"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
@@ -12970,9 +12978,9 @@
       <c r="AO40" s="7"/>
     </row>
     <row r="41" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A41" s="111"/>
+      <c r="A41" s="110"/>
       <c r="B41" s="43"/>
-      <c r="C41" s="87"/>
+      <c r="C41" s="85"/>
       <c r="D41" s="21"/>
       <c r="E41" s="36"/>
       <c r="F41" s="9"/>
@@ -13017,7 +13025,7 @@
         <v>19</v>
       </c>
       <c r="B42" s="42"/>
-      <c r="C42" s="87"/>
+      <c r="C42" s="85"/>
       <c r="D42" s="27" t="s">
         <v>42</v>
       </c>
@@ -13038,8 +13046,8 @@
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
-      <c r="N42" s="142"/>
-      <c r="O42" s="142"/>
+      <c r="N42" s="141"/>
+      <c r="O42" s="141"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
@@ -13068,9 +13076,9 @@
       <c r="AO42" s="7"/>
     </row>
     <row r="43" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A43" s="111"/>
+      <c r="A43" s="110"/>
       <c r="B43" s="43"/>
-      <c r="C43" s="87"/>
+      <c r="C43" s="85"/>
       <c r="D43" s="21"/>
       <c r="E43" s="36"/>
       <c r="F43" s="43"/>
@@ -13115,7 +13123,7 @@
         <v>20</v>
       </c>
       <c r="B44" s="47"/>
-      <c r="C44" s="87"/>
+      <c r="C44" s="85"/>
       <c r="D44" s="32" t="s">
         <v>43</v>
       </c>
@@ -13137,8 +13145,8 @@
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
-      <c r="O44" s="142"/>
-      <c r="P44" s="142"/>
+      <c r="O44" s="141"/>
+      <c r="P44" s="141"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
@@ -13166,9 +13174,9 @@
       <c r="AO44" s="7"/>
     </row>
     <row r="45" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A45" s="111"/>
+      <c r="A45" s="110"/>
       <c r="B45" s="48"/>
-      <c r="C45" s="88"/>
+      <c r="C45" s="86"/>
       <c r="D45" s="14"/>
       <c r="E45" s="36"/>
       <c r="F45" s="43"/>
@@ -13213,10 +13221,10 @@
         <v>21</v>
       </c>
       <c r="B46" s="42"/>
-      <c r="C46" s="80" t="s">
+      <c r="C46" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="76" t="s">
+      <c r="D46" s="74" t="s">
         <v>44</v>
       </c>
       <c r="E46" s="44" t="s">
@@ -13237,8 +13245,8 @@
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
-      <c r="O46" s="142"/>
-      <c r="P46" s="142"/>
+      <c r="O46" s="141"/>
+      <c r="P46" s="141"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
       <c r="S46" s="7"/>
@@ -13266,9 +13274,9 @@
       <c r="AO46" s="7"/>
     </row>
     <row r="47" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A47" s="111"/>
+      <c r="A47" s="110"/>
       <c r="B47" s="36"/>
-      <c r="C47" s="100"/>
+      <c r="C47" s="99"/>
       <c r="D47" s="8"/>
       <c r="E47" s="36"/>
       <c r="F47" s="43"/>
@@ -13313,7 +13321,7 @@
         <v>22</v>
       </c>
       <c r="B48" s="42"/>
-      <c r="C48" s="80" t="s">
+      <c r="C48" s="78" t="s">
         <v>49</v>
       </c>
       <c r="D48" s="27" t="s">
@@ -13335,7 +13343,7 @@
       <c r="J48" s="35"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
-      <c r="M48" s="142"/>
+      <c r="M48" s="141"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
@@ -13366,9 +13374,9 @@
       <c r="AO48" s="7"/>
     </row>
     <row r="49" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A49" s="111"/>
+      <c r="A49" s="110"/>
       <c r="B49" s="36"/>
-      <c r="C49" s="100"/>
+      <c r="C49" s="99"/>
       <c r="D49" s="8"/>
       <c r="E49" s="36"/>
       <c r="F49" s="43"/>
@@ -13413,7 +13421,7 @@
         <v>23</v>
       </c>
       <c r="B50" s="47"/>
-      <c r="C50" s="86" t="s">
+      <c r="C50" s="84" t="s">
         <v>50</v>
       </c>
       <c r="D50" s="27" t="s">
@@ -13435,9 +13443,9 @@
       <c r="J50" s="35"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
-      <c r="M50" s="142"/>
-      <c r="N50" s="142"/>
-      <c r="O50" s="142"/>
+      <c r="M50" s="141"/>
+      <c r="N50" s="141"/>
+      <c r="O50" s="141"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
@@ -13466,9 +13474,9 @@
       <c r="AO50" s="7"/>
     </row>
     <row r="51" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A51" s="111"/>
+      <c r="A51" s="110"/>
       <c r="B51" s="48"/>
-      <c r="C51" s="87"/>
+      <c r="C51" s="85"/>
       <c r="D51" s="14"/>
       <c r="E51" s="36"/>
       <c r="F51" s="43"/>
@@ -13513,11 +13521,11 @@
         <v>24</v>
       </c>
       <c r="B52" s="47"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="117" t="s">
+      <c r="C52" s="114"/>
+      <c r="D52" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="E52" s="94" t="s">
+      <c r="E52" s="93" t="s">
         <v>73</v>
       </c>
       <c r="F52" s="42" t="s">
@@ -13534,9 +13542,9 @@
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
-      <c r="N52" s="142"/>
-      <c r="O52" s="142"/>
-      <c r="P52" s="142"/>
+      <c r="N52" s="141"/>
+      <c r="O52" s="141"/>
+      <c r="P52" s="141"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
       <c r="S52" s="7"/>
@@ -13564,9 +13572,9 @@
       <c r="AO52" s="7"/>
     </row>
     <row r="53" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A53" s="111"/>
+      <c r="A53" s="110"/>
       <c r="B53" s="48"/>
-      <c r="C53" s="116"/>
+      <c r="C53" s="115"/>
       <c r="D53" s="25"/>
       <c r="E53" s="40"/>
       <c r="F53" s="43"/>
@@ -13611,7 +13619,7 @@
         <v>25</v>
       </c>
       <c r="B54" s="47"/>
-      <c r="C54" s="106" t="s">
+      <c r="C54" s="105" t="s">
         <v>51</v>
       </c>
       <c r="D54" s="34" t="s">
@@ -13633,7 +13641,7 @@
       <c r="J54" s="35"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
-      <c r="M54" s="142"/>
+      <c r="M54" s="141"/>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
       <c r="P54" s="7"/>
@@ -13664,9 +13672,9 @@
       <c r="AO54" s="7"/>
     </row>
     <row r="55" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A55" s="111"/>
+      <c r="A55" s="110"/>
       <c r="B55" s="48"/>
-      <c r="C55" s="107"/>
+      <c r="C55" s="106"/>
       <c r="D55" s="14"/>
       <c r="E55" s="36"/>
       <c r="F55" s="43"/>
@@ -13711,7 +13719,7 @@
         <v>26</v>
       </c>
       <c r="B56" s="47"/>
-      <c r="C56" s="106" t="s">
+      <c r="C56" s="105" t="s">
         <v>52</v>
       </c>
       <c r="D56" s="32" t="s">
@@ -13733,7 +13741,7 @@
       <c r="J56" s="35"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
-      <c r="M56" s="142"/>
+      <c r="M56" s="141"/>
       <c r="N56" s="7"/>
       <c r="O56" s="7"/>
       <c r="P56" s="7"/>
@@ -13764,9 +13772,9 @@
       <c r="AO56" s="7"/>
     </row>
     <row r="57" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A57" s="111"/>
+      <c r="A57" s="110"/>
       <c r="B57" s="48"/>
-      <c r="C57" s="107"/>
+      <c r="C57" s="106"/>
       <c r="D57" s="14"/>
       <c r="E57" s="36"/>
       <c r="F57" s="43"/>
@@ -13811,7 +13819,7 @@
         <v>27</v>
       </c>
       <c r="B58" s="42"/>
-      <c r="C58" s="86" t="s">
+      <c r="C58" s="84" t="s">
         <v>53</v>
       </c>
       <c r="D58" s="27" t="s">
@@ -13833,8 +13841,8 @@
       <c r="J58" s="35"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
-      <c r="M58" s="142"/>
-      <c r="N58" s="142"/>
+      <c r="M58" s="141"/>
+      <c r="N58" s="141"/>
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
@@ -13864,9 +13872,9 @@
       <c r="AO58" s="7"/>
     </row>
     <row r="59" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A59" s="111"/>
+      <c r="A59" s="110"/>
       <c r="B59" s="43"/>
-      <c r="C59" s="87"/>
+      <c r="C59" s="85"/>
       <c r="D59" s="21"/>
       <c r="E59" s="36"/>
       <c r="F59" s="43"/>
@@ -13911,7 +13919,7 @@
         <v>28</v>
       </c>
       <c r="B60" s="42"/>
-      <c r="C60" s="87"/>
+      <c r="C60" s="85"/>
       <c r="D60" s="27" t="s">
         <v>60</v>
       </c>
@@ -13931,8 +13939,8 @@
       <c r="J60" s="35"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
-      <c r="M60" s="142"/>
-      <c r="N60" s="142"/>
+      <c r="M60" s="141"/>
+      <c r="N60" s="141"/>
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
@@ -13962,9 +13970,9 @@
       <c r="AO60" s="7"/>
     </row>
     <row r="61" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A61" s="111"/>
+      <c r="A61" s="110"/>
       <c r="B61" s="43"/>
-      <c r="C61" s="87"/>
+      <c r="C61" s="85"/>
       <c r="D61" s="21"/>
       <c r="E61" s="36"/>
       <c r="F61" s="43"/>
@@ -14009,7 +14017,7 @@
         <v>29</v>
       </c>
       <c r="B62" s="42"/>
-      <c r="C62" s="87"/>
+      <c r="C62" s="85"/>
       <c r="D62" s="27" t="s">
         <v>61</v>
       </c>
@@ -14030,8 +14038,8 @@
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
-      <c r="N62" s="142"/>
-      <c r="O62" s="142"/>
+      <c r="N62" s="141"/>
+      <c r="O62" s="141"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
@@ -14060,9 +14068,9 @@
       <c r="AO62" s="7"/>
     </row>
     <row r="63" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A63" s="111"/>
+      <c r="A63" s="110"/>
       <c r="B63" s="43"/>
-      <c r="C63" s="88"/>
+      <c r="C63" s="86"/>
       <c r="D63" s="21"/>
       <c r="E63" s="63"/>
       <c r="F63" s="43"/>
@@ -14107,13 +14115,13 @@
         <v>30</v>
       </c>
       <c r="B64" s="42"/>
-      <c r="C64" s="86" t="s">
+      <c r="C64" s="84" t="s">
         <v>65</v>
       </c>
       <c r="D64" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E64" s="79" t="s">
+      <c r="E64" s="77" t="s">
         <v>74</v>
       </c>
       <c r="F64" s="47" t="s">
@@ -14130,8 +14138,8 @@
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
-      <c r="N64" s="142"/>
-      <c r="O64" s="142"/>
+      <c r="N64" s="141"/>
+      <c r="O64" s="141"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
@@ -14160,9 +14168,9 @@
       <c r="AO64" s="7"/>
     </row>
     <row r="65" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A65" s="111"/>
+      <c r="A65" s="110"/>
       <c r="B65" s="43"/>
-      <c r="C65" s="87"/>
+      <c r="C65" s="85"/>
       <c r="D65" s="21"/>
       <c r="E65" s="62"/>
       <c r="F65" s="48"/>
@@ -14207,11 +14215,11 @@
         <v>31</v>
       </c>
       <c r="B66" s="42"/>
-      <c r="C66" s="87"/>
+      <c r="C66" s="85"/>
       <c r="D66" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="E66" s="79" t="s">
+      <c r="E66" s="77" t="s">
         <v>74</v>
       </c>
       <c r="F66" s="47" t="s">
@@ -14229,8 +14237,8 @@
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
-      <c r="O66" s="142"/>
-      <c r="P66" s="142"/>
+      <c r="O66" s="141"/>
+      <c r="P66" s="141"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
       <c r="S66" s="7"/>
@@ -14258,9 +14266,9 @@
       <c r="AO66" s="7"/>
     </row>
     <row r="67" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A67" s="111"/>
+      <c r="A67" s="110"/>
       <c r="B67" s="43"/>
-      <c r="C67" s="87"/>
+      <c r="C67" s="85"/>
       <c r="D67" s="21"/>
       <c r="E67" s="62"/>
       <c r="F67" s="48"/>
@@ -14305,11 +14313,11 @@
         <v>32</v>
       </c>
       <c r="B68" s="42"/>
-      <c r="C68" s="87"/>
+      <c r="C68" s="85"/>
       <c r="D68" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E68" s="79" t="s">
+      <c r="E68" s="77" t="s">
         <v>74</v>
       </c>
       <c r="F68" s="47" t="s">
@@ -14327,8 +14335,8 @@
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
-      <c r="O68" s="142"/>
-      <c r="P68" s="142"/>
+      <c r="O68" s="141"/>
+      <c r="P68" s="141"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
       <c r="S68" s="7"/>
@@ -14356,9 +14364,9 @@
       <c r="AO68" s="7"/>
     </row>
     <row r="69" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A69" s="111"/>
+      <c r="A69" s="110"/>
       <c r="B69" s="43"/>
-      <c r="C69" s="88"/>
+      <c r="C69" s="86"/>
       <c r="D69" s="21"/>
       <c r="E69" s="62"/>
       <c r="F69" s="48"/>
@@ -14402,10 +14410,10 @@
       <c r="A70" s="42">
         <v>33</v>
       </c>
-      <c r="B70" s="118" t="s">
+      <c r="B70" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="C70" s="96"/>
+      <c r="C70" s="95"/>
       <c r="D70" s="20"/>
       <c r="E70" s="61"/>
       <c r="F70" s="47" t="s">
@@ -14428,13 +14436,13 @@
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
       <c r="S70" s="7"/>
-      <c r="T70" s="142"/>
-      <c r="U70" s="142"/>
-      <c r="V70" s="142"/>
-      <c r="W70" s="142"/>
+      <c r="T70" s="141"/>
+      <c r="U70" s="141"/>
+      <c r="V70" s="141"/>
+      <c r="W70" s="141"/>
       <c r="X70" s="7"/>
       <c r="Y70" s="7"/>
-      <c r="Z70" s="142"/>
+      <c r="Z70" s="141"/>
       <c r="AA70" s="7"/>
       <c r="AB70" s="7"/>
       <c r="AC70" s="7"/>
@@ -14452,9 +14460,9 @@
       <c r="AO70" s="7"/>
     </row>
     <row r="71" spans="1:41" ht="14">
-      <c r="A71" s="111"/>
+      <c r="A71" s="110"/>
       <c r="B71" s="43"/>
-      <c r="C71" s="108"/>
+      <c r="C71" s="107"/>
       <c r="D71" s="21"/>
       <c r="E71" s="62"/>
       <c r="F71" s="48"/>
@@ -14501,13 +14509,13 @@
       <c r="B72" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="119" t="s">
+      <c r="C72" s="118" t="s">
         <v>77</v>
       </c>
       <c r="D72" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E72" s="68" t="s">
+      <c r="E72" s="142" t="s">
         <v>66</v>
       </c>
       <c r="F72" s="47" t="s">
@@ -14530,13 +14538,13 @@
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
       <c r="S72" s="7"/>
-      <c r="T72" s="142"/>
-      <c r="U72" s="142"/>
-      <c r="V72" s="142"/>
-      <c r="W72" s="142"/>
+      <c r="T72" s="141"/>
+      <c r="U72" s="141"/>
+      <c r="V72" s="141"/>
+      <c r="W72" s="141"/>
       <c r="X72" s="7"/>
       <c r="Y72" s="7"/>
-      <c r="Z72" s="142"/>
+      <c r="Z72" s="141"/>
       <c r="AA72" s="7"/>
       <c r="AB72" s="7"/>
       <c r="AC72" s="7"/>
@@ -14554,11 +14562,11 @@
       <c r="AO72" s="7"/>
     </row>
     <row r="73" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A73" s="111"/>
+      <c r="A73" s="110"/>
       <c r="B73" s="43"/>
-      <c r="C73" s="108"/>
+      <c r="C73" s="107"/>
       <c r="D73" s="21"/>
-      <c r="E73" s="69"/>
+      <c r="E73" s="143"/>
       <c r="F73" s="48"/>
       <c r="G73" s="36"/>
       <c r="H73" s="12"/>
@@ -14601,13 +14609,13 @@
         <v>35</v>
       </c>
       <c r="B74" s="42"/>
-      <c r="C74" s="119" t="s">
+      <c r="C74" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="D74" s="139" t="s">
+      <c r="D74" s="138" t="s">
         <v>111</v>
       </c>
-      <c r="E74" s="68" t="s">
+      <c r="E74" s="142" t="s">
         <v>69</v>
       </c>
       <c r="F74" s="47" t="s">
@@ -14630,13 +14638,13 @@
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
       <c r="S74" s="7"/>
-      <c r="T74" s="142"/>
-      <c r="U74" s="142"/>
-      <c r="V74" s="142"/>
-      <c r="W74" s="142"/>
+      <c r="T74" s="141"/>
+      <c r="U74" s="141"/>
+      <c r="V74" s="141"/>
+      <c r="W74" s="141"/>
       <c r="X74" s="7"/>
       <c r="Y74" s="7"/>
-      <c r="Z74" s="142"/>
+      <c r="Z74" s="141"/>
       <c r="AA74" s="7"/>
       <c r="AB74" s="7"/>
       <c r="AC74" s="7"/>
@@ -14654,11 +14662,11 @@
       <c r="AO74" s="7"/>
     </row>
     <row r="75" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A75" s="111"/>
+      <c r="A75" s="110"/>
       <c r="B75" s="43"/>
-      <c r="C75" s="108"/>
+      <c r="C75" s="107"/>
       <c r="D75" s="21"/>
-      <c r="E75" s="69"/>
+      <c r="E75" s="143"/>
       <c r="F75" s="48"/>
       <c r="G75" s="36"/>
       <c r="H75" s="12"/>
@@ -14701,13 +14709,13 @@
         <v>36</v>
       </c>
       <c r="B76" s="47"/>
-      <c r="C76" s="106" t="s">
+      <c r="C76" s="105" t="s">
         <v>79</v>
       </c>
       <c r="D76" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="E76" s="83" t="s">
+      <c r="E76" s="81" t="s">
         <v>69</v>
       </c>
       <c r="F76" s="42" t="s">
@@ -14730,13 +14738,13 @@
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
       <c r="S76" s="7"/>
-      <c r="T76" s="142"/>
-      <c r="U76" s="142"/>
-      <c r="V76" s="142"/>
-      <c r="W76" s="142"/>
+      <c r="T76" s="141"/>
+      <c r="U76" s="141"/>
+      <c r="V76" s="141"/>
+      <c r="W76" s="141"/>
       <c r="X76" s="7"/>
       <c r="Y76" s="7"/>
-      <c r="Z76" s="142"/>
+      <c r="Z76" s="141"/>
       <c r="AA76" s="7"/>
       <c r="AB76" s="7"/>
       <c r="AC76" s="7"/>
@@ -14754,9 +14762,9 @@
       <c r="AO76" s="7"/>
     </row>
     <row r="77" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A77" s="111"/>
+      <c r="A77" s="110"/>
       <c r="B77" s="48"/>
-      <c r="C77" s="107"/>
+      <c r="C77" s="106"/>
       <c r="D77" s="21"/>
       <c r="E77" s="36"/>
       <c r="F77" s="43"/>
@@ -14801,7 +14809,7 @@
         <v>37</v>
       </c>
       <c r="B78" s="42"/>
-      <c r="C78" s="80" t="s">
+      <c r="C78" s="78" t="s">
         <v>80</v>
       </c>
       <c r="D78" s="27" t="s">
@@ -14830,13 +14838,13 @@
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
       <c r="S78" s="7"/>
-      <c r="T78" s="142"/>
-      <c r="U78" s="142"/>
-      <c r="V78" s="142"/>
-      <c r="W78" s="142"/>
+      <c r="T78" s="141"/>
+      <c r="U78" s="141"/>
+      <c r="V78" s="141"/>
+      <c r="W78" s="141"/>
       <c r="X78" s="7"/>
       <c r="Y78" s="7"/>
-      <c r="Z78" s="142"/>
+      <c r="Z78" s="141"/>
       <c r="AA78" s="7"/>
       <c r="AB78" s="7"/>
       <c r="AC78" s="7"/>
@@ -14854,9 +14862,9 @@
       <c r="AO78" s="7"/>
     </row>
     <row r="79" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A79" s="111"/>
+      <c r="A79" s="110"/>
       <c r="B79" s="43"/>
-      <c r="C79" s="103"/>
+      <c r="C79" s="102"/>
       <c r="D79" s="21"/>
       <c r="E79" s="36"/>
       <c r="F79" s="43"/>
@@ -14901,7 +14909,7 @@
         <v>38</v>
       </c>
       <c r="B80" s="42"/>
-      <c r="C80" s="80" t="s">
+      <c r="C80" s="78" t="s">
         <v>81</v>
       </c>
       <c r="D80" s="27" t="s">
@@ -14930,13 +14938,13 @@
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
       <c r="S80" s="7"/>
-      <c r="T80" s="142"/>
-      <c r="U80" s="142"/>
-      <c r="V80" s="142"/>
-      <c r="W80" s="142"/>
+      <c r="T80" s="141"/>
+      <c r="U80" s="141"/>
+      <c r="V80" s="141"/>
+      <c r="W80" s="141"/>
       <c r="X80" s="7"/>
       <c r="Y80" s="7"/>
-      <c r="Z80" s="142"/>
+      <c r="Z80" s="141"/>
       <c r="AA80" s="7"/>
       <c r="AB80" s="7"/>
       <c r="AC80" s="7"/>
@@ -14954,9 +14962,9 @@
       <c r="AO80" s="7"/>
     </row>
     <row r="81" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A81" s="111"/>
+      <c r="A81" s="110"/>
       <c r="B81" s="43"/>
-      <c r="C81" s="103"/>
+      <c r="C81" s="102"/>
       <c r="D81" s="21"/>
       <c r="E81" s="36"/>
       <c r="F81" s="43"/>
@@ -15001,7 +15009,7 @@
         <v>39</v>
       </c>
       <c r="B82" s="42"/>
-      <c r="C82" s="120" t="s">
+      <c r="C82" s="119" t="s">
         <v>82</v>
       </c>
       <c r="D82" s="27" t="s">
@@ -15030,13 +15038,13 @@
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
       <c r="S82" s="7"/>
-      <c r="T82" s="142"/>
-      <c r="U82" s="142"/>
-      <c r="V82" s="142"/>
-      <c r="W82" s="142"/>
+      <c r="T82" s="141"/>
+      <c r="U82" s="141"/>
+      <c r="V82" s="141"/>
+      <c r="W82" s="141"/>
       <c r="X82" s="7"/>
       <c r="Y82" s="7"/>
-      <c r="Z82" s="142"/>
+      <c r="Z82" s="141"/>
       <c r="AA82" s="7"/>
       <c r="AB82" s="7"/>
       <c r="AC82" s="7"/>
@@ -15054,7 +15062,7 @@
       <c r="AO82" s="7"/>
     </row>
     <row r="83" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A83" s="111"/>
+      <c r="A83" s="110"/>
       <c r="B83" s="43"/>
       <c r="C83" s="36"/>
       <c r="D83" s="21"/>
@@ -15101,7 +15109,7 @@
         <v>40</v>
       </c>
       <c r="B84" s="42"/>
-      <c r="C84" s="120" t="s">
+      <c r="C84" s="119" t="s">
         <v>83</v>
       </c>
       <c r="D84" s="27" t="s">
@@ -15130,13 +15138,13 @@
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
       <c r="S84" s="7"/>
-      <c r="T84" s="142"/>
-      <c r="U84" s="142"/>
-      <c r="V84" s="142"/>
-      <c r="W84" s="142"/>
+      <c r="T84" s="141"/>
+      <c r="U84" s="141"/>
+      <c r="V84" s="141"/>
+      <c r="W84" s="141"/>
       <c r="X84" s="7"/>
       <c r="Y84" s="7"/>
-      <c r="Z84" s="142"/>
+      <c r="Z84" s="141"/>
       <c r="AA84" s="7"/>
       <c r="AB84" s="7"/>
       <c r="AC84" s="7"/>
@@ -15154,7 +15162,7 @@
       <c r="AO84" s="7"/>
     </row>
     <row r="85" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A85" s="111"/>
+      <c r="A85" s="110"/>
       <c r="B85" s="43"/>
       <c r="C85" s="36"/>
       <c r="D85" s="21"/>
@@ -15230,13 +15238,13 @@
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
       <c r="S86" s="7"/>
-      <c r="T86" s="142"/>
-      <c r="U86" s="142"/>
-      <c r="V86" s="142"/>
-      <c r="W86" s="142"/>
+      <c r="T86" s="141"/>
+      <c r="U86" s="141"/>
+      <c r="V86" s="141"/>
+      <c r="W86" s="141"/>
       <c r="X86" s="7"/>
       <c r="Y86" s="7"/>
-      <c r="Z86" s="142"/>
+      <c r="Z86" s="141"/>
       <c r="AA86" s="7"/>
       <c r="AB86" s="7"/>
       <c r="AC86" s="7"/>
@@ -15254,7 +15262,7 @@
       <c r="AO86" s="7"/>
     </row>
     <row r="87" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A87" s="111"/>
+      <c r="A87" s="110"/>
       <c r="B87" s="43"/>
       <c r="C87" s="48"/>
       <c r="D87" s="21"/>
@@ -15307,7 +15315,7 @@
       <c r="D88" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="E88" s="89" t="s">
+      <c r="E88" s="87" t="s">
         <v>68</v>
       </c>
       <c r="F88" s="42" t="s">
@@ -15330,13 +15338,13 @@
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
       <c r="S88" s="7"/>
-      <c r="T88" s="142"/>
-      <c r="U88" s="142"/>
-      <c r="V88" s="142"/>
-      <c r="W88" s="142"/>
+      <c r="T88" s="141"/>
+      <c r="U88" s="141"/>
+      <c r="V88" s="141"/>
+      <c r="W88" s="141"/>
       <c r="X88" s="7"/>
       <c r="Y88" s="7"/>
-      <c r="Z88" s="142"/>
+      <c r="Z88" s="141"/>
       <c r="AA88" s="7"/>
       <c r="AB88" s="7"/>
       <c r="AC88" s="7"/>
@@ -15354,7 +15362,7 @@
       <c r="AO88" s="7"/>
     </row>
     <row r="89" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A89" s="111"/>
+      <c r="A89" s="110"/>
       <c r="B89" s="48"/>
       <c r="C89" s="48"/>
       <c r="D89" s="21"/>
@@ -15430,13 +15438,13 @@
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
       <c r="S90" s="7"/>
-      <c r="T90" s="142"/>
-      <c r="U90" s="142"/>
-      <c r="V90" s="142"/>
-      <c r="W90" s="142"/>
+      <c r="T90" s="141"/>
+      <c r="U90" s="141"/>
+      <c r="V90" s="141"/>
+      <c r="W90" s="141"/>
       <c r="X90" s="7"/>
       <c r="Y90" s="7"/>
-      <c r="Z90" s="142"/>
+      <c r="Z90" s="141"/>
       <c r="AA90" s="7"/>
       <c r="AB90" s="7"/>
       <c r="AC90" s="7"/>
@@ -15454,7 +15462,7 @@
       <c r="AO90" s="7"/>
     </row>
     <row r="91" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A91" s="111"/>
+      <c r="A91" s="110"/>
       <c r="B91" s="48"/>
       <c r="C91" s="48"/>
       <c r="D91" s="21"/>
@@ -15530,13 +15538,13 @@
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
       <c r="S92" s="7"/>
-      <c r="T92" s="142"/>
-      <c r="U92" s="142"/>
-      <c r="V92" s="142"/>
-      <c r="W92" s="142"/>
+      <c r="T92" s="141"/>
+      <c r="U92" s="141"/>
+      <c r="V92" s="141"/>
+      <c r="W92" s="141"/>
       <c r="X92" s="7"/>
       <c r="Y92" s="7"/>
-      <c r="Z92" s="142"/>
+      <c r="Z92" s="141"/>
       <c r="AA92" s="7"/>
       <c r="AB92" s="7"/>
       <c r="AC92" s="7"/>
@@ -15554,7 +15562,7 @@
       <c r="AO92" s="7"/>
     </row>
     <row r="93" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A93" s="111"/>
+      <c r="A93" s="110"/>
       <c r="B93" s="43"/>
       <c r="C93" s="48"/>
       <c r="D93" s="21"/>
@@ -15601,7 +15609,7 @@
         <v>45</v>
       </c>
       <c r="B94" s="42"/>
-      <c r="C94" s="84" t="s">
+      <c r="C94" s="82" t="s">
         <v>88</v>
       </c>
       <c r="D94" s="27" t="s">
@@ -15630,13 +15638,13 @@
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
       <c r="S94" s="7"/>
-      <c r="T94" s="142"/>
-      <c r="U94" s="142"/>
-      <c r="V94" s="142"/>
-      <c r="W94" s="142"/>
+      <c r="T94" s="141"/>
+      <c r="U94" s="141"/>
+      <c r="V94" s="141"/>
+      <c r="W94" s="141"/>
       <c r="X94" s="7"/>
       <c r="Y94" s="7"/>
-      <c r="Z94" s="142"/>
+      <c r="Z94" s="141"/>
       <c r="AA94" s="7"/>
       <c r="AB94" s="7"/>
       <c r="AC94" s="7"/>
@@ -15654,7 +15662,7 @@
       <c r="AO94" s="7"/>
     </row>
     <row r="95" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A95" s="111"/>
+      <c r="A95" s="110"/>
       <c r="B95" s="43"/>
       <c r="C95" s="63"/>
       <c r="D95" s="21"/>
@@ -15701,7 +15709,7 @@
         <v>46</v>
       </c>
       <c r="B96" s="42"/>
-      <c r="C96" s="84" t="s">
+      <c r="C96" s="82" t="s">
         <v>21</v>
       </c>
       <c r="D96" s="27" t="s">
@@ -15730,13 +15738,13 @@
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
       <c r="S96" s="7"/>
-      <c r="T96" s="142"/>
-      <c r="U96" s="142"/>
-      <c r="V96" s="142"/>
-      <c r="W96" s="142"/>
+      <c r="T96" s="141"/>
+      <c r="U96" s="141"/>
+      <c r="V96" s="141"/>
+      <c r="W96" s="141"/>
       <c r="X96" s="7"/>
       <c r="Y96" s="7"/>
-      <c r="Z96" s="142"/>
+      <c r="Z96" s="141"/>
       <c r="AA96" s="7"/>
       <c r="AB96" s="7"/>
       <c r="AC96" s="7"/>
@@ -15754,7 +15762,7 @@
       <c r="AO96" s="7"/>
     </row>
     <row r="97" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A97" s="111"/>
+      <c r="A97" s="110"/>
       <c r="B97" s="43"/>
       <c r="C97" s="63"/>
       <c r="D97" s="21"/>
@@ -15797,11 +15805,11 @@
       <c r="AO97" s="7"/>
     </row>
     <row r="98" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A98" s="128">
+      <c r="A98" s="127">
         <v>47</v>
       </c>
       <c r="B98" s="42"/>
-      <c r="C98" s="84" t="s">
+      <c r="C98" s="82" t="s">
         <v>22</v>
       </c>
       <c r="D98" s="27" t="s">
@@ -15830,13 +15838,13 @@
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
       <c r="S98" s="7"/>
-      <c r="T98" s="142"/>
-      <c r="U98" s="142"/>
-      <c r="V98" s="142"/>
-      <c r="W98" s="142"/>
+      <c r="T98" s="141"/>
+      <c r="U98" s="141"/>
+      <c r="V98" s="141"/>
+      <c r="W98" s="141"/>
       <c r="X98" s="7"/>
       <c r="Y98" s="7"/>
-      <c r="Z98" s="142"/>
+      <c r="Z98" s="141"/>
       <c r="AA98" s="7"/>
       <c r="AB98" s="7"/>
       <c r="AC98" s="7"/>
@@ -15854,7 +15862,7 @@
       <c r="AO98" s="7"/>
     </row>
     <row r="99" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A99" s="129"/>
+      <c r="A99" s="128"/>
       <c r="B99" s="43"/>
       <c r="C99" s="63"/>
       <c r="D99" s="21"/>
@@ -15897,17 +15905,17 @@
       <c r="AO99" s="7"/>
     </row>
     <row r="100" spans="1:41" s="31" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A100" s="128">
+      <c r="A100" s="127">
         <v>48</v>
       </c>
       <c r="B100" s="42"/>
-      <c r="C100" s="121" t="s">
+      <c r="C100" s="120" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="113" t="s">
+      <c r="D100" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="E100" s="94" t="s">
+      <c r="E100" s="93" t="s">
         <v>71</v>
       </c>
       <c r="F100" s="42" t="s">
@@ -15930,13 +15938,13 @@
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
       <c r="S100" s="7"/>
-      <c r="T100" s="142"/>
-      <c r="U100" s="142"/>
-      <c r="V100" s="142"/>
-      <c r="W100" s="142"/>
+      <c r="T100" s="141"/>
+      <c r="U100" s="141"/>
+      <c r="V100" s="141"/>
+      <c r="W100" s="141"/>
       <c r="X100" s="7"/>
       <c r="Y100" s="7"/>
-      <c r="Z100" s="142"/>
+      <c r="Z100" s="141"/>
       <c r="AA100" s="7"/>
       <c r="AB100" s="7"/>
       <c r="AC100" s="7"/>
@@ -15954,9 +15962,9 @@
       <c r="AO100" s="7"/>
     </row>
     <row r="101" spans="1:41" s="31" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A101" s="129"/>
+      <c r="A101" s="128"/>
       <c r="B101" s="43"/>
-      <c r="C101" s="122"/>
+      <c r="C101" s="121"/>
       <c r="D101" s="22"/>
       <c r="E101" s="40"/>
       <c r="F101" s="43"/>
@@ -15997,17 +16005,17 @@
       <c r="AO101" s="7"/>
     </row>
     <row r="102" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A102" s="128">
+      <c r="A102" s="127">
         <v>49</v>
       </c>
       <c r="B102" s="42"/>
-      <c r="C102" s="121" t="s">
+      <c r="C102" s="120" t="s">
         <v>90</v>
       </c>
-      <c r="D102" s="140" t="s">
+      <c r="D102" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="E102" s="94" t="s">
+      <c r="E102" s="93" t="s">
         <v>71</v>
       </c>
       <c r="F102" s="42" t="s">
@@ -16030,13 +16038,13 @@
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
       <c r="S102" s="7"/>
-      <c r="T102" s="142"/>
-      <c r="U102" s="142"/>
-      <c r="V102" s="142"/>
-      <c r="W102" s="142"/>
+      <c r="T102" s="141"/>
+      <c r="U102" s="141"/>
+      <c r="V102" s="141"/>
+      <c r="W102" s="141"/>
       <c r="X102" s="7"/>
       <c r="Y102" s="7"/>
-      <c r="Z102" s="142"/>
+      <c r="Z102" s="141"/>
       <c r="AA102" s="7"/>
       <c r="AB102" s="7"/>
       <c r="AC102" s="7"/>
@@ -16054,10 +16062,10 @@
       <c r="AO102" s="7"/>
     </row>
     <row r="103" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A103" s="129"/>
+      <c r="A103" s="128"/>
       <c r="B103" s="43"/>
-      <c r="C103" s="122"/>
-      <c r="D103" s="141"/>
+      <c r="C103" s="121"/>
+      <c r="D103" s="140"/>
       <c r="E103" s="40"/>
       <c r="F103" s="43"/>
       <c r="G103" s="36"/>
@@ -16097,17 +16105,17 @@
       <c r="AO103" s="7"/>
     </row>
     <row r="104" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A104" s="128">
+      <c r="A104" s="127">
         <v>50</v>
       </c>
       <c r="B104" s="42"/>
-      <c r="C104" s="77" t="s">
+      <c r="C104" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="D104" s="140" t="s">
+      <c r="D104" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="E104" s="94" t="s">
+      <c r="E104" s="93" t="s">
         <v>71</v>
       </c>
       <c r="F104" s="42" t="s">
@@ -16130,13 +16138,13 @@
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
       <c r="S104" s="7"/>
-      <c r="T104" s="142"/>
-      <c r="U104" s="142"/>
-      <c r="V104" s="142"/>
-      <c r="W104" s="142"/>
+      <c r="T104" s="141"/>
+      <c r="U104" s="141"/>
+      <c r="V104" s="141"/>
+      <c r="W104" s="141"/>
       <c r="X104" s="7"/>
       <c r="Y104" s="7"/>
-      <c r="Z104" s="142"/>
+      <c r="Z104" s="141"/>
       <c r="AA104" s="7"/>
       <c r="AB104" s="7"/>
       <c r="AC104" s="7"/>
@@ -16154,10 +16162,10 @@
       <c r="AO104" s="7"/>
     </row>
     <row r="105" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A105" s="129"/>
+      <c r="A105" s="128"/>
       <c r="B105" s="43"/>
       <c r="C105" s="64"/>
-      <c r="D105" s="141"/>
+      <c r="D105" s="140"/>
       <c r="E105" s="48"/>
       <c r="F105" s="43"/>
       <c r="G105" s="36"/>
@@ -16197,17 +16205,17 @@
       <c r="AO105" s="7"/>
     </row>
     <row r="106" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A106" s="128">
+      <c r="A106" s="127">
         <v>51</v>
       </c>
       <c r="B106" s="42"/>
-      <c r="C106" s="77" t="s">
+      <c r="C106" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="D106" s="113" t="s">
+      <c r="D106" s="112" t="s">
         <v>127</v>
       </c>
-      <c r="E106" s="136" t="s">
+      <c r="E106" s="135" t="s">
         <v>72</v>
       </c>
       <c r="F106" s="47" t="s">
@@ -16230,13 +16238,13 @@
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
       <c r="S106" s="7"/>
-      <c r="T106" s="142"/>
-      <c r="U106" s="142"/>
-      <c r="V106" s="142"/>
-      <c r="W106" s="142"/>
+      <c r="T106" s="141"/>
+      <c r="U106" s="141"/>
+      <c r="V106" s="141"/>
+      <c r="W106" s="141"/>
       <c r="X106" s="7"/>
       <c r="Y106" s="7"/>
-      <c r="Z106" s="142"/>
+      <c r="Z106" s="141"/>
       <c r="AA106" s="7"/>
       <c r="AB106" s="7"/>
       <c r="AC106" s="7"/>
@@ -16254,7 +16262,7 @@
       <c r="AO106" s="7"/>
     </row>
     <row r="107" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A107" s="129"/>
+      <c r="A107" s="128"/>
       <c r="B107" s="63"/>
       <c r="C107" s="64"/>
       <c r="D107" s="23"/>
@@ -16297,17 +16305,17 @@
       <c r="AO107" s="7"/>
     </row>
     <row r="108" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A108" s="128">
+      <c r="A108" s="127">
         <v>52</v>
       </c>
       <c r="B108" s="54"/>
-      <c r="C108" s="77" t="s">
+      <c r="C108" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="D108" s="114" t="s">
+      <c r="D108" s="113" t="s">
         <v>128</v>
       </c>
-      <c r="E108" s="138" t="s">
+      <c r="E108" s="137" t="s">
         <v>72</v>
       </c>
       <c r="F108" s="56" t="s">
@@ -16330,13 +16338,13 @@
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
       <c r="S108" s="7"/>
-      <c r="T108" s="142"/>
-      <c r="U108" s="142"/>
-      <c r="V108" s="142"/>
-      <c r="W108" s="142"/>
+      <c r="T108" s="141"/>
+      <c r="U108" s="141"/>
+      <c r="V108" s="141"/>
+      <c r="W108" s="141"/>
       <c r="X108" s="7"/>
       <c r="Y108" s="7"/>
-      <c r="Z108" s="142"/>
+      <c r="Z108" s="141"/>
       <c r="AA108" s="7"/>
       <c r="AB108" s="7"/>
       <c r="AC108" s="7"/>
@@ -16354,7 +16362,7 @@
       <c r="AO108" s="7"/>
     </row>
     <row r="109" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A109" s="129"/>
+      <c r="A109" s="128"/>
       <c r="B109" s="63"/>
       <c r="C109" s="64"/>
       <c r="D109" s="25"/>
@@ -16397,17 +16405,17 @@
       <c r="AO109" s="7"/>
     </row>
     <row r="110" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A110" s="128">
+      <c r="A110" s="127">
         <v>53</v>
       </c>
       <c r="B110" s="65"/>
-      <c r="C110" s="77" t="s">
+      <c r="C110" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="D110" s="114" t="s">
+      <c r="D110" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="E110" s="138" t="s">
+      <c r="E110" s="137" t="s">
         <v>71</v>
       </c>
       <c r="F110" s="56" t="s">
@@ -16430,13 +16438,13 @@
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
       <c r="S110" s="7"/>
-      <c r="T110" s="142"/>
-      <c r="U110" s="142"/>
-      <c r="V110" s="142"/>
-      <c r="W110" s="142"/>
+      <c r="T110" s="141"/>
+      <c r="U110" s="141"/>
+      <c r="V110" s="141"/>
+      <c r="W110" s="141"/>
       <c r="X110" s="7"/>
       <c r="Y110" s="7"/>
-      <c r="Z110" s="142"/>
+      <c r="Z110" s="141"/>
       <c r="AA110" s="7"/>
       <c r="AB110" s="7"/>
       <c r="AC110" s="7"/>
@@ -16454,7 +16462,7 @@
       <c r="AO110" s="7"/>
     </row>
     <row r="111" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A111" s="129"/>
+      <c r="A111" s="128"/>
       <c r="B111" s="66"/>
       <c r="C111" s="64"/>
       <c r="D111" s="25"/>
@@ -16497,17 +16505,17 @@
       <c r="AO111" s="7"/>
     </row>
     <row r="112" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A112" s="128">
+      <c r="A112" s="127">
         <v>54</v>
       </c>
       <c r="B112" s="65"/>
-      <c r="C112" s="77" t="s">
+      <c r="C112" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="D112" s="114" t="s">
+      <c r="D112" s="113" t="s">
         <v>130</v>
       </c>
-      <c r="E112" s="138" t="s">
+      <c r="E112" s="137" t="s">
         <v>70</v>
       </c>
       <c r="F112" s="56" t="s">
@@ -16530,13 +16538,13 @@
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
       <c r="S112" s="7"/>
-      <c r="T112" s="142"/>
-      <c r="U112" s="142"/>
-      <c r="V112" s="142"/>
-      <c r="W112" s="142"/>
+      <c r="T112" s="141"/>
+      <c r="U112" s="141"/>
+      <c r="V112" s="141"/>
+      <c r="W112" s="141"/>
       <c r="X112" s="7"/>
       <c r="Y112" s="7"/>
-      <c r="Z112" s="142"/>
+      <c r="Z112" s="141"/>
       <c r="AA112" s="7"/>
       <c r="AB112" s="7"/>
       <c r="AC112" s="7"/>
@@ -16554,7 +16562,7 @@
       <c r="AO112" s="7"/>
     </row>
     <row r="113" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A113" s="129"/>
+      <c r="A113" s="128"/>
       <c r="B113" s="66"/>
       <c r="C113" s="64"/>
       <c r="D113" s="25"/>
@@ -16597,17 +16605,17 @@
       <c r="AO113" s="7"/>
     </row>
     <row r="114" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A114" s="128">
+      <c r="A114" s="127">
         <v>55</v>
       </c>
       <c r="B114" s="65"/>
-      <c r="C114" s="123" t="s">
+      <c r="C114" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="D114" s="114" t="s">
+      <c r="D114" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="E114" s="138" t="s">
+      <c r="E114" s="137" t="s">
         <v>73</v>
       </c>
       <c r="F114" s="56" t="s">
@@ -16630,13 +16638,13 @@
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
       <c r="S114" s="7"/>
-      <c r="T114" s="142"/>
-      <c r="U114" s="142"/>
-      <c r="V114" s="142"/>
-      <c r="W114" s="142"/>
+      <c r="T114" s="141"/>
+      <c r="U114" s="141"/>
+      <c r="V114" s="141"/>
+      <c r="W114" s="141"/>
       <c r="X114" s="7"/>
       <c r="Y114" s="7"/>
-      <c r="Z114" s="142"/>
+      <c r="Z114" s="141"/>
       <c r="AA114" s="7"/>
       <c r="AB114" s="7"/>
       <c r="AC114" s="7"/>
@@ -16654,9 +16662,9 @@
       <c r="AO114" s="7"/>
     </row>
     <row r="115" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A115" s="129"/>
+      <c r="A115" s="128"/>
       <c r="B115" s="66"/>
-      <c r="C115" s="109"/>
+      <c r="C115" s="108"/>
       <c r="D115" s="25"/>
       <c r="E115" s="66"/>
       <c r="F115" s="57"/>
@@ -16697,17 +16705,17 @@
       <c r="AO115" s="7"/>
     </row>
     <row r="116" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A116" s="128">
+      <c r="A116" s="127">
         <v>56</v>
       </c>
       <c r="B116" s="65"/>
       <c r="C116" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="D116" s="114" t="s">
+      <c r="D116" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="E116" s="138" t="s">
+      <c r="E116" s="137" t="s">
         <v>74</v>
       </c>
       <c r="F116" s="56" t="s">
@@ -16730,13 +16738,13 @@
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
       <c r="S116" s="7"/>
-      <c r="T116" s="142"/>
-      <c r="U116" s="142"/>
-      <c r="V116" s="142"/>
-      <c r="W116" s="142"/>
+      <c r="T116" s="141"/>
+      <c r="U116" s="141"/>
+      <c r="V116" s="141"/>
+      <c r="W116" s="141"/>
       <c r="X116" s="7"/>
       <c r="Y116" s="7"/>
-      <c r="Z116" s="142"/>
+      <c r="Z116" s="141"/>
       <c r="AA116" s="7"/>
       <c r="AB116" s="7"/>
       <c r="AC116" s="7"/>
@@ -16754,7 +16762,7 @@
       <c r="AO116" s="7"/>
     </row>
     <row r="117" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A117" s="129"/>
+      <c r="A117" s="128"/>
       <c r="B117" s="66"/>
       <c r="C117" s="48"/>
       <c r="D117" s="25"/>
@@ -16797,17 +16805,17 @@
       <c r="AO117" s="7"/>
     </row>
     <row r="118" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A118" s="128">
+      <c r="A118" s="127">
         <v>57</v>
       </c>
       <c r="B118" s="65"/>
-      <c r="C118" s="84" t="s">
+      <c r="C118" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="D118" s="141" t="s">
+      <c r="D118" s="140" t="s">
         <v>133</v>
       </c>
-      <c r="E118" s="133" t="s">
+      <c r="E118" s="132" t="s">
         <v>74</v>
       </c>
       <c r="F118" s="54" t="s">
@@ -16830,13 +16838,13 @@
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
       <c r="S118" s="7"/>
-      <c r="T118" s="142"/>
-      <c r="U118" s="142"/>
-      <c r="V118" s="142"/>
-      <c r="W118" s="142"/>
+      <c r="T118" s="141"/>
+      <c r="U118" s="141"/>
+      <c r="V118" s="141"/>
+      <c r="W118" s="141"/>
       <c r="X118" s="7"/>
       <c r="Y118" s="7"/>
-      <c r="Z118" s="142"/>
+      <c r="Z118" s="141"/>
       <c r="AA118" s="7"/>
       <c r="AB118" s="7"/>
       <c r="AC118" s="7"/>
@@ -16854,11 +16862,11 @@
       <c r="AO118" s="7"/>
     </row>
     <row r="119" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A119" s="129"/>
+      <c r="A119" s="128"/>
       <c r="B119" s="66"/>
       <c r="C119" s="63"/>
       <c r="D119" s="24"/>
-      <c r="E119" s="72"/>
+      <c r="E119" s="70"/>
       <c r="F119" s="55"/>
       <c r="G119" s="57"/>
       <c r="H119" s="26"/>
@@ -16897,17 +16905,17 @@
       <c r="AO119" s="7"/>
     </row>
     <row r="120" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A120" s="128">
+      <c r="A120" s="127">
         <v>58</v>
       </c>
       <c r="B120" s="51"/>
-      <c r="C120" s="84" t="s">
+      <c r="C120" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="D120" s="141" t="s">
+      <c r="D120" s="140" t="s">
         <v>134</v>
       </c>
-      <c r="E120" s="89" t="s">
+      <c r="E120" s="87" t="s">
         <v>74</v>
       </c>
       <c r="F120" s="54" t="s">
@@ -16930,13 +16938,13 @@
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
       <c r="S120" s="7"/>
-      <c r="T120" s="142"/>
-      <c r="U120" s="142"/>
-      <c r="V120" s="142"/>
-      <c r="W120" s="142"/>
+      <c r="T120" s="141"/>
+      <c r="U120" s="141"/>
+      <c r="V120" s="141"/>
+      <c r="W120" s="141"/>
       <c r="X120" s="7"/>
       <c r="Y120" s="7"/>
-      <c r="Z120" s="142"/>
+      <c r="Z120" s="141"/>
       <c r="AA120" s="7"/>
       <c r="AB120" s="7"/>
       <c r="AC120" s="7"/>
@@ -16954,7 +16962,7 @@
       <c r="AO120" s="7"/>
     </row>
     <row r="121" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A121" s="129"/>
+      <c r="A121" s="128"/>
       <c r="B121" s="40"/>
       <c r="C121" s="63"/>
       <c r="D121" s="25"/>
@@ -16997,17 +17005,17 @@
       <c r="AO121" s="7"/>
     </row>
     <row r="122" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A122" s="128">
+      <c r="A122" s="127">
         <v>59</v>
       </c>
       <c r="B122" s="51"/>
-      <c r="C122" s="84" t="s">
+      <c r="C122" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="D122" s="141" t="s">
+      <c r="D122" s="140" t="s">
         <v>135</v>
       </c>
-      <c r="E122" s="133" t="s">
+      <c r="E122" s="132" t="s">
         <v>74</v>
       </c>
       <c r="F122" s="54" t="s">
@@ -17030,13 +17038,13 @@
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
       <c r="S122" s="7"/>
-      <c r="T122" s="142"/>
-      <c r="U122" s="142"/>
-      <c r="V122" s="142"/>
-      <c r="W122" s="142"/>
+      <c r="T122" s="141"/>
+      <c r="U122" s="141"/>
+      <c r="V122" s="141"/>
+      <c r="W122" s="141"/>
       <c r="X122" s="7"/>
       <c r="Y122" s="7"/>
-      <c r="Z122" s="142"/>
+      <c r="Z122" s="141"/>
       <c r="AA122" s="7"/>
       <c r="AB122" s="7"/>
       <c r="AC122" s="7"/>
@@ -17054,11 +17062,11 @@
       <c r="AO122" s="7"/>
     </row>
     <row r="123" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A123" s="129"/>
+      <c r="A123" s="128"/>
       <c r="B123" s="40"/>
       <c r="C123" s="63"/>
       <c r="D123" s="24"/>
-      <c r="E123" s="72"/>
+      <c r="E123" s="70"/>
       <c r="F123" s="55"/>
       <c r="G123" s="57"/>
       <c r="H123" s="26"/>
@@ -17097,17 +17105,17 @@
       <c r="AO123" s="7"/>
     </row>
     <row r="124" spans="1:41" s="31" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A124" s="128">
+      <c r="A124" s="127">
         <v>60</v>
       </c>
       <c r="B124" s="51"/>
-      <c r="C124" s="84" t="s">
+      <c r="C124" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="D124" s="141" t="s">
+      <c r="D124" s="140" t="s">
         <v>136</v>
       </c>
-      <c r="E124" s="89" t="s">
+      <c r="E124" s="87" t="s">
         <v>74</v>
       </c>
       <c r="F124" s="54" t="s">
@@ -17130,13 +17138,13 @@
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
       <c r="S124" s="7"/>
-      <c r="T124" s="142"/>
-      <c r="U124" s="142"/>
-      <c r="V124" s="142"/>
-      <c r="W124" s="142"/>
+      <c r="T124" s="141"/>
+      <c r="U124" s="141"/>
+      <c r="V124" s="141"/>
+      <c r="W124" s="141"/>
       <c r="X124" s="7"/>
       <c r="Y124" s="7"/>
-      <c r="Z124" s="142"/>
+      <c r="Z124" s="141"/>
       <c r="AA124" s="7"/>
       <c r="AB124" s="7"/>
       <c r="AC124" s="7"/>
@@ -17154,7 +17162,7 @@
       <c r="AO124" s="7"/>
     </row>
     <row r="125" spans="1:41" s="31" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A125" s="129"/>
+      <c r="A125" s="128"/>
       <c r="B125" s="40"/>
       <c r="C125" s="63"/>
       <c r="D125" s="25"/>
@@ -17197,17 +17205,17 @@
       <c r="AO125" s="7"/>
     </row>
     <row r="126" spans="1:41" s="31" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A126" s="128">
+      <c r="A126" s="127">
         <v>61</v>
       </c>
       <c r="B126" s="51"/>
-      <c r="C126" s="84" t="s">
+      <c r="C126" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="D126" s="141" t="s">
+      <c r="D126" s="140" t="s">
         <v>137</v>
       </c>
-      <c r="E126" s="133" t="s">
+      <c r="E126" s="132" t="s">
         <v>74</v>
       </c>
       <c r="F126" s="54" t="s">
@@ -17230,13 +17238,13 @@
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
       <c r="S126" s="7"/>
-      <c r="T126" s="142"/>
-      <c r="U126" s="142"/>
-      <c r="V126" s="142"/>
-      <c r="W126" s="142"/>
+      <c r="T126" s="141"/>
+      <c r="U126" s="141"/>
+      <c r="V126" s="141"/>
+      <c r="W126" s="141"/>
       <c r="X126" s="7"/>
       <c r="Y126" s="7"/>
-      <c r="Z126" s="142"/>
+      <c r="Z126" s="141"/>
       <c r="AA126" s="7"/>
       <c r="AB126" s="7"/>
       <c r="AC126" s="7"/>
@@ -17254,11 +17262,11 @@
       <c r="AO126" s="7"/>
     </row>
     <row r="127" spans="1:41" s="31" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A127" s="129"/>
+      <c r="A127" s="128"/>
       <c r="B127" s="40"/>
       <c r="C127" s="63"/>
       <c r="D127" s="24"/>
-      <c r="E127" s="72"/>
+      <c r="E127" s="70"/>
       <c r="F127" s="55"/>
       <c r="G127" s="57"/>
       <c r="H127" s="26"/>
@@ -17297,17 +17305,17 @@
       <c r="AO127" s="7"/>
     </row>
     <row r="128" spans="1:41" s="31" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A128" s="128">
+      <c r="A128" s="127">
         <v>62</v>
       </c>
       <c r="B128" s="51"/>
-      <c r="C128" s="84" t="s">
+      <c r="C128" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="D128" s="141" t="s">
+      <c r="D128" s="140" t="s">
         <v>138</v>
       </c>
-      <c r="E128" s="89" t="s">
+      <c r="E128" s="87" t="s">
         <v>74</v>
       </c>
       <c r="F128" s="54" t="s">
@@ -17330,13 +17338,13 @@
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
       <c r="S128" s="7"/>
-      <c r="T128" s="142"/>
-      <c r="U128" s="142"/>
-      <c r="V128" s="142"/>
-      <c r="W128" s="142"/>
+      <c r="T128" s="141"/>
+      <c r="U128" s="141"/>
+      <c r="V128" s="141"/>
+      <c r="W128" s="141"/>
       <c r="X128" s="7"/>
       <c r="Y128" s="7"/>
-      <c r="Z128" s="142"/>
+      <c r="Z128" s="141"/>
       <c r="AA128" s="7"/>
       <c r="AB128" s="7"/>
       <c r="AC128" s="7"/>
@@ -17354,7 +17362,7 @@
       <c r="AO128" s="7"/>
     </row>
     <row r="129" spans="1:41" s="31" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A129" s="129"/>
+      <c r="A129" s="128"/>
       <c r="B129" s="40"/>
       <c r="C129" s="63"/>
       <c r="D129" s="25"/>
@@ -17397,13 +17405,15 @@
       <c r="AO129" s="7"/>
     </row>
     <row r="130" spans="1:41" s="31" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A130" s="128">
+      <c r="A130" s="127">
         <v>63</v>
       </c>
-      <c r="B130" s="51"/>
-      <c r="C130" s="131"/>
+      <c r="B130" s="129" t="s">
+        <v>102</v>
+      </c>
+      <c r="C130" s="130"/>
       <c r="D130" s="23"/>
-      <c r="E130" s="71"/>
+      <c r="E130" s="69"/>
       <c r="F130" s="54" t="s">
         <v>12</v>
       </c>
@@ -17431,7 +17441,7 @@
       <c r="X130" s="7"/>
       <c r="Y130" s="7"/>
       <c r="Z130" s="7"/>
-      <c r="AA130" s="142"/>
+      <c r="AA130" s="141"/>
       <c r="AB130" s="7"/>
       <c r="AC130" s="7"/>
       <c r="AD130" s="7"/>
@@ -17448,11 +17458,11 @@
       <c r="AO130" s="7"/>
     </row>
     <row r="131" spans="1:41" s="31" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A131" s="129"/>
-      <c r="B131" s="40"/>
-      <c r="C131" s="104"/>
+      <c r="A131" s="128"/>
+      <c r="B131" s="68"/>
+      <c r="C131" s="103"/>
       <c r="D131" s="24"/>
-      <c r="E131" s="72"/>
+      <c r="E131" s="70"/>
       <c r="F131" s="55"/>
       <c r="G131" s="57"/>
       <c r="H131" s="12"/>
@@ -17491,13 +17501,13 @@
       <c r="AO131" s="7"/>
     </row>
     <row r="132" spans="1:41" s="31" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A132" s="128">
+      <c r="A132" s="127">
         <v>64</v>
       </c>
-      <c r="B132" s="130" t="s">
-        <v>102</v>
-      </c>
-      <c r="C132" s="85" t="s">
+      <c r="B132" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="C132" s="83" t="s">
         <v>104</v>
       </c>
       <c r="D132" s="23"/>
@@ -17530,14 +17540,14 @@
       <c r="Y132" s="7"/>
       <c r="Z132" s="7"/>
       <c r="AA132" s="7"/>
-      <c r="AB132" s="142"/>
-      <c r="AC132" s="142"/>
-      <c r="AD132" s="142"/>
+      <c r="AB132" s="141"/>
+      <c r="AC132" s="141"/>
+      <c r="AD132" s="141"/>
       <c r="AE132" s="7"/>
       <c r="AF132" s="7"/>
-      <c r="AG132" s="142"/>
-      <c r="AH132" s="142"/>
-      <c r="AI132" s="142"/>
+      <c r="AG132" s="141"/>
+      <c r="AH132" s="141"/>
+      <c r="AI132" s="141"/>
       <c r="AJ132" s="7"/>
       <c r="AK132" s="7"/>
       <c r="AL132" s="7"/>
@@ -17546,9 +17556,9 @@
       <c r="AO132" s="7"/>
     </row>
     <row r="133" spans="1:41" s="31" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A133" s="129"/>
-      <c r="B133" s="70"/>
-      <c r="C133" s="124"/>
+      <c r="A133" s="128"/>
+      <c r="B133" s="123"/>
+      <c r="C133" s="123"/>
       <c r="D133" s="25"/>
       <c r="E133" s="40"/>
       <c r="F133" s="55"/>
@@ -17589,17 +17599,15 @@
       <c r="AO133" s="7"/>
     </row>
     <row r="134" spans="1:41" s="31" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A134" s="128">
+      <c r="A134" s="127">
         <v>65</v>
       </c>
-      <c r="B134" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="C134" s="125" t="s">
+      <c r="B134" s="80"/>
+      <c r="C134" s="124" t="s">
         <v>105</v>
       </c>
       <c r="D134" s="23"/>
-      <c r="E134" s="71"/>
+      <c r="E134" s="69"/>
       <c r="F134" s="54" t="s">
         <v>12</v>
       </c>
@@ -17628,14 +17636,14 @@
       <c r="Y134" s="7"/>
       <c r="Z134" s="7"/>
       <c r="AA134" s="7"/>
-      <c r="AB134" s="142"/>
-      <c r="AC134" s="142"/>
-      <c r="AD134" s="142"/>
+      <c r="AB134" s="141"/>
+      <c r="AC134" s="141"/>
+      <c r="AD134" s="141"/>
       <c r="AE134" s="7"/>
       <c r="AF134" s="7"/>
-      <c r="AG134" s="142"/>
-      <c r="AH134" s="142"/>
-      <c r="AI134" s="142"/>
+      <c r="AG134" s="141"/>
+      <c r="AH134" s="141"/>
+      <c r="AI134" s="141"/>
       <c r="AJ134" s="7"/>
       <c r="AK134" s="7"/>
       <c r="AL134" s="7"/>
@@ -17644,11 +17652,11 @@
       <c r="AO134" s="7"/>
     </row>
     <row r="135" spans="1:41" s="31" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A135" s="129"/>
-      <c r="B135" s="124"/>
-      <c r="C135" s="126"/>
+      <c r="A135" s="128"/>
+      <c r="B135" s="123"/>
+      <c r="C135" s="125"/>
       <c r="D135" s="24"/>
-      <c r="E135" s="72"/>
+      <c r="E135" s="70"/>
       <c r="F135" s="55"/>
       <c r="G135" s="57"/>
       <c r="H135" s="12"/>
@@ -17687,11 +17695,13 @@
       <c r="AO135" s="7"/>
     </row>
     <row r="136" spans="1:41" s="31" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A136" s="128">
+      <c r="A136" s="127">
         <v>66</v>
       </c>
-      <c r="B136" s="82"/>
-      <c r="C136" s="125" t="s">
+      <c r="B136" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="C136" s="124" t="s">
         <v>107</v>
       </c>
       <c r="D136" s="23"/>
@@ -17703,7 +17713,7 @@
       <c r="H136" s="12">
         <v>43304</v>
       </c>
-      <c r="I136" s="132">
+      <c r="I136" s="131">
         <v>43312</v>
       </c>
       <c r="J136" s="35"/>
@@ -17729,20 +17739,20 @@
       <c r="AD136" s="7"/>
       <c r="AE136" s="7"/>
       <c r="AF136" s="7"/>
-      <c r="AG136" s="142"/>
-      <c r="AH136" s="142"/>
-      <c r="AI136" s="142"/>
-      <c r="AJ136" s="142"/>
-      <c r="AK136" s="142"/>
+      <c r="AG136" s="141"/>
+      <c r="AH136" s="141"/>
+      <c r="AI136" s="141"/>
+      <c r="AJ136" s="141"/>
+      <c r="AK136" s="141"/>
       <c r="AL136" s="7"/>
       <c r="AM136" s="7"/>
-      <c r="AN136" s="142"/>
-      <c r="AO136" s="142"/>
+      <c r="AN136" s="141"/>
+      <c r="AO136" s="141"/>
     </row>
     <row r="137" spans="1:41" s="31" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A137" s="129"/>
-      <c r="B137" s="124"/>
-      <c r="C137" s="126"/>
+      <c r="A137" s="128"/>
+      <c r="B137" s="123"/>
+      <c r="C137" s="125"/>
       <c r="D137" s="25"/>
       <c r="E137" s="40"/>
       <c r="F137" s="55"/>
@@ -17783,17 +17793,15 @@
       <c r="AO137" s="7"/>
     </row>
     <row r="138" spans="1:41" s="31" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A138" s="128">
+      <c r="A138" s="127">
         <v>67</v>
       </c>
-      <c r="B138" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="C138" s="125" t="s">
+      <c r="B138" s="80"/>
+      <c r="C138" s="124" t="s">
         <v>105</v>
       </c>
       <c r="D138" s="23"/>
-      <c r="E138" s="71"/>
+      <c r="E138" s="69"/>
       <c r="F138" s="54" t="s">
         <v>12</v>
       </c>
@@ -17801,7 +17809,7 @@
       <c r="H138" s="12">
         <v>43304</v>
       </c>
-      <c r="I138" s="132">
+      <c r="I138" s="131">
         <v>43312</v>
       </c>
       <c r="J138" s="59"/>
@@ -17827,22 +17835,22 @@
       <c r="AD138" s="7"/>
       <c r="AE138" s="7"/>
       <c r="AF138" s="7"/>
-      <c r="AG138" s="142"/>
-      <c r="AH138" s="142"/>
-      <c r="AI138" s="142"/>
-      <c r="AJ138" s="142"/>
-      <c r="AK138" s="142"/>
+      <c r="AG138" s="141"/>
+      <c r="AH138" s="141"/>
+      <c r="AI138" s="141"/>
+      <c r="AJ138" s="141"/>
+      <c r="AK138" s="141"/>
       <c r="AL138" s="7"/>
       <c r="AM138" s="7"/>
-      <c r="AN138" s="142"/>
-      <c r="AO138" s="142"/>
+      <c r="AN138" s="141"/>
+      <c r="AO138" s="141"/>
     </row>
     <row r="139" spans="1:41" s="31" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A139" s="129"/>
-      <c r="B139" s="124"/>
-      <c r="C139" s="126"/>
+      <c r="A139" s="128"/>
+      <c r="B139" s="123"/>
+      <c r="C139" s="125"/>
       <c r="D139" s="24"/>
-      <c r="E139" s="72"/>
+      <c r="E139" s="70"/>
       <c r="F139" s="55"/>
       <c r="G139" s="57"/>
       <c r="H139" s="12"/>
@@ -17881,11 +17889,13 @@
       <c r="AO139" s="7"/>
     </row>
     <row r="140" spans="1:41" s="31" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A140" s="128">
+      <c r="A140" s="127">
         <v>68</v>
       </c>
-      <c r="B140" s="82"/>
-      <c r="C140" s="125" t="s">
+      <c r="B140" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="C140" s="124" t="s">
         <v>104</v>
       </c>
       <c r="D140" s="23"/>
@@ -17897,7 +17907,7 @@
       <c r="H140" s="12">
         <v>43306</v>
       </c>
-      <c r="I140" s="132">
+      <c r="I140" s="131">
         <v>43312</v>
       </c>
       <c r="J140" s="35"/>
@@ -17925,18 +17935,18 @@
       <c r="AF140" s="7"/>
       <c r="AG140" s="7"/>
       <c r="AH140" s="7"/>
-      <c r="AI140" s="142"/>
-      <c r="AJ140" s="142"/>
-      <c r="AK140" s="142"/>
+      <c r="AI140" s="141"/>
+      <c r="AJ140" s="141"/>
+      <c r="AK140" s="141"/>
       <c r="AL140" s="7"/>
       <c r="AM140" s="7"/>
-      <c r="AN140" s="142"/>
-      <c r="AO140" s="142"/>
+      <c r="AN140" s="141"/>
+      <c r="AO140" s="141"/>
     </row>
     <row r="141" spans="1:41" s="31" customFormat="1" ht="14" customHeight="1">
-      <c r="A141" s="129"/>
-      <c r="B141" s="124"/>
-      <c r="C141" s="127"/>
+      <c r="A141" s="128"/>
+      <c r="B141" s="144"/>
+      <c r="C141" s="126"/>
       <c r="D141" s="25"/>
       <c r="E141" s="40"/>
       <c r="F141" s="55"/>
@@ -17977,13 +17987,11 @@
       <c r="AO141" s="7"/>
     </row>
     <row r="142" spans="1:41" s="31" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A142" s="90">
+      <c r="A142" s="88">
         <v>69</v>
       </c>
-      <c r="B142" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="C142" s="134" t="s">
+      <c r="B142" s="92"/>
+      <c r="C142" s="133" t="s">
         <v>105</v>
       </c>
       <c r="D142" s="23"/>
@@ -17995,7 +18003,7 @@
       <c r="H142" s="12">
         <v>43306</v>
       </c>
-      <c r="I142" s="132">
+      <c r="I142" s="131">
         <v>43312</v>
       </c>
       <c r="J142" s="59"/>
@@ -18023,18 +18031,18 @@
       <c r="AF142" s="7"/>
       <c r="AG142" s="7"/>
       <c r="AH142" s="7"/>
-      <c r="AI142" s="142"/>
-      <c r="AJ142" s="142"/>
-      <c r="AK142" s="142"/>
+      <c r="AI142" s="141"/>
+      <c r="AJ142" s="141"/>
+      <c r="AK142" s="141"/>
       <c r="AL142" s="7"/>
       <c r="AM142" s="7"/>
-      <c r="AN142" s="142"/>
-      <c r="AO142" s="142"/>
+      <c r="AN142" s="141"/>
+      <c r="AO142" s="141"/>
     </row>
     <row r="143" spans="1:41" s="31" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A143" s="137"/>
-      <c r="B143" s="124"/>
-      <c r="C143" s="135"/>
+      <c r="A143" s="136"/>
+      <c r="B143" s="144"/>
+      <c r="C143" s="134"/>
       <c r="D143" s="25"/>
       <c r="E143" s="40"/>
       <c r="F143" s="55"/>
@@ -19385,7 +19393,7 @@
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G10:G11"/>
   </mergeCells>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="K8">
     <cfRule type="expression" dxfId="1080" priority="1005" stopIfTrue="1">
       <formula>AND(L$2&gt;=$H8,L$2&lt;=$I8)</formula>

--- a/kagiyaスケジュール表.xlsx
+++ b/kagiyaスケジュール表.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kurumi/Desktop/git/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3F658D-2433-D045-9C61-F216569FB4EB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843FF238-4A6A-F344-87BD-B278CF16B1D7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>未着手</t>
   </si>
   <si>
     <t>機能名</t>
@@ -718,6 +715,9 @@
   </si>
   <si>
     <t>完了</t>
+  </si>
+  <si>
+    <t>進行中</t>
   </si>
 </sst>
 </file>
@@ -1506,8 +1506,257 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1518,263 +1767,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11511,10 +11511,10 @@
   <dimension ref="A1:AO985"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="H73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="H91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F126" sqref="F126:F127"/>
+      <selection pane="bottomRight" activeCell="I123" sqref="I123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -11532,10 +11532,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15" customHeight="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="141"/>
+      <c r="B1" s="80"/>
       <c r="C1" s="39"/>
       <c r="D1" s="18"/>
       <c r="E1" s="1"/>
@@ -11664,25 +11664,25 @@
       </c>
     </row>
     <row r="2" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="137" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="145" t="s">
+      <c r="B2" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="137" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="137" t="s">
+      <c r="E2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="137" t="s">
+      <c r="F2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="137" t="s">
+      <c r="G2" s="59" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -11691,7 +11691,7 @@
       <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="147" t="s">
+      <c r="J2" s="62" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="6">
@@ -11820,9 +11820,9 @@
       </c>
     </row>
     <row r="3" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A3" s="119"/>
+      <c r="A3" s="81"/>
       <c r="B3" s="57"/>
-      <c r="C3" s="134"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="57"/>
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
@@ -11960,21 +11960,21 @@
       </c>
     </row>
     <row r="4" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A4" s="90"/>
-      <c r="B4" s="90" t="s">
+      <c r="A4" s="65"/>
+      <c r="B4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="146" t="s">
+      <c r="C4" s="74" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="90" t="s">
+      <c r="E4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="90" t="s">
+      <c r="F4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="133"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="56"/>
@@ -12011,12 +12011,12 @@
       <c r="AO4" s="7"/>
     </row>
     <row r="5" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A5" s="119"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="57"/>
-      <c r="C5" s="134"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="8"/>
       <c r="E5" s="57"/>
-      <c r="F5" s="91"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="57"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -12054,25 +12054,25 @@
       <c r="AO5" s="7"/>
     </row>
     <row r="6" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A6" s="90">
+      <c r="A6" s="65">
         <v>1</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="107" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="98" t="s">
-        <v>65</v>
+        <v>22</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>64</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" s="136"/>
+        <v>137</v>
+      </c>
+      <c r="G6" s="60"/>
       <c r="H6" s="12">
         <v>43284</v>
       </c>
@@ -12113,13 +12113,13 @@
       <c r="AO6" s="7"/>
     </row>
     <row r="7" spans="1:41" ht="14">
-      <c r="A7" s="119"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="57"/>
-      <c r="C7" s="134"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="8"/>
       <c r="E7" s="57"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="65"/>
+      <c r="G7" s="61"/>
       <c r="H7" s="12">
         <v>43284</v>
       </c>
@@ -12160,23 +12160,23 @@
       <c r="AO7" s="7"/>
     </row>
     <row r="8" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A8" s="90">
+      <c r="A8" s="65">
         <v>2</v>
       </c>
-      <c r="B8" s="138"/>
-      <c r="C8" s="95" t="s">
-        <v>18</v>
+      <c r="B8" s="86"/>
+      <c r="C8" s="68" t="s">
+        <v>17</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="98" t="s">
-        <v>66</v>
+        <v>23</v>
+      </c>
+      <c r="E8" s="67" t="s">
+        <v>65</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="G8" s="136"/>
+        <v>137</v>
+      </c>
+      <c r="G8" s="60"/>
       <c r="H8" s="12">
         <v>43284</v>
       </c>
@@ -12217,13 +12217,13 @@
       <c r="AO8" s="7"/>
     </row>
     <row r="9" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A9" s="119"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="93"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="28"/>
       <c r="E9" s="57"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="65"/>
+      <c r="G9" s="61"/>
       <c r="H9" s="12">
         <v>43284</v>
       </c>
@@ -12264,21 +12264,21 @@
       <c r="AO9" s="7"/>
     </row>
     <row r="10" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A10" s="90">
+      <c r="A10" s="65">
         <v>3</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="93"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="98" t="s">
-        <v>66</v>
+        <v>24</v>
+      </c>
+      <c r="E10" s="67" t="s">
+        <v>65</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="G10" s="133"/>
+        <v>137</v>
+      </c>
+      <c r="G10" s="58"/>
       <c r="H10" s="11">
         <v>43285</v>
       </c>
@@ -12319,9 +12319,9 @@
       <c r="AO10" s="7"/>
     </row>
     <row r="11" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A11" s="119"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="93"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="14"/>
       <c r="E11" s="57"/>
       <c r="F11" s="9"/>
@@ -12366,21 +12366,21 @@
       <c r="AO11" s="7"/>
     </row>
     <row r="12" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A12" s="90">
+      <c r="A12" s="65">
         <v>4</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="93"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="98" t="s">
-        <v>66</v>
+        <v>25</v>
+      </c>
+      <c r="E12" s="67" t="s">
+        <v>65</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="G12" s="133"/>
+        <v>137</v>
+      </c>
+      <c r="G12" s="58"/>
       <c r="H12" s="12">
         <v>43286</v>
       </c>
@@ -12421,9 +12421,9 @@
       <c r="AO12" s="7"/>
     </row>
     <row r="13" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A13" s="119"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="93"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="20"/>
       <c r="E13" s="57"/>
       <c r="F13" s="9"/>
@@ -12468,23 +12468,23 @@
       <c r="AO13" s="7"/>
     </row>
     <row r="14" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A14" s="90">
+      <c r="A14" s="65">
         <v>5</v>
       </c>
-      <c r="B14" s="142"/>
-      <c r="C14" s="130" t="s">
-        <v>19</v>
+      <c r="B14" s="82"/>
+      <c r="C14" s="70" t="s">
+        <v>18</v>
       </c>
       <c r="D14" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="G14" s="133"/>
+      <c r="G14" s="58"/>
       <c r="H14" s="12">
         <v>43284</v>
       </c>
@@ -12525,9 +12525,9 @@
       <c r="AO14" s="7"/>
     </row>
     <row r="15" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A15" s="119"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="131"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="71"/>
       <c r="D15" s="13"/>
       <c r="E15" s="57"/>
       <c r="F15" s="9"/>
@@ -12572,21 +12572,21 @@
       <c r="AO15" s="7"/>
     </row>
     <row r="16" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A16" s="90">
+      <c r="A16" s="65">
         <v>6</v>
       </c>
-      <c r="B16" s="143"/>
-      <c r="C16" s="131"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="98" t="s">
-        <v>67</v>
+        <v>26</v>
+      </c>
+      <c r="E16" s="67" t="s">
+        <v>66</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="G16" s="133"/>
+        <v>137</v>
+      </c>
+      <c r="G16" s="58"/>
       <c r="H16" s="12">
         <v>43285</v>
       </c>
@@ -12627,9 +12627,9 @@
       <c r="AO16" s="7"/>
     </row>
     <row r="17" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A17" s="119"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="132"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="14"/>
       <c r="E17" s="57"/>
       <c r="F17" s="9"/>
@@ -12673,23 +12673,23 @@
       <c r="AO17" s="7"/>
     </row>
     <row r="18" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A18" s="90">
+      <c r="A18" s="65">
         <v>7</v>
       </c>
-      <c r="B18" s="139"/>
-      <c r="C18" s="93" t="s">
-        <v>20</v>
+      <c r="B18" s="76"/>
+      <c r="C18" s="69" t="s">
+        <v>19</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="98" t="s">
-        <v>68</v>
+        <v>27</v>
+      </c>
+      <c r="E18" s="67" t="s">
+        <v>67</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="G18" s="133"/>
+        <v>137</v>
+      </c>
+      <c r="G18" s="58"/>
       <c r="H18" s="12">
         <v>43284</v>
       </c>
@@ -12730,9 +12730,9 @@
       <c r="AO18" s="7"/>
     </row>
     <row r="19" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A19" s="119"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="93"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="13"/>
       <c r="E19" s="57"/>
       <c r="F19" s="9"/>
@@ -12777,21 +12777,21 @@
       <c r="AO19" s="7"/>
     </row>
     <row r="20" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A20" s="90">
+      <c r="A20" s="65">
         <v>8</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="93"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="98" t="s">
-        <v>68</v>
+        <v>28</v>
+      </c>
+      <c r="E20" s="67" t="s">
+        <v>67</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="G20" s="133"/>
+        <v>137</v>
+      </c>
+      <c r="G20" s="58"/>
       <c r="H20" s="12">
         <v>43285</v>
       </c>
@@ -12832,9 +12832,9 @@
       <c r="AO20" s="7"/>
     </row>
     <row r="21" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A21" s="119"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="93"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="69"/>
       <c r="D21" s="14"/>
       <c r="E21" s="57"/>
       <c r="F21" s="9"/>
@@ -12879,21 +12879,21 @@
       <c r="AO21" s="7"/>
     </row>
     <row r="22" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A22" s="90">
+      <c r="A22" s="65">
         <v>9</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="C22" s="93"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="69"/>
       <c r="D22" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="98" t="s">
-        <v>68</v>
+        <v>29</v>
+      </c>
+      <c r="E22" s="67" t="s">
+        <v>67</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="G22" s="133"/>
+        <v>137</v>
+      </c>
+      <c r="G22" s="58"/>
       <c r="H22" s="12">
         <v>43286</v>
       </c>
@@ -12934,9 +12934,9 @@
       <c r="AO22" s="7"/>
     </row>
     <row r="23" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A23" s="119"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="94"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="20"/>
       <c r="E23" s="57"/>
       <c r="F23" s="9"/>
@@ -12981,23 +12981,23 @@
       <c r="AO23" s="7"/>
     </row>
     <row r="24" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A24" s="90">
+      <c r="A24" s="65">
         <v>10</v>
       </c>
-      <c r="B24" s="90"/>
-      <c r="C24" s="107" t="s">
-        <v>21</v>
+      <c r="B24" s="65"/>
+      <c r="C24" s="75" t="s">
+        <v>20</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="98" t="s">
-        <v>65</v>
+        <v>30</v>
+      </c>
+      <c r="E24" s="67" t="s">
+        <v>64</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="G24" s="133"/>
+        <v>137</v>
+      </c>
+      <c r="G24" s="58"/>
       <c r="H24" s="12">
         <v>43284</v>
       </c>
@@ -13038,9 +13038,9 @@
       <c r="AO24" s="7"/>
     </row>
     <row r="25" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A25" s="119"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="108"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="96"/>
       <c r="D25" s="20"/>
       <c r="E25" s="57"/>
       <c r="F25" s="9"/>
@@ -13085,23 +13085,23 @@
       <c r="AO25" s="7"/>
     </row>
     <row r="26" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A26" s="90">
+      <c r="A26" s="65">
         <v>11</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="130" t="s">
-        <v>22</v>
+      <c r="B26" s="130"/>
+      <c r="C26" s="70" t="s">
+        <v>21</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="123" t="s">
-        <v>65</v>
+        <v>31</v>
+      </c>
+      <c r="E26" s="98" t="s">
+        <v>64</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="G26" s="133"/>
+        <v>137</v>
+      </c>
+      <c r="G26" s="58"/>
       <c r="H26" s="12">
         <v>43286</v>
       </c>
@@ -13142,11 +13142,11 @@
       <c r="AO26" s="7"/>
     </row>
     <row r="27" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A27" s="119"/>
-      <c r="B27" s="109"/>
-      <c r="C27" s="84"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="97"/>
       <c r="D27" s="24"/>
-      <c r="E27" s="65"/>
+      <c r="E27" s="61"/>
       <c r="F27" s="9"/>
       <c r="G27" s="57"/>
       <c r="H27" s="12">
@@ -13189,23 +13189,23 @@
       <c r="AO27" s="7"/>
     </row>
     <row r="28" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A28" s="90">
+      <c r="A28" s="65">
         <v>12</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="130" t="s">
+      <c r="B28" s="130"/>
+      <c r="C28" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="123" t="s">
-        <v>69</v>
+      <c r="E28" s="98" t="s">
+        <v>68</v>
       </c>
       <c r="F28" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="G28" s="133"/>
+        <v>137</v>
+      </c>
+      <c r="G28" s="58"/>
       <c r="H28" s="12">
         <v>43285</v>
       </c>
@@ -13246,11 +13246,11 @@
       <c r="AO28" s="7"/>
     </row>
     <row r="29" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A29" s="119"/>
-      <c r="B29" s="109"/>
-      <c r="C29" s="131"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="71"/>
       <c r="D29" s="24"/>
-      <c r="E29" s="65"/>
+      <c r="E29" s="61"/>
       <c r="F29" s="9"/>
       <c r="G29" s="57"/>
       <c r="H29" s="12">
@@ -13293,21 +13293,21 @@
       <c r="AO29" s="7"/>
     </row>
     <row r="30" spans="1:41" ht="14.25" customHeight="1">
-      <c r="A30" s="90">
+      <c r="A30" s="65">
         <v>13</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="131"/>
+      <c r="B30" s="130"/>
+      <c r="C30" s="71"/>
       <c r="D30" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="98" t="s">
-        <v>69</v>
+        <v>34</v>
+      </c>
+      <c r="E30" s="67" t="s">
+        <v>68</v>
       </c>
       <c r="F30" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="G30" s="133"/>
+        <v>137</v>
+      </c>
+      <c r="G30" s="58"/>
       <c r="H30" s="12">
         <v>43286</v>
       </c>
@@ -13348,9 +13348,9 @@
       <c r="AO30" s="7"/>
     </row>
     <row r="31" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A31" s="119"/>
-      <c r="B31" s="109"/>
-      <c r="C31" s="132"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="27"/>
       <c r="E31" s="57"/>
       <c r="F31" s="9"/>
@@ -13395,23 +13395,23 @@
       <c r="AO31" s="7"/>
     </row>
     <row r="32" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A32" s="90">
+      <c r="A32" s="65">
         <v>14</v>
       </c>
-      <c r="B32" s="90"/>
-      <c r="C32" s="92" t="s">
-        <v>44</v>
+      <c r="B32" s="65"/>
+      <c r="C32" s="131" t="s">
+        <v>43</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="98" t="s">
-        <v>70</v>
+        <v>35</v>
+      </c>
+      <c r="E32" s="67" t="s">
+        <v>69</v>
       </c>
       <c r="F32" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="G32" s="133"/>
+        <v>137</v>
+      </c>
+      <c r="G32" s="58"/>
       <c r="H32" s="12">
         <v>43284</v>
       </c>
@@ -13452,9 +13452,9 @@
       <c r="AO32" s="7"/>
     </row>
     <row r="33" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A33" s="119"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="93"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="20"/>
       <c r="E33" s="57"/>
       <c r="F33" s="9"/>
@@ -13499,21 +13499,21 @@
       <c r="AO33" s="7"/>
     </row>
     <row r="34" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A34" s="90">
+      <c r="A34" s="65">
         <v>15</v>
       </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="93"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="69"/>
       <c r="D34" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="135" t="s">
-        <v>70</v>
+        <v>36</v>
+      </c>
+      <c r="E34" s="99" t="s">
+        <v>69</v>
       </c>
       <c r="F34" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="G34" s="133"/>
+        <v>137</v>
+      </c>
+      <c r="G34" s="58"/>
       <c r="H34" s="12">
         <v>43284</v>
       </c>
@@ -13554,9 +13554,9 @@
       <c r="AO34" s="7"/>
     </row>
     <row r="35" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A35" s="119"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="93"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="69"/>
       <c r="D35" s="20"/>
       <c r="E35" s="57"/>
       <c r="F35" s="9"/>
@@ -13601,21 +13601,21 @@
       <c r="AO35" s="7"/>
     </row>
     <row r="36" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A36" s="90">
+      <c r="A36" s="65">
         <v>16</v>
       </c>
-      <c r="B36" s="90"/>
-      <c r="C36" s="93"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="69"/>
       <c r="D36" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="98" t="s">
-        <v>70</v>
+        <v>37</v>
+      </c>
+      <c r="E36" s="67" t="s">
+        <v>69</v>
       </c>
       <c r="F36" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="G36" s="133"/>
+        <v>137</v>
+      </c>
+      <c r="G36" s="58"/>
       <c r="H36" s="12">
         <v>43286</v>
       </c>
@@ -13656,9 +13656,9 @@
       <c r="AO36" s="7"/>
     </row>
     <row r="37" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A37" s="119"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="94"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="73"/>
       <c r="D37" s="20"/>
       <c r="E37" s="57"/>
       <c r="F37" s="9"/>
@@ -13703,23 +13703,23 @@
       <c r="AO37" s="7"/>
     </row>
     <row r="38" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A38" s="90">
+      <c r="A38" s="65">
         <v>17</v>
       </c>
-      <c r="B38" s="90"/>
-      <c r="C38" s="107" t="s">
-        <v>45</v>
+      <c r="B38" s="65"/>
+      <c r="C38" s="75" t="s">
+        <v>44</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="98" t="s">
-        <v>70</v>
+        <v>38</v>
+      </c>
+      <c r="E38" s="67" t="s">
+        <v>69</v>
       </c>
       <c r="F38" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="G38" s="133"/>
+        <v>137</v>
+      </c>
+      <c r="G38" s="58"/>
       <c r="H38" s="12">
         <v>43284</v>
       </c>
@@ -13760,9 +13760,9 @@
       <c r="AO38" s="7"/>
     </row>
     <row r="39" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A39" s="119"/>
-      <c r="B39" s="91"/>
-      <c r="C39" s="108"/>
+      <c r="A39" s="81"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="96"/>
       <c r="D39" s="20"/>
       <c r="E39" s="57"/>
       <c r="F39" s="9"/>
@@ -13807,23 +13807,23 @@
       <c r="AO39" s="7"/>
     </row>
     <row r="40" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A40" s="90">
+      <c r="A40" s="65">
         <v>18</v>
       </c>
-      <c r="B40" s="90"/>
-      <c r="C40" s="95" t="s">
-        <v>46</v>
+      <c r="B40" s="65"/>
+      <c r="C40" s="68" t="s">
+        <v>45</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="98" t="s">
-        <v>71</v>
+        <v>39</v>
+      </c>
+      <c r="E40" s="67" t="s">
+        <v>70</v>
       </c>
       <c r="F40" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="G40" s="133"/>
+        <v>137</v>
+      </c>
+      <c r="G40" s="58"/>
       <c r="H40" s="12">
         <v>43284</v>
       </c>
@@ -13864,9 +13864,9 @@
       <c r="AO40" s="7"/>
     </row>
     <row r="41" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A41" s="119"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="93"/>
+      <c r="A41" s="81"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="69"/>
       <c r="D41" s="20"/>
       <c r="E41" s="57"/>
       <c r="F41" s="9"/>
@@ -13911,21 +13911,21 @@
       <c r="AO41" s="7"/>
     </row>
     <row r="42" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A42" s="90">
+      <c r="A42" s="65">
         <v>19</v>
       </c>
-      <c r="B42" s="90"/>
-      <c r="C42" s="93"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="69"/>
       <c r="D42" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="98" t="s">
-        <v>71</v>
-      </c>
-      <c r="F42" s="90" t="s">
-        <v>138</v>
-      </c>
-      <c r="G42" s="133"/>
+        <v>40</v>
+      </c>
+      <c r="E42" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="G42" s="58"/>
       <c r="H42" s="12">
         <v>43285</v>
       </c>
@@ -13966,12 +13966,12 @@
       <c r="AO42" s="7"/>
     </row>
     <row r="43" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A43" s="119"/>
-      <c r="B43" s="91"/>
-      <c r="C43" s="93"/>
+      <c r="A43" s="81"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="69"/>
       <c r="D43" s="20"/>
       <c r="E43" s="57"/>
-      <c r="F43" s="91"/>
+      <c r="F43" s="66"/>
       <c r="G43" s="57"/>
       <c r="H43" s="12">
         <v>43284</v>
@@ -14013,21 +14013,21 @@
       <c r="AO43" s="7"/>
     </row>
     <row r="44" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A44" s="90">
+      <c r="A44" s="65">
         <v>20</v>
       </c>
-      <c r="B44" s="110"/>
-      <c r="C44" s="93"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="69"/>
       <c r="D44" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="98" t="s">
-        <v>71</v>
-      </c>
-      <c r="F44" s="90" t="s">
-        <v>138</v>
-      </c>
-      <c r="G44" s="133"/>
+        <v>41</v>
+      </c>
+      <c r="E44" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="G44" s="58"/>
       <c r="H44" s="12">
         <v>43286</v>
       </c>
@@ -14068,12 +14068,12 @@
       <c r="AO44" s="7"/>
     </row>
     <row r="45" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A45" s="119"/>
-      <c r="B45" s="111"/>
-      <c r="C45" s="94"/>
+      <c r="A45" s="81"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="73"/>
       <c r="D45" s="14"/>
       <c r="E45" s="57"/>
-      <c r="F45" s="91"/>
+      <c r="F45" s="66"/>
       <c r="G45" s="57"/>
       <c r="H45" s="12">
         <v>43285</v>
@@ -14115,23 +14115,23 @@
       <c r="AO45" s="7"/>
     </row>
     <row r="46" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A46" s="90">
+      <c r="A46" s="65">
         <v>21</v>
       </c>
-      <c r="B46" s="90"/>
-      <c r="C46" s="107" t="s">
-        <v>47</v>
+      <c r="B46" s="65"/>
+      <c r="C46" s="75" t="s">
+        <v>46</v>
       </c>
       <c r="D46" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="98" t="s">
-        <v>70</v>
-      </c>
-      <c r="F46" s="90" t="s">
-        <v>138</v>
-      </c>
-      <c r="G46" s="133"/>
+        <v>42</v>
+      </c>
+      <c r="E46" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="G46" s="58"/>
       <c r="H46" s="12">
         <v>43286</v>
       </c>
@@ -14172,12 +14172,12 @@
       <c r="AO46" s="7"/>
     </row>
     <row r="47" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A47" s="119"/>
+      <c r="A47" s="81"/>
       <c r="B47" s="57"/>
-      <c r="C47" s="134"/>
+      <c r="C47" s="64"/>
       <c r="D47" s="8"/>
       <c r="E47" s="57"/>
-      <c r="F47" s="91"/>
+      <c r="F47" s="66"/>
       <c r="G47" s="57"/>
       <c r="H47" s="12">
         <v>43285</v>
@@ -14219,23 +14219,23 @@
       <c r="AO47" s="7"/>
     </row>
     <row r="48" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A48" s="90">
+      <c r="A48" s="65">
         <v>22</v>
       </c>
-      <c r="B48" s="90"/>
-      <c r="C48" s="107" t="s">
-        <v>48</v>
+      <c r="B48" s="65"/>
+      <c r="C48" s="75" t="s">
+        <v>47</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E48" s="98" t="s">
-        <v>69</v>
-      </c>
-      <c r="F48" s="90" t="s">
-        <v>138</v>
-      </c>
-      <c r="G48" s="133"/>
+        <v>52</v>
+      </c>
+      <c r="E48" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="G48" s="58"/>
       <c r="H48" s="12">
         <v>43284</v>
       </c>
@@ -14276,12 +14276,12 @@
       <c r="AO48" s="7"/>
     </row>
     <row r="49" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A49" s="119"/>
+      <c r="A49" s="81"/>
       <c r="B49" s="57"/>
-      <c r="C49" s="134"/>
+      <c r="C49" s="64"/>
       <c r="D49" s="8"/>
       <c r="E49" s="57"/>
-      <c r="F49" s="91"/>
+      <c r="F49" s="66"/>
       <c r="G49" s="57"/>
       <c r="H49" s="12">
         <v>43284</v>
@@ -14323,23 +14323,23 @@
       <c r="AO49" s="7"/>
     </row>
     <row r="50" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A50" s="90">
+      <c r="A50" s="65">
         <v>23</v>
       </c>
-      <c r="B50" s="110"/>
-      <c r="C50" s="95" t="s">
-        <v>49</v>
+      <c r="B50" s="77"/>
+      <c r="C50" s="68" t="s">
+        <v>48</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50" s="98" t="s">
-        <v>72</v>
-      </c>
-      <c r="F50" s="90" t="s">
-        <v>138</v>
-      </c>
-      <c r="G50" s="133"/>
+        <v>53</v>
+      </c>
+      <c r="E50" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="G50" s="58"/>
       <c r="H50" s="12">
         <v>43284</v>
       </c>
@@ -14380,12 +14380,12 @@
       <c r="AO50" s="7"/>
     </row>
     <row r="51" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A51" s="119"/>
-      <c r="B51" s="111"/>
-      <c r="C51" s="93"/>
+      <c r="A51" s="81"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="69"/>
       <c r="D51" s="14"/>
       <c r="E51" s="57"/>
-      <c r="F51" s="91"/>
+      <c r="F51" s="66"/>
       <c r="G51" s="57"/>
       <c r="H51" s="12">
         <v>43284</v>
@@ -14427,21 +14427,21 @@
       <c r="AO51" s="7"/>
     </row>
     <row r="52" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A52" s="90">
+      <c r="A52" s="65">
         <v>24</v>
       </c>
-      <c r="B52" s="110"/>
-      <c r="C52" s="96"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="132"/>
       <c r="D52" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="E52" s="123" t="s">
-        <v>72</v>
-      </c>
-      <c r="F52" s="90" t="s">
-        <v>138</v>
-      </c>
-      <c r="G52" s="133"/>
+        <v>54</v>
+      </c>
+      <c r="E52" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="G52" s="58"/>
       <c r="H52" s="12">
         <v>43285</v>
       </c>
@@ -14482,12 +14482,12 @@
       <c r="AO52" s="7"/>
     </row>
     <row r="53" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A53" s="119"/>
-      <c r="B53" s="111"/>
-      <c r="C53" s="97"/>
+      <c r="A53" s="81"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="133"/>
       <c r="D53" s="24"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="91"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="66"/>
       <c r="G53" s="57"/>
       <c r="H53" s="12">
         <v>43284</v>
@@ -14529,23 +14529,23 @@
       <c r="AO53" s="7"/>
     </row>
     <row r="54" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A54" s="90">
+      <c r="A54" s="65">
         <v>25</v>
       </c>
-      <c r="B54" s="110"/>
+      <c r="B54" s="77"/>
       <c r="C54" s="103" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="E54" s="98" t="s">
-        <v>65</v>
-      </c>
-      <c r="F54" s="90" t="s">
-        <v>138</v>
-      </c>
-      <c r="G54" s="133"/>
+        <v>55</v>
+      </c>
+      <c r="E54" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="G54" s="58"/>
       <c r="H54" s="12">
         <v>43284</v>
       </c>
@@ -14586,12 +14586,12 @@
       <c r="AO54" s="7"/>
     </row>
     <row r="55" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A55" s="119"/>
-      <c r="B55" s="111"/>
+      <c r="A55" s="81"/>
+      <c r="B55" s="78"/>
       <c r="C55" s="104"/>
       <c r="D55" s="14"/>
       <c r="E55" s="57"/>
-      <c r="F55" s="91"/>
+      <c r="F55" s="66"/>
       <c r="G55" s="57"/>
       <c r="H55" s="12">
         <v>43284</v>
@@ -14633,23 +14633,23 @@
       <c r="AO55" s="7"/>
     </row>
     <row r="56" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A56" s="90">
+      <c r="A56" s="65">
         <v>26</v>
       </c>
-      <c r="B56" s="110"/>
+      <c r="B56" s="77"/>
       <c r="C56" s="103" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E56" s="98" t="s">
-        <v>73</v>
-      </c>
-      <c r="F56" s="90" t="s">
-        <v>138</v>
-      </c>
-      <c r="G56" s="133"/>
+        <v>56</v>
+      </c>
+      <c r="E56" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="F56" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="G56" s="58"/>
       <c r="H56" s="12">
         <v>43284</v>
       </c>
@@ -14690,12 +14690,12 @@
       <c r="AO56" s="7"/>
     </row>
     <row r="57" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A57" s="119"/>
-      <c r="B57" s="111"/>
+      <c r="A57" s="81"/>
+      <c r="B57" s="78"/>
       <c r="C57" s="104"/>
       <c r="D57" s="14"/>
       <c r="E57" s="57"/>
-      <c r="F57" s="91"/>
+      <c r="F57" s="66"/>
       <c r="G57" s="57"/>
       <c r="H57" s="12">
         <v>43285</v>
@@ -14737,23 +14737,23 @@
       <c r="AO57" s="7"/>
     </row>
     <row r="58" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A58" s="90">
+      <c r="A58" s="65">
         <v>27</v>
       </c>
-      <c r="B58" s="90"/>
-      <c r="C58" s="95" t="s">
-        <v>52</v>
+      <c r="B58" s="65"/>
+      <c r="C58" s="68" t="s">
+        <v>51</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E58" s="98" t="s">
-        <v>73</v>
-      </c>
-      <c r="F58" s="90" t="s">
-        <v>138</v>
-      </c>
-      <c r="G58" s="133"/>
+        <v>57</v>
+      </c>
+      <c r="E58" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="F58" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="G58" s="58"/>
       <c r="H58" s="12">
         <v>43284</v>
       </c>
@@ -14794,12 +14794,12 @@
       <c r="AO58" s="7"/>
     </row>
     <row r="59" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A59" s="119"/>
-      <c r="B59" s="91"/>
-      <c r="C59" s="93"/>
+      <c r="A59" s="81"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="69"/>
       <c r="D59" s="20"/>
       <c r="E59" s="57"/>
-      <c r="F59" s="91"/>
+      <c r="F59" s="66"/>
       <c r="G59" s="57"/>
       <c r="H59" s="12">
         <v>43284</v>
@@ -14841,21 +14841,21 @@
       <c r="AO59" s="7"/>
     </row>
     <row r="60" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A60" s="90">
+      <c r="A60" s="65">
         <v>28</v>
       </c>
-      <c r="B60" s="90"/>
-      <c r="C60" s="93"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="69"/>
       <c r="D60" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E60" s="98" t="s">
-        <v>73</v>
-      </c>
-      <c r="F60" s="90" t="s">
-        <v>138</v>
-      </c>
-      <c r="G60" s="133"/>
+        <v>58</v>
+      </c>
+      <c r="E60" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="F60" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="G60" s="58"/>
       <c r="H60" s="12">
         <v>43284</v>
       </c>
@@ -14896,12 +14896,12 @@
       <c r="AO60" s="7"/>
     </row>
     <row r="61" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A61" s="119"/>
-      <c r="B61" s="91"/>
-      <c r="C61" s="93"/>
+      <c r="A61" s="81"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="69"/>
       <c r="D61" s="20"/>
       <c r="E61" s="57"/>
-      <c r="F61" s="91"/>
+      <c r="F61" s="66"/>
       <c r="G61" s="57"/>
       <c r="H61" s="12">
         <v>43284</v>
@@ -14943,21 +14943,21 @@
       <c r="AO61" s="7"/>
     </row>
     <row r="62" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A62" s="90">
+      <c r="A62" s="65">
         <v>29</v>
       </c>
-      <c r="B62" s="90"/>
-      <c r="C62" s="93"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="69"/>
       <c r="D62" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E62" s="98" t="s">
-        <v>73</v>
-      </c>
-      <c r="F62" s="90" t="s">
-        <v>138</v>
-      </c>
-      <c r="G62" s="133"/>
+        <v>59</v>
+      </c>
+      <c r="E62" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="F62" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="G62" s="58"/>
       <c r="H62" s="12">
         <v>43285</v>
       </c>
@@ -14998,12 +14998,12 @@
       <c r="AO62" s="7"/>
     </row>
     <row r="63" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A63" s="119"/>
-      <c r="B63" s="91"/>
-      <c r="C63" s="94"/>
+      <c r="A63" s="81"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="73"/>
       <c r="D63" s="20"/>
-      <c r="E63" s="87"/>
-      <c r="F63" s="91"/>
+      <c r="E63" s="95"/>
+      <c r="F63" s="66"/>
       <c r="G63" s="57"/>
       <c r="H63" s="12">
         <v>43285</v>
@@ -15045,23 +15045,23 @@
       <c r="AO63" s="7"/>
     </row>
     <row r="64" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A64" s="90">
+      <c r="A64" s="65">
         <v>30</v>
       </c>
-      <c r="B64" s="90"/>
-      <c r="C64" s="95" t="s">
-        <v>64</v>
+      <c r="B64" s="65"/>
+      <c r="C64" s="68" t="s">
+        <v>63</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E64" s="121" t="s">
-        <v>73</v>
-      </c>
-      <c r="F64" s="110" t="s">
-        <v>138</v>
-      </c>
-      <c r="G64" s="133"/>
+        <v>60</v>
+      </c>
+      <c r="E64" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="F64" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="G64" s="58"/>
       <c r="H64" s="12">
         <v>43285</v>
       </c>
@@ -15102,12 +15102,12 @@
       <c r="AO64" s="7"/>
     </row>
     <row r="65" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A65" s="119"/>
-      <c r="B65" s="91"/>
-      <c r="C65" s="93"/>
+      <c r="A65" s="81"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="69"/>
       <c r="D65" s="20"/>
-      <c r="E65" s="122"/>
-      <c r="F65" s="111"/>
+      <c r="E65" s="94"/>
+      <c r="F65" s="78"/>
       <c r="G65" s="57"/>
       <c r="H65" s="12">
         <v>43285</v>
@@ -15149,21 +15149,21 @@
       <c r="AO65" s="7"/>
     </row>
     <row r="66" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A66" s="90">
+      <c r="A66" s="65">
         <v>31</v>
       </c>
-      <c r="B66" s="90"/>
-      <c r="C66" s="93"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="69"/>
       <c r="D66" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E66" s="121" t="s">
-        <v>73</v>
-      </c>
-      <c r="F66" s="110" t="s">
-        <v>138</v>
-      </c>
-      <c r="G66" s="133"/>
+        <v>61</v>
+      </c>
+      <c r="E66" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="F66" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="G66" s="58"/>
       <c r="H66" s="12">
         <v>43286</v>
       </c>
@@ -15204,12 +15204,12 @@
       <c r="AO66" s="7"/>
     </row>
     <row r="67" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A67" s="119"/>
-      <c r="B67" s="91"/>
-      <c r="C67" s="93"/>
+      <c r="A67" s="81"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="69"/>
       <c r="D67" s="20"/>
-      <c r="E67" s="122"/>
-      <c r="F67" s="111"/>
+      <c r="E67" s="94"/>
+      <c r="F67" s="78"/>
       <c r="G67" s="57"/>
       <c r="H67" s="45">
         <v>43285</v>
@@ -15251,21 +15251,21 @@
       <c r="AO67" s="7"/>
     </row>
     <row r="68" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A68" s="90">
+      <c r="A68" s="65">
         <v>32</v>
       </c>
-      <c r="B68" s="90"/>
-      <c r="C68" s="93"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="69"/>
       <c r="D68" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E68" s="121" t="s">
-        <v>73</v>
-      </c>
-      <c r="F68" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G68" s="133"/>
+        <v>62</v>
+      </c>
+      <c r="E68" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="F68" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G68" s="58"/>
       <c r="H68" s="12">
         <v>43286</v>
       </c>
@@ -15306,12 +15306,12 @@
       <c r="AO68" s="7"/>
     </row>
     <row r="69" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A69" s="119"/>
-      <c r="B69" s="91"/>
-      <c r="C69" s="94"/>
+      <c r="A69" s="81"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="73"/>
       <c r="D69" s="20"/>
-      <c r="E69" s="122"/>
-      <c r="F69" s="67"/>
+      <c r="E69" s="94"/>
+      <c r="F69" s="89"/>
       <c r="G69" s="57"/>
       <c r="H69" s="12">
         <v>43285</v>
@@ -15353,19 +15353,19 @@
       <c r="AO69" s="7"/>
     </row>
     <row r="70" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A70" s="90">
+      <c r="A70" s="65">
         <v>33</v>
       </c>
-      <c r="B70" s="120" t="s">
-        <v>74</v>
-      </c>
-      <c r="C70" s="128"/>
+      <c r="B70" s="121" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="100"/>
       <c r="D70" s="19"/>
-      <c r="E70" s="129"/>
-      <c r="F70" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G70" s="133"/>
+      <c r="E70" s="102"/>
+      <c r="F70" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G70" s="58"/>
       <c r="H70" s="11">
         <v>43290</v>
       </c>
@@ -15406,12 +15406,12 @@
       <c r="AO70" s="7"/>
     </row>
     <row r="71" spans="1:41" ht="14">
-      <c r="A71" s="119"/>
-      <c r="B71" s="91"/>
-      <c r="C71" s="100"/>
+      <c r="A71" s="81"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="101"/>
       <c r="D71" s="20"/>
-      <c r="E71" s="122"/>
-      <c r="F71" s="67"/>
+      <c r="E71" s="94"/>
+      <c r="F71" s="89"/>
       <c r="G71" s="57"/>
       <c r="H71" s="45">
         <v>43290</v>
@@ -15451,25 +15451,25 @@
       <c r="AO71" s="7"/>
     </row>
     <row r="72" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A72" s="90">
+      <c r="A72" s="65">
         <v>34</v>
       </c>
-      <c r="B72" s="98" t="s">
+      <c r="B72" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="99" t="s">
-        <v>76</v>
-      </c>
       <c r="D72" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E72" s="101" t="s">
-        <v>65</v>
-      </c>
-      <c r="F72" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G72" s="133"/>
+        <v>107</v>
+      </c>
+      <c r="E72" s="110" t="s">
+        <v>64</v>
+      </c>
+      <c r="F72" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G72" s="58"/>
       <c r="H72" s="11">
         <v>43291</v>
       </c>
@@ -15510,12 +15510,12 @@
       <c r="AO72" s="7"/>
     </row>
     <row r="73" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A73" s="119"/>
-      <c r="B73" s="91"/>
-      <c r="C73" s="100"/>
+      <c r="A73" s="81"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="101"/>
       <c r="D73" s="20"/>
-      <c r="E73" s="102"/>
-      <c r="F73" s="67"/>
+      <c r="E73" s="111"/>
+      <c r="F73" s="89"/>
       <c r="G73" s="57"/>
       <c r="H73" s="12">
         <v>43291</v>
@@ -15557,23 +15557,23 @@
       <c r="AO73" s="7"/>
     </row>
     <row r="74" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A74" s="90">
+      <c r="A74" s="65">
         <v>35</v>
       </c>
-      <c r="B74" s="90"/>
-      <c r="C74" s="99" t="s">
-        <v>77</v>
+      <c r="B74" s="65"/>
+      <c r="C74" s="107" t="s">
+        <v>76</v>
       </c>
       <c r="D74" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="E74" s="101" t="s">
-        <v>68</v>
-      </c>
-      <c r="F74" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G74" s="133"/>
+        <v>108</v>
+      </c>
+      <c r="E74" s="110" t="s">
+        <v>67</v>
+      </c>
+      <c r="F74" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G74" s="58"/>
       <c r="H74" s="12">
         <v>43291</v>
       </c>
@@ -15614,12 +15614,12 @@
       <c r="AO74" s="7"/>
     </row>
     <row r="75" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A75" s="119"/>
-      <c r="B75" s="91"/>
-      <c r="C75" s="100"/>
+      <c r="A75" s="81"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="101"/>
       <c r="D75" s="24"/>
-      <c r="E75" s="102"/>
-      <c r="F75" s="67"/>
+      <c r="E75" s="111"/>
+      <c r="F75" s="89"/>
       <c r="G75" s="57"/>
       <c r="H75" s="12">
         <v>43291</v>
@@ -15661,23 +15661,23 @@
       <c r="AO75" s="7"/>
     </row>
     <row r="76" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A76" s="90">
+      <c r="A76" s="65">
         <v>36</v>
       </c>
-      <c r="B76" s="110"/>
+      <c r="B76" s="77"/>
       <c r="C76" s="103" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D76" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="E76" s="126" t="s">
-        <v>68</v>
-      </c>
-      <c r="F76" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G76" s="133"/>
+        <v>109</v>
+      </c>
+      <c r="E76" s="108" t="s">
+        <v>67</v>
+      </c>
+      <c r="F76" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G76" s="58"/>
       <c r="H76" s="12">
         <v>43291</v>
       </c>
@@ -15718,12 +15718,12 @@
       <c r="AO76" s="7"/>
     </row>
     <row r="77" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A77" s="119"/>
-      <c r="B77" s="111"/>
+      <c r="A77" s="81"/>
+      <c r="B77" s="78"/>
       <c r="C77" s="104"/>
       <c r="D77" s="20"/>
       <c r="E77" s="57"/>
-      <c r="F77" s="67"/>
+      <c r="F77" s="89"/>
       <c r="G77" s="57"/>
       <c r="H77" s="12">
         <v>43291</v>
@@ -15765,23 +15765,23 @@
       <c r="AO77" s="7"/>
     </row>
     <row r="78" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A78" s="90">
+      <c r="A78" s="65">
         <v>37</v>
       </c>
-      <c r="B78" s="90"/>
-      <c r="C78" s="107" t="s">
-        <v>79</v>
+      <c r="B78" s="65"/>
+      <c r="C78" s="75" t="s">
+        <v>78</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E78" s="98" t="s">
-        <v>70</v>
-      </c>
-      <c r="F78" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G78" s="133"/>
+        <v>110</v>
+      </c>
+      <c r="E78" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="F78" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G78" s="58"/>
       <c r="H78" s="12">
         <v>43291</v>
       </c>
@@ -15822,12 +15822,12 @@
       <c r="AO78" s="7"/>
     </row>
     <row r="79" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A79" s="119"/>
-      <c r="B79" s="91"/>
-      <c r="C79" s="108"/>
+      <c r="A79" s="81"/>
+      <c r="B79" s="66"/>
+      <c r="C79" s="96"/>
       <c r="D79" s="20"/>
       <c r="E79" s="57"/>
-      <c r="F79" s="67"/>
+      <c r="F79" s="89"/>
       <c r="G79" s="57"/>
       <c r="H79" s="12">
         <v>43291</v>
@@ -15869,23 +15869,23 @@
       <c r="AO79" s="7"/>
     </row>
     <row r="80" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A80" s="90">
+      <c r="A80" s="65">
         <v>38</v>
       </c>
-      <c r="B80" s="90"/>
-      <c r="C80" s="107" t="s">
-        <v>80</v>
+      <c r="B80" s="65"/>
+      <c r="C80" s="75" t="s">
+        <v>79</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E80" s="98" t="s">
-        <v>70</v>
-      </c>
-      <c r="F80" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G80" s="133"/>
+        <v>111</v>
+      </c>
+      <c r="E80" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="F80" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G80" s="58"/>
       <c r="H80" s="12">
         <v>43291</v>
       </c>
@@ -15926,12 +15926,12 @@
       <c r="AO80" s="7"/>
     </row>
     <row r="81" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A81" s="119"/>
-      <c r="B81" s="91"/>
-      <c r="C81" s="108"/>
+      <c r="A81" s="81"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="96"/>
       <c r="D81" s="20"/>
       <c r="E81" s="57"/>
-      <c r="F81" s="67"/>
+      <c r="F81" s="89"/>
       <c r="G81" s="57"/>
       <c r="H81" s="12">
         <v>43291</v>
@@ -15973,23 +15973,23 @@
       <c r="AO81" s="7"/>
     </row>
     <row r="82" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A82" s="90">
+      <c r="A82" s="65">
         <v>39</v>
       </c>
-      <c r="B82" s="90"/>
-      <c r="C82" s="127" t="s">
-        <v>81</v>
+      <c r="B82" s="65"/>
+      <c r="C82" s="114" t="s">
+        <v>80</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="E82" s="98" t="s">
-        <v>66</v>
-      </c>
-      <c r="F82" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G82" s="133"/>
+        <v>112</v>
+      </c>
+      <c r="E82" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="F82" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G82" s="58"/>
       <c r="H82" s="12">
         <v>43291</v>
       </c>
@@ -16030,12 +16030,12 @@
       <c r="AO82" s="7"/>
     </row>
     <row r="83" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A83" s="119"/>
-      <c r="B83" s="91"/>
+      <c r="A83" s="81"/>
+      <c r="B83" s="66"/>
       <c r="C83" s="57"/>
       <c r="D83" s="20"/>
       <c r="E83" s="57"/>
-      <c r="F83" s="67"/>
+      <c r="F83" s="89"/>
       <c r="G83" s="57"/>
       <c r="H83" s="12">
         <v>43291</v>
@@ -16077,23 +16077,23 @@
       <c r="AO83" s="7"/>
     </row>
     <row r="84" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A84" s="90">
+      <c r="A84" s="65">
         <v>40</v>
       </c>
-      <c r="B84" s="90"/>
-      <c r="C84" s="127" t="s">
-        <v>82</v>
+      <c r="B84" s="65"/>
+      <c r="C84" s="114" t="s">
+        <v>81</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="E84" s="98" t="s">
-        <v>66</v>
-      </c>
-      <c r="F84" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G84" s="133"/>
+        <v>113</v>
+      </c>
+      <c r="E84" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="F84" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G84" s="58"/>
       <c r="H84" s="12">
         <v>43291</v>
       </c>
@@ -16134,12 +16134,12 @@
       <c r="AO84" s="7"/>
     </row>
     <row r="85" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A85" s="119"/>
-      <c r="B85" s="91"/>
+      <c r="A85" s="81"/>
+      <c r="B85" s="66"/>
       <c r="C85" s="57"/>
       <c r="D85" s="20"/>
       <c r="E85" s="57"/>
-      <c r="F85" s="67"/>
+      <c r="F85" s="89"/>
       <c r="G85" s="57"/>
       <c r="H85" s="12">
         <v>43291</v>
@@ -16181,23 +16181,23 @@
       <c r="AO85" s="7"/>
     </row>
     <row r="86" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A86" s="90">
+      <c r="A86" s="65">
         <v>41</v>
       </c>
-      <c r="B86" s="90"/>
-      <c r="C86" s="118" t="s">
-        <v>83</v>
+      <c r="B86" s="65"/>
+      <c r="C86" s="113" t="s">
+        <v>82</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E86" s="98" t="s">
-        <v>66</v>
-      </c>
-      <c r="F86" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G86" s="133"/>
+        <v>114</v>
+      </c>
+      <c r="E86" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="F86" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G86" s="58"/>
       <c r="H86" s="12">
         <v>43291</v>
       </c>
@@ -16238,12 +16238,12 @@
       <c r="AO86" s="7"/>
     </row>
     <row r="87" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A87" s="119"/>
-      <c r="B87" s="91"/>
-      <c r="C87" s="111"/>
+      <c r="A87" s="81"/>
+      <c r="B87" s="66"/>
+      <c r="C87" s="78"/>
       <c r="D87" s="20"/>
       <c r="E87" s="57"/>
-      <c r="F87" s="67"/>
+      <c r="F87" s="89"/>
       <c r="G87" s="57"/>
       <c r="H87" s="12">
         <v>43291</v>
@@ -16285,23 +16285,23 @@
       <c r="AO87" s="7"/>
     </row>
     <row r="88" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A88" s="90">
+      <c r="A88" s="65">
         <v>42</v>
       </c>
-      <c r="B88" s="110"/>
-      <c r="C88" s="118" t="s">
-        <v>84</v>
+      <c r="B88" s="77"/>
+      <c r="C88" s="113" t="s">
+        <v>83</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="E88" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="F88" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G88" s="133"/>
+        <v>115</v>
+      </c>
+      <c r="E88" s="109" t="s">
+        <v>66</v>
+      </c>
+      <c r="F88" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G88" s="58"/>
       <c r="H88" s="12">
         <v>43291</v>
       </c>
@@ -16342,12 +16342,12 @@
       <c r="AO88" s="7"/>
     </row>
     <row r="89" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A89" s="119"/>
-      <c r="B89" s="111"/>
-      <c r="C89" s="111"/>
+      <c r="A89" s="81"/>
+      <c r="B89" s="78"/>
+      <c r="C89" s="78"/>
       <c r="D89" s="20"/>
-      <c r="E89" s="111"/>
-      <c r="F89" s="67"/>
+      <c r="E89" s="78"/>
+      <c r="F89" s="89"/>
       <c r="G89" s="57"/>
       <c r="H89" s="12">
         <v>43291</v>
@@ -16389,23 +16389,23 @@
       <c r="AO89" s="7"/>
     </row>
     <row r="90" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A90" s="90">
+      <c r="A90" s="65">
         <v>43</v>
       </c>
-      <c r="B90" s="110"/>
-      <c r="C90" s="118" t="s">
-        <v>85</v>
+      <c r="B90" s="77"/>
+      <c r="C90" s="113" t="s">
+        <v>84</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E90" s="98" t="s">
-        <v>68</v>
-      </c>
-      <c r="F90" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G90" s="133"/>
+        <v>116</v>
+      </c>
+      <c r="E90" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="F90" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G90" s="58"/>
       <c r="H90" s="12">
         <v>43291</v>
       </c>
@@ -16446,12 +16446,12 @@
       <c r="AO90" s="7"/>
     </row>
     <row r="91" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A91" s="119"/>
-      <c r="B91" s="111"/>
-      <c r="C91" s="111"/>
+      <c r="A91" s="81"/>
+      <c r="B91" s="78"/>
+      <c r="C91" s="78"/>
       <c r="D91" s="20"/>
       <c r="E91" s="57"/>
-      <c r="F91" s="67"/>
+      <c r="F91" s="89"/>
       <c r="G91" s="57"/>
       <c r="H91" s="12">
         <v>43291</v>
@@ -16493,23 +16493,23 @@
       <c r="AO91" s="7"/>
     </row>
     <row r="92" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A92" s="90">
+      <c r="A92" s="65">
         <v>44</v>
       </c>
-      <c r="B92" s="90"/>
-      <c r="C92" s="118" t="s">
-        <v>86</v>
+      <c r="B92" s="65"/>
+      <c r="C92" s="113" t="s">
+        <v>85</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E92" s="98" t="s">
-        <v>68</v>
-      </c>
-      <c r="F92" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G92" s="133"/>
+        <v>117</v>
+      </c>
+      <c r="E92" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="F92" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G92" s="58"/>
       <c r="H92" s="12">
         <v>43291</v>
       </c>
@@ -16550,12 +16550,12 @@
       <c r="AO92" s="7"/>
     </row>
     <row r="93" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A93" s="119"/>
-      <c r="B93" s="91"/>
-      <c r="C93" s="111"/>
+      <c r="A93" s="81"/>
+      <c r="B93" s="66"/>
+      <c r="C93" s="78"/>
       <c r="D93" s="20"/>
       <c r="E93" s="57"/>
-      <c r="F93" s="67"/>
+      <c r="F93" s="89"/>
       <c r="G93" s="57"/>
       <c r="H93" s="12">
         <v>43291</v>
@@ -16597,23 +16597,23 @@
       <c r="AO93" s="7"/>
     </row>
     <row r="94" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A94" s="90">
+      <c r="A94" s="65">
         <v>45</v>
       </c>
-      <c r="B94" s="90"/>
-      <c r="C94" s="86" t="s">
-        <v>87</v>
+      <c r="B94" s="65"/>
+      <c r="C94" s="112" t="s">
+        <v>86</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="E94" s="98" t="s">
-        <v>68</v>
-      </c>
-      <c r="F94" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G94" s="133"/>
+        <v>118</v>
+      </c>
+      <c r="E94" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="F94" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G94" s="58"/>
       <c r="H94" s="12">
         <v>43291</v>
       </c>
@@ -16654,12 +16654,12 @@
       <c r="AO94" s="7"/>
     </row>
     <row r="95" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A95" s="119"/>
-      <c r="B95" s="91"/>
-      <c r="C95" s="87"/>
+      <c r="A95" s="81"/>
+      <c r="B95" s="66"/>
+      <c r="C95" s="95"/>
       <c r="D95" s="20"/>
       <c r="E95" s="57"/>
-      <c r="F95" s="67"/>
+      <c r="F95" s="89"/>
       <c r="G95" s="57"/>
       <c r="H95" s="12">
         <v>43291</v>
@@ -16701,23 +16701,23 @@
       <c r="AO95" s="7"/>
     </row>
     <row r="96" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A96" s="90">
+      <c r="A96" s="65">
         <v>46</v>
       </c>
-      <c r="B96" s="90"/>
-      <c r="C96" s="86" t="s">
-        <v>21</v>
+      <c r="B96" s="65"/>
+      <c r="C96" s="112" t="s">
+        <v>20</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E96" s="98" t="s">
-        <v>65</v>
-      </c>
-      <c r="F96" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G96" s="133"/>
+        <v>119</v>
+      </c>
+      <c r="E96" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="F96" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G96" s="58"/>
       <c r="H96" s="12">
         <v>43291</v>
       </c>
@@ -16758,12 +16758,12 @@
       <c r="AO96" s="7"/>
     </row>
     <row r="97" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A97" s="119"/>
-      <c r="B97" s="91"/>
-      <c r="C97" s="87"/>
+      <c r="A97" s="81"/>
+      <c r="B97" s="66"/>
+      <c r="C97" s="95"/>
       <c r="D97" s="20"/>
       <c r="E97" s="57"/>
-      <c r="F97" s="67"/>
+      <c r="F97" s="89"/>
       <c r="G97" s="57"/>
       <c r="H97" s="12">
         <v>43291</v>
@@ -16805,23 +16805,23 @@
       <c r="AO97" s="7"/>
     </row>
     <row r="98" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A98" s="72">
+      <c r="A98" s="115">
         <v>47</v>
       </c>
-      <c r="B98" s="90"/>
-      <c r="C98" s="86" t="s">
-        <v>22</v>
+      <c r="B98" s="65"/>
+      <c r="C98" s="112" t="s">
+        <v>21</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E98" s="98" t="s">
-        <v>65</v>
-      </c>
-      <c r="F98" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G98" s="133"/>
+        <v>120</v>
+      </c>
+      <c r="E98" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="F98" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G98" s="58"/>
       <c r="H98" s="12">
         <v>43291</v>
       </c>
@@ -16862,12 +16862,12 @@
       <c r="AO98" s="7"/>
     </row>
     <row r="99" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A99" s="73"/>
-      <c r="B99" s="91"/>
-      <c r="C99" s="87"/>
+      <c r="A99" s="116"/>
+      <c r="B99" s="66"/>
+      <c r="C99" s="95"/>
       <c r="D99" s="20"/>
       <c r="E99" s="57"/>
-      <c r="F99" s="67"/>
+      <c r="F99" s="89"/>
       <c r="G99" s="57"/>
       <c r="H99" s="12">
         <v>43291</v>
@@ -16909,23 +16909,23 @@
       <c r="AO99" s="7"/>
     </row>
     <row r="100" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A100" s="72">
+      <c r="A100" s="115">
         <v>48</v>
       </c>
-      <c r="B100" s="90"/>
-      <c r="C100" s="105" t="s">
-        <v>88</v>
+      <c r="B100" s="65"/>
+      <c r="C100" s="122" t="s">
+        <v>87</v>
       </c>
       <c r="D100" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E100" s="123" t="s">
-        <v>70</v>
-      </c>
-      <c r="F100" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G100" s="133"/>
+        <v>121</v>
+      </c>
+      <c r="E100" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="F100" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G100" s="58"/>
       <c r="H100" s="12">
         <v>43291</v>
       </c>
@@ -16966,12 +16966,12 @@
       <c r="AO100" s="7"/>
     </row>
     <row r="101" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A101" s="73"/>
-      <c r="B101" s="91"/>
-      <c r="C101" s="106"/>
+      <c r="A101" s="116"/>
+      <c r="B101" s="66"/>
+      <c r="C101" s="123"/>
       <c r="D101" s="21"/>
-      <c r="E101" s="65"/>
-      <c r="F101" s="67"/>
+      <c r="E101" s="61"/>
+      <c r="F101" s="89"/>
       <c r="G101" s="57"/>
       <c r="H101" s="12">
         <v>43291</v>
@@ -17013,23 +17013,23 @@
       <c r="AO101" s="7"/>
     </row>
     <row r="102" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A102" s="72">
+      <c r="A102" s="115">
         <v>49</v>
       </c>
-      <c r="B102" s="90"/>
-      <c r="C102" s="105" t="s">
-        <v>89</v>
+      <c r="B102" s="65"/>
+      <c r="C102" s="122" t="s">
+        <v>88</v>
       </c>
       <c r="D102" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="E102" s="123" t="s">
-        <v>70</v>
-      </c>
-      <c r="F102" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G102" s="133"/>
+        <v>122</v>
+      </c>
+      <c r="E102" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="F102" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G102" s="58"/>
       <c r="H102" s="12">
         <v>43291</v>
       </c>
@@ -17070,12 +17070,12 @@
       <c r="AO102" s="7"/>
     </row>
     <row r="103" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A103" s="73"/>
-      <c r="B103" s="91"/>
-      <c r="C103" s="106"/>
+      <c r="A103" s="116"/>
+      <c r="B103" s="66"/>
+      <c r="C103" s="123"/>
       <c r="D103" s="47"/>
-      <c r="E103" s="65"/>
-      <c r="F103" s="67"/>
+      <c r="E103" s="61"/>
+      <c r="F103" s="89"/>
       <c r="G103" s="57"/>
       <c r="H103" s="12">
         <v>43291</v>
@@ -17117,23 +17117,23 @@
       <c r="AO103" s="7"/>
     </row>
     <row r="104" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A104" s="72">
+      <c r="A104" s="115">
         <v>50</v>
       </c>
-      <c r="B104" s="90"/>
-      <c r="C104" s="115" t="s">
-        <v>90</v>
+      <c r="B104" s="65"/>
+      <c r="C104" s="105" t="s">
+        <v>89</v>
       </c>
       <c r="D104" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="E104" s="123" t="s">
-        <v>71</v>
-      </c>
-      <c r="F104" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G104" s="133"/>
+        <v>123</v>
+      </c>
+      <c r="E104" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="F104" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G104" s="58"/>
       <c r="H104" s="12">
         <v>43291</v>
       </c>
@@ -17174,12 +17174,12 @@
       <c r="AO104" s="7"/>
     </row>
     <row r="105" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A105" s="73"/>
-      <c r="B105" s="91"/>
-      <c r="C105" s="109"/>
+      <c r="A105" s="116"/>
+      <c r="B105" s="66"/>
+      <c r="C105" s="106"/>
       <c r="D105" s="47"/>
-      <c r="E105" s="111"/>
-      <c r="F105" s="67"/>
+      <c r="E105" s="78"/>
+      <c r="F105" s="89"/>
       <c r="G105" s="57"/>
       <c r="H105" s="12">
         <v>43291</v>
@@ -17221,23 +17221,23 @@
       <c r="AO105" s="7"/>
     </row>
     <row r="106" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A106" s="72">
+      <c r="A106" s="115">
         <v>51</v>
       </c>
-      <c r="B106" s="90"/>
-      <c r="C106" s="115" t="s">
-        <v>91</v>
+      <c r="B106" s="65"/>
+      <c r="C106" s="105" t="s">
+        <v>90</v>
       </c>
       <c r="D106" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="E106" s="124" t="s">
-        <v>71</v>
-      </c>
-      <c r="F106" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G106" s="133"/>
+        <v>124</v>
+      </c>
+      <c r="E106" s="119" t="s">
+        <v>70</v>
+      </c>
+      <c r="F106" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G106" s="58"/>
       <c r="H106" s="12">
         <v>43291</v>
       </c>
@@ -17278,12 +17278,12 @@
       <c r="AO106" s="7"/>
     </row>
     <row r="107" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A107" s="73"/>
-      <c r="B107" s="87"/>
-      <c r="C107" s="109"/>
+      <c r="A107" s="116"/>
+      <c r="B107" s="95"/>
+      <c r="C107" s="106"/>
       <c r="D107" s="22"/>
-      <c r="E107" s="125"/>
-      <c r="F107" s="67"/>
+      <c r="E107" s="120"/>
+      <c r="F107" s="89"/>
       <c r="G107" s="57"/>
       <c r="H107" s="12">
         <v>43291</v>
@@ -17325,23 +17325,23 @@
       <c r="AO107" s="7"/>
     </row>
     <row r="108" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A108" s="72">
+      <c r="A108" s="115">
         <v>52</v>
       </c>
-      <c r="B108" s="66"/>
-      <c r="C108" s="115" t="s">
-        <v>92</v>
+      <c r="B108" s="88"/>
+      <c r="C108" s="105" t="s">
+        <v>91</v>
       </c>
       <c r="D108" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="E108" s="114" t="s">
-        <v>71</v>
-      </c>
-      <c r="F108" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G108" s="136"/>
+        <v>125</v>
+      </c>
+      <c r="E108" s="117" t="s">
+        <v>70</v>
+      </c>
+      <c r="F108" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G108" s="60"/>
       <c r="H108" s="12">
         <v>43291</v>
       </c>
@@ -17382,13 +17382,13 @@
       <c r="AO108" s="7"/>
     </row>
     <row r="109" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A109" s="73"/>
-      <c r="B109" s="87"/>
-      <c r="C109" s="109"/>
+      <c r="A109" s="116"/>
+      <c r="B109" s="95"/>
+      <c r="C109" s="106"/>
       <c r="D109" s="24"/>
-      <c r="E109" s="113"/>
-      <c r="F109" s="67"/>
-      <c r="G109" s="65"/>
+      <c r="E109" s="118"/>
+      <c r="F109" s="89"/>
+      <c r="G109" s="61"/>
       <c r="H109" s="12">
         <v>43291</v>
       </c>
@@ -17429,23 +17429,23 @@
       <c r="AO109" s="7"/>
     </row>
     <row r="110" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A110" s="72">
+      <c r="A110" s="115">
         <v>53</v>
       </c>
-      <c r="B110" s="112"/>
-      <c r="C110" s="115" t="s">
-        <v>93</v>
+      <c r="B110" s="124"/>
+      <c r="C110" s="105" t="s">
+        <v>92</v>
       </c>
       <c r="D110" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="E110" s="114" t="s">
-        <v>70</v>
-      </c>
-      <c r="F110" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G110" s="136"/>
+        <v>126</v>
+      </c>
+      <c r="E110" s="117" t="s">
+        <v>69</v>
+      </c>
+      <c r="F110" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G110" s="60"/>
       <c r="H110" s="12">
         <v>43291</v>
       </c>
@@ -17486,13 +17486,13 @@
       <c r="AO110" s="7"/>
     </row>
     <row r="111" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A111" s="73"/>
-      <c r="B111" s="113"/>
-      <c r="C111" s="109"/>
+      <c r="A111" s="116"/>
+      <c r="B111" s="118"/>
+      <c r="C111" s="106"/>
       <c r="D111" s="24"/>
-      <c r="E111" s="113"/>
-      <c r="F111" s="67"/>
-      <c r="G111" s="65"/>
+      <c r="E111" s="118"/>
+      <c r="F111" s="89"/>
+      <c r="G111" s="61"/>
       <c r="H111" s="12">
         <v>43291</v>
       </c>
@@ -17533,23 +17533,23 @@
       <c r="AO111" s="7"/>
     </row>
     <row r="112" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A112" s="72">
+      <c r="A112" s="115">
         <v>54</v>
       </c>
-      <c r="B112" s="112"/>
-      <c r="C112" s="115" t="s">
-        <v>94</v>
+      <c r="B112" s="124"/>
+      <c r="C112" s="105" t="s">
+        <v>93</v>
       </c>
       <c r="D112" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="E112" s="114" t="s">
-        <v>69</v>
-      </c>
-      <c r="F112" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G112" s="136"/>
+        <v>127</v>
+      </c>
+      <c r="E112" s="117" t="s">
+        <v>68</v>
+      </c>
+      <c r="F112" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G112" s="60"/>
       <c r="H112" s="12">
         <v>43291</v>
       </c>
@@ -17590,13 +17590,13 @@
       <c r="AO112" s="7"/>
     </row>
     <row r="113" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A113" s="73"/>
-      <c r="B113" s="113"/>
-      <c r="C113" s="109"/>
+      <c r="A113" s="116"/>
+      <c r="B113" s="118"/>
+      <c r="C113" s="106"/>
       <c r="D113" s="24"/>
-      <c r="E113" s="113"/>
-      <c r="F113" s="67"/>
-      <c r="G113" s="65"/>
+      <c r="E113" s="118"/>
+      <c r="F113" s="89"/>
+      <c r="G113" s="61"/>
       <c r="H113" s="12">
         <v>43291</v>
       </c>
@@ -17637,23 +17637,23 @@
       <c r="AO113" s="7"/>
     </row>
     <row r="114" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A114" s="72">
+      <c r="A114" s="115">
         <v>55</v>
       </c>
-      <c r="B114" s="112"/>
-      <c r="C114" s="116" t="s">
-        <v>107</v>
+      <c r="B114" s="124"/>
+      <c r="C114" s="126" t="s">
+        <v>106</v>
       </c>
       <c r="D114" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="E114" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="F114" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G114" s="136"/>
+        <v>128</v>
+      </c>
+      <c r="E114" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="F114" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G114" s="60"/>
       <c r="H114" s="12">
         <v>43291</v>
       </c>
@@ -17694,13 +17694,13 @@
       <c r="AO114" s="7"/>
     </row>
     <row r="115" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A115" s="73"/>
-      <c r="B115" s="113"/>
-      <c r="C115" s="117"/>
+      <c r="A115" s="116"/>
+      <c r="B115" s="118"/>
+      <c r="C115" s="127"/>
       <c r="D115" s="24"/>
-      <c r="E115" s="113"/>
-      <c r="F115" s="67"/>
-      <c r="G115" s="65"/>
+      <c r="E115" s="118"/>
+      <c r="F115" s="89"/>
+      <c r="G115" s="61"/>
       <c r="H115" s="12">
         <v>43291</v>
       </c>
@@ -17741,23 +17741,23 @@
       <c r="AO115" s="7"/>
     </row>
     <row r="116" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A116" s="72">
+      <c r="A116" s="115">
         <v>56</v>
       </c>
-      <c r="B116" s="112"/>
-      <c r="C116" s="118" t="s">
-        <v>51</v>
+      <c r="B116" s="124"/>
+      <c r="C116" s="113" t="s">
+        <v>50</v>
       </c>
       <c r="D116" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="E116" s="114" t="s">
-        <v>73</v>
-      </c>
-      <c r="F116" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G116" s="136"/>
+        <v>129</v>
+      </c>
+      <c r="E116" s="117" t="s">
+        <v>72</v>
+      </c>
+      <c r="F116" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G116" s="60"/>
       <c r="H116" s="12">
         <v>43291</v>
       </c>
@@ -17798,13 +17798,13 @@
       <c r="AO116" s="7"/>
     </row>
     <row r="117" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A117" s="73"/>
-      <c r="B117" s="113"/>
-      <c r="C117" s="111"/>
+      <c r="A117" s="116"/>
+      <c r="B117" s="118"/>
+      <c r="C117" s="78"/>
       <c r="D117" s="24"/>
-      <c r="E117" s="111"/>
-      <c r="F117" s="67"/>
-      <c r="G117" s="111"/>
+      <c r="E117" s="78"/>
+      <c r="F117" s="89"/>
+      <c r="G117" s="78"/>
       <c r="H117" s="12">
         <v>43291</v>
       </c>
@@ -17845,23 +17845,23 @@
       <c r="AO117" s="7"/>
     </row>
     <row r="118" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A118" s="72">
+      <c r="A118" s="115">
         <v>57</v>
       </c>
-      <c r="B118" s="112"/>
-      <c r="C118" s="86" t="s">
-        <v>95</v>
+      <c r="B118" s="124"/>
+      <c r="C118" s="112" t="s">
+        <v>94</v>
       </c>
       <c r="D118" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="E118" s="88" t="s">
-        <v>73</v>
-      </c>
-      <c r="F118" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G118" s="79"/>
+        <v>130</v>
+      </c>
+      <c r="E118" s="128" t="s">
+        <v>72</v>
+      </c>
+      <c r="F118" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G118" s="90"/>
       <c r="H118" s="12">
         <v>43291</v>
       </c>
@@ -17902,13 +17902,13 @@
       <c r="AO118" s="7"/>
     </row>
     <row r="119" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A119" s="73"/>
-      <c r="B119" s="113"/>
-      <c r="C119" s="87"/>
+      <c r="A119" s="116"/>
+      <c r="B119" s="118"/>
+      <c r="C119" s="95"/>
       <c r="D119" s="23"/>
-      <c r="E119" s="78"/>
-      <c r="F119" s="67"/>
-      <c r="G119" s="80"/>
+      <c r="E119" s="129"/>
+      <c r="F119" s="89"/>
+      <c r="G119" s="91"/>
       <c r="H119" s="12">
         <v>43291</v>
       </c>
@@ -17949,23 +17949,23 @@
       <c r="AO119" s="7"/>
     </row>
     <row r="120" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A120" s="72">
+      <c r="A120" s="115">
         <v>58</v>
       </c>
-      <c r="B120" s="64"/>
-      <c r="C120" s="86" t="s">
-        <v>96</v>
+      <c r="B120" s="125"/>
+      <c r="C120" s="112" t="s">
+        <v>95</v>
       </c>
       <c r="D120" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="E120" s="89" t="s">
-        <v>73</v>
-      </c>
-      <c r="F120" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G120" s="68"/>
+        <v>131</v>
+      </c>
+      <c r="E120" s="109" t="s">
+        <v>72</v>
+      </c>
+      <c r="F120" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G120" s="87"/>
       <c r="H120" s="12">
         <v>43291</v>
       </c>
@@ -18006,12 +18006,12 @@
       <c r="AO120" s="7"/>
     </row>
     <row r="121" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A121" s="73"/>
-      <c r="B121" s="65"/>
-      <c r="C121" s="87"/>
+      <c r="A121" s="116"/>
+      <c r="B121" s="61"/>
+      <c r="C121" s="95"/>
       <c r="D121" s="24"/>
-      <c r="E121" s="65"/>
-      <c r="F121" s="67"/>
+      <c r="E121" s="61"/>
+      <c r="F121" s="89"/>
       <c r="G121" s="57"/>
       <c r="H121" s="12">
         <v>43291</v>
@@ -18053,30 +18053,30 @@
       <c r="AO121" s="7"/>
     </row>
     <row r="122" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A122" s="72">
+      <c r="A122" s="115">
         <v>59</v>
       </c>
-      <c r="B122" s="64"/>
-      <c r="C122" s="86" t="s">
-        <v>97</v>
+      <c r="B122" s="125"/>
+      <c r="C122" s="112" t="s">
+        <v>96</v>
       </c>
       <c r="D122" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="E122" s="88" t="s">
-        <v>73</v>
-      </c>
-      <c r="F122" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G122" s="79"/>
+        <v>132</v>
+      </c>
+      <c r="E122" s="128" t="s">
+        <v>72</v>
+      </c>
+      <c r="F122" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G122" s="90"/>
       <c r="H122" s="12">
         <v>43291</v>
       </c>
       <c r="I122" s="12">
         <v>43297</v>
       </c>
-      <c r="J122" s="69"/>
+      <c r="J122" s="92"/>
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
@@ -18110,20 +18110,20 @@
       <c r="AO122" s="7"/>
     </row>
     <row r="123" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A123" s="73"/>
-      <c r="B123" s="65"/>
-      <c r="C123" s="87"/>
+      <c r="A123" s="116"/>
+      <c r="B123" s="61"/>
+      <c r="C123" s="95"/>
       <c r="D123" s="23"/>
-      <c r="E123" s="78"/>
-      <c r="F123" s="67"/>
-      <c r="G123" s="80"/>
+      <c r="E123" s="129"/>
+      <c r="F123" s="89"/>
+      <c r="G123" s="91"/>
       <c r="H123" s="12">
         <v>43291</v>
       </c>
       <c r="I123" s="12">
         <v>43299</v>
       </c>
-      <c r="J123" s="65"/>
+      <c r="J123" s="61"/>
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
       <c r="M123" s="7"/>
@@ -18157,23 +18157,23 @@
       <c r="AO123" s="7"/>
     </row>
     <row r="124" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A124" s="72">
+      <c r="A124" s="115">
         <v>60</v>
       </c>
-      <c r="B124" s="64"/>
-      <c r="C124" s="86" t="s">
-        <v>98</v>
+      <c r="B124" s="125"/>
+      <c r="C124" s="112" t="s">
+        <v>97</v>
       </c>
       <c r="D124" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="E124" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="F124" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G124" s="68"/>
+        <v>133</v>
+      </c>
+      <c r="E124" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="F124" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G124" s="87"/>
       <c r="H124" s="12">
         <v>43291</v>
       </c>
@@ -18214,12 +18214,12 @@
       <c r="AO124" s="7"/>
     </row>
     <row r="125" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A125" s="73"/>
-      <c r="B125" s="65"/>
-      <c r="C125" s="87"/>
+      <c r="A125" s="116"/>
+      <c r="B125" s="61"/>
+      <c r="C125" s="95"/>
       <c r="D125" s="24"/>
-      <c r="E125" s="65"/>
-      <c r="F125" s="67"/>
+      <c r="E125" s="61"/>
+      <c r="F125" s="89"/>
       <c r="G125" s="57"/>
       <c r="H125" s="12">
         <v>43291</v>
@@ -18261,30 +18261,30 @@
       <c r="AO125" s="7"/>
     </row>
     <row r="126" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A126" s="72">
+      <c r="A126" s="115">
         <v>61</v>
       </c>
-      <c r="B126" s="64"/>
-      <c r="C126" s="86" t="s">
-        <v>99</v>
+      <c r="B126" s="125"/>
+      <c r="C126" s="112" t="s">
+        <v>98</v>
       </c>
       <c r="D126" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="E126" s="88" t="s">
-        <v>72</v>
-      </c>
-      <c r="F126" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G126" s="79"/>
+        <v>134</v>
+      </c>
+      <c r="E126" s="128" t="s">
+        <v>71</v>
+      </c>
+      <c r="F126" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G126" s="90"/>
       <c r="H126" s="12">
         <v>43291</v>
       </c>
       <c r="I126" s="12">
         <v>43297</v>
       </c>
-      <c r="J126" s="69"/>
+      <c r="J126" s="92"/>
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
@@ -18318,20 +18318,20 @@
       <c r="AO126" s="7"/>
     </row>
     <row r="127" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A127" s="73"/>
-      <c r="B127" s="65"/>
-      <c r="C127" s="87"/>
+      <c r="A127" s="116"/>
+      <c r="B127" s="61"/>
+      <c r="C127" s="95"/>
       <c r="D127" s="23"/>
-      <c r="E127" s="78"/>
-      <c r="F127" s="67"/>
-      <c r="G127" s="80"/>
+      <c r="E127" s="129"/>
+      <c r="F127" s="89"/>
+      <c r="G127" s="91"/>
       <c r="H127" s="12">
         <v>43291</v>
       </c>
       <c r="I127" s="12">
         <v>43299</v>
       </c>
-      <c r="J127" s="65"/>
+      <c r="J127" s="61"/>
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
       <c r="M127" s="7"/>
@@ -18365,23 +18365,23 @@
       <c r="AO127" s="7"/>
     </row>
     <row r="128" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A128" s="72">
+      <c r="A128" s="115">
         <v>62</v>
       </c>
-      <c r="B128" s="64"/>
-      <c r="C128" s="86" t="s">
-        <v>100</v>
+      <c r="B128" s="125"/>
+      <c r="C128" s="112" t="s">
+        <v>99</v>
       </c>
       <c r="D128" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="E128" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="F128" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G128" s="68"/>
+        <v>135</v>
+      </c>
+      <c r="E128" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="F128" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G128" s="87"/>
       <c r="H128" s="12">
         <v>43291</v>
       </c>
@@ -18422,12 +18422,12 @@
       <c r="AO128" s="7"/>
     </row>
     <row r="129" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A129" s="73"/>
-      <c r="B129" s="65"/>
-      <c r="C129" s="87"/>
+      <c r="A129" s="116"/>
+      <c r="B129" s="61"/>
+      <c r="C129" s="95"/>
       <c r="D129" s="24"/>
-      <c r="E129" s="65"/>
-      <c r="F129" s="67"/>
+      <c r="E129" s="61"/>
+      <c r="F129" s="89"/>
       <c r="G129" s="57"/>
       <c r="H129" s="12">
         <v>43291</v>
@@ -18469,18 +18469,18 @@
       <c r="AO129" s="7"/>
     </row>
     <row r="130" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A130" s="72">
+      <c r="A130" s="115">
         <v>63</v>
       </c>
-      <c r="B130" s="81"/>
-      <c r="C130" s="83"/>
+      <c r="B130" s="139"/>
+      <c r="C130" s="136"/>
       <c r="D130" s="22"/>
-      <c r="E130" s="77"/>
-      <c r="F130" s="66"/>
-      <c r="G130" s="79"/>
+      <c r="E130" s="137"/>
+      <c r="F130" s="88"/>
+      <c r="G130" s="90"/>
       <c r="H130" s="12"/>
       <c r="I130" s="12"/>
-      <c r="J130" s="69"/>
+      <c r="J130" s="92"/>
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
@@ -18514,16 +18514,16 @@
       <c r="AO130" s="7"/>
     </row>
     <row r="131" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A131" s="73"/>
-      <c r="B131" s="82"/>
-      <c r="C131" s="84"/>
+      <c r="A131" s="116"/>
+      <c r="B131" s="83"/>
+      <c r="C131" s="97"/>
       <c r="D131" s="23"/>
-      <c r="E131" s="78"/>
-      <c r="F131" s="67"/>
-      <c r="G131" s="80"/>
+      <c r="E131" s="129"/>
+      <c r="F131" s="89"/>
+      <c r="G131" s="91"/>
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
-      <c r="J131" s="65"/>
+      <c r="J131" s="61"/>
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
@@ -18557,21 +18557,21 @@
       <c r="AO131" s="7"/>
     </row>
     <row r="132" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A132" s="72">
+      <c r="A132" s="115">
         <v>64</v>
       </c>
-      <c r="B132" s="74" t="s">
+      <c r="B132" s="134" t="s">
+        <v>100</v>
+      </c>
+      <c r="C132" s="138" t="s">
         <v>101</v>
       </c>
-      <c r="C132" s="85" t="s">
-        <v>102</v>
-      </c>
       <c r="D132" s="22"/>
-      <c r="E132" s="64"/>
-      <c r="F132" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G132" s="68"/>
+      <c r="E132" s="125"/>
+      <c r="F132" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G132" s="87"/>
       <c r="H132" s="12">
         <v>43299</v>
       </c>
@@ -18612,12 +18612,12 @@
       <c r="AO132" s="7"/>
     </row>
     <row r="133" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A133" s="73"/>
-      <c r="B133" s="75"/>
-      <c r="C133" s="75"/>
+      <c r="A133" s="116"/>
+      <c r="B133" s="135"/>
+      <c r="C133" s="135"/>
       <c r="D133" s="24"/>
-      <c r="E133" s="65"/>
-      <c r="F133" s="67"/>
+      <c r="E133" s="61"/>
+      <c r="F133" s="89"/>
       <c r="G133" s="57"/>
       <c r="H133" s="12">
         <v>43287</v>
@@ -18659,26 +18659,26 @@
       <c r="AO133" s="7"/>
     </row>
     <row r="134" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A134" s="72">
+      <c r="A134" s="115">
         <v>65</v>
       </c>
-      <c r="B134" s="74"/>
-      <c r="C134" s="62" t="s">
-        <v>103</v>
+      <c r="B134" s="134"/>
+      <c r="C134" s="140" t="s">
+        <v>102</v>
       </c>
       <c r="D134" s="22"/>
-      <c r="E134" s="77"/>
-      <c r="F134" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G134" s="79"/>
+      <c r="E134" s="137"/>
+      <c r="F134" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G134" s="90"/>
       <c r="H134" s="12">
         <v>43299</v>
       </c>
       <c r="I134" s="12">
         <v>43306</v>
       </c>
-      <c r="J134" s="69"/>
+      <c r="J134" s="92"/>
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
@@ -18712,20 +18712,20 @@
       <c r="AO134" s="7"/>
     </row>
     <row r="135" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A135" s="73"/>
-      <c r="B135" s="75"/>
-      <c r="C135" s="76"/>
+      <c r="A135" s="116"/>
+      <c r="B135" s="135"/>
+      <c r="C135" s="141"/>
       <c r="D135" s="23"/>
-      <c r="E135" s="78"/>
-      <c r="F135" s="67"/>
-      <c r="G135" s="80"/>
+      <c r="E135" s="129"/>
+      <c r="F135" s="89"/>
+      <c r="G135" s="91"/>
       <c r="H135" s="45">
         <v>43299</v>
       </c>
       <c r="I135" s="12">
         <v>43299</v>
       </c>
-      <c r="J135" s="65"/>
+      <c r="J135" s="61"/>
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
       <c r="M135" s="7"/>
@@ -18759,21 +18759,21 @@
       <c r="AO135" s="7"/>
     </row>
     <row r="136" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A136" s="72">
+      <c r="A136" s="115">
         <v>66</v>
       </c>
-      <c r="B136" s="74" t="s">
+      <c r="B136" s="134" t="s">
+        <v>103</v>
+      </c>
+      <c r="C136" s="140" t="s">
         <v>104</v>
       </c>
-      <c r="C136" s="62" t="s">
-        <v>105</v>
-      </c>
       <c r="D136" s="22"/>
-      <c r="E136" s="64"/>
-      <c r="F136" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136" s="68"/>
+      <c r="E136" s="125"/>
+      <c r="F136" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G136" s="87"/>
       <c r="H136" s="12">
         <v>43304</v>
       </c>
@@ -18814,15 +18814,19 @@
       <c r="AO136" s="48"/>
     </row>
     <row r="137" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A137" s="73"/>
-      <c r="B137" s="75"/>
-      <c r="C137" s="76"/>
+      <c r="A137" s="116"/>
+      <c r="B137" s="135"/>
+      <c r="C137" s="141"/>
       <c r="D137" s="24"/>
-      <c r="E137" s="65"/>
-      <c r="F137" s="67"/>
+      <c r="E137" s="61"/>
+      <c r="F137" s="89"/>
       <c r="G137" s="57"/>
-      <c r="H137" s="12"/>
-      <c r="I137" s="12"/>
+      <c r="H137" s="12">
+        <v>43300</v>
+      </c>
+      <c r="I137" s="12">
+        <v>43301</v>
+      </c>
       <c r="J137" s="57"/>
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
@@ -18842,8 +18846,8 @@
       <c r="Z137" s="7"/>
       <c r="AA137" s="7"/>
       <c r="AB137" s="7"/>
-      <c r="AC137" s="7"/>
-      <c r="AD137" s="7"/>
+      <c r="AC137" s="52"/>
+      <c r="AD137" s="52"/>
       <c r="AE137" s="7"/>
       <c r="AF137" s="7"/>
       <c r="AG137" s="7"/>
@@ -18857,26 +18861,26 @@
       <c r="AO137" s="7"/>
     </row>
     <row r="138" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A138" s="72">
+      <c r="A138" s="115">
         <v>67</v>
       </c>
-      <c r="B138" s="74"/>
-      <c r="C138" s="62" t="s">
-        <v>103</v>
+      <c r="B138" s="134"/>
+      <c r="C138" s="140" t="s">
+        <v>102</v>
       </c>
       <c r="D138" s="22"/>
-      <c r="E138" s="77"/>
-      <c r="F138" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G138" s="79"/>
+      <c r="E138" s="137"/>
+      <c r="F138" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G138" s="90"/>
       <c r="H138" s="12">
         <v>43304</v>
       </c>
       <c r="I138" s="45">
         <v>43312</v>
       </c>
-      <c r="J138" s="69"/>
+      <c r="J138" s="92"/>
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
       <c r="M138" s="7"/>
@@ -18910,16 +18914,20 @@
       <c r="AO138" s="48"/>
     </row>
     <row r="139" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A139" s="73"/>
-      <c r="B139" s="75"/>
-      <c r="C139" s="76"/>
+      <c r="A139" s="116"/>
+      <c r="B139" s="135"/>
+      <c r="C139" s="141"/>
       <c r="D139" s="23"/>
-      <c r="E139" s="78"/>
-      <c r="F139" s="67"/>
-      <c r="G139" s="80"/>
-      <c r="H139" s="12"/>
-      <c r="I139" s="12"/>
-      <c r="J139" s="65"/>
+      <c r="E139" s="129"/>
+      <c r="F139" s="89"/>
+      <c r="G139" s="91"/>
+      <c r="H139" s="12">
+        <v>43300</v>
+      </c>
+      <c r="I139" s="12">
+        <v>43301</v>
+      </c>
+      <c r="J139" s="61"/>
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
       <c r="M139" s="7"/>
@@ -18938,8 +18946,8 @@
       <c r="Z139" s="7"/>
       <c r="AA139" s="7"/>
       <c r="AB139" s="7"/>
-      <c r="AC139" s="7"/>
-      <c r="AD139" s="7"/>
+      <c r="AC139" s="52"/>
+      <c r="AD139" s="52"/>
       <c r="AE139" s="7"/>
       <c r="AF139" s="7"/>
       <c r="AG139" s="7"/>
@@ -18953,21 +18961,21 @@
       <c r="AO139" s="7"/>
     </row>
     <row r="140" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A140" s="72">
+      <c r="A140" s="115">
         <v>68</v>
       </c>
-      <c r="B140" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="C140" s="62" t="s">
-        <v>102</v>
+      <c r="B140" s="143" t="s">
+        <v>105</v>
+      </c>
+      <c r="C140" s="140" t="s">
+        <v>101</v>
       </c>
       <c r="D140" s="22"/>
-      <c r="E140" s="64"/>
-      <c r="F140" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G140" s="68"/>
+      <c r="E140" s="125"/>
+      <c r="F140" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="G140" s="87"/>
       <c r="H140" s="12">
         <v>43306</v>
       </c>
@@ -19008,14 +19016,16 @@
       <c r="AO140" s="48"/>
     </row>
     <row r="141" spans="1:41" s="29" customFormat="1" ht="14" customHeight="1">
-      <c r="A141" s="73"/>
-      <c r="B141" s="61"/>
-      <c r="C141" s="63"/>
+      <c r="A141" s="116"/>
+      <c r="B141" s="144"/>
+      <c r="C141" s="145"/>
       <c r="D141" s="24"/>
-      <c r="E141" s="65"/>
-      <c r="F141" s="67"/>
+      <c r="E141" s="61"/>
+      <c r="F141" s="89"/>
       <c r="G141" s="57"/>
-      <c r="H141" s="12"/>
+      <c r="H141" s="12">
+        <v>43304</v>
+      </c>
       <c r="I141" s="12"/>
       <c r="J141" s="57"/>
       <c r="K141" s="7"/>
@@ -19041,8 +19051,8 @@
       <c r="AE141" s="7"/>
       <c r="AF141" s="7"/>
       <c r="AG141" s="7"/>
-      <c r="AH141" s="7"/>
-      <c r="AI141" s="7"/>
+      <c r="AH141" s="52"/>
+      <c r="AI141" s="52"/>
       <c r="AJ141" s="7"/>
       <c r="AK141" s="7"/>
       <c r="AL141" s="7"/>
@@ -19051,26 +19061,26 @@
       <c r="AO141" s="7"/>
     </row>
     <row r="142" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A142" s="58">
+      <c r="A142" s="130">
         <v>69</v>
       </c>
-      <c r="B142" s="60"/>
-      <c r="C142" s="70" t="s">
-        <v>103</v>
+      <c r="B142" s="143"/>
+      <c r="C142" s="146" t="s">
+        <v>102</v>
       </c>
       <c r="D142" s="22"/>
-      <c r="E142" s="64"/>
-      <c r="F142" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G142" s="68"/>
+      <c r="E142" s="125"/>
+      <c r="F142" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="G142" s="87"/>
       <c r="H142" s="12">
         <v>43306</v>
       </c>
       <c r="I142" s="45">
         <v>43312</v>
       </c>
-      <c r="J142" s="69"/>
+      <c r="J142" s="92"/>
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
       <c r="M142" s="7"/>
@@ -19104,16 +19114,18 @@
       <c r="AO142" s="48"/>
     </row>
     <row r="143" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A143" s="59"/>
-      <c r="B143" s="61"/>
-      <c r="C143" s="71"/>
+      <c r="A143" s="142"/>
+      <c r="B143" s="144"/>
+      <c r="C143" s="147"/>
       <c r="D143" s="24"/>
-      <c r="E143" s="65"/>
-      <c r="F143" s="67"/>
+      <c r="E143" s="61"/>
+      <c r="F143" s="89"/>
       <c r="G143" s="57"/>
-      <c r="H143" s="17"/>
+      <c r="H143" s="12">
+        <v>43304</v>
+      </c>
       <c r="I143" s="17"/>
-      <c r="J143" s="65"/>
+      <c r="J143" s="61"/>
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
       <c r="M143" s="7"/>
@@ -19137,8 +19149,8 @@
       <c r="AE143" s="7"/>
       <c r="AF143" s="7"/>
       <c r="AG143" s="7"/>
-      <c r="AH143" s="7"/>
-      <c r="AI143" s="7"/>
+      <c r="AH143" s="52"/>
+      <c r="AI143" s="52"/>
       <c r="AJ143" s="7"/>
       <c r="AK143" s="7"/>
       <c r="AL143" s="7"/>
@@ -19990,46 +20002,408 @@
     <row r="985" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="466">
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="J140:J141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="J142:J143"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="G142:G143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="J134:J135"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="J130:J131"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="J126:J127"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="J136:J137"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="J124:J125"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="J128:J129"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="J132:J133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="F128:F129"/>
+    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="J122:J123"/>
+    <mergeCell ref="J120:J121"/>
+    <mergeCell ref="J118:J119"/>
+    <mergeCell ref="J116:J117"/>
+    <mergeCell ref="J96:J97"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="J106:J107"/>
+    <mergeCell ref="J110:J111"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="J112:J113"/>
+    <mergeCell ref="J114:J115"/>
+    <mergeCell ref="J102:J103"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="J92:J93"/>
+    <mergeCell ref="J100:J101"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B20:B21"/>
@@ -20054,408 +20428,46 @@
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="J86:J87"/>
-    <mergeCell ref="J122:J123"/>
-    <mergeCell ref="J120:J121"/>
-    <mergeCell ref="J118:J119"/>
-    <mergeCell ref="J116:J117"/>
-    <mergeCell ref="J96:J97"/>
-    <mergeCell ref="J94:J95"/>
-    <mergeCell ref="J104:J105"/>
-    <mergeCell ref="J106:J107"/>
-    <mergeCell ref="J110:J111"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="J112:J113"/>
-    <mergeCell ref="J114:J115"/>
-    <mergeCell ref="J102:J103"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="J90:J91"/>
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="J92:J93"/>
-    <mergeCell ref="J100:J101"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C32:C37"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="G128:G129"/>
-    <mergeCell ref="J124:J125"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="J128:J129"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="J132:J133"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="J134:J135"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="J130:J131"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="J126:J127"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="J136:J137"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="J138:J139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="G138:G139"/>
-    <mergeCell ref="J140:J141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="G140:G141"/>
-    <mergeCell ref="J142:J143"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="G142:G143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G18:G19"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="K8">
@@ -21358,7 +21370,7 @@
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:N5 O4:P6 K6:L7 N6 K17 Q4:AO20 AA131:AO132 K24:AO24 T100:Y100 T102:Y102 T104:Y104 T106:Y106 T108:Y108 T110:Y110 T112:U112 T114:Y114 T116:Y116 T118:Y118 T120:Y120 T122:Y122 T124:Y124 T126:Y126 T128:Y128 K8:N8 K10:P10 K18:P18 K9:L9 K12:P12 K11:L11 K16:P16 K15:L15 K20:P20 K19:L19 K23:L23 Q23:AO23 K26:AO26 K25:L25 Q25:AO25 K28:AO28 K27:L27 Q27:AO27 K30:AO30 K29:L29 Q29:AO29 K34:AO34 K33:L33 Q33:AO33 K36:AO36 K35:L35 Q35:AO35 K38:AO38 K37:L37 Q37:AO37 K42:AO42 K41:L41 Q41:AO41 K43:L43 K50:AO50 K49:L49 Q49:AO49 K52:AO52 K51:L51 Q51:AO51 K54:AO54 K53:L53 Q53:AO53 K56:AO56 K55:L55 Q55:AO55 K58:AO58 K57:L57 Q57:AO57 K60:AO60 K59:L59 Q59:AO59 K62:AO62 K61:L61 Q61:AO61 K46:AO46 K44:M45 K14:P14 K13:M13 K32:AO32 K31:M31 Q31:AO31 K40:AO40 K39:M39 Q39:AO39 O44:AO44 K48:AO48 K47:M47 Q47:AO47 K64:AO64 K63:M63 Q63:AO63 K66:AO66 K65:M65 Q65:AO65 K68:AO68 K67:M67 Q67:AO67 K69:M69 Q69:AO69 K72:Y72 K71:M71 P71:R71 Q43:AO43 Q45:AO45 K70:AO70 T71:AO71 K73:S73 X73:Z73 K75:S75 X75:Z75 K77:S77 X77:Z77 K79:S79 X79:Z79 K81:S81 X81:Z81 K83:S83 X83:Z83 K85:S85 X85:Z85 K87:S87 X87:Z87 K89:S89 X89:Z89 K91:S91 X91:Z91 K93:S93 X93:Z93 K95:S95 X95:Z95 K97:S97 X97:Z97 K99:S99 X99:Y99 AB72:AO72 K74:Y74 K76:Y76 K78:Y78 K80:Y80 K82:Y82 K84:Y84 K86:Y86 K88:Y88 K90:Y90 K92:Y92 K94:Y94 K96:Y96 K98:Y98 AA96:AO96 AA94:AO94 AA92:AO92 AA98:AO98 AA90:AO90 AA88:AO88 AA86:AO86 AA84:AO84 AA82:AO82 AA80:AO80 AA78:AO78 AA76:AO76 AA74:AO74 AB130:AO130 X112:Y112 AC73:AO73 AC75:AO75 AC77:AO77 AC79:AO79 AC81:AO81 AC83:AO83 AC85:AO85 AC87:AO87 AC89:AO89 AC91:AO91 AC93:AO93 AC95:AO95 AC97:AO97 AC99:AO99 AA134:AO134 AA133 AC133:AO133 AA136:AO142 AA135 AC135:AO135">
+  <conditionalFormatting sqref="K4:N5 O4:P6 K6:L7 N6 K17 Q4:AO20 AA131:AO132 K24:AO24 T100:Y100 T102:Y102 T104:Y104 T106:Y106 T108:Y108 T110:Y110 T112:U112 T114:Y114 T116:Y116 T118:Y118 T120:Y120 T122:Y122 T124:Y124 T126:Y126 T128:Y128 K8:N8 K10:P10 K18:P18 K9:L9 K12:P12 K11:L11 K16:P16 K15:L15 K20:P20 K19:L19 K23:L23 Q23:AO23 K26:AO26 K25:L25 Q25:AO25 K28:AO28 K27:L27 Q27:AO27 K30:AO30 K29:L29 Q29:AO29 K34:AO34 K33:L33 Q33:AO33 K36:AO36 K35:L35 Q35:AO35 K38:AO38 K37:L37 Q37:AO37 K42:AO42 K41:L41 Q41:AO41 K43:L43 K50:AO50 K49:L49 Q49:AO49 K52:AO52 K51:L51 Q51:AO51 K54:AO54 K53:L53 Q53:AO53 K56:AO56 K55:L55 Q55:AO55 K58:AO58 K57:L57 Q57:AO57 K60:AO60 K59:L59 Q59:AO59 K62:AO62 K61:L61 Q61:AO61 K46:AO46 K44:M45 K14:P14 K13:M13 K32:AO32 K31:M31 Q31:AO31 K40:AO40 K39:M39 Q39:AO39 O44:AO44 K48:AO48 K47:M47 Q47:AO47 K64:AO64 K63:M63 Q63:AO63 K66:AO66 K65:M65 Q65:AO65 K68:AO68 K67:M67 Q67:AO67 K69:M69 Q69:AO69 K72:Y72 K71:M71 P71:R71 Q43:AO43 Q45:AO45 K70:AO70 T71:AO71 K73:S73 X73:Z73 K75:S75 X75:Z75 K77:S77 X77:Z77 K79:S79 X79:Z79 K81:S81 X81:Z81 K83:S83 X83:Z83 K85:S85 X85:Z85 K87:S87 X87:Z87 K89:S89 X89:Z89 K91:S91 X91:Z91 K93:S93 X93:Z93 K95:S95 X95:Z95 K97:S97 X97:Z97 K99:S99 X99:Y99 AB72:AO72 K74:Y74 K76:Y76 K78:Y78 K80:Y80 K82:Y82 K84:Y84 K86:Y86 K88:Y88 K90:Y90 K92:Y92 K94:Y94 K96:Y96 K98:Y98 AA96:AO96 AA94:AO94 AA92:AO92 AA98:AO98 AA90:AO90 AA88:AO88 AA86:AO86 AA84:AO84 AA82:AO82 AA80:AO80 AA78:AO78 AA76:AO76 AA74:AO74 AB130:AO130 X112:Y112 AC73:AO73 AC75:AO75 AC77:AO77 AC79:AO79 AC81:AO81 AC83:AO83 AC85:AO85 AC87:AO87 AC89:AO89 AC91:AO91 AC93:AO93 AC95:AO95 AC97:AO97 AC99:AO99 AA134:AO134 AA133 AC133:AO133 AA136:AO136 AA135 AC135:AO135 AA142:AO142 AA141:AG141 AJ141:AO141 AA138:AO138 AA137:AB137 AE137:AO137 AA140:AO140 AA139:AB139 AE139:AO139">
     <cfRule type="expression" dxfId="1000" priority="1313" stopIfTrue="1">
       <formula>AND(K$2&gt;=$H4,K$2&lt;=$I4)</formula>
     </cfRule>
@@ -25758,7 +25770,7 @@
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K143:AO143 K130:Z132 AB102:AO102 AB104:AO104 AB106:AO106 AB108:AO108 AB116:AO116 AB118:AO118 AB120:AO120 AB122:AO122 AB124:AO124 AB126:AO126 K102:S129 AB128:AO128 X103:Z103 X105:Z105 X107:Z107 X109:Z109 X111:Z111 X113:Z113 X115:Z115 X117:Z117 X119:Z119 X121:Z121 X123:Z123 X125:Z125 X127:Z127 X129:Z129 AB114:AO114 AB110:AO110 AC103:AO103 AC105:AO105 AC107:AO107 AC109:AO109 AB112:AO112 AC111:AO111 AC113:AO113 AC115:AO115 AC117:AO117 AC119:AO119 AC121:AO121 AC123:AO123 AC125:AO125 AC127:AO127 AC129:AO129 K134:Z142 K133:O133 Q133:R133 T133:Z133">
+  <conditionalFormatting sqref="K143:AG143 K130:Z132 AB102:AO102 AB104:AO104 AB106:AO106 AB108:AO108 AB116:AO116 AB118:AO118 AB120:AO120 AB122:AO122 AB124:AO124 AB126:AO126 K102:S129 AB128:AO128 X103:Z103 X105:Z105 X107:Z107 X109:Z109 X111:Z111 X113:Z113 X115:Z115 X117:Z117 X119:Z119 X121:Z121 X123:Z123 X125:Z125 X127:Z127 X129:Z129 AB114:AO114 AB110:AO110 AC103:AO103 AC105:AO105 AC107:AO107 AC109:AO109 AB112:AO112 AC111:AO111 AC113:AO113 AC115:AO115 AC117:AO117 AC119:AO119 AC121:AO121 AC123:AO123 AC125:AO125 AC127:AO127 AC129:AO129 K134:Z142 K133:O133 Q133:R133 T133:Z133 AJ143:AO143">
     <cfRule type="expression" dxfId="120" priority="1348" stopIfTrue="1">
       <formula>AND(K$2&gt;=$H100,K$2&lt;=$I100)</formula>
     </cfRule>

--- a/kagiyaスケジュール表.xlsx
+++ b/kagiyaスケジュール表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kurumi/Desktop/git/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843FF238-4A6A-F344-87BD-B278CF16B1D7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CB9C18-0EF1-1641-8F76-4944E7079A3D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1506,26 +1506,101 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1533,14 +1608,119 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1551,22 +1731,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1575,13 +1758,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1590,191 +1767,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11514,7 +11514,7 @@
       <pane xSplit="7" ySplit="3" topLeftCell="H91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I123" sqref="I123"/>
+      <selection pane="bottomRight" activeCell="K149" sqref="K149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -11532,10 +11532,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80"/>
+      <c r="B1" s="141"/>
       <c r="C1" s="39"/>
       <c r="D1" s="18"/>
       <c r="E1" s="1"/>
@@ -11664,25 +11664,25 @@
       </c>
     </row>
     <row r="2" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="137" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -11691,7 +11691,7 @@
       <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="J2" s="147" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="6">
@@ -11820,9 +11820,9 @@
       </c>
     </row>
     <row r="3" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A3" s="81"/>
+      <c r="A3" s="119"/>
       <c r="B3" s="57"/>
-      <c r="C3" s="64"/>
+      <c r="C3" s="134"/>
       <c r="D3" s="57"/>
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
@@ -11960,21 +11960,21 @@
       </c>
     </row>
     <row r="4" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="90"/>
+      <c r="B4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="146" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="58"/>
+      <c r="G4" s="133"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="56"/>
@@ -12011,12 +12011,12 @@
       <c r="AO4" s="7"/>
     </row>
     <row r="5" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A5" s="81"/>
+      <c r="A5" s="119"/>
       <c r="B5" s="57"/>
-      <c r="C5" s="64"/>
+      <c r="C5" s="134"/>
       <c r="D5" s="8"/>
       <c r="E5" s="57"/>
-      <c r="F5" s="66"/>
+      <c r="F5" s="91"/>
       <c r="G5" s="57"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -12054,25 +12054,25 @@
       <c r="AO5" s="7"/>
     </row>
     <row r="6" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A6" s="65">
+      <c r="A6" s="90">
         <v>1</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="107" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="98" t="s">
         <v>64</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="60"/>
+      <c r="G6" s="136"/>
       <c r="H6" s="12">
         <v>43284</v>
       </c>
@@ -12113,13 +12113,13 @@
       <c r="AO6" s="7"/>
     </row>
     <row r="7" spans="1:41" ht="14">
-      <c r="A7" s="81"/>
+      <c r="A7" s="119"/>
       <c r="B7" s="57"/>
-      <c r="C7" s="64"/>
+      <c r="C7" s="134"/>
       <c r="D7" s="8"/>
       <c r="E7" s="57"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="61"/>
+      <c r="G7" s="65"/>
       <c r="H7" s="12">
         <v>43284</v>
       </c>
@@ -12160,23 +12160,23 @@
       <c r="AO7" s="7"/>
     </row>
     <row r="8" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A8" s="65">
+      <c r="A8" s="90">
         <v>2</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="68" t="s">
+      <c r="B8" s="138"/>
+      <c r="C8" s="95" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="98" t="s">
         <v>65</v>
       </c>
       <c r="F8" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="60"/>
+      <c r="G8" s="136"/>
       <c r="H8" s="12">
         <v>43284</v>
       </c>
@@ -12217,13 +12217,13 @@
       <c r="AO8" s="7"/>
     </row>
     <row r="9" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A9" s="81"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="69"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="93"/>
       <c r="D9" s="28"/>
       <c r="E9" s="57"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="61"/>
+      <c r="G9" s="65"/>
       <c r="H9" s="12">
         <v>43284</v>
       </c>
@@ -12264,21 +12264,21 @@
       <c r="AO9" s="7"/>
     </row>
     <row r="10" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A10" s="65">
+      <c r="A10" s="90">
         <v>3</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="69"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="93"/>
       <c r="D10" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="98" t="s">
         <v>65</v>
       </c>
       <c r="F10" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="G10" s="58"/>
+      <c r="G10" s="133"/>
       <c r="H10" s="11">
         <v>43285</v>
       </c>
@@ -12319,9 +12319,9 @@
       <c r="AO10" s="7"/>
     </row>
     <row r="11" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A11" s="81"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="69"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="93"/>
       <c r="D11" s="14"/>
       <c r="E11" s="57"/>
       <c r="F11" s="9"/>
@@ -12366,21 +12366,21 @@
       <c r="AO11" s="7"/>
     </row>
     <row r="12" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A12" s="65">
+      <c r="A12" s="90">
         <v>4</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="69"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="93"/>
       <c r="D12" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="98" t="s">
         <v>65</v>
       </c>
       <c r="F12" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="G12" s="58"/>
+      <c r="G12" s="133"/>
       <c r="H12" s="12">
         <v>43286</v>
       </c>
@@ -12421,9 +12421,9 @@
       <c r="AO12" s="7"/>
     </row>
     <row r="13" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A13" s="81"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="69"/>
+      <c r="A13" s="119"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="20"/>
       <c r="E13" s="57"/>
       <c r="F13" s="9"/>
@@ -12468,23 +12468,23 @@
       <c r="AO13" s="7"/>
     </row>
     <row r="14" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A14" s="65">
+      <c r="A14" s="90">
         <v>5</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="70" t="s">
+      <c r="B14" s="142"/>
+      <c r="C14" s="130" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="67" t="s">
+      <c r="E14" s="98" t="s">
         <v>66</v>
       </c>
       <c r="F14" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="G14" s="58"/>
+      <c r="G14" s="133"/>
       <c r="H14" s="12">
         <v>43284</v>
       </c>
@@ -12525,9 +12525,9 @@
       <c r="AO14" s="7"/>
     </row>
     <row r="15" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A15" s="81"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="71"/>
+      <c r="A15" s="119"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="131"/>
       <c r="D15" s="13"/>
       <c r="E15" s="57"/>
       <c r="F15" s="9"/>
@@ -12572,21 +12572,21 @@
       <c r="AO15" s="7"/>
     </row>
     <row r="16" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A16" s="65">
+      <c r="A16" s="90">
         <v>6</v>
       </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="71"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="131"/>
       <c r="D16" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="67" t="s">
+      <c r="E16" s="98" t="s">
         <v>66</v>
       </c>
       <c r="F16" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="G16" s="58"/>
+      <c r="G16" s="133"/>
       <c r="H16" s="12">
         <v>43285</v>
       </c>
@@ -12627,9 +12627,9 @@
       <c r="AO16" s="7"/>
     </row>
     <row r="17" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A17" s="81"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="72"/>
+      <c r="A17" s="119"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="132"/>
       <c r="D17" s="14"/>
       <c r="E17" s="57"/>
       <c r="F17" s="9"/>
@@ -12673,23 +12673,23 @@
       <c r="AO17" s="7"/>
     </row>
     <row r="18" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A18" s="65">
+      <c r="A18" s="90">
         <v>7</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="69" t="s">
+      <c r="B18" s="139"/>
+      <c r="C18" s="93" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="67" t="s">
+      <c r="E18" s="98" t="s">
         <v>67</v>
       </c>
       <c r="F18" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="G18" s="58"/>
+      <c r="G18" s="133"/>
       <c r="H18" s="12">
         <v>43284</v>
       </c>
@@ -12730,9 +12730,9 @@
       <c r="AO18" s="7"/>
     </row>
     <row r="19" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A19" s="81"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="69"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="93"/>
       <c r="D19" s="13"/>
       <c r="E19" s="57"/>
       <c r="F19" s="9"/>
@@ -12777,21 +12777,21 @@
       <c r="AO19" s="7"/>
     </row>
     <row r="20" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A20" s="65">
+      <c r="A20" s="90">
         <v>8</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="69"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="93"/>
       <c r="D20" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="98" t="s">
         <v>67</v>
       </c>
       <c r="F20" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="58"/>
+      <c r="G20" s="133"/>
       <c r="H20" s="12">
         <v>43285</v>
       </c>
@@ -12832,9 +12832,9 @@
       <c r="AO20" s="7"/>
     </row>
     <row r="21" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A21" s="81"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="69"/>
+      <c r="A21" s="119"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="93"/>
       <c r="D21" s="14"/>
       <c r="E21" s="57"/>
       <c r="F21" s="9"/>
@@ -12879,21 +12879,21 @@
       <c r="AO21" s="7"/>
     </row>
     <row r="22" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A22" s="65">
+      <c r="A22" s="90">
         <v>9</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="69"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="93"/>
       <c r="D22" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="67" t="s">
+      <c r="E22" s="98" t="s">
         <v>67</v>
       </c>
       <c r="F22" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="G22" s="58"/>
+      <c r="G22" s="133"/>
       <c r="H22" s="12">
         <v>43286</v>
       </c>
@@ -12934,9 +12934,9 @@
       <c r="AO22" s="7"/>
     </row>
     <row r="23" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A23" s="81"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="73"/>
+      <c r="A23" s="119"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="94"/>
       <c r="D23" s="20"/>
       <c r="E23" s="57"/>
       <c r="F23" s="9"/>
@@ -12981,23 +12981,23 @@
       <c r="AO23" s="7"/>
     </row>
     <row r="24" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A24" s="65">
+      <c r="A24" s="90">
         <v>10</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="75" t="s">
+      <c r="B24" s="90"/>
+      <c r="C24" s="107" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="67" t="s">
+      <c r="E24" s="98" t="s">
         <v>64</v>
       </c>
       <c r="F24" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="G24" s="58"/>
+      <c r="G24" s="133"/>
       <c r="H24" s="12">
         <v>43284</v>
       </c>
@@ -13038,9 +13038,9 @@
       <c r="AO24" s="7"/>
     </row>
     <row r="25" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A25" s="81"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="96"/>
+      <c r="A25" s="119"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="108"/>
       <c r="D25" s="20"/>
       <c r="E25" s="57"/>
       <c r="F25" s="9"/>
@@ -13085,23 +13085,23 @@
       <c r="AO25" s="7"/>
     </row>
     <row r="26" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A26" s="65">
+      <c r="A26" s="90">
         <v>11</v>
       </c>
-      <c r="B26" s="130"/>
-      <c r="C26" s="70" t="s">
+      <c r="B26" s="58"/>
+      <c r="C26" s="130" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="98" t="s">
+      <c r="E26" s="123" t="s">
         <v>64</v>
       </c>
       <c r="F26" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="G26" s="58"/>
+      <c r="G26" s="133"/>
       <c r="H26" s="12">
         <v>43286</v>
       </c>
@@ -13142,11 +13142,11 @@
       <c r="AO26" s="7"/>
     </row>
     <row r="27" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A27" s="81"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="97"/>
+      <c r="A27" s="119"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="84"/>
       <c r="D27" s="24"/>
-      <c r="E27" s="61"/>
+      <c r="E27" s="65"/>
       <c r="F27" s="9"/>
       <c r="G27" s="57"/>
       <c r="H27" s="12">
@@ -13189,23 +13189,23 @@
       <c r="AO27" s="7"/>
     </row>
     <row r="28" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A28" s="65">
+      <c r="A28" s="90">
         <v>12</v>
       </c>
-      <c r="B28" s="130"/>
-      <c r="C28" s="70" t="s">
+      <c r="B28" s="58"/>
+      <c r="C28" s="130" t="s">
         <v>32</v>
       </c>
       <c r="D28" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="98" t="s">
+      <c r="E28" s="123" t="s">
         <v>68</v>
       </c>
       <c r="F28" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="58"/>
+      <c r="G28" s="133"/>
       <c r="H28" s="12">
         <v>43285</v>
       </c>
@@ -13246,11 +13246,11 @@
       <c r="AO28" s="7"/>
     </row>
     <row r="29" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A29" s="81"/>
-      <c r="B29" s="106"/>
-      <c r="C29" s="71"/>
+      <c r="A29" s="119"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="131"/>
       <c r="D29" s="24"/>
-      <c r="E29" s="61"/>
+      <c r="E29" s="65"/>
       <c r="F29" s="9"/>
       <c r="G29" s="57"/>
       <c r="H29" s="12">
@@ -13293,21 +13293,21 @@
       <c r="AO29" s="7"/>
     </row>
     <row r="30" spans="1:41" ht="14.25" customHeight="1">
-      <c r="A30" s="65">
+      <c r="A30" s="90">
         <v>13</v>
       </c>
-      <c r="B30" s="130"/>
-      <c r="C30" s="71"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="131"/>
       <c r="D30" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="67" t="s">
+      <c r="E30" s="98" t="s">
         <v>68</v>
       </c>
       <c r="F30" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="G30" s="58"/>
+      <c r="G30" s="133"/>
       <c r="H30" s="12">
         <v>43286</v>
       </c>
@@ -13348,9 +13348,9 @@
       <c r="AO30" s="7"/>
     </row>
     <row r="31" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A31" s="81"/>
-      <c r="B31" s="106"/>
-      <c r="C31" s="72"/>
+      <c r="A31" s="119"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="132"/>
       <c r="D31" s="27"/>
       <c r="E31" s="57"/>
       <c r="F31" s="9"/>
@@ -13395,23 +13395,23 @@
       <c r="AO31" s="7"/>
     </row>
     <row r="32" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A32" s="65">
+      <c r="A32" s="90">
         <v>14</v>
       </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="131" t="s">
+      <c r="B32" s="90"/>
+      <c r="C32" s="92" t="s">
         <v>43</v>
       </c>
       <c r="D32" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="67" t="s">
+      <c r="E32" s="98" t="s">
         <v>69</v>
       </c>
       <c r="F32" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="G32" s="58"/>
+      <c r="G32" s="133"/>
       <c r="H32" s="12">
         <v>43284</v>
       </c>
@@ -13452,9 +13452,9 @@
       <c r="AO32" s="7"/>
     </row>
     <row r="33" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A33" s="81"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="69"/>
+      <c r="A33" s="119"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="93"/>
       <c r="D33" s="20"/>
       <c r="E33" s="57"/>
       <c r="F33" s="9"/>
@@ -13499,21 +13499,21 @@
       <c r="AO33" s="7"/>
     </row>
     <row r="34" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A34" s="65">
+      <c r="A34" s="90">
         <v>15</v>
       </c>
-      <c r="B34" s="65"/>
-      <c r="C34" s="69"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="93"/>
       <c r="D34" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="99" t="s">
+      <c r="E34" s="135" t="s">
         <v>69</v>
       </c>
       <c r="F34" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="G34" s="58"/>
+      <c r="G34" s="133"/>
       <c r="H34" s="12">
         <v>43284</v>
       </c>
@@ -13554,9 +13554,9 @@
       <c r="AO34" s="7"/>
     </row>
     <row r="35" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A35" s="81"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="69"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="93"/>
       <c r="D35" s="20"/>
       <c r="E35" s="57"/>
       <c r="F35" s="9"/>
@@ -13601,21 +13601,21 @@
       <c r="AO35" s="7"/>
     </row>
     <row r="36" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A36" s="65">
+      <c r="A36" s="90">
         <v>16</v>
       </c>
-      <c r="B36" s="65"/>
-      <c r="C36" s="69"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="93"/>
       <c r="D36" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="67" t="s">
+      <c r="E36" s="98" t="s">
         <v>69</v>
       </c>
       <c r="F36" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="G36" s="58"/>
+      <c r="G36" s="133"/>
       <c r="H36" s="12">
         <v>43286</v>
       </c>
@@ -13656,9 +13656,9 @@
       <c r="AO36" s="7"/>
     </row>
     <row r="37" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A37" s="81"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="73"/>
+      <c r="A37" s="119"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="94"/>
       <c r="D37" s="20"/>
       <c r="E37" s="57"/>
       <c r="F37" s="9"/>
@@ -13703,23 +13703,23 @@
       <c r="AO37" s="7"/>
     </row>
     <row r="38" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A38" s="65">
+      <c r="A38" s="90">
         <v>17</v>
       </c>
-      <c r="B38" s="65"/>
-      <c r="C38" s="75" t="s">
+      <c r="B38" s="90"/>
+      <c r="C38" s="107" t="s">
         <v>44</v>
       </c>
       <c r="D38" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="67" t="s">
+      <c r="E38" s="98" t="s">
         <v>69</v>
       </c>
       <c r="F38" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="G38" s="58"/>
+      <c r="G38" s="133"/>
       <c r="H38" s="12">
         <v>43284</v>
       </c>
@@ -13760,9 +13760,9 @@
       <c r="AO38" s="7"/>
     </row>
     <row r="39" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A39" s="81"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="96"/>
+      <c r="A39" s="119"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="108"/>
       <c r="D39" s="20"/>
       <c r="E39" s="57"/>
       <c r="F39" s="9"/>
@@ -13807,23 +13807,23 @@
       <c r="AO39" s="7"/>
     </row>
     <row r="40" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A40" s="65">
+      <c r="A40" s="90">
         <v>18</v>
       </c>
-      <c r="B40" s="65"/>
-      <c r="C40" s="68" t="s">
+      <c r="B40" s="90"/>
+      <c r="C40" s="95" t="s">
         <v>45</v>
       </c>
       <c r="D40" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="67" t="s">
+      <c r="E40" s="98" t="s">
         <v>70</v>
       </c>
       <c r="F40" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="G40" s="58"/>
+      <c r="G40" s="133"/>
       <c r="H40" s="12">
         <v>43284</v>
       </c>
@@ -13864,9 +13864,9 @@
       <c r="AO40" s="7"/>
     </row>
     <row r="41" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A41" s="81"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="69"/>
+      <c r="A41" s="119"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="93"/>
       <c r="D41" s="20"/>
       <c r="E41" s="57"/>
       <c r="F41" s="9"/>
@@ -13911,21 +13911,21 @@
       <c r="AO41" s="7"/>
     </row>
     <row r="42" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A42" s="65">
+      <c r="A42" s="90">
         <v>19</v>
       </c>
-      <c r="B42" s="65"/>
-      <c r="C42" s="69"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="93"/>
       <c r="D42" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="67" t="s">
+      <c r="E42" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="65" t="s">
+      <c r="F42" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="G42" s="58"/>
+      <c r="G42" s="133"/>
       <c r="H42" s="12">
         <v>43285</v>
       </c>
@@ -13966,12 +13966,12 @@
       <c r="AO42" s="7"/>
     </row>
     <row r="43" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A43" s="81"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="69"/>
+      <c r="A43" s="119"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="93"/>
       <c r="D43" s="20"/>
       <c r="E43" s="57"/>
-      <c r="F43" s="66"/>
+      <c r="F43" s="91"/>
       <c r="G43" s="57"/>
       <c r="H43" s="12">
         <v>43284</v>
@@ -14013,21 +14013,21 @@
       <c r="AO43" s="7"/>
     </row>
     <row r="44" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A44" s="65">
+      <c r="A44" s="90">
         <v>20</v>
       </c>
-      <c r="B44" s="77"/>
-      <c r="C44" s="69"/>
+      <c r="B44" s="110"/>
+      <c r="C44" s="93"/>
       <c r="D44" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="67" t="s">
+      <c r="E44" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="65" t="s">
+      <c r="F44" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="G44" s="58"/>
+      <c r="G44" s="133"/>
       <c r="H44" s="12">
         <v>43286</v>
       </c>
@@ -14068,12 +14068,12 @@
       <c r="AO44" s="7"/>
     </row>
     <row r="45" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A45" s="81"/>
-      <c r="B45" s="78"/>
-      <c r="C45" s="73"/>
+      <c r="A45" s="119"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="94"/>
       <c r="D45" s="14"/>
       <c r="E45" s="57"/>
-      <c r="F45" s="66"/>
+      <c r="F45" s="91"/>
       <c r="G45" s="57"/>
       <c r="H45" s="12">
         <v>43285</v>
@@ -14115,23 +14115,23 @@
       <c r="AO45" s="7"/>
     </row>
     <row r="46" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A46" s="65">
+      <c r="A46" s="90">
         <v>21</v>
       </c>
-      <c r="B46" s="65"/>
-      <c r="C46" s="75" t="s">
+      <c r="B46" s="90"/>
+      <c r="C46" s="107" t="s">
         <v>46</v>
       </c>
       <c r="D46" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="67" t="s">
+      <c r="E46" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="F46" s="65" t="s">
+      <c r="F46" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="G46" s="58"/>
+      <c r="G46" s="133"/>
       <c r="H46" s="12">
         <v>43286</v>
       </c>
@@ -14172,12 +14172,12 @@
       <c r="AO46" s="7"/>
     </row>
     <row r="47" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A47" s="81"/>
+      <c r="A47" s="119"/>
       <c r="B47" s="57"/>
-      <c r="C47" s="64"/>
+      <c r="C47" s="134"/>
       <c r="D47" s="8"/>
       <c r="E47" s="57"/>
-      <c r="F47" s="66"/>
+      <c r="F47" s="91"/>
       <c r="G47" s="57"/>
       <c r="H47" s="12">
         <v>43285</v>
@@ -14219,23 +14219,23 @@
       <c r="AO47" s="7"/>
     </row>
     <row r="48" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A48" s="65">
+      <c r="A48" s="90">
         <v>22</v>
       </c>
-      <c r="B48" s="65"/>
-      <c r="C48" s="75" t="s">
+      <c r="B48" s="90"/>
+      <c r="C48" s="107" t="s">
         <v>47</v>
       </c>
       <c r="D48" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E48" s="67" t="s">
+      <c r="E48" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="F48" s="65" t="s">
+      <c r="F48" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="G48" s="58"/>
+      <c r="G48" s="133"/>
       <c r="H48" s="12">
         <v>43284</v>
       </c>
@@ -14276,12 +14276,12 @@
       <c r="AO48" s="7"/>
     </row>
     <row r="49" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A49" s="81"/>
+      <c r="A49" s="119"/>
       <c r="B49" s="57"/>
-      <c r="C49" s="64"/>
+      <c r="C49" s="134"/>
       <c r="D49" s="8"/>
       <c r="E49" s="57"/>
-      <c r="F49" s="66"/>
+      <c r="F49" s="91"/>
       <c r="G49" s="57"/>
       <c r="H49" s="12">
         <v>43284</v>
@@ -14323,23 +14323,23 @@
       <c r="AO49" s="7"/>
     </row>
     <row r="50" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A50" s="65">
+      <c r="A50" s="90">
         <v>23</v>
       </c>
-      <c r="B50" s="77"/>
-      <c r="C50" s="68" t="s">
+      <c r="B50" s="110"/>
+      <c r="C50" s="95" t="s">
         <v>48</v>
       </c>
       <c r="D50" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="67" t="s">
+      <c r="E50" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="F50" s="65" t="s">
+      <c r="F50" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="G50" s="58"/>
+      <c r="G50" s="133"/>
       <c r="H50" s="12">
         <v>43284</v>
       </c>
@@ -14380,12 +14380,12 @@
       <c r="AO50" s="7"/>
     </row>
     <row r="51" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A51" s="81"/>
-      <c r="B51" s="78"/>
-      <c r="C51" s="69"/>
+      <c r="A51" s="119"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="93"/>
       <c r="D51" s="14"/>
       <c r="E51" s="57"/>
-      <c r="F51" s="66"/>
+      <c r="F51" s="91"/>
       <c r="G51" s="57"/>
       <c r="H51" s="12">
         <v>43284</v>
@@ -14427,21 +14427,21 @@
       <c r="AO51" s="7"/>
     </row>
     <row r="52" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A52" s="65">
+      <c r="A52" s="90">
         <v>24</v>
       </c>
-      <c r="B52" s="77"/>
-      <c r="C52" s="132"/>
+      <c r="B52" s="110"/>
+      <c r="C52" s="96"/>
       <c r="D52" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E52" s="98" t="s">
+      <c r="E52" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="F52" s="65" t="s">
+      <c r="F52" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="G52" s="58"/>
+      <c r="G52" s="133"/>
       <c r="H52" s="12">
         <v>43285</v>
       </c>
@@ -14482,12 +14482,12 @@
       <c r="AO52" s="7"/>
     </row>
     <row r="53" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A53" s="81"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="133"/>
+      <c r="A53" s="119"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="97"/>
       <c r="D53" s="24"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="66"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="91"/>
       <c r="G53" s="57"/>
       <c r="H53" s="12">
         <v>43284</v>
@@ -14529,23 +14529,23 @@
       <c r="AO53" s="7"/>
     </row>
     <row r="54" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A54" s="65">
+      <c r="A54" s="90">
         <v>25</v>
       </c>
-      <c r="B54" s="77"/>
+      <c r="B54" s="110"/>
       <c r="C54" s="103" t="s">
         <v>49</v>
       </c>
       <c r="D54" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E54" s="67" t="s">
+      <c r="E54" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="F54" s="65" t="s">
+      <c r="F54" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="G54" s="58"/>
+      <c r="G54" s="133"/>
       <c r="H54" s="12">
         <v>43284</v>
       </c>
@@ -14586,12 +14586,12 @@
       <c r="AO54" s="7"/>
     </row>
     <row r="55" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A55" s="81"/>
-      <c r="B55" s="78"/>
+      <c r="A55" s="119"/>
+      <c r="B55" s="111"/>
       <c r="C55" s="104"/>
       <c r="D55" s="14"/>
       <c r="E55" s="57"/>
-      <c r="F55" s="66"/>
+      <c r="F55" s="91"/>
       <c r="G55" s="57"/>
       <c r="H55" s="12">
         <v>43284</v>
@@ -14633,23 +14633,23 @@
       <c r="AO55" s="7"/>
     </row>
     <row r="56" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A56" s="65">
+      <c r="A56" s="90">
         <v>26</v>
       </c>
-      <c r="B56" s="77"/>
+      <c r="B56" s="110"/>
       <c r="C56" s="103" t="s">
         <v>50</v>
       </c>
       <c r="D56" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E56" s="67" t="s">
+      <c r="E56" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="F56" s="65" t="s">
+      <c r="F56" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="G56" s="58"/>
+      <c r="G56" s="133"/>
       <c r="H56" s="12">
         <v>43284</v>
       </c>
@@ -14690,12 +14690,12 @@
       <c r="AO56" s="7"/>
     </row>
     <row r="57" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A57" s="81"/>
-      <c r="B57" s="78"/>
+      <c r="A57" s="119"/>
+      <c r="B57" s="111"/>
       <c r="C57" s="104"/>
       <c r="D57" s="14"/>
       <c r="E57" s="57"/>
-      <c r="F57" s="66"/>
+      <c r="F57" s="91"/>
       <c r="G57" s="57"/>
       <c r="H57" s="12">
         <v>43285</v>
@@ -14737,23 +14737,23 @@
       <c r="AO57" s="7"/>
     </row>
     <row r="58" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A58" s="65">
+      <c r="A58" s="90">
         <v>27</v>
       </c>
-      <c r="B58" s="65"/>
-      <c r="C58" s="68" t="s">
+      <c r="B58" s="90"/>
+      <c r="C58" s="95" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E58" s="67" t="s">
+      <c r="E58" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="F58" s="65" t="s">
+      <c r="F58" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="G58" s="58"/>
+      <c r="G58" s="133"/>
       <c r="H58" s="12">
         <v>43284</v>
       </c>
@@ -14794,12 +14794,12 @@
       <c r="AO58" s="7"/>
     </row>
     <row r="59" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A59" s="81"/>
-      <c r="B59" s="66"/>
-      <c r="C59" s="69"/>
+      <c r="A59" s="119"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="93"/>
       <c r="D59" s="20"/>
       <c r="E59" s="57"/>
-      <c r="F59" s="66"/>
+      <c r="F59" s="91"/>
       <c r="G59" s="57"/>
       <c r="H59" s="12">
         <v>43284</v>
@@ -14841,21 +14841,21 @@
       <c r="AO59" s="7"/>
     </row>
     <row r="60" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A60" s="65">
+      <c r="A60" s="90">
         <v>28</v>
       </c>
-      <c r="B60" s="65"/>
-      <c r="C60" s="69"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="93"/>
       <c r="D60" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E60" s="67" t="s">
+      <c r="E60" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="F60" s="65" t="s">
+      <c r="F60" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="G60" s="58"/>
+      <c r="G60" s="133"/>
       <c r="H60" s="12">
         <v>43284</v>
       </c>
@@ -14896,12 +14896,12 @@
       <c r="AO60" s="7"/>
     </row>
     <row r="61" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A61" s="81"/>
-      <c r="B61" s="66"/>
-      <c r="C61" s="69"/>
+      <c r="A61" s="119"/>
+      <c r="B61" s="91"/>
+      <c r="C61" s="93"/>
       <c r="D61" s="20"/>
       <c r="E61" s="57"/>
-      <c r="F61" s="66"/>
+      <c r="F61" s="91"/>
       <c r="G61" s="57"/>
       <c r="H61" s="12">
         <v>43284</v>
@@ -14943,21 +14943,21 @@
       <c r="AO61" s="7"/>
     </row>
     <row r="62" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A62" s="65">
+      <c r="A62" s="90">
         <v>29</v>
       </c>
-      <c r="B62" s="65"/>
-      <c r="C62" s="69"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="93"/>
       <c r="D62" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E62" s="67" t="s">
+      <c r="E62" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="F62" s="65" t="s">
+      <c r="F62" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="G62" s="58"/>
+      <c r="G62" s="133"/>
       <c r="H62" s="12">
         <v>43285</v>
       </c>
@@ -14998,12 +14998,12 @@
       <c r="AO62" s="7"/>
     </row>
     <row r="63" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A63" s="81"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="73"/>
+      <c r="A63" s="119"/>
+      <c r="B63" s="91"/>
+      <c r="C63" s="94"/>
       <c r="D63" s="20"/>
-      <c r="E63" s="95"/>
-      <c r="F63" s="66"/>
+      <c r="E63" s="87"/>
+      <c r="F63" s="91"/>
       <c r="G63" s="57"/>
       <c r="H63" s="12">
         <v>43285</v>
@@ -15045,23 +15045,23 @@
       <c r="AO63" s="7"/>
     </row>
     <row r="64" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A64" s="65">
+      <c r="A64" s="90">
         <v>30</v>
       </c>
-      <c r="B64" s="65"/>
-      <c r="C64" s="68" t="s">
+      <c r="B64" s="90"/>
+      <c r="C64" s="95" t="s">
         <v>63</v>
       </c>
       <c r="D64" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E64" s="93" t="s">
+      <c r="E64" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="F64" s="77" t="s">
+      <c r="F64" s="110" t="s">
         <v>137</v>
       </c>
-      <c r="G64" s="58"/>
+      <c r="G64" s="133"/>
       <c r="H64" s="12">
         <v>43285</v>
       </c>
@@ -15102,12 +15102,12 @@
       <c r="AO64" s="7"/>
     </row>
     <row r="65" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A65" s="81"/>
-      <c r="B65" s="66"/>
-      <c r="C65" s="69"/>
+      <c r="A65" s="119"/>
+      <c r="B65" s="91"/>
+      <c r="C65" s="93"/>
       <c r="D65" s="20"/>
-      <c r="E65" s="94"/>
-      <c r="F65" s="78"/>
+      <c r="E65" s="122"/>
+      <c r="F65" s="111"/>
       <c r="G65" s="57"/>
       <c r="H65" s="12">
         <v>43285</v>
@@ -15149,21 +15149,21 @@
       <c r="AO65" s="7"/>
     </row>
     <row r="66" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A66" s="65">
+      <c r="A66" s="90">
         <v>31</v>
       </c>
-      <c r="B66" s="65"/>
-      <c r="C66" s="69"/>
+      <c r="B66" s="90"/>
+      <c r="C66" s="93"/>
       <c r="D66" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E66" s="93" t="s">
+      <c r="E66" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="F66" s="77" t="s">
+      <c r="F66" s="110" t="s">
         <v>137</v>
       </c>
-      <c r="G66" s="58"/>
+      <c r="G66" s="133"/>
       <c r="H66" s="12">
         <v>43286</v>
       </c>
@@ -15204,12 +15204,12 @@
       <c r="AO66" s="7"/>
     </row>
     <row r="67" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A67" s="81"/>
-      <c r="B67" s="66"/>
-      <c r="C67" s="69"/>
+      <c r="A67" s="119"/>
+      <c r="B67" s="91"/>
+      <c r="C67" s="93"/>
       <c r="D67" s="20"/>
-      <c r="E67" s="94"/>
-      <c r="F67" s="78"/>
+      <c r="E67" s="122"/>
+      <c r="F67" s="111"/>
       <c r="G67" s="57"/>
       <c r="H67" s="45">
         <v>43285</v>
@@ -15251,21 +15251,21 @@
       <c r="AO67" s="7"/>
     </row>
     <row r="68" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A68" s="65">
+      <c r="A68" s="90">
         <v>32</v>
       </c>
-      <c r="B68" s="65"/>
-      <c r="C68" s="69"/>
+      <c r="B68" s="90"/>
+      <c r="C68" s="93"/>
       <c r="D68" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E68" s="93" t="s">
+      <c r="E68" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="F68" s="88" t="s">
+      <c r="F68" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G68" s="58"/>
+      <c r="G68" s="133"/>
       <c r="H68" s="12">
         <v>43286</v>
       </c>
@@ -15306,12 +15306,12 @@
       <c r="AO68" s="7"/>
     </row>
     <row r="69" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A69" s="81"/>
-      <c r="B69" s="66"/>
-      <c r="C69" s="73"/>
+      <c r="A69" s="119"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="94"/>
       <c r="D69" s="20"/>
-      <c r="E69" s="94"/>
-      <c r="F69" s="89"/>
+      <c r="E69" s="122"/>
+      <c r="F69" s="67"/>
       <c r="G69" s="57"/>
       <c r="H69" s="12">
         <v>43285</v>
@@ -15353,19 +15353,19 @@
       <c r="AO69" s="7"/>
     </row>
     <row r="70" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A70" s="65">
+      <c r="A70" s="90">
         <v>33</v>
       </c>
-      <c r="B70" s="121" t="s">
+      <c r="B70" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="100"/>
+      <c r="C70" s="128"/>
       <c r="D70" s="19"/>
-      <c r="E70" s="102"/>
-      <c r="F70" s="88" t="s">
+      <c r="E70" s="129"/>
+      <c r="F70" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G70" s="58"/>
+      <c r="G70" s="133"/>
       <c r="H70" s="11">
         <v>43290</v>
       </c>
@@ -15406,12 +15406,12 @@
       <c r="AO70" s="7"/>
     </row>
     <row r="71" spans="1:41" ht="14">
-      <c r="A71" s="81"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="101"/>
+      <c r="A71" s="119"/>
+      <c r="B71" s="91"/>
+      <c r="C71" s="100"/>
       <c r="D71" s="20"/>
-      <c r="E71" s="94"/>
-      <c r="F71" s="89"/>
+      <c r="E71" s="122"/>
+      <c r="F71" s="67"/>
       <c r="G71" s="57"/>
       <c r="H71" s="45">
         <v>43290</v>
@@ -15451,25 +15451,25 @@
       <c r="AO71" s="7"/>
     </row>
     <row r="72" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A72" s="65">
+      <c r="A72" s="90">
         <v>34</v>
       </c>
-      <c r="B72" s="67" t="s">
+      <c r="B72" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="107" t="s">
+      <c r="C72" s="99" t="s">
         <v>75</v>
       </c>
       <c r="D72" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="E72" s="110" t="s">
+      <c r="E72" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="F72" s="88" t="s">
+      <c r="F72" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G72" s="58"/>
+      <c r="G72" s="133"/>
       <c r="H72" s="11">
         <v>43291</v>
       </c>
@@ -15510,12 +15510,12 @@
       <c r="AO72" s="7"/>
     </row>
     <row r="73" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A73" s="81"/>
-      <c r="B73" s="66"/>
-      <c r="C73" s="101"/>
+      <c r="A73" s="119"/>
+      <c r="B73" s="91"/>
+      <c r="C73" s="100"/>
       <c r="D73" s="20"/>
-      <c r="E73" s="111"/>
-      <c r="F73" s="89"/>
+      <c r="E73" s="102"/>
+      <c r="F73" s="67"/>
       <c r="G73" s="57"/>
       <c r="H73" s="12">
         <v>43291</v>
@@ -15557,23 +15557,23 @@
       <c r="AO73" s="7"/>
     </row>
     <row r="74" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A74" s="65">
+      <c r="A74" s="90">
         <v>35</v>
       </c>
-      <c r="B74" s="65"/>
-      <c r="C74" s="107" t="s">
+      <c r="B74" s="90"/>
+      <c r="C74" s="99" t="s">
         <v>76</v>
       </c>
       <c r="D74" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="E74" s="110" t="s">
+      <c r="E74" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="F74" s="88" t="s">
+      <c r="F74" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G74" s="58"/>
+      <c r="G74" s="133"/>
       <c r="H74" s="12">
         <v>43291</v>
       </c>
@@ -15614,12 +15614,12 @@
       <c r="AO74" s="7"/>
     </row>
     <row r="75" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A75" s="81"/>
-      <c r="B75" s="66"/>
-      <c r="C75" s="101"/>
+      <c r="A75" s="119"/>
+      <c r="B75" s="91"/>
+      <c r="C75" s="100"/>
       <c r="D75" s="24"/>
-      <c r="E75" s="111"/>
-      <c r="F75" s="89"/>
+      <c r="E75" s="102"/>
+      <c r="F75" s="67"/>
       <c r="G75" s="57"/>
       <c r="H75" s="12">
         <v>43291</v>
@@ -15661,23 +15661,23 @@
       <c r="AO75" s="7"/>
     </row>
     <row r="76" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A76" s="65">
+      <c r="A76" s="90">
         <v>36</v>
       </c>
-      <c r="B76" s="77"/>
+      <c r="B76" s="110"/>
       <c r="C76" s="103" t="s">
         <v>77</v>
       </c>
       <c r="D76" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="E76" s="108" t="s">
+      <c r="E76" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="F76" s="88" t="s">
+      <c r="F76" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G76" s="58"/>
+      <c r="G76" s="133"/>
       <c r="H76" s="12">
         <v>43291</v>
       </c>
@@ -15718,12 +15718,12 @@
       <c r="AO76" s="7"/>
     </row>
     <row r="77" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A77" s="81"/>
-      <c r="B77" s="78"/>
+      <c r="A77" s="119"/>
+      <c r="B77" s="111"/>
       <c r="C77" s="104"/>
       <c r="D77" s="20"/>
       <c r="E77" s="57"/>
-      <c r="F77" s="89"/>
+      <c r="F77" s="67"/>
       <c r="G77" s="57"/>
       <c r="H77" s="12">
         <v>43291</v>
@@ -15765,23 +15765,23 @@
       <c r="AO77" s="7"/>
     </row>
     <row r="78" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A78" s="65">
+      <c r="A78" s="90">
         <v>37</v>
       </c>
-      <c r="B78" s="65"/>
-      <c r="C78" s="75" t="s">
+      <c r="B78" s="90"/>
+      <c r="C78" s="107" t="s">
         <v>78</v>
       </c>
       <c r="D78" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E78" s="67" t="s">
+      <c r="E78" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="F78" s="88" t="s">
+      <c r="F78" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G78" s="58"/>
+      <c r="G78" s="133"/>
       <c r="H78" s="12">
         <v>43291</v>
       </c>
@@ -15822,12 +15822,12 @@
       <c r="AO78" s="7"/>
     </row>
     <row r="79" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A79" s="81"/>
-      <c r="B79" s="66"/>
-      <c r="C79" s="96"/>
+      <c r="A79" s="119"/>
+      <c r="B79" s="91"/>
+      <c r="C79" s="108"/>
       <c r="D79" s="20"/>
       <c r="E79" s="57"/>
-      <c r="F79" s="89"/>
+      <c r="F79" s="67"/>
       <c r="G79" s="57"/>
       <c r="H79" s="12">
         <v>43291</v>
@@ -15869,23 +15869,23 @@
       <c r="AO79" s="7"/>
     </row>
     <row r="80" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A80" s="65">
+      <c r="A80" s="90">
         <v>38</v>
       </c>
-      <c r="B80" s="65"/>
-      <c r="C80" s="75" t="s">
+      <c r="B80" s="90"/>
+      <c r="C80" s="107" t="s">
         <v>79</v>
       </c>
       <c r="D80" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="E80" s="67" t="s">
+      <c r="E80" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="F80" s="88" t="s">
+      <c r="F80" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G80" s="58"/>
+      <c r="G80" s="133"/>
       <c r="H80" s="12">
         <v>43291</v>
       </c>
@@ -15926,12 +15926,12 @@
       <c r="AO80" s="7"/>
     </row>
     <row r="81" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A81" s="81"/>
-      <c r="B81" s="66"/>
-      <c r="C81" s="96"/>
+      <c r="A81" s="119"/>
+      <c r="B81" s="91"/>
+      <c r="C81" s="108"/>
       <c r="D81" s="20"/>
       <c r="E81" s="57"/>
-      <c r="F81" s="89"/>
+      <c r="F81" s="67"/>
       <c r="G81" s="57"/>
       <c r="H81" s="12">
         <v>43291</v>
@@ -15973,23 +15973,23 @@
       <c r="AO81" s="7"/>
     </row>
     <row r="82" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A82" s="65">
+      <c r="A82" s="90">
         <v>39</v>
       </c>
-      <c r="B82" s="65"/>
-      <c r="C82" s="114" t="s">
+      <c r="B82" s="90"/>
+      <c r="C82" s="127" t="s">
         <v>80</v>
       </c>
       <c r="D82" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="E82" s="67" t="s">
+      <c r="E82" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="F82" s="88" t="s">
+      <c r="F82" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G82" s="58"/>
+      <c r="G82" s="133"/>
       <c r="H82" s="12">
         <v>43291</v>
       </c>
@@ -16030,12 +16030,12 @@
       <c r="AO82" s="7"/>
     </row>
     <row r="83" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A83" s="81"/>
-      <c r="B83" s="66"/>
+      <c r="A83" s="119"/>
+      <c r="B83" s="91"/>
       <c r="C83" s="57"/>
       <c r="D83" s="20"/>
       <c r="E83" s="57"/>
-      <c r="F83" s="89"/>
+      <c r="F83" s="67"/>
       <c r="G83" s="57"/>
       <c r="H83" s="12">
         <v>43291</v>
@@ -16077,23 +16077,23 @@
       <c r="AO83" s="7"/>
     </row>
     <row r="84" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A84" s="65">
+      <c r="A84" s="90">
         <v>40</v>
       </c>
-      <c r="B84" s="65"/>
-      <c r="C84" s="114" t="s">
+      <c r="B84" s="90"/>
+      <c r="C84" s="127" t="s">
         <v>81</v>
       </c>
       <c r="D84" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="E84" s="67" t="s">
+      <c r="E84" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="F84" s="88" t="s">
+      <c r="F84" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G84" s="58"/>
+      <c r="G84" s="133"/>
       <c r="H84" s="12">
         <v>43291</v>
       </c>
@@ -16134,12 +16134,12 @@
       <c r="AO84" s="7"/>
     </row>
     <row r="85" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A85" s="81"/>
-      <c r="B85" s="66"/>
+      <c r="A85" s="119"/>
+      <c r="B85" s="91"/>
       <c r="C85" s="57"/>
       <c r="D85" s="20"/>
       <c r="E85" s="57"/>
-      <c r="F85" s="89"/>
+      <c r="F85" s="67"/>
       <c r="G85" s="57"/>
       <c r="H85" s="12">
         <v>43291</v>
@@ -16181,23 +16181,23 @@
       <c r="AO85" s="7"/>
     </row>
     <row r="86" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A86" s="65">
+      <c r="A86" s="90">
         <v>41</v>
       </c>
-      <c r="B86" s="65"/>
-      <c r="C86" s="113" t="s">
+      <c r="B86" s="90"/>
+      <c r="C86" s="118" t="s">
         <v>82</v>
       </c>
       <c r="D86" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="E86" s="67" t="s">
+      <c r="E86" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="F86" s="88" t="s">
+      <c r="F86" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G86" s="58"/>
+      <c r="G86" s="133"/>
       <c r="H86" s="12">
         <v>43291</v>
       </c>
@@ -16238,12 +16238,12 @@
       <c r="AO86" s="7"/>
     </row>
     <row r="87" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A87" s="81"/>
-      <c r="B87" s="66"/>
-      <c r="C87" s="78"/>
+      <c r="A87" s="119"/>
+      <c r="B87" s="91"/>
+      <c r="C87" s="111"/>
       <c r="D87" s="20"/>
       <c r="E87" s="57"/>
-      <c r="F87" s="89"/>
+      <c r="F87" s="67"/>
       <c r="G87" s="57"/>
       <c r="H87" s="12">
         <v>43291</v>
@@ -16285,23 +16285,23 @@
       <c r="AO87" s="7"/>
     </row>
     <row r="88" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A88" s="65">
+      <c r="A88" s="90">
         <v>42</v>
       </c>
-      <c r="B88" s="77"/>
-      <c r="C88" s="113" t="s">
+      <c r="B88" s="110"/>
+      <c r="C88" s="118" t="s">
         <v>83</v>
       </c>
       <c r="D88" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="E88" s="109" t="s">
+      <c r="E88" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="F88" s="88" t="s">
+      <c r="F88" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G88" s="58"/>
+      <c r="G88" s="133"/>
       <c r="H88" s="12">
         <v>43291</v>
       </c>
@@ -16342,12 +16342,12 @@
       <c r="AO88" s="7"/>
     </row>
     <row r="89" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A89" s="81"/>
-      <c r="B89" s="78"/>
-      <c r="C89" s="78"/>
+      <c r="A89" s="119"/>
+      <c r="B89" s="111"/>
+      <c r="C89" s="111"/>
       <c r="D89" s="20"/>
-      <c r="E89" s="78"/>
-      <c r="F89" s="89"/>
+      <c r="E89" s="111"/>
+      <c r="F89" s="67"/>
       <c r="G89" s="57"/>
       <c r="H89" s="12">
         <v>43291</v>
@@ -16389,23 +16389,23 @@
       <c r="AO89" s="7"/>
     </row>
     <row r="90" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A90" s="65">
+      <c r="A90" s="90">
         <v>43</v>
       </c>
-      <c r="B90" s="77"/>
-      <c r="C90" s="113" t="s">
+      <c r="B90" s="110"/>
+      <c r="C90" s="118" t="s">
         <v>84</v>
       </c>
       <c r="D90" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="E90" s="67" t="s">
+      <c r="E90" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="F90" s="88" t="s">
+      <c r="F90" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G90" s="58"/>
+      <c r="G90" s="133"/>
       <c r="H90" s="12">
         <v>43291</v>
       </c>
@@ -16446,12 +16446,12 @@
       <c r="AO90" s="7"/>
     </row>
     <row r="91" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A91" s="81"/>
-      <c r="B91" s="78"/>
-      <c r="C91" s="78"/>
+      <c r="A91" s="119"/>
+      <c r="B91" s="111"/>
+      <c r="C91" s="111"/>
       <c r="D91" s="20"/>
       <c r="E91" s="57"/>
-      <c r="F91" s="89"/>
+      <c r="F91" s="67"/>
       <c r="G91" s="57"/>
       <c r="H91" s="12">
         <v>43291</v>
@@ -16493,23 +16493,23 @@
       <c r="AO91" s="7"/>
     </row>
     <row r="92" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A92" s="65">
+      <c r="A92" s="90">
         <v>44</v>
       </c>
-      <c r="B92" s="65"/>
-      <c r="C92" s="113" t="s">
+      <c r="B92" s="90"/>
+      <c r="C92" s="118" t="s">
         <v>85</v>
       </c>
       <c r="D92" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E92" s="67" t="s">
+      <c r="E92" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="F92" s="88" t="s">
+      <c r="F92" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G92" s="58"/>
+      <c r="G92" s="133"/>
       <c r="H92" s="12">
         <v>43291</v>
       </c>
@@ -16550,12 +16550,12 @@
       <c r="AO92" s="7"/>
     </row>
     <row r="93" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A93" s="81"/>
-      <c r="B93" s="66"/>
-      <c r="C93" s="78"/>
+      <c r="A93" s="119"/>
+      <c r="B93" s="91"/>
+      <c r="C93" s="111"/>
       <c r="D93" s="20"/>
       <c r="E93" s="57"/>
-      <c r="F93" s="89"/>
+      <c r="F93" s="67"/>
       <c r="G93" s="57"/>
       <c r="H93" s="12">
         <v>43291</v>
@@ -16597,23 +16597,23 @@
       <c r="AO93" s="7"/>
     </row>
     <row r="94" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A94" s="65">
+      <c r="A94" s="90">
         <v>45</v>
       </c>
-      <c r="B94" s="65"/>
-      <c r="C94" s="112" t="s">
+      <c r="B94" s="90"/>
+      <c r="C94" s="86" t="s">
         <v>86</v>
       </c>
       <c r="D94" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E94" s="67" t="s">
+      <c r="E94" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="F94" s="88" t="s">
+      <c r="F94" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G94" s="58"/>
+      <c r="G94" s="133"/>
       <c r="H94" s="12">
         <v>43291</v>
       </c>
@@ -16654,12 +16654,12 @@
       <c r="AO94" s="7"/>
     </row>
     <row r="95" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A95" s="81"/>
-      <c r="B95" s="66"/>
-      <c r="C95" s="95"/>
+      <c r="A95" s="119"/>
+      <c r="B95" s="91"/>
+      <c r="C95" s="87"/>
       <c r="D95" s="20"/>
       <c r="E95" s="57"/>
-      <c r="F95" s="89"/>
+      <c r="F95" s="67"/>
       <c r="G95" s="57"/>
       <c r="H95" s="12">
         <v>43291</v>
@@ -16701,23 +16701,23 @@
       <c r="AO95" s="7"/>
     </row>
     <row r="96" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A96" s="65">
+      <c r="A96" s="90">
         <v>46</v>
       </c>
-      <c r="B96" s="65"/>
-      <c r="C96" s="112" t="s">
+      <c r="B96" s="90"/>
+      <c r="C96" s="86" t="s">
         <v>20</v>
       </c>
       <c r="D96" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="E96" s="67" t="s">
+      <c r="E96" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="F96" s="88" t="s">
+      <c r="F96" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G96" s="58"/>
+      <c r="G96" s="133"/>
       <c r="H96" s="12">
         <v>43291</v>
       </c>
@@ -16758,12 +16758,12 @@
       <c r="AO96" s="7"/>
     </row>
     <row r="97" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A97" s="81"/>
-      <c r="B97" s="66"/>
-      <c r="C97" s="95"/>
+      <c r="A97" s="119"/>
+      <c r="B97" s="91"/>
+      <c r="C97" s="87"/>
       <c r="D97" s="20"/>
       <c r="E97" s="57"/>
-      <c r="F97" s="89"/>
+      <c r="F97" s="67"/>
       <c r="G97" s="57"/>
       <c r="H97" s="12">
         <v>43291</v>
@@ -16805,23 +16805,23 @@
       <c r="AO97" s="7"/>
     </row>
     <row r="98" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A98" s="115">
+      <c r="A98" s="72">
         <v>47</v>
       </c>
-      <c r="B98" s="65"/>
-      <c r="C98" s="112" t="s">
+      <c r="B98" s="90"/>
+      <c r="C98" s="86" t="s">
         <v>21</v>
       </c>
       <c r="D98" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="E98" s="67" t="s">
+      <c r="E98" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="F98" s="88" t="s">
+      <c r="F98" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G98" s="58"/>
+      <c r="G98" s="133"/>
       <c r="H98" s="12">
         <v>43291</v>
       </c>
@@ -16862,12 +16862,12 @@
       <c r="AO98" s="7"/>
     </row>
     <row r="99" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A99" s="116"/>
-      <c r="B99" s="66"/>
-      <c r="C99" s="95"/>
+      <c r="A99" s="73"/>
+      <c r="B99" s="91"/>
+      <c r="C99" s="87"/>
       <c r="D99" s="20"/>
       <c r="E99" s="57"/>
-      <c r="F99" s="89"/>
+      <c r="F99" s="67"/>
       <c r="G99" s="57"/>
       <c r="H99" s="12">
         <v>43291</v>
@@ -16909,23 +16909,23 @@
       <c r="AO99" s="7"/>
     </row>
     <row r="100" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A100" s="115">
+      <c r="A100" s="72">
         <v>48</v>
       </c>
-      <c r="B100" s="65"/>
-      <c r="C100" s="122" t="s">
+      <c r="B100" s="90"/>
+      <c r="C100" s="105" t="s">
         <v>87</v>
       </c>
       <c r="D100" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="E100" s="98" t="s">
+      <c r="E100" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="F100" s="88" t="s">
+      <c r="F100" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G100" s="58"/>
+      <c r="G100" s="133"/>
       <c r="H100" s="12">
         <v>43291</v>
       </c>
@@ -16966,12 +16966,12 @@
       <c r="AO100" s="7"/>
     </row>
     <row r="101" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A101" s="116"/>
-      <c r="B101" s="66"/>
-      <c r="C101" s="123"/>
+      <c r="A101" s="73"/>
+      <c r="B101" s="91"/>
+      <c r="C101" s="106"/>
       <c r="D101" s="21"/>
-      <c r="E101" s="61"/>
-      <c r="F101" s="89"/>
+      <c r="E101" s="65"/>
+      <c r="F101" s="67"/>
       <c r="G101" s="57"/>
       <c r="H101" s="12">
         <v>43291</v>
@@ -17013,23 +17013,23 @@
       <c r="AO101" s="7"/>
     </row>
     <row r="102" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A102" s="115">
+      <c r="A102" s="72">
         <v>49</v>
       </c>
-      <c r="B102" s="65"/>
-      <c r="C102" s="122" t="s">
+      <c r="B102" s="90"/>
+      <c r="C102" s="105" t="s">
         <v>88</v>
       </c>
       <c r="D102" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E102" s="98" t="s">
+      <c r="E102" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="F102" s="88" t="s">
+      <c r="F102" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G102" s="58"/>
+      <c r="G102" s="133"/>
       <c r="H102" s="12">
         <v>43291</v>
       </c>
@@ -17070,12 +17070,12 @@
       <c r="AO102" s="7"/>
     </row>
     <row r="103" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A103" s="116"/>
-      <c r="B103" s="66"/>
-      <c r="C103" s="123"/>
+      <c r="A103" s="73"/>
+      <c r="B103" s="91"/>
+      <c r="C103" s="106"/>
       <c r="D103" s="47"/>
-      <c r="E103" s="61"/>
-      <c r="F103" s="89"/>
+      <c r="E103" s="65"/>
+      <c r="F103" s="67"/>
       <c r="G103" s="57"/>
       <c r="H103" s="12">
         <v>43291</v>
@@ -17117,23 +17117,23 @@
       <c r="AO103" s="7"/>
     </row>
     <row r="104" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A104" s="115">
+      <c r="A104" s="72">
         <v>50</v>
       </c>
-      <c r="B104" s="65"/>
-      <c r="C104" s="105" t="s">
+      <c r="B104" s="90"/>
+      <c r="C104" s="115" t="s">
         <v>89</v>
       </c>
       <c r="D104" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="E104" s="98" t="s">
+      <c r="E104" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="F104" s="88" t="s">
+      <c r="F104" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G104" s="58"/>
+      <c r="G104" s="133"/>
       <c r="H104" s="12">
         <v>43291</v>
       </c>
@@ -17174,12 +17174,12 @@
       <c r="AO104" s="7"/>
     </row>
     <row r="105" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A105" s="116"/>
-      <c r="B105" s="66"/>
-      <c r="C105" s="106"/>
+      <c r="A105" s="73"/>
+      <c r="B105" s="91"/>
+      <c r="C105" s="109"/>
       <c r="D105" s="47"/>
-      <c r="E105" s="78"/>
-      <c r="F105" s="89"/>
+      <c r="E105" s="111"/>
+      <c r="F105" s="67"/>
       <c r="G105" s="57"/>
       <c r="H105" s="12">
         <v>43291</v>
@@ -17221,23 +17221,23 @@
       <c r="AO105" s="7"/>
     </row>
     <row r="106" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A106" s="115">
+      <c r="A106" s="72">
         <v>51</v>
       </c>
-      <c r="B106" s="65"/>
-      <c r="C106" s="105" t="s">
+      <c r="B106" s="90"/>
+      <c r="C106" s="115" t="s">
         <v>90</v>
       </c>
       <c r="D106" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="E106" s="119" t="s">
+      <c r="E106" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="F106" s="88" t="s">
+      <c r="F106" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G106" s="58"/>
+      <c r="G106" s="133"/>
       <c r="H106" s="12">
         <v>43291</v>
       </c>
@@ -17278,12 +17278,12 @@
       <c r="AO106" s="7"/>
     </row>
     <row r="107" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A107" s="116"/>
-      <c r="B107" s="95"/>
-      <c r="C107" s="106"/>
+      <c r="A107" s="73"/>
+      <c r="B107" s="87"/>
+      <c r="C107" s="109"/>
       <c r="D107" s="22"/>
-      <c r="E107" s="120"/>
-      <c r="F107" s="89"/>
+      <c r="E107" s="125"/>
+      <c r="F107" s="67"/>
       <c r="G107" s="57"/>
       <c r="H107" s="12">
         <v>43291</v>
@@ -17325,23 +17325,23 @@
       <c r="AO107" s="7"/>
     </row>
     <row r="108" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A108" s="115">
+      <c r="A108" s="72">
         <v>52</v>
       </c>
-      <c r="B108" s="88"/>
-      <c r="C108" s="105" t="s">
+      <c r="B108" s="66"/>
+      <c r="C108" s="115" t="s">
         <v>91</v>
       </c>
       <c r="D108" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="E108" s="117" t="s">
+      <c r="E108" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="F108" s="88" t="s">
+      <c r="F108" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G108" s="60"/>
+      <c r="G108" s="136"/>
       <c r="H108" s="12">
         <v>43291</v>
       </c>
@@ -17382,13 +17382,13 @@
       <c r="AO108" s="7"/>
     </row>
     <row r="109" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A109" s="116"/>
-      <c r="B109" s="95"/>
-      <c r="C109" s="106"/>
+      <c r="A109" s="73"/>
+      <c r="B109" s="87"/>
+      <c r="C109" s="109"/>
       <c r="D109" s="24"/>
-      <c r="E109" s="118"/>
-      <c r="F109" s="89"/>
-      <c r="G109" s="61"/>
+      <c r="E109" s="113"/>
+      <c r="F109" s="67"/>
+      <c r="G109" s="65"/>
       <c r="H109" s="12">
         <v>43291</v>
       </c>
@@ -17429,23 +17429,23 @@
       <c r="AO109" s="7"/>
     </row>
     <row r="110" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A110" s="115">
+      <c r="A110" s="72">
         <v>53</v>
       </c>
-      <c r="B110" s="124"/>
-      <c r="C110" s="105" t="s">
+      <c r="B110" s="112"/>
+      <c r="C110" s="115" t="s">
         <v>92</v>
       </c>
       <c r="D110" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="E110" s="117" t="s">
+      <c r="E110" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="F110" s="88" t="s">
+      <c r="F110" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G110" s="60"/>
+      <c r="G110" s="136"/>
       <c r="H110" s="12">
         <v>43291</v>
       </c>
@@ -17486,13 +17486,13 @@
       <c r="AO110" s="7"/>
     </row>
     <row r="111" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A111" s="116"/>
-      <c r="B111" s="118"/>
-      <c r="C111" s="106"/>
+      <c r="A111" s="73"/>
+      <c r="B111" s="113"/>
+      <c r="C111" s="109"/>
       <c r="D111" s="24"/>
-      <c r="E111" s="118"/>
-      <c r="F111" s="89"/>
-      <c r="G111" s="61"/>
+      <c r="E111" s="113"/>
+      <c r="F111" s="67"/>
+      <c r="G111" s="65"/>
       <c r="H111" s="12">
         <v>43291</v>
       </c>
@@ -17533,23 +17533,23 @@
       <c r="AO111" s="7"/>
     </row>
     <row r="112" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A112" s="115">
+      <c r="A112" s="72">
         <v>54</v>
       </c>
-      <c r="B112" s="124"/>
-      <c r="C112" s="105" t="s">
+      <c r="B112" s="112"/>
+      <c r="C112" s="115" t="s">
         <v>93</v>
       </c>
       <c r="D112" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="E112" s="117" t="s">
+      <c r="E112" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="F112" s="88" t="s">
+      <c r="F112" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G112" s="60"/>
+      <c r="G112" s="136"/>
       <c r="H112" s="12">
         <v>43291</v>
       </c>
@@ -17590,13 +17590,13 @@
       <c r="AO112" s="7"/>
     </row>
     <row r="113" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A113" s="116"/>
-      <c r="B113" s="118"/>
-      <c r="C113" s="106"/>
+      <c r="A113" s="73"/>
+      <c r="B113" s="113"/>
+      <c r="C113" s="109"/>
       <c r="D113" s="24"/>
-      <c r="E113" s="118"/>
-      <c r="F113" s="89"/>
-      <c r="G113" s="61"/>
+      <c r="E113" s="113"/>
+      <c r="F113" s="67"/>
+      <c r="G113" s="65"/>
       <c r="H113" s="12">
         <v>43291</v>
       </c>
@@ -17637,23 +17637,23 @@
       <c r="AO113" s="7"/>
     </row>
     <row r="114" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A114" s="115">
+      <c r="A114" s="72">
         <v>55</v>
       </c>
-      <c r="B114" s="124"/>
-      <c r="C114" s="126" t="s">
+      <c r="B114" s="112"/>
+      <c r="C114" s="116" t="s">
         <v>106</v>
       </c>
       <c r="D114" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="E114" s="117" t="s">
+      <c r="E114" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="F114" s="88" t="s">
+      <c r="F114" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G114" s="60"/>
+      <c r="G114" s="136"/>
       <c r="H114" s="12">
         <v>43291</v>
       </c>
@@ -17694,13 +17694,13 @@
       <c r="AO114" s="7"/>
     </row>
     <row r="115" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A115" s="116"/>
-      <c r="B115" s="118"/>
-      <c r="C115" s="127"/>
+      <c r="A115" s="73"/>
+      <c r="B115" s="113"/>
+      <c r="C115" s="117"/>
       <c r="D115" s="24"/>
-      <c r="E115" s="118"/>
-      <c r="F115" s="89"/>
-      <c r="G115" s="61"/>
+      <c r="E115" s="113"/>
+      <c r="F115" s="67"/>
+      <c r="G115" s="65"/>
       <c r="H115" s="12">
         <v>43291</v>
       </c>
@@ -17741,23 +17741,23 @@
       <c r="AO115" s="7"/>
     </row>
     <row r="116" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A116" s="115">
+      <c r="A116" s="72">
         <v>56</v>
       </c>
-      <c r="B116" s="124"/>
-      <c r="C116" s="113" t="s">
+      <c r="B116" s="112"/>
+      <c r="C116" s="118" t="s">
         <v>50</v>
       </c>
       <c r="D116" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="E116" s="117" t="s">
+      <c r="E116" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="F116" s="88" t="s">
+      <c r="F116" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G116" s="60"/>
+      <c r="G116" s="136"/>
       <c r="H116" s="12">
         <v>43291</v>
       </c>
@@ -17798,13 +17798,13 @@
       <c r="AO116" s="7"/>
     </row>
     <row r="117" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A117" s="116"/>
-      <c r="B117" s="118"/>
-      <c r="C117" s="78"/>
+      <c r="A117" s="73"/>
+      <c r="B117" s="113"/>
+      <c r="C117" s="111"/>
       <c r="D117" s="24"/>
-      <c r="E117" s="78"/>
-      <c r="F117" s="89"/>
-      <c r="G117" s="78"/>
+      <c r="E117" s="111"/>
+      <c r="F117" s="67"/>
+      <c r="G117" s="111"/>
       <c r="H117" s="12">
         <v>43291</v>
       </c>
@@ -17845,23 +17845,23 @@
       <c r="AO117" s="7"/>
     </row>
     <row r="118" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A118" s="115">
+      <c r="A118" s="72">
         <v>57</v>
       </c>
-      <c r="B118" s="124"/>
-      <c r="C118" s="112" t="s">
+      <c r="B118" s="112"/>
+      <c r="C118" s="86" t="s">
         <v>94</v>
       </c>
       <c r="D118" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="E118" s="128" t="s">
+      <c r="E118" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="F118" s="88" t="s">
+      <c r="F118" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G118" s="90"/>
+      <c r="G118" s="79"/>
       <c r="H118" s="12">
         <v>43291</v>
       </c>
@@ -17902,13 +17902,13 @@
       <c r="AO118" s="7"/>
     </row>
     <row r="119" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A119" s="116"/>
-      <c r="B119" s="118"/>
-      <c r="C119" s="95"/>
+      <c r="A119" s="73"/>
+      <c r="B119" s="113"/>
+      <c r="C119" s="87"/>
       <c r="D119" s="23"/>
-      <c r="E119" s="129"/>
-      <c r="F119" s="89"/>
-      <c r="G119" s="91"/>
+      <c r="E119" s="78"/>
+      <c r="F119" s="67"/>
+      <c r="G119" s="80"/>
       <c r="H119" s="12">
         <v>43291</v>
       </c>
@@ -17949,23 +17949,23 @@
       <c r="AO119" s="7"/>
     </row>
     <row r="120" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A120" s="115">
+      <c r="A120" s="72">
         <v>58</v>
       </c>
-      <c r="B120" s="125"/>
-      <c r="C120" s="112" t="s">
+      <c r="B120" s="64"/>
+      <c r="C120" s="86" t="s">
         <v>95</v>
       </c>
       <c r="D120" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="E120" s="109" t="s">
+      <c r="E120" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="F120" s="88" t="s">
+      <c r="F120" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G120" s="87"/>
+      <c r="G120" s="68"/>
       <c r="H120" s="12">
         <v>43291</v>
       </c>
@@ -18006,12 +18006,12 @@
       <c r="AO120" s="7"/>
     </row>
     <row r="121" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A121" s="116"/>
-      <c r="B121" s="61"/>
-      <c r="C121" s="95"/>
+      <c r="A121" s="73"/>
+      <c r="B121" s="65"/>
+      <c r="C121" s="87"/>
       <c r="D121" s="24"/>
-      <c r="E121" s="61"/>
-      <c r="F121" s="89"/>
+      <c r="E121" s="65"/>
+      <c r="F121" s="67"/>
       <c r="G121" s="57"/>
       <c r="H121" s="12">
         <v>43291</v>
@@ -18053,30 +18053,30 @@
       <c r="AO121" s="7"/>
     </row>
     <row r="122" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A122" s="115">
+      <c r="A122" s="72">
         <v>59</v>
       </c>
-      <c r="B122" s="125"/>
-      <c r="C122" s="112" t="s">
+      <c r="B122" s="64"/>
+      <c r="C122" s="86" t="s">
         <v>96</v>
       </c>
       <c r="D122" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="E122" s="128" t="s">
+      <c r="E122" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="F122" s="88" t="s">
+      <c r="F122" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G122" s="90"/>
+      <c r="G122" s="79"/>
       <c r="H122" s="12">
         <v>43291</v>
       </c>
       <c r="I122" s="12">
         <v>43297</v>
       </c>
-      <c r="J122" s="92"/>
+      <c r="J122" s="69"/>
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
@@ -18110,20 +18110,20 @@
       <c r="AO122" s="7"/>
     </row>
     <row r="123" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A123" s="116"/>
-      <c r="B123" s="61"/>
-      <c r="C123" s="95"/>
+      <c r="A123" s="73"/>
+      <c r="B123" s="65"/>
+      <c r="C123" s="87"/>
       <c r="D123" s="23"/>
-      <c r="E123" s="129"/>
-      <c r="F123" s="89"/>
-      <c r="G123" s="91"/>
+      <c r="E123" s="78"/>
+      <c r="F123" s="67"/>
+      <c r="G123" s="80"/>
       <c r="H123" s="12">
         <v>43291</v>
       </c>
       <c r="I123" s="12">
         <v>43299</v>
       </c>
-      <c r="J123" s="61"/>
+      <c r="J123" s="65"/>
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
       <c r="M123" s="7"/>
@@ -18157,23 +18157,23 @@
       <c r="AO123" s="7"/>
     </row>
     <row r="124" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A124" s="115">
+      <c r="A124" s="72">
         <v>60</v>
       </c>
-      <c r="B124" s="125"/>
-      <c r="C124" s="112" t="s">
+      <c r="B124" s="64"/>
+      <c r="C124" s="86" t="s">
         <v>97</v>
       </c>
       <c r="D124" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="E124" s="109" t="s">
+      <c r="E124" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="F124" s="88" t="s">
+      <c r="F124" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G124" s="87"/>
+      <c r="G124" s="68"/>
       <c r="H124" s="12">
         <v>43291</v>
       </c>
@@ -18214,12 +18214,12 @@
       <c r="AO124" s="7"/>
     </row>
     <row r="125" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A125" s="116"/>
-      <c r="B125" s="61"/>
-      <c r="C125" s="95"/>
+      <c r="A125" s="73"/>
+      <c r="B125" s="65"/>
+      <c r="C125" s="87"/>
       <c r="D125" s="24"/>
-      <c r="E125" s="61"/>
-      <c r="F125" s="89"/>
+      <c r="E125" s="65"/>
+      <c r="F125" s="67"/>
       <c r="G125" s="57"/>
       <c r="H125" s="12">
         <v>43291</v>
@@ -18261,30 +18261,30 @@
       <c r="AO125" s="7"/>
     </row>
     <row r="126" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A126" s="115">
+      <c r="A126" s="72">
         <v>61</v>
       </c>
-      <c r="B126" s="125"/>
-      <c r="C126" s="112" t="s">
+      <c r="B126" s="64"/>
+      <c r="C126" s="86" t="s">
         <v>98</v>
       </c>
       <c r="D126" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="E126" s="128" t="s">
+      <c r="E126" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="F126" s="88" t="s">
+      <c r="F126" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G126" s="90"/>
+      <c r="G126" s="79"/>
       <c r="H126" s="12">
         <v>43291</v>
       </c>
       <c r="I126" s="12">
         <v>43297</v>
       </c>
-      <c r="J126" s="92"/>
+      <c r="J126" s="69"/>
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
@@ -18318,20 +18318,20 @@
       <c r="AO126" s="7"/>
     </row>
     <row r="127" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A127" s="116"/>
-      <c r="B127" s="61"/>
-      <c r="C127" s="95"/>
+      <c r="A127" s="73"/>
+      <c r="B127" s="65"/>
+      <c r="C127" s="87"/>
       <c r="D127" s="23"/>
-      <c r="E127" s="129"/>
-      <c r="F127" s="89"/>
-      <c r="G127" s="91"/>
+      <c r="E127" s="78"/>
+      <c r="F127" s="67"/>
+      <c r="G127" s="80"/>
       <c r="H127" s="12">
         <v>43291</v>
       </c>
       <c r="I127" s="12">
         <v>43299</v>
       </c>
-      <c r="J127" s="61"/>
+      <c r="J127" s="65"/>
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
       <c r="M127" s="7"/>
@@ -18365,23 +18365,23 @@
       <c r="AO127" s="7"/>
     </row>
     <row r="128" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A128" s="115">
+      <c r="A128" s="72">
         <v>62</v>
       </c>
-      <c r="B128" s="125"/>
-      <c r="C128" s="112" t="s">
+      <c r="B128" s="64"/>
+      <c r="C128" s="86" t="s">
         <v>99</v>
       </c>
       <c r="D128" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="E128" s="109" t="s">
+      <c r="E128" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="F128" s="88" t="s">
+      <c r="F128" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G128" s="87"/>
+      <c r="G128" s="68"/>
       <c r="H128" s="12">
         <v>43291</v>
       </c>
@@ -18422,12 +18422,12 @@
       <c r="AO128" s="7"/>
     </row>
     <row r="129" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A129" s="116"/>
-      <c r="B129" s="61"/>
-      <c r="C129" s="95"/>
+      <c r="A129" s="73"/>
+      <c r="B129" s="65"/>
+      <c r="C129" s="87"/>
       <c r="D129" s="24"/>
-      <c r="E129" s="61"/>
-      <c r="F129" s="89"/>
+      <c r="E129" s="65"/>
+      <c r="F129" s="67"/>
       <c r="G129" s="57"/>
       <c r="H129" s="12">
         <v>43291</v>
@@ -18469,18 +18469,18 @@
       <c r="AO129" s="7"/>
     </row>
     <row r="130" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A130" s="115">
+      <c r="A130" s="72">
         <v>63</v>
       </c>
-      <c r="B130" s="139"/>
-      <c r="C130" s="136"/>
+      <c r="B130" s="81"/>
+      <c r="C130" s="83"/>
       <c r="D130" s="22"/>
-      <c r="E130" s="137"/>
-      <c r="F130" s="88"/>
-      <c r="G130" s="90"/>
+      <c r="E130" s="77"/>
+      <c r="F130" s="66"/>
+      <c r="G130" s="79"/>
       <c r="H130" s="12"/>
       <c r="I130" s="12"/>
-      <c r="J130" s="92"/>
+      <c r="J130" s="69"/>
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
@@ -18514,16 +18514,16 @@
       <c r="AO130" s="7"/>
     </row>
     <row r="131" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A131" s="116"/>
-      <c r="B131" s="83"/>
-      <c r="C131" s="97"/>
+      <c r="A131" s="73"/>
+      <c r="B131" s="82"/>
+      <c r="C131" s="84"/>
       <c r="D131" s="23"/>
-      <c r="E131" s="129"/>
-      <c r="F131" s="89"/>
-      <c r="G131" s="91"/>
+      <c r="E131" s="78"/>
+      <c r="F131" s="67"/>
+      <c r="G131" s="80"/>
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
-      <c r="J131" s="61"/>
+      <c r="J131" s="65"/>
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
@@ -18557,21 +18557,21 @@
       <c r="AO131" s="7"/>
     </row>
     <row r="132" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A132" s="115">
+      <c r="A132" s="72">
         <v>64</v>
       </c>
-      <c r="B132" s="134" t="s">
+      <c r="B132" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="C132" s="138" t="s">
+      <c r="C132" s="85" t="s">
         <v>101</v>
       </c>
       <c r="D132" s="22"/>
-      <c r="E132" s="125"/>
-      <c r="F132" s="88" t="s">
+      <c r="E132" s="64"/>
+      <c r="F132" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G132" s="87"/>
+      <c r="G132" s="68"/>
       <c r="H132" s="12">
         <v>43299</v>
       </c>
@@ -18612,12 +18612,12 @@
       <c r="AO132" s="7"/>
     </row>
     <row r="133" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A133" s="116"/>
-      <c r="B133" s="135"/>
-      <c r="C133" s="135"/>
+      <c r="A133" s="73"/>
+      <c r="B133" s="75"/>
+      <c r="C133" s="75"/>
       <c r="D133" s="24"/>
-      <c r="E133" s="61"/>
-      <c r="F133" s="89"/>
+      <c r="E133" s="65"/>
+      <c r="F133" s="67"/>
       <c r="G133" s="57"/>
       <c r="H133" s="12">
         <v>43287</v>
@@ -18659,26 +18659,26 @@
       <c r="AO133" s="7"/>
     </row>
     <row r="134" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A134" s="115">
+      <c r="A134" s="72">
         <v>65</v>
       </c>
-      <c r="B134" s="134"/>
-      <c r="C134" s="140" t="s">
+      <c r="B134" s="74"/>
+      <c r="C134" s="62" t="s">
         <v>102</v>
       </c>
       <c r="D134" s="22"/>
-      <c r="E134" s="137"/>
-      <c r="F134" s="88" t="s">
+      <c r="E134" s="77"/>
+      <c r="F134" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G134" s="90"/>
+      <c r="G134" s="79"/>
       <c r="H134" s="12">
         <v>43299</v>
       </c>
       <c r="I134" s="12">
         <v>43306</v>
       </c>
-      <c r="J134" s="92"/>
+      <c r="J134" s="69"/>
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
@@ -18712,20 +18712,20 @@
       <c r="AO134" s="7"/>
     </row>
     <row r="135" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A135" s="116"/>
-      <c r="B135" s="135"/>
-      <c r="C135" s="141"/>
+      <c r="A135" s="73"/>
+      <c r="B135" s="75"/>
+      <c r="C135" s="76"/>
       <c r="D135" s="23"/>
-      <c r="E135" s="129"/>
-      <c r="F135" s="89"/>
-      <c r="G135" s="91"/>
+      <c r="E135" s="78"/>
+      <c r="F135" s="67"/>
+      <c r="G135" s="80"/>
       <c r="H135" s="45">
         <v>43299</v>
       </c>
       <c r="I135" s="12">
         <v>43299</v>
       </c>
-      <c r="J135" s="61"/>
+      <c r="J135" s="65"/>
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
       <c r="M135" s="7"/>
@@ -18759,21 +18759,21 @@
       <c r="AO135" s="7"/>
     </row>
     <row r="136" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A136" s="115">
+      <c r="A136" s="72">
         <v>66</v>
       </c>
-      <c r="B136" s="134" t="s">
+      <c r="B136" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="C136" s="140" t="s">
+      <c r="C136" s="62" t="s">
         <v>104</v>
       </c>
       <c r="D136" s="22"/>
-      <c r="E136" s="125"/>
-      <c r="F136" s="88" t="s">
+      <c r="E136" s="64"/>
+      <c r="F136" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G136" s="87"/>
+      <c r="G136" s="68"/>
       <c r="H136" s="12">
         <v>43304</v>
       </c>
@@ -18814,12 +18814,12 @@
       <c r="AO136" s="48"/>
     </row>
     <row r="137" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A137" s="116"/>
-      <c r="B137" s="135"/>
-      <c r="C137" s="141"/>
+      <c r="A137" s="73"/>
+      <c r="B137" s="75"/>
+      <c r="C137" s="76"/>
       <c r="D137" s="24"/>
-      <c r="E137" s="61"/>
-      <c r="F137" s="89"/>
+      <c r="E137" s="65"/>
+      <c r="F137" s="67"/>
       <c r="G137" s="57"/>
       <c r="H137" s="12">
         <v>43300</v>
@@ -18861,26 +18861,26 @@
       <c r="AO137" s="7"/>
     </row>
     <row r="138" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A138" s="115">
+      <c r="A138" s="72">
         <v>67</v>
       </c>
-      <c r="B138" s="134"/>
-      <c r="C138" s="140" t="s">
+      <c r="B138" s="74"/>
+      <c r="C138" s="62" t="s">
         <v>102</v>
       </c>
       <c r="D138" s="22"/>
-      <c r="E138" s="137"/>
-      <c r="F138" s="88" t="s">
+      <c r="E138" s="77"/>
+      <c r="F138" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G138" s="90"/>
+      <c r="G138" s="79"/>
       <c r="H138" s="12">
         <v>43304</v>
       </c>
       <c r="I138" s="45">
         <v>43312</v>
       </c>
-      <c r="J138" s="92"/>
+      <c r="J138" s="69"/>
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
       <c r="M138" s="7"/>
@@ -18914,20 +18914,20 @@
       <c r="AO138" s="48"/>
     </row>
     <row r="139" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A139" s="116"/>
-      <c r="B139" s="135"/>
-      <c r="C139" s="141"/>
+      <c r="A139" s="73"/>
+      <c r="B139" s="75"/>
+      <c r="C139" s="76"/>
       <c r="D139" s="23"/>
-      <c r="E139" s="129"/>
-      <c r="F139" s="89"/>
-      <c r="G139" s="91"/>
+      <c r="E139" s="78"/>
+      <c r="F139" s="67"/>
+      <c r="G139" s="80"/>
       <c r="H139" s="12">
         <v>43300</v>
       </c>
       <c r="I139" s="12">
         <v>43301</v>
       </c>
-      <c r="J139" s="61"/>
+      <c r="J139" s="65"/>
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
       <c r="M139" s="7"/>
@@ -18961,21 +18961,21 @@
       <c r="AO139" s="7"/>
     </row>
     <row r="140" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A140" s="115">
+      <c r="A140" s="72">
         <v>68</v>
       </c>
-      <c r="B140" s="143" t="s">
+      <c r="B140" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="C140" s="140" t="s">
+      <c r="C140" s="62" t="s">
         <v>101</v>
       </c>
       <c r="D140" s="22"/>
-      <c r="E140" s="125"/>
-      <c r="F140" s="88" t="s">
+      <c r="E140" s="64"/>
+      <c r="F140" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="G140" s="87"/>
+      <c r="G140" s="68"/>
       <c r="H140" s="12">
         <v>43306</v>
       </c>
@@ -19016,12 +19016,12 @@
       <c r="AO140" s="48"/>
     </row>
     <row r="141" spans="1:41" s="29" customFormat="1" ht="14" customHeight="1">
-      <c r="A141" s="116"/>
-      <c r="B141" s="144"/>
-      <c r="C141" s="145"/>
+      <c r="A141" s="73"/>
+      <c r="B141" s="61"/>
+      <c r="C141" s="63"/>
       <c r="D141" s="24"/>
-      <c r="E141" s="61"/>
-      <c r="F141" s="89"/>
+      <c r="E141" s="65"/>
+      <c r="F141" s="67"/>
       <c r="G141" s="57"/>
       <c r="H141" s="12">
         <v>43304</v>
@@ -19053,34 +19053,34 @@
       <c r="AG141" s="7"/>
       <c r="AH141" s="52"/>
       <c r="AI141" s="52"/>
-      <c r="AJ141" s="7"/>
-      <c r="AK141" s="7"/>
+      <c r="AJ141" s="52"/>
+      <c r="AK141" s="52"/>
       <c r="AL141" s="7"/>
       <c r="AM141" s="7"/>
-      <c r="AN141" s="7"/>
+      <c r="AN141" s="52"/>
       <c r="AO141" s="7"/>
     </row>
     <row r="142" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A142" s="130">
+      <c r="A142" s="58">
         <v>69</v>
       </c>
-      <c r="B142" s="143"/>
-      <c r="C142" s="146" t="s">
+      <c r="B142" s="60"/>
+      <c r="C142" s="70" t="s">
         <v>102</v>
       </c>
       <c r="D142" s="22"/>
-      <c r="E142" s="125"/>
-      <c r="F142" s="88" t="s">
+      <c r="E142" s="64"/>
+      <c r="F142" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="G142" s="87"/>
+      <c r="G142" s="68"/>
       <c r="H142" s="12">
         <v>43306</v>
       </c>
       <c r="I142" s="45">
         <v>43312</v>
       </c>
-      <c r="J142" s="92"/>
+      <c r="J142" s="69"/>
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
       <c r="M142" s="7"/>
@@ -19114,18 +19114,18 @@
       <c r="AO142" s="48"/>
     </row>
     <row r="143" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A143" s="142"/>
-      <c r="B143" s="144"/>
-      <c r="C143" s="147"/>
+      <c r="A143" s="59"/>
+      <c r="B143" s="61"/>
+      <c r="C143" s="71"/>
       <c r="D143" s="24"/>
-      <c r="E143" s="61"/>
-      <c r="F143" s="89"/>
+      <c r="E143" s="65"/>
+      <c r="F143" s="67"/>
       <c r="G143" s="57"/>
       <c r="H143" s="12">
         <v>43304</v>
       </c>
       <c r="I143" s="17"/>
-      <c r="J143" s="61"/>
+      <c r="J143" s="65"/>
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
       <c r="M143" s="7"/>
@@ -19151,11 +19151,11 @@
       <c r="AG143" s="7"/>
       <c r="AH143" s="52"/>
       <c r="AI143" s="52"/>
-      <c r="AJ143" s="7"/>
-      <c r="AK143" s="7"/>
+      <c r="AJ143" s="52"/>
+      <c r="AK143" s="52"/>
       <c r="AL143" s="7"/>
       <c r="AM143" s="7"/>
-      <c r="AN143" s="7"/>
+      <c r="AN143" s="52"/>
       <c r="AO143" s="7"/>
     </row>
     <row r="144" spans="1:41" ht="15.75" customHeight="1"/>
@@ -20002,73 +20002,381 @@
     <row r="985" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="466">
-    <mergeCell ref="J140:J141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="G140:G141"/>
-    <mergeCell ref="J142:J143"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="G142:G143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="J138:J139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="G138:G139"/>
-    <mergeCell ref="J134:J135"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="J130:J131"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="J126:J127"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="J136:J137"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="J124:J125"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="J128:J129"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="J132:J133"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="J122:J123"/>
+    <mergeCell ref="J120:J121"/>
+    <mergeCell ref="J118:J119"/>
+    <mergeCell ref="J116:J117"/>
+    <mergeCell ref="J96:J97"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="J106:J107"/>
+    <mergeCell ref="J110:J111"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="J112:J113"/>
+    <mergeCell ref="J114:J115"/>
+    <mergeCell ref="J102:J103"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="J92:J93"/>
+    <mergeCell ref="J100:J101"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="C124:C125"/>
@@ -20093,381 +20401,73 @@
     <mergeCell ref="C122:C123"/>
     <mergeCell ref="E122:E123"/>
     <mergeCell ref="F122:F123"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="J86:J87"/>
-    <mergeCell ref="J122:J123"/>
-    <mergeCell ref="J120:J121"/>
-    <mergeCell ref="J118:J119"/>
-    <mergeCell ref="J116:J117"/>
-    <mergeCell ref="J96:J97"/>
-    <mergeCell ref="J94:J95"/>
-    <mergeCell ref="J104:J105"/>
-    <mergeCell ref="J106:J107"/>
-    <mergeCell ref="J110:J111"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="J112:J113"/>
-    <mergeCell ref="J114:J115"/>
-    <mergeCell ref="J102:J103"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="J90:J91"/>
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="J92:J93"/>
-    <mergeCell ref="J100:J101"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="F128:F129"/>
+    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="J124:J125"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="J128:J129"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="J132:J133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="J134:J135"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="J130:J131"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="J126:J127"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="J136:J137"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="J140:J141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="J142:J143"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="G142:G143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:B141"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="K8">
@@ -21370,7 +21370,7 @@
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:N5 O4:P6 K6:L7 N6 K17 Q4:AO20 AA131:AO132 K24:AO24 T100:Y100 T102:Y102 T104:Y104 T106:Y106 T108:Y108 T110:Y110 T112:U112 T114:Y114 T116:Y116 T118:Y118 T120:Y120 T122:Y122 T124:Y124 T126:Y126 T128:Y128 K8:N8 K10:P10 K18:P18 K9:L9 K12:P12 K11:L11 K16:P16 K15:L15 K20:P20 K19:L19 K23:L23 Q23:AO23 K26:AO26 K25:L25 Q25:AO25 K28:AO28 K27:L27 Q27:AO27 K30:AO30 K29:L29 Q29:AO29 K34:AO34 K33:L33 Q33:AO33 K36:AO36 K35:L35 Q35:AO35 K38:AO38 K37:L37 Q37:AO37 K42:AO42 K41:L41 Q41:AO41 K43:L43 K50:AO50 K49:L49 Q49:AO49 K52:AO52 K51:L51 Q51:AO51 K54:AO54 K53:L53 Q53:AO53 K56:AO56 K55:L55 Q55:AO55 K58:AO58 K57:L57 Q57:AO57 K60:AO60 K59:L59 Q59:AO59 K62:AO62 K61:L61 Q61:AO61 K46:AO46 K44:M45 K14:P14 K13:M13 K32:AO32 K31:M31 Q31:AO31 K40:AO40 K39:M39 Q39:AO39 O44:AO44 K48:AO48 K47:M47 Q47:AO47 K64:AO64 K63:M63 Q63:AO63 K66:AO66 K65:M65 Q65:AO65 K68:AO68 K67:M67 Q67:AO67 K69:M69 Q69:AO69 K72:Y72 K71:M71 P71:R71 Q43:AO43 Q45:AO45 K70:AO70 T71:AO71 K73:S73 X73:Z73 K75:S75 X75:Z75 K77:S77 X77:Z77 K79:S79 X79:Z79 K81:S81 X81:Z81 K83:S83 X83:Z83 K85:S85 X85:Z85 K87:S87 X87:Z87 K89:S89 X89:Z89 K91:S91 X91:Z91 K93:S93 X93:Z93 K95:S95 X95:Z95 K97:S97 X97:Z97 K99:S99 X99:Y99 AB72:AO72 K74:Y74 K76:Y76 K78:Y78 K80:Y80 K82:Y82 K84:Y84 K86:Y86 K88:Y88 K90:Y90 K92:Y92 K94:Y94 K96:Y96 K98:Y98 AA96:AO96 AA94:AO94 AA92:AO92 AA98:AO98 AA90:AO90 AA88:AO88 AA86:AO86 AA84:AO84 AA82:AO82 AA80:AO80 AA78:AO78 AA76:AO76 AA74:AO74 AB130:AO130 X112:Y112 AC73:AO73 AC75:AO75 AC77:AO77 AC79:AO79 AC81:AO81 AC83:AO83 AC85:AO85 AC87:AO87 AC89:AO89 AC91:AO91 AC93:AO93 AC95:AO95 AC97:AO97 AC99:AO99 AA134:AO134 AA133 AC133:AO133 AA136:AO136 AA135 AC135:AO135 AA142:AO142 AA141:AG141 AJ141:AO141 AA138:AO138 AA137:AB137 AE137:AO137 AA140:AO140 AA139:AB139 AE139:AO139">
+  <conditionalFormatting sqref="K4:N5 O4:P6 K6:L7 N6 K17 Q4:AO20 AA131:AO132 K24:AO24 T100:Y100 T102:Y102 T104:Y104 T106:Y106 T108:Y108 T110:Y110 T112:U112 T114:Y114 T116:Y116 T118:Y118 T120:Y120 T122:Y122 T124:Y124 T126:Y126 T128:Y128 K8:N8 K10:P10 K18:P18 K9:L9 K12:P12 K11:L11 K16:P16 K15:L15 K20:P20 K19:L19 K23:L23 Q23:AO23 K26:AO26 K25:L25 Q25:AO25 K28:AO28 K27:L27 Q27:AO27 K30:AO30 K29:L29 Q29:AO29 K34:AO34 K33:L33 Q33:AO33 K36:AO36 K35:L35 Q35:AO35 K38:AO38 K37:L37 Q37:AO37 K42:AO42 K41:L41 Q41:AO41 K43:L43 K50:AO50 K49:L49 Q49:AO49 K52:AO52 K51:L51 Q51:AO51 K54:AO54 K53:L53 Q53:AO53 K56:AO56 K55:L55 Q55:AO55 K58:AO58 K57:L57 Q57:AO57 K60:AO60 K59:L59 Q59:AO59 K62:AO62 K61:L61 Q61:AO61 K46:AO46 K44:M45 K14:P14 K13:M13 K32:AO32 K31:M31 Q31:AO31 K40:AO40 K39:M39 Q39:AO39 O44:AO44 K48:AO48 K47:M47 Q47:AO47 K64:AO64 K63:M63 Q63:AO63 K66:AO66 K65:M65 Q65:AO65 K68:AO68 K67:M67 Q67:AO67 K69:M69 Q69:AO69 K72:Y72 K71:M71 P71:R71 Q43:AO43 Q45:AO45 K70:AO70 T71:AO71 K73:S73 X73:Z73 K75:S75 X75:Z75 K77:S77 X77:Z77 K79:S79 X79:Z79 K81:S81 X81:Z81 K83:S83 X83:Z83 K85:S85 X85:Z85 K87:S87 X87:Z87 K89:S89 X89:Z89 K91:S91 X91:Z91 K93:S93 X93:Z93 K95:S95 X95:Z95 K97:S97 X97:Z97 K99:S99 X99:Y99 AB72:AO72 K74:Y74 K76:Y76 K78:Y78 K80:Y80 K82:Y82 K84:Y84 K86:Y86 K88:Y88 K90:Y90 K92:Y92 K94:Y94 K96:Y96 K98:Y98 AA96:AO96 AA94:AO94 AA92:AO92 AA98:AO98 AA90:AO90 AA88:AO88 AA86:AO86 AA84:AO84 AA82:AO82 AA80:AO80 AA78:AO78 AA76:AO76 AA74:AO74 AB130:AO130 X112:Y112 AC73:AO73 AC75:AO75 AC77:AO77 AC79:AO79 AC81:AO81 AC83:AO83 AC85:AO85 AC87:AO87 AC89:AO89 AC91:AO91 AC93:AO93 AC95:AO95 AC97:AO97 AC99:AO99 AA134:AO134 AA133 AC133:AO133 AA136:AO136 AA135 AC135:AO135 AA142:AO142 AA141:AG141 AL141:AM141 AA138:AO138 AA137:AB137 AE137:AO137 AA140:AO140 AA139:AB139 AE139:AO139 AO141">
     <cfRule type="expression" dxfId="1000" priority="1313" stopIfTrue="1">
       <formula>AND(K$2&gt;=$H4,K$2&lt;=$I4)</formula>
     </cfRule>
@@ -25770,7 +25770,7 @@
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K143:AG143 K130:Z132 AB102:AO102 AB104:AO104 AB106:AO106 AB108:AO108 AB116:AO116 AB118:AO118 AB120:AO120 AB122:AO122 AB124:AO124 AB126:AO126 K102:S129 AB128:AO128 X103:Z103 X105:Z105 X107:Z107 X109:Z109 X111:Z111 X113:Z113 X115:Z115 X117:Z117 X119:Z119 X121:Z121 X123:Z123 X125:Z125 X127:Z127 X129:Z129 AB114:AO114 AB110:AO110 AC103:AO103 AC105:AO105 AC107:AO107 AC109:AO109 AB112:AO112 AC111:AO111 AC113:AO113 AC115:AO115 AC117:AO117 AC119:AO119 AC121:AO121 AC123:AO123 AC125:AO125 AC127:AO127 AC129:AO129 K134:Z142 K133:O133 Q133:R133 T133:Z133 AJ143:AO143">
+  <conditionalFormatting sqref="K143:AG143 K130:Z132 AB102:AO102 AB104:AO104 AB106:AO106 AB108:AO108 AB116:AO116 AB118:AO118 AB120:AO120 AB122:AO122 AB124:AO124 AB126:AO126 K102:S129 AB128:AO128 X103:Z103 X105:Z105 X107:Z107 X109:Z109 X111:Z111 X113:Z113 X115:Z115 X117:Z117 X119:Z119 X121:Z121 X123:Z123 X125:Z125 X127:Z127 X129:Z129 AB114:AO114 AB110:AO110 AC103:AO103 AC105:AO105 AC107:AO107 AC109:AO109 AB112:AO112 AC111:AO111 AC113:AO113 AC115:AO115 AC117:AO117 AC119:AO119 AC121:AO121 AC123:AO123 AC125:AO125 AC127:AO127 AC129:AO129 K134:Z142 K133:O133 Q133:R133 T133:Z133 AL143:AM143 AO143">
     <cfRule type="expression" dxfId="120" priority="1348" stopIfTrue="1">
       <formula>AND(K$2&gt;=$H100,K$2&lt;=$I100)</formula>
     </cfRule>

--- a/kagiyaスケジュール表.xlsx
+++ b/kagiyaスケジュール表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kurumi/Desktop/git/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CB9C18-0EF1-1641-8F76-4944E7079A3D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DAAE82-60FB-C947-9963-E3E73F998A49}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1333,7 +1333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1383,9 +1383,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1506,8 +1503,257 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1518,263 +1764,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11514,14 +11511,14 @@
       <pane xSplit="7" ySplit="3" topLeftCell="H91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K149" sqref="K149"/>
+      <selection pane="bottomRight" activeCell="I143" sqref="I143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" style="36" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="39" customWidth="1"/>
     <col min="4" max="4" width="28.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
@@ -11532,12 +11529,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15" customHeight="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="1"/>
       <c r="K1" s="2" t="s">
         <v>2</v>
@@ -11664,25 +11661,25 @@
       </c>
     </row>
     <row r="2" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="137" t="s">
+      <c r="E2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="137" t="s">
+      <c r="F2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="137" t="s">
+      <c r="G2" s="58" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -11691,7 +11688,7 @@
       <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="147" t="s">
+      <c r="J2" s="61" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="6">
@@ -11820,20 +11817,20 @@
       </c>
     </row>
     <row r="3" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A3" s="119"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="57"/>
+      <c r="J3" s="56"/>
       <c r="K3" s="10" t="str">
         <f t="shared" ref="K3:AO3" si="2">TEXT(K2,"ddd")</f>
         <v>Sun</v>
@@ -11960,24 +11957,24 @@
       </c>
     </row>
     <row r="4" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A4" s="90"/>
-      <c r="B4" s="90" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="146" t="s">
+      <c r="C4" s="73" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="90" t="s">
+      <c r="E4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="90" t="s">
+      <c r="F4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="133"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="56"/>
+      <c r="J4" s="55"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -12011,16 +12008,16 @@
       <c r="AO4" s="7"/>
     </row>
     <row r="5" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A5" s="119"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="134"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="57"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="56"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="57"/>
+      <c r="J5" s="56"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -12054,35 +12051,35 @@
       <c r="AO5" s="7"/>
     </row>
     <row r="6" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A6" s="90">
+      <c r="A6" s="64">
         <v>1</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="98" t="s">
+      <c r="E6" s="66" t="s">
         <v>64</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="136"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="12">
         <v>43284</v>
       </c>
       <c r="I6" s="12">
         <v>43284</v>
       </c>
-      <c r="J6" s="56"/>
+      <c r="J6" s="55"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="48"/>
+      <c r="M6" s="47"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -12113,26 +12110,26 @@
       <c r="AO6" s="7"/>
     </row>
     <row r="7" spans="1:41" ht="14">
-      <c r="A7" s="119"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="134"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="57"/>
+      <c r="E7" s="56"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="65"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="12">
         <v>43284</v>
       </c>
       <c r="I7" s="12">
         <v>43287</v>
       </c>
-      <c r="J7" s="57"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="52"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="51"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
@@ -12160,34 +12157,34 @@
       <c r="AO7" s="7"/>
     </row>
     <row r="8" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A8" s="90">
+      <c r="A8" s="64">
         <v>2</v>
       </c>
-      <c r="B8" s="138"/>
-      <c r="C8" s="95" t="s">
+      <c r="B8" s="85"/>
+      <c r="C8" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="136"/>
+      <c r="G8" s="59"/>
       <c r="H8" s="12">
         <v>43284</v>
       </c>
       <c r="I8" s="12">
         <v>43285</v>
       </c>
-      <c r="J8" s="56"/>
+      <c r="J8" s="55"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -12217,26 +12214,26 @@
       <c r="AO8" s="7"/>
     </row>
     <row r="9" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A9" s="119"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="57"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="56"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="65"/>
+      <c r="G9" s="60"/>
       <c r="H9" s="12">
         <v>43284</v>
       </c>
       <c r="I9" s="12">
         <v>43287</v>
       </c>
-      <c r="J9" s="57"/>
+      <c r="J9" s="56"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="52"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="51"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
@@ -12264,33 +12261,33 @@
       <c r="AO9" s="7"/>
     </row>
     <row r="10" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A10" s="90">
+      <c r="A10" s="64">
         <v>3</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="26" t="s">
+      <c r="B10" s="76"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="G10" s="133"/>
+      <c r="G10" s="57"/>
       <c r="H10" s="11">
         <v>43285</v>
       </c>
       <c r="I10" s="12">
         <v>43286</v>
       </c>
-      <c r="J10" s="56"/>
+      <c r="J10" s="55"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
@@ -12319,26 +12316,26 @@
       <c r="AO10" s="7"/>
     </row>
     <row r="11" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A11" s="119"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="93"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="57"/>
+      <c r="E11" s="56"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="57"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="12">
         <v>43284</v>
       </c>
       <c r="I11" s="12">
         <v>43287</v>
       </c>
-      <c r="J11" s="57"/>
+      <c r="J11" s="56"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="52"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="51"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
@@ -12366,34 +12363,34 @@
       <c r="AO11" s="7"/>
     </row>
     <row r="12" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A12" s="90">
+      <c r="A12" s="64">
         <v>4</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="25" t="s">
+      <c r="B12" s="64"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="98" t="s">
+      <c r="E12" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="G12" s="133"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="12">
         <v>43286</v>
       </c>
       <c r="I12" s="12">
         <v>43287</v>
       </c>
-      <c r="J12" s="56"/>
+      <c r="J12" s="55"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
@@ -12421,26 +12418,26 @@
       <c r="AO12" s="7"/>
     </row>
     <row r="13" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A13" s="119"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="57"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="56"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="57"/>
+      <c r="G13" s="56"/>
       <c r="H13" s="12">
         <v>43285</v>
       </c>
       <c r="I13" s="12">
         <v>43287</v>
       </c>
-      <c r="J13" s="57"/>
+      <c r="J13" s="56"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="52"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="51"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
@@ -12468,35 +12465,35 @@
       <c r="AO13" s="7"/>
     </row>
     <row r="14" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A14" s="90">
+      <c r="A14" s="64">
         <v>5</v>
       </c>
-      <c r="B14" s="142"/>
-      <c r="C14" s="130" t="s">
+      <c r="B14" s="81"/>
+      <c r="C14" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="98" t="s">
+      <c r="E14" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="G14" s="133"/>
+      <c r="G14" s="57"/>
       <c r="H14" s="12">
         <v>43284</v>
       </c>
       <c r="I14" s="12">
         <v>43286</v>
       </c>
-      <c r="J14" s="56"/>
+      <c r="J14" s="55"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
@@ -12525,26 +12522,26 @@
       <c r="AO14" s="7"/>
     </row>
     <row r="15" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A15" s="119"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="82"/>
-      <c r="C15" s="131"/>
+      <c r="C15" s="70"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="57"/>
+      <c r="E15" s="56"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="57"/>
+      <c r="G15" s="56"/>
       <c r="H15" s="12">
         <v>43284</v>
       </c>
       <c r="I15" s="12">
         <v>43287</v>
       </c>
-      <c r="J15" s="57"/>
+      <c r="J15" s="56"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="52"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="51"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
@@ -12572,34 +12569,34 @@
       <c r="AO15" s="7"/>
     </row>
     <row r="16" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A16" s="90">
+      <c r="A16" s="64">
         <v>6</v>
       </c>
-      <c r="B16" s="143"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="32" t="s">
+      <c r="B16" s="83"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="98" t="s">
+      <c r="E16" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="G16" s="133"/>
+      <c r="G16" s="57"/>
       <c r="H16" s="12">
         <v>43285</v>
       </c>
       <c r="I16" s="12">
         <v>43287</v>
       </c>
-      <c r="J16" s="56"/>
+      <c r="J16" s="55"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -12627,25 +12624,25 @@
       <c r="AO16" s="7"/>
     </row>
     <row r="17" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A17" s="119"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="132"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="71"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="57"/>
+      <c r="E17" s="56"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="57"/>
+      <c r="G17" s="56"/>
       <c r="H17" s="12">
         <v>43284</v>
       </c>
       <c r="I17" s="12">
         <v>43287</v>
       </c>
-      <c r="J17" s="57"/>
+      <c r="J17" s="56"/>
       <c r="K17" s="7"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="52"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="51"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
@@ -12673,34 +12670,34 @@
       <c r="AO17" s="7"/>
     </row>
     <row r="18" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A18" s="90">
+      <c r="A18" s="64">
         <v>7</v>
       </c>
-      <c r="B18" s="139"/>
-      <c r="C18" s="93" t="s">
+      <c r="B18" s="75"/>
+      <c r="C18" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="98" t="s">
+      <c r="E18" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="G18" s="133"/>
+      <c r="G18" s="57"/>
       <c r="H18" s="12">
         <v>43284</v>
       </c>
       <c r="I18" s="12">
         <v>43285</v>
       </c>
-      <c r="J18" s="56"/>
+      <c r="J18" s="55"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
@@ -12730,26 +12727,26 @@
       <c r="AO18" s="7"/>
     </row>
     <row r="19" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A19" s="119"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="93"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="57"/>
+      <c r="E19" s="56"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="57"/>
+      <c r="G19" s="56"/>
       <c r="H19" s="12">
         <v>43284</v>
       </c>
       <c r="I19" s="12">
         <v>43287</v>
       </c>
-      <c r="J19" s="57"/>
+      <c r="J19" s="56"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="52"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="51"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
@@ -12777,33 +12774,33 @@
       <c r="AO19" s="7"/>
     </row>
     <row r="20" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A20" s="90">
+      <c r="A20" s="64">
         <v>8</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="31" t="s">
+      <c r="B20" s="76"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="98" t="s">
+      <c r="E20" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="51" t="s">
+      <c r="F20" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="133"/>
+      <c r="G20" s="57"/>
       <c r="H20" s="12">
         <v>43285</v>
       </c>
       <c r="I20" s="12">
         <v>43286</v>
       </c>
-      <c r="J20" s="56"/>
+      <c r="J20" s="55"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
@@ -12832,26 +12829,26 @@
       <c r="AO20" s="7"/>
     </row>
     <row r="21" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A21" s="119"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="93"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="57"/>
+      <c r="E21" s="56"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="57"/>
+      <c r="G21" s="56"/>
       <c r="H21" s="12">
         <v>43284</v>
       </c>
       <c r="I21" s="12">
         <v>43287</v>
       </c>
-      <c r="J21" s="57"/>
+      <c r="J21" s="56"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="52"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="51"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
@@ -12879,34 +12876,34 @@
       <c r="AO21" s="7"/>
     </row>
     <row r="22" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A22" s="90">
+      <c r="A22" s="64">
         <v>9</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="25" t="s">
+      <c r="B22" s="64"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="98" t="s">
+      <c r="E22" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="51" t="s">
+      <c r="F22" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="G22" s="133"/>
+      <c r="G22" s="57"/>
       <c r="H22" s="12">
         <v>43286</v>
       </c>
       <c r="I22" s="12">
         <v>43287</v>
       </c>
-      <c r="J22" s="56"/>
+      <c r="J22" s="55"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
@@ -12934,26 +12931,26 @@
       <c r="AO22" s="7"/>
     </row>
     <row r="23" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A23" s="119"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="57"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="56"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="57"/>
+      <c r="G23" s="56"/>
       <c r="H23" s="12">
         <v>43284</v>
       </c>
       <c r="I23" s="12">
         <v>43287</v>
       </c>
-      <c r="J23" s="57"/>
+      <c r="J23" s="56"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="52"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="51"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
@@ -12981,35 +12978,35 @@
       <c r="AO23" s="7"/>
     </row>
     <row r="24" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A24" s="90">
+      <c r="A24" s="64">
         <v>10</v>
       </c>
-      <c r="B24" s="90"/>
-      <c r="C24" s="107" t="s">
+      <c r="B24" s="64"/>
+      <c r="C24" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="98" t="s">
+      <c r="E24" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="51" t="s">
+      <c r="F24" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="G24" s="133"/>
+      <c r="G24" s="57"/>
       <c r="H24" s="12">
         <v>43284</v>
       </c>
       <c r="I24" s="12">
         <v>43287</v>
       </c>
-      <c r="J24" s="56"/>
+      <c r="J24" s="55"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
@@ -13038,26 +13035,26 @@
       <c r="AO24" s="7"/>
     </row>
     <row r="25" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A25" s="119"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="57"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="56"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="57"/>
+      <c r="G25" s="56"/>
       <c r="H25" s="12">
         <v>43284</v>
       </c>
       <c r="I25" s="12">
         <v>43287</v>
       </c>
-      <c r="J25" s="57"/>
+      <c r="J25" s="56"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="52"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="51"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
@@ -13085,36 +13082,36 @@
       <c r="AO25" s="7"/>
     </row>
     <row r="26" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A26" s="90">
+      <c r="A26" s="64">
         <v>11</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="130" t="s">
+      <c r="B26" s="129"/>
+      <c r="C26" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="123" t="s">
+      <c r="E26" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="51" t="s">
+      <c r="F26" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="G26" s="133"/>
+      <c r="G26" s="57"/>
       <c r="H26" s="12">
         <v>43286</v>
       </c>
       <c r="I26" s="12">
         <v>43287</v>
       </c>
-      <c r="J26" s="56"/>
+      <c r="J26" s="55"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
@@ -13142,26 +13139,26 @@
       <c r="AO26" s="7"/>
     </row>
     <row r="27" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A27" s="119"/>
-      <c r="B27" s="109"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="65"/>
+      <c r="A27" s="80"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="60"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="57"/>
+      <c r="G27" s="56"/>
       <c r="H27" s="12">
         <v>43284</v>
       </c>
       <c r="I27" s="12">
         <v>43287</v>
       </c>
-      <c r="J27" s="57"/>
+      <c r="J27" s="56"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="52"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="51"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
@@ -13189,35 +13186,35 @@
       <c r="AO27" s="7"/>
     </row>
     <row r="28" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A28" s="90">
+      <c r="A28" s="64">
         <v>12</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="130" t="s">
+      <c r="B28" s="129"/>
+      <c r="C28" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="123" t="s">
+      <c r="E28" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="51" t="s">
+      <c r="F28" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="133"/>
+      <c r="G28" s="57"/>
       <c r="H28" s="12">
         <v>43285</v>
       </c>
       <c r="I28" s="12">
         <v>43286</v>
       </c>
-      <c r="J28" s="56"/>
+      <c r="J28" s="55"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
@@ -13246,26 +13243,26 @@
       <c r="AO28" s="7"/>
     </row>
     <row r="29" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A29" s="119"/>
-      <c r="B29" s="109"/>
-      <c r="C29" s="131"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="65"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="60"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="57"/>
+      <c r="G29" s="56"/>
       <c r="H29" s="12">
         <v>43284</v>
       </c>
       <c r="I29" s="12">
         <v>43287</v>
       </c>
-      <c r="J29" s="57"/>
+      <c r="J29" s="56"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="52"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="51"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
@@ -13293,34 +13290,34 @@
       <c r="AO29" s="7"/>
     </row>
     <row r="30" spans="1:41" ht="14.25" customHeight="1">
-      <c r="A30" s="90">
+      <c r="A30" s="64">
         <v>13</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="131"/>
-      <c r="D30" s="27" t="s">
+      <c r="B30" s="129"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="98" t="s">
+      <c r="E30" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="51" t="s">
+      <c r="F30" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="G30" s="133"/>
+      <c r="G30" s="57"/>
       <c r="H30" s="12">
         <v>43286</v>
       </c>
       <c r="I30" s="12">
         <v>43287</v>
       </c>
-      <c r="J30" s="56"/>
+      <c r="J30" s="55"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
@@ -13348,26 +13345,26 @@
       <c r="AO30" s="7"/>
     </row>
     <row r="31" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A31" s="119"/>
-      <c r="B31" s="109"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="57"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="56"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="57"/>
+      <c r="G31" s="56"/>
       <c r="H31" s="12">
         <v>43285</v>
       </c>
       <c r="I31" s="12">
         <v>43287</v>
       </c>
-      <c r="J31" s="57"/>
+      <c r="J31" s="56"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="52"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="51"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
@@ -13395,34 +13392,34 @@
       <c r="AO31" s="7"/>
     </row>
     <row r="32" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A32" s="90">
+      <c r="A32" s="64">
         <v>14</v>
       </c>
-      <c r="B32" s="90"/>
-      <c r="C32" s="92" t="s">
+      <c r="B32" s="64"/>
+      <c r="C32" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="98" t="s">
+      <c r="E32" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="51" t="s">
+      <c r="F32" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="G32" s="133"/>
+      <c r="G32" s="57"/>
       <c r="H32" s="12">
         <v>43284</v>
       </c>
       <c r="I32" s="12">
         <v>43285</v>
       </c>
-      <c r="J32" s="56"/>
+      <c r="J32" s="55"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
@@ -13452,26 +13449,26 @@
       <c r="AO32" s="7"/>
     </row>
     <row r="33" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A33" s="119"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="57"/>
+      <c r="A33" s="80"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="56"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="57"/>
+      <c r="G33" s="56"/>
       <c r="H33" s="12">
         <v>43284</v>
       </c>
       <c r="I33" s="12">
         <v>43287</v>
       </c>
-      <c r="J33" s="57"/>
+      <c r="J33" s="56"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="52"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="51"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
@@ -13499,33 +13496,33 @@
       <c r="AO33" s="7"/>
     </row>
     <row r="34" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A34" s="90">
+      <c r="A34" s="64">
         <v>15</v>
       </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="35" t="s">
+      <c r="B34" s="64"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="135" t="s">
+      <c r="E34" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="51" t="s">
+      <c r="F34" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="G34" s="133"/>
+      <c r="G34" s="57"/>
       <c r="H34" s="12">
         <v>43284</v>
       </c>
       <c r="I34" s="12">
         <v>43286</v>
       </c>
-      <c r="J34" s="56"/>
+      <c r="J34" s="55"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
@@ -13554,26 +13551,26 @@
       <c r="AO34" s="7"/>
     </row>
     <row r="35" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A35" s="119"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="57"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="56"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="57"/>
+      <c r="G35" s="56"/>
       <c r="H35" s="12">
         <v>43284</v>
       </c>
       <c r="I35" s="12">
         <v>43287</v>
       </c>
-      <c r="J35" s="57"/>
+      <c r="J35" s="56"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="52"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="51"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
@@ -13601,34 +13598,34 @@
       <c r="AO35" s="7"/>
     </row>
     <row r="36" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A36" s="90">
+      <c r="A36" s="64">
         <v>16</v>
       </c>
-      <c r="B36" s="90"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="25" t="s">
+      <c r="B36" s="64"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="98" t="s">
+      <c r="E36" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="51" t="s">
+      <c r="F36" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="G36" s="133"/>
+      <c r="G36" s="57"/>
       <c r="H36" s="12">
         <v>43286</v>
       </c>
       <c r="I36" s="12">
         <v>43287</v>
       </c>
-      <c r="J36" s="56"/>
+      <c r="J36" s="55"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
       <c r="S36" s="15"/>
@@ -13656,26 +13653,26 @@
       <c r="AO36" s="7"/>
     </row>
     <row r="37" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A37" s="119"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="57"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="56"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="57"/>
+      <c r="G37" s="56"/>
       <c r="H37" s="12">
         <v>43284</v>
       </c>
       <c r="I37" s="12">
         <v>43287</v>
       </c>
-      <c r="J37" s="57"/>
+      <c r="J37" s="56"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="52"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="51"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
@@ -13703,34 +13700,34 @@
       <c r="AO37" s="7"/>
     </row>
     <row r="38" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A38" s="90">
+      <c r="A38" s="64">
         <v>17</v>
       </c>
-      <c r="B38" s="90"/>
-      <c r="C38" s="107" t="s">
+      <c r="B38" s="64"/>
+      <c r="C38" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="98" t="s">
+      <c r="E38" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F38" s="51" t="s">
+      <c r="F38" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="G38" s="133"/>
+      <c r="G38" s="57"/>
       <c r="H38" s="12">
         <v>43284</v>
       </c>
       <c r="I38" s="12">
         <v>43285</v>
       </c>
-      <c r="J38" s="56"/>
+      <c r="J38" s="55"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
@@ -13760,26 +13757,26 @@
       <c r="AO38" s="7"/>
     </row>
     <row r="39" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A39" s="119"/>
-      <c r="B39" s="91"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="57"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="56"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="57"/>
+      <c r="G39" s="56"/>
       <c r="H39" s="12">
         <v>43284</v>
       </c>
       <c r="I39" s="12">
         <v>43287</v>
       </c>
-      <c r="J39" s="57"/>
+      <c r="J39" s="56"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="52"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="51"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
@@ -13807,34 +13804,34 @@
       <c r="AO39" s="7"/>
     </row>
     <row r="40" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A40" s="90">
+      <c r="A40" s="64">
         <v>18</v>
       </c>
-      <c r="B40" s="90"/>
-      <c r="C40" s="95" t="s">
+      <c r="B40" s="64"/>
+      <c r="C40" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="98" t="s">
+      <c r="E40" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="51" t="s">
+      <c r="F40" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="G40" s="133"/>
+      <c r="G40" s="57"/>
       <c r="H40" s="12">
         <v>43284</v>
       </c>
       <c r="I40" s="12">
         <v>43285</v>
       </c>
-      <c r="J40" s="56"/>
+      <c r="J40" s="55"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
@@ -13864,26 +13861,26 @@
       <c r="AO40" s="7"/>
     </row>
     <row r="41" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A41" s="119"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="57"/>
+      <c r="A41" s="80"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="56"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="57"/>
+      <c r="G41" s="56"/>
       <c r="H41" s="12">
         <v>43284</v>
       </c>
       <c r="I41" s="12">
         <v>43287</v>
       </c>
-      <c r="J41" s="57"/>
+      <c r="J41" s="56"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="52"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="51"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
@@ -13911,33 +13908,33 @@
       <c r="AO41" s="7"/>
     </row>
     <row r="42" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A42" s="90">
+      <c r="A42" s="64">
         <v>19</v>
       </c>
-      <c r="B42" s="90"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="25" t="s">
+      <c r="B42" s="64"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="98" t="s">
+      <c r="E42" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="90" t="s">
+      <c r="F42" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="G42" s="133"/>
+      <c r="G42" s="57"/>
       <c r="H42" s="12">
         <v>43285</v>
       </c>
       <c r="I42" s="12">
         <v>43286</v>
       </c>
-      <c r="J42" s="56"/>
+      <c r="J42" s="55"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="48"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
@@ -13966,26 +13963,26 @@
       <c r="AO42" s="7"/>
     </row>
     <row r="43" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A43" s="119"/>
-      <c r="B43" s="91"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="91"/>
-      <c r="G43" s="57"/>
+      <c r="A43" s="80"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="56"/>
       <c r="H43" s="12">
         <v>43284</v>
       </c>
       <c r="I43" s="12">
         <v>43287</v>
       </c>
-      <c r="J43" s="57"/>
+      <c r="J43" s="56"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="50"/>
-      <c r="O43" s="50"/>
-      <c r="P43" s="52"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="51"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
@@ -14013,34 +14010,34 @@
       <c r="AO43" s="7"/>
     </row>
     <row r="44" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A44" s="90">
+      <c r="A44" s="64">
         <v>20</v>
       </c>
-      <c r="B44" s="110"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="30" t="s">
+      <c r="B44" s="76"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="98" t="s">
+      <c r="E44" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="90" t="s">
+      <c r="F44" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="G44" s="133"/>
+      <c r="G44" s="57"/>
       <c r="H44" s="12">
         <v>43286</v>
       </c>
       <c r="I44" s="12">
         <v>43287</v>
       </c>
-      <c r="J44" s="56"/>
+      <c r="J44" s="55"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="48"/>
-      <c r="P44" s="48"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="47"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
@@ -14068,26 +14065,26 @@
       <c r="AO44" s="7"/>
     </row>
     <row r="45" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A45" s="119"/>
-      <c r="B45" s="111"/>
-      <c r="C45" s="94"/>
+      <c r="A45" s="80"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="72"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="91"/>
-      <c r="G45" s="57"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="56"/>
       <c r="H45" s="12">
         <v>43285</v>
       </c>
       <c r="I45" s="12">
         <v>43287</v>
       </c>
-      <c r="J45" s="57"/>
+      <c r="J45" s="56"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="50"/>
-      <c r="O45" s="50"/>
-      <c r="P45" s="52"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="51"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
@@ -14115,36 +14112,36 @@
       <c r="AO45" s="7"/>
     </row>
     <row r="46" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A46" s="90">
+      <c r="A46" s="64">
         <v>21</v>
       </c>
-      <c r="B46" s="90"/>
-      <c r="C46" s="107" t="s">
+      <c r="B46" s="64"/>
+      <c r="C46" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="36" t="s">
+      <c r="D46" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="98" t="s">
+      <c r="E46" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F46" s="90" t="s">
+      <c r="F46" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="G46" s="133"/>
+      <c r="G46" s="57"/>
       <c r="H46" s="12">
         <v>43286</v>
       </c>
       <c r="I46" s="12">
         <v>43287</v>
       </c>
-      <c r="J46" s="56"/>
+      <c r="J46" s="55"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
-      <c r="O46" s="48"/>
-      <c r="P46" s="48"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="47"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
       <c r="S46" s="7"/>
@@ -14172,26 +14169,26 @@
       <c r="AO46" s="7"/>
     </row>
     <row r="47" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A47" s="119"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="134"/>
+      <c r="A47" s="80"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="63"/>
       <c r="D47" s="8"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="91"/>
-      <c r="G47" s="57"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="56"/>
       <c r="H47" s="12">
         <v>43285</v>
       </c>
       <c r="I47" s="12">
         <v>43287</v>
       </c>
-      <c r="J47" s="57"/>
+      <c r="J47" s="56"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="50"/>
-      <c r="O47" s="50"/>
-      <c r="P47" s="52"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="49"/>
+      <c r="P47" s="51"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
@@ -14219,33 +14216,33 @@
       <c r="AO47" s="7"/>
     </row>
     <row r="48" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A48" s="90">
+      <c r="A48" s="64">
         <v>22</v>
       </c>
-      <c r="B48" s="90"/>
-      <c r="C48" s="107" t="s">
+      <c r="B48" s="64"/>
+      <c r="C48" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E48" s="98" t="s">
+      <c r="E48" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="F48" s="90" t="s">
+      <c r="F48" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="G48" s="133"/>
+      <c r="G48" s="57"/>
       <c r="H48" s="12">
         <v>43284</v>
       </c>
       <c r="I48" s="12">
         <v>43284</v>
       </c>
-      <c r="J48" s="56"/>
+      <c r="J48" s="55"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
-      <c r="M48" s="48"/>
+      <c r="M48" s="47"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
@@ -14276,26 +14273,26 @@
       <c r="AO48" s="7"/>
     </row>
     <row r="49" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A49" s="119"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="134"/>
+      <c r="A49" s="80"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="63"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="91"/>
-      <c r="G49" s="57"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="56"/>
       <c r="H49" s="12">
         <v>43284</v>
       </c>
       <c r="I49" s="12">
         <v>43287</v>
       </c>
-      <c r="J49" s="57"/>
+      <c r="J49" s="56"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
-      <c r="M49" s="50"/>
-      <c r="N49" s="50"/>
-      <c r="O49" s="50"/>
-      <c r="P49" s="52"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="49"/>
+      <c r="O49" s="49"/>
+      <c r="P49" s="51"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
@@ -14323,35 +14320,35 @@
       <c r="AO49" s="7"/>
     </row>
     <row r="50" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A50" s="90">
+      <c r="A50" s="64">
         <v>23</v>
       </c>
-      <c r="B50" s="110"/>
-      <c r="C50" s="95" t="s">
+      <c r="B50" s="76"/>
+      <c r="C50" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="98" t="s">
+      <c r="E50" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="F50" s="90" t="s">
+      <c r="F50" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="G50" s="133"/>
+      <c r="G50" s="57"/>
       <c r="H50" s="12">
         <v>43284</v>
       </c>
       <c r="I50" s="12">
         <v>43286</v>
       </c>
-      <c r="J50" s="56"/>
+      <c r="J50" s="55"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
-      <c r="M50" s="48"/>
-      <c r="N50" s="48"/>
-      <c r="O50" s="48"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
@@ -14380,26 +14377,26 @@
       <c r="AO50" s="7"/>
     </row>
     <row r="51" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A51" s="119"/>
-      <c r="B51" s="111"/>
-      <c r="C51" s="93"/>
+      <c r="A51" s="80"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="68"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="91"/>
-      <c r="G51" s="57"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="56"/>
       <c r="H51" s="12">
         <v>43284</v>
       </c>
       <c r="I51" s="12">
         <v>43287</v>
       </c>
-      <c r="J51" s="57"/>
+      <c r="J51" s="56"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
-      <c r="M51" s="50"/>
-      <c r="N51" s="50"/>
-      <c r="O51" s="50"/>
-      <c r="P51" s="52"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="49"/>
+      <c r="O51" s="49"/>
+      <c r="P51" s="51"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
       <c r="S51" s="7"/>
@@ -14427,34 +14424,34 @@
       <c r="AO51" s="7"/>
     </row>
     <row r="52" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A52" s="90">
+      <c r="A52" s="64">
         <v>24</v>
       </c>
-      <c r="B52" s="110"/>
-      <c r="C52" s="96"/>
-      <c r="D52" s="44" t="s">
+      <c r="B52" s="76"/>
+      <c r="C52" s="131"/>
+      <c r="D52" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="E52" s="123" t="s">
+      <c r="E52" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="F52" s="90" t="s">
+      <c r="F52" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="G52" s="133"/>
+      <c r="G52" s="57"/>
       <c r="H52" s="12">
         <v>43285</v>
       </c>
       <c r="I52" s="12">
         <v>43287</v>
       </c>
-      <c r="J52" s="56"/>
+      <c r="J52" s="55"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
-      <c r="N52" s="48"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="48"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="47"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
       <c r="S52" s="7"/>
@@ -14482,26 +14479,26 @@
       <c r="AO52" s="7"/>
     </row>
     <row r="53" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A53" s="119"/>
-      <c r="B53" s="111"/>
-      <c r="C53" s="97"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="91"/>
-      <c r="G53" s="57"/>
+      <c r="A53" s="80"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="132"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="56"/>
       <c r="H53" s="12">
         <v>43284</v>
       </c>
       <c r="I53" s="12">
         <v>43287</v>
       </c>
-      <c r="J53" s="57"/>
+      <c r="J53" s="56"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
-      <c r="M53" s="50"/>
-      <c r="N53" s="50"/>
-      <c r="O53" s="50"/>
-      <c r="P53" s="52"/>
+      <c r="M53" s="49"/>
+      <c r="N53" s="49"/>
+      <c r="O53" s="49"/>
+      <c r="P53" s="51"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
@@ -14529,33 +14526,33 @@
       <c r="AO53" s="7"/>
     </row>
     <row r="54" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A54" s="90">
+      <c r="A54" s="64">
         <v>25</v>
       </c>
-      <c r="B54" s="110"/>
-      <c r="C54" s="103" t="s">
+      <c r="B54" s="76"/>
+      <c r="C54" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="32" t="s">
+      <c r="D54" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E54" s="98" t="s">
+      <c r="E54" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="F54" s="90" t="s">
+      <c r="F54" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="G54" s="133"/>
+      <c r="G54" s="57"/>
       <c r="H54" s="12">
         <v>43284</v>
       </c>
       <c r="I54" s="12">
         <v>43284</v>
       </c>
-      <c r="J54" s="56"/>
+      <c r="J54" s="55"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
-      <c r="M54" s="48"/>
+      <c r="M54" s="47"/>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
       <c r="P54" s="7"/>
@@ -14586,26 +14583,26 @@
       <c r="AO54" s="7"/>
     </row>
     <row r="55" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A55" s="119"/>
-      <c r="B55" s="111"/>
-      <c r="C55" s="104"/>
+      <c r="A55" s="80"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="103"/>
       <c r="D55" s="14"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="91"/>
-      <c r="G55" s="57"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="56"/>
       <c r="H55" s="12">
         <v>43284</v>
       </c>
       <c r="I55" s="12">
         <v>43287</v>
       </c>
-      <c r="J55" s="57"/>
+      <c r="J55" s="56"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
-      <c r="M55" s="50"/>
-      <c r="N55" s="50"/>
-      <c r="O55" s="50"/>
-      <c r="P55" s="52"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="49"/>
+      <c r="O55" s="49"/>
+      <c r="P55" s="51"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
@@ -14633,33 +14630,33 @@
       <c r="AO55" s="7"/>
     </row>
     <row r="56" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A56" s="90">
+      <c r="A56" s="64">
         <v>26</v>
       </c>
-      <c r="B56" s="110"/>
-      <c r="C56" s="103" t="s">
+      <c r="B56" s="76"/>
+      <c r="C56" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D56" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E56" s="98" t="s">
+      <c r="E56" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="F56" s="90" t="s">
+      <c r="F56" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="G56" s="133"/>
+      <c r="G56" s="57"/>
       <c r="H56" s="12">
         <v>43284</v>
       </c>
       <c r="I56" s="12">
         <v>43284</v>
       </c>
-      <c r="J56" s="56"/>
+      <c r="J56" s="55"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
-      <c r="M56" s="48"/>
+      <c r="M56" s="47"/>
       <c r="N56" s="7"/>
       <c r="O56" s="7"/>
       <c r="P56" s="7"/>
@@ -14690,26 +14687,26 @@
       <c r="AO56" s="7"/>
     </row>
     <row r="57" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A57" s="119"/>
-      <c r="B57" s="111"/>
-      <c r="C57" s="104"/>
+      <c r="A57" s="80"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="14"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="91"/>
-      <c r="G57" s="57"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="56"/>
       <c r="H57" s="12">
         <v>43285</v>
       </c>
       <c r="I57" s="12">
         <v>43287</v>
       </c>
-      <c r="J57" s="57"/>
+      <c r="J57" s="56"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
-      <c r="N57" s="50"/>
-      <c r="O57" s="50"/>
-      <c r="P57" s="52"/>
+      <c r="N57" s="49"/>
+      <c r="O57" s="49"/>
+      <c r="P57" s="51"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
@@ -14737,34 +14734,34 @@
       <c r="AO57" s="7"/>
     </row>
     <row r="58" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A58" s="90">
+      <c r="A58" s="64">
         <v>27</v>
       </c>
-      <c r="B58" s="90"/>
-      <c r="C58" s="95" t="s">
+      <c r="B58" s="64"/>
+      <c r="C58" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="25" t="s">
+      <c r="D58" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E58" s="98" t="s">
+      <c r="E58" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="F58" s="90" t="s">
+      <c r="F58" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="G58" s="133"/>
+      <c r="G58" s="57"/>
       <c r="H58" s="12">
         <v>43284</v>
       </c>
       <c r="I58" s="12">
         <v>43285</v>
       </c>
-      <c r="J58" s="56"/>
+      <c r="J58" s="55"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
-      <c r="M58" s="48"/>
-      <c r="N58" s="48"/>
+      <c r="M58" s="47"/>
+      <c r="N58" s="47"/>
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
@@ -14794,26 +14791,26 @@
       <c r="AO58" s="7"/>
     </row>
     <row r="59" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A59" s="119"/>
-      <c r="B59" s="91"/>
-      <c r="C59" s="93"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="57"/>
-      <c r="F59" s="91"/>
-      <c r="G59" s="57"/>
+      <c r="A59" s="80"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="56"/>
       <c r="H59" s="12">
         <v>43284</v>
       </c>
       <c r="I59" s="12">
         <v>43287</v>
       </c>
-      <c r="J59" s="57"/>
+      <c r="J59" s="56"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
-      <c r="M59" s="50"/>
-      <c r="N59" s="50"/>
-      <c r="O59" s="50"/>
-      <c r="P59" s="52"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="49"/>
+      <c r="O59" s="49"/>
+      <c r="P59" s="51"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
@@ -14841,32 +14838,32 @@
       <c r="AO59" s="7"/>
     </row>
     <row r="60" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A60" s="90">
+      <c r="A60" s="64">
         <v>28</v>
       </c>
-      <c r="B60" s="90"/>
-      <c r="C60" s="93"/>
-      <c r="D60" s="25" t="s">
+      <c r="B60" s="64"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E60" s="98" t="s">
+      <c r="E60" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="F60" s="90" t="s">
+      <c r="F60" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="G60" s="133"/>
+      <c r="G60" s="57"/>
       <c r="H60" s="12">
         <v>43284</v>
       </c>
       <c r="I60" s="12">
         <v>43287</v>
       </c>
-      <c r="J60" s="56"/>
+      <c r="J60" s="55"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
-      <c r="M60" s="48"/>
-      <c r="N60" s="48"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="47"/>
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
@@ -14896,26 +14893,26 @@
       <c r="AO60" s="7"/>
     </row>
     <row r="61" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A61" s="119"/>
-      <c r="B61" s="91"/>
-      <c r="C61" s="93"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="91"/>
-      <c r="G61" s="57"/>
+      <c r="A61" s="80"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="56"/>
       <c r="H61" s="12">
         <v>43284</v>
       </c>
       <c r="I61" s="12">
         <v>43287</v>
       </c>
-      <c r="J61" s="57"/>
+      <c r="J61" s="56"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
-      <c r="M61" s="50"/>
-      <c r="N61" s="50"/>
-      <c r="O61" s="50"/>
-      <c r="P61" s="52"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="49"/>
+      <c r="O61" s="49"/>
+      <c r="P61" s="51"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
       <c r="S61" s="7"/>
@@ -14943,33 +14940,33 @@
       <c r="AO61" s="7"/>
     </row>
     <row r="62" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A62" s="90">
+      <c r="A62" s="64">
         <v>29</v>
       </c>
-      <c r="B62" s="90"/>
-      <c r="C62" s="93"/>
-      <c r="D62" s="25" t="s">
+      <c r="B62" s="64"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E62" s="98" t="s">
+      <c r="E62" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="F62" s="90" t="s">
+      <c r="F62" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="G62" s="133"/>
+      <c r="G62" s="57"/>
       <c r="H62" s="12">
         <v>43285</v>
       </c>
       <c r="I62" s="12">
         <v>43287</v>
       </c>
-      <c r="J62" s="56"/>
+      <c r="J62" s="55"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
-      <c r="N62" s="48"/>
-      <c r="O62" s="48"/>
+      <c r="N62" s="47"/>
+      <c r="O62" s="47"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
@@ -14998,26 +14995,26 @@
       <c r="AO62" s="7"/>
     </row>
     <row r="63" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A63" s="119"/>
-      <c r="B63" s="91"/>
-      <c r="C63" s="94"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="87"/>
-      <c r="F63" s="91"/>
-      <c r="G63" s="57"/>
+      <c r="A63" s="80"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="94"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="56"/>
       <c r="H63" s="12">
         <v>43285</v>
       </c>
       <c r="I63" s="12">
         <v>43287</v>
       </c>
-      <c r="J63" s="57"/>
+      <c r="J63" s="56"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
-      <c r="N63" s="50"/>
-      <c r="O63" s="50"/>
-      <c r="P63" s="52"/>
+      <c r="N63" s="49"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="51"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
       <c r="S63" s="7"/>
@@ -15045,35 +15042,35 @@
       <c r="AO63" s="7"/>
     </row>
     <row r="64" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A64" s="90">
+      <c r="A64" s="64">
         <v>30</v>
       </c>
-      <c r="B64" s="90"/>
-      <c r="C64" s="95" t="s">
+      <c r="B64" s="64"/>
+      <c r="C64" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="D64" s="25" t="s">
+      <c r="D64" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E64" s="121" t="s">
+      <c r="E64" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="F64" s="110" t="s">
+      <c r="F64" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="G64" s="133"/>
+      <c r="G64" s="57"/>
       <c r="H64" s="12">
         <v>43285</v>
       </c>
       <c r="I64" s="12">
         <v>43286</v>
       </c>
-      <c r="J64" s="56"/>
+      <c r="J64" s="55"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
-      <c r="N64" s="48"/>
-      <c r="O64" s="48"/>
+      <c r="N64" s="47"/>
+      <c r="O64" s="47"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
@@ -15102,26 +15099,26 @@
       <c r="AO64" s="7"/>
     </row>
     <row r="65" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A65" s="119"/>
-      <c r="B65" s="91"/>
-      <c r="C65" s="93"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="122"/>
-      <c r="F65" s="111"/>
-      <c r="G65" s="57"/>
+      <c r="A65" s="80"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="93"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="56"/>
       <c r="H65" s="12">
         <v>43285</v>
       </c>
       <c r="I65" s="12">
         <v>43287</v>
       </c>
-      <c r="J65" s="57"/>
+      <c r="J65" s="56"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
-      <c r="N65" s="50"/>
-      <c r="O65" s="50"/>
-      <c r="P65" s="52"/>
+      <c r="N65" s="49"/>
+      <c r="O65" s="49"/>
+      <c r="P65" s="51"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
       <c r="S65" s="7"/>
@@ -15149,34 +15146,34 @@
       <c r="AO65" s="7"/>
     </row>
     <row r="66" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A66" s="90">
+      <c r="A66" s="64">
         <v>31</v>
       </c>
-      <c r="B66" s="90"/>
-      <c r="C66" s="93"/>
-      <c r="D66" s="25" t="s">
+      <c r="B66" s="64"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E66" s="121" t="s">
+      <c r="E66" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="F66" s="110" t="s">
+      <c r="F66" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="G66" s="133"/>
+      <c r="G66" s="57"/>
       <c r="H66" s="12">
         <v>43286</v>
       </c>
       <c r="I66" s="12">
         <v>43287</v>
       </c>
-      <c r="J66" s="56"/>
+      <c r="J66" s="55"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
-      <c r="O66" s="48"/>
-      <c r="P66" s="48"/>
+      <c r="O66" s="47"/>
+      <c r="P66" s="47"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
       <c r="S66" s="7"/>
@@ -15204,26 +15201,26 @@
       <c r="AO66" s="7"/>
     </row>
     <row r="67" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A67" s="119"/>
-      <c r="B67" s="91"/>
-      <c r="C67" s="93"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="122"/>
-      <c r="F67" s="111"/>
-      <c r="G67" s="57"/>
-      <c r="H67" s="45">
+      <c r="A67" s="80"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="93"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="44">
         <v>43285</v>
       </c>
       <c r="I67" s="12">
         <v>43287</v>
       </c>
-      <c r="J67" s="57"/>
+      <c r="J67" s="56"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
-      <c r="N67" s="50"/>
-      <c r="O67" s="50"/>
-      <c r="P67" s="52"/>
+      <c r="N67" s="49"/>
+      <c r="O67" s="49"/>
+      <c r="P67" s="51"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
       <c r="S67" s="7"/>
@@ -15251,34 +15248,34 @@
       <c r="AO67" s="7"/>
     </row>
     <row r="68" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A68" s="90">
+      <c r="A68" s="64">
         <v>32</v>
       </c>
-      <c r="B68" s="90"/>
-      <c r="C68" s="93"/>
-      <c r="D68" s="25" t="s">
+      <c r="B68" s="64"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E68" s="121" t="s">
+      <c r="E68" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="F68" s="66" t="s">
+      <c r="F68" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G68" s="133"/>
+      <c r="G68" s="57"/>
       <c r="H68" s="12">
         <v>43286</v>
       </c>
       <c r="I68" s="11">
         <v>43287</v>
       </c>
-      <c r="J68" s="56"/>
+      <c r="J68" s="55"/>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
-      <c r="O68" s="48"/>
-      <c r="P68" s="48"/>
+      <c r="O68" s="47"/>
+      <c r="P68" s="47"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
       <c r="S68" s="7"/>
@@ -15306,26 +15303,26 @@
       <c r="AO68" s="7"/>
     </row>
     <row r="69" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A69" s="119"/>
-      <c r="B69" s="91"/>
-      <c r="C69" s="94"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="122"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="57"/>
+      <c r="A69" s="80"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="93"/>
+      <c r="F69" s="88"/>
+      <c r="G69" s="56"/>
       <c r="H69" s="12">
         <v>43285</v>
       </c>
       <c r="I69" s="12">
         <v>43287</v>
       </c>
-      <c r="J69" s="57"/>
+      <c r="J69" s="56"/>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
-      <c r="N69" s="52"/>
-      <c r="O69" s="50"/>
-      <c r="P69" s="52"/>
+      <c r="N69" s="51"/>
+      <c r="O69" s="49"/>
+      <c r="P69" s="51"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
       <c r="S69" s="7"/>
@@ -15353,26 +15350,26 @@
       <c r="AO69" s="7"/>
     </row>
     <row r="70" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A70" s="90">
+      <c r="A70" s="64">
         <v>33</v>
       </c>
       <c r="B70" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="128"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="129"/>
-      <c r="F70" s="66" t="s">
+      <c r="C70" s="99"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="101"/>
+      <c r="F70" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G70" s="133"/>
+      <c r="G70" s="57"/>
       <c r="H70" s="11">
         <v>43290</v>
       </c>
       <c r="I70" s="12">
         <v>43290</v>
       </c>
-      <c r="J70" s="56"/>
+      <c r="J70" s="55"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
@@ -15381,7 +15378,7 @@
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
-      <c r="S70" s="48"/>
+      <c r="S70" s="47"/>
       <c r="T70" s="7"/>
       <c r="U70" s="7"/>
       <c r="V70" s="7"/>
@@ -15406,27 +15403,27 @@
       <c r="AO70" s="7"/>
     </row>
     <row r="71" spans="1:41" ht="14">
-      <c r="A71" s="119"/>
-      <c r="B71" s="91"/>
+      <c r="A71" s="80"/>
+      <c r="B71" s="65"/>
       <c r="C71" s="100"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="122"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="57"/>
-      <c r="H71" s="45">
+      <c r="D71" s="19"/>
+      <c r="E71" s="93"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="44">
         <v>43290</v>
       </c>
       <c r="I71" s="12"/>
-      <c r="J71" s="57"/>
+      <c r="J71" s="56"/>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
-      <c r="N71" s="53"/>
+      <c r="N71" s="52"/>
       <c r="O71" s="7"/>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
-      <c r="S71" s="52"/>
+      <c r="S71" s="51"/>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
@@ -15451,32 +15448,32 @@
       <c r="AO71" s="7"/>
     </row>
     <row r="72" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A72" s="90">
+      <c r="A72" s="64">
         <v>34</v>
       </c>
-      <c r="B72" s="98" t="s">
+      <c r="B72" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="99" t="s">
+      <c r="C72" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="D72" s="25" t="s">
+      <c r="D72" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E72" s="101" t="s">
+      <c r="E72" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="F72" s="66" t="s">
+      <c r="F72" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G72" s="133"/>
+      <c r="G72" s="57"/>
       <c r="H72" s="11">
         <v>43291</v>
       </c>
       <c r="I72" s="11">
         <v>43297</v>
       </c>
-      <c r="J72" s="56"/>
+      <c r="J72" s="55"/>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
@@ -15486,14 +15483,14 @@
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
       <c r="S72" s="7"/>
-      <c r="T72" s="48"/>
-      <c r="U72" s="48"/>
-      <c r="V72" s="48"/>
-      <c r="W72" s="48"/>
+      <c r="T72" s="47"/>
+      <c r="U72" s="47"/>
+      <c r="V72" s="47"/>
+      <c r="W72" s="47"/>
       <c r="X72" s="7"/>
       <c r="Y72" s="7"/>
-      <c r="Z72" s="53"/>
-      <c r="AA72" s="54"/>
+      <c r="Z72" s="52"/>
+      <c r="AA72" s="53"/>
       <c r="AB72" s="7"/>
       <c r="AC72" s="7"/>
       <c r="AD72" s="7"/>
@@ -15510,20 +15507,20 @@
       <c r="AO72" s="7"/>
     </row>
     <row r="73" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A73" s="119"/>
-      <c r="B73" s="91"/>
+      <c r="A73" s="80"/>
+      <c r="B73" s="65"/>
       <c r="C73" s="100"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="102"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="57"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="110"/>
+      <c r="F73" s="88"/>
+      <c r="G73" s="56"/>
       <c r="H73" s="12">
         <v>43291</v>
       </c>
       <c r="I73" s="12">
         <v>43299</v>
       </c>
-      <c r="J73" s="57"/>
+      <c r="J73" s="56"/>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
@@ -15533,15 +15530,15 @@
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
       <c r="S73" s="7"/>
-      <c r="T73" s="52"/>
-      <c r="U73" s="52"/>
-      <c r="V73" s="52"/>
-      <c r="W73" s="55"/>
+      <c r="T73" s="51"/>
+      <c r="U73" s="51"/>
+      <c r="V73" s="51"/>
+      <c r="W73" s="54"/>
       <c r="X73" s="7"/>
       <c r="Y73" s="7"/>
       <c r="Z73" s="7"/>
-      <c r="AA73" s="52"/>
-      <c r="AB73" s="52"/>
+      <c r="AA73" s="51"/>
+      <c r="AB73" s="51"/>
       <c r="AC73" s="7"/>
       <c r="AD73" s="7"/>
       <c r="AE73" s="7"/>
@@ -15557,30 +15554,30 @@
       <c r="AO73" s="7"/>
     </row>
     <row r="74" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A74" s="90">
+      <c r="A74" s="64">
         <v>35</v>
       </c>
-      <c r="B74" s="90"/>
-      <c r="C74" s="99" t="s">
+      <c r="B74" s="64"/>
+      <c r="C74" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="D74" s="49" t="s">
+      <c r="D74" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="E74" s="101" t="s">
+      <c r="E74" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="F74" s="66" t="s">
+      <c r="F74" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G74" s="133"/>
+      <c r="G74" s="57"/>
       <c r="H74" s="12">
         <v>43291</v>
       </c>
       <c r="I74" s="12">
         <v>43297</v>
       </c>
-      <c r="J74" s="56"/>
+      <c r="J74" s="55"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
@@ -15590,14 +15587,14 @@
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
       <c r="S74" s="7"/>
-      <c r="T74" s="48"/>
-      <c r="U74" s="48"/>
-      <c r="V74" s="48"/>
-      <c r="W74" s="48"/>
+      <c r="T74" s="47"/>
+      <c r="U74" s="47"/>
+      <c r="V74" s="47"/>
+      <c r="W74" s="47"/>
       <c r="X74" s="7"/>
       <c r="Y74" s="7"/>
-      <c r="Z74" s="53"/>
-      <c r="AA74" s="48"/>
+      <c r="Z74" s="52"/>
+      <c r="AA74" s="47"/>
       <c r="AB74" s="7"/>
       <c r="AC74" s="7"/>
       <c r="AD74" s="7"/>
@@ -15614,20 +15611,20 @@
       <c r="AO74" s="7"/>
     </row>
     <row r="75" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A75" s="119"/>
-      <c r="B75" s="91"/>
+      <c r="A75" s="80"/>
+      <c r="B75" s="65"/>
       <c r="C75" s="100"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="102"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="57"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="110"/>
+      <c r="F75" s="88"/>
+      <c r="G75" s="56"/>
       <c r="H75" s="12">
         <v>43291</v>
       </c>
-      <c r="I75" s="45">
+      <c r="I75" s="44">
         <v>43299</v>
       </c>
-      <c r="J75" s="57"/>
+      <c r="J75" s="56"/>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
@@ -15637,15 +15634,15 @@
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
       <c r="S75" s="7"/>
-      <c r="T75" s="52"/>
-      <c r="U75" s="52"/>
-      <c r="V75" s="52"/>
-      <c r="W75" s="52"/>
+      <c r="T75" s="51"/>
+      <c r="U75" s="51"/>
+      <c r="V75" s="51"/>
+      <c r="W75" s="51"/>
       <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
       <c r="Z75" s="7"/>
-      <c r="AA75" s="52"/>
-      <c r="AB75" s="52"/>
+      <c r="AA75" s="51"/>
+      <c r="AB75" s="51"/>
       <c r="AC75" s="7"/>
       <c r="AD75" s="7"/>
       <c r="AE75" s="7"/>
@@ -15661,30 +15658,30 @@
       <c r="AO75" s="7"/>
     </row>
     <row r="76" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A76" s="90">
+      <c r="A76" s="64">
         <v>36</v>
       </c>
-      <c r="B76" s="110"/>
-      <c r="C76" s="103" t="s">
+      <c r="B76" s="76"/>
+      <c r="C76" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="D76" s="38" t="s">
+      <c r="D76" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="E76" s="126" t="s">
+      <c r="E76" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="F76" s="66" t="s">
+      <c r="F76" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G76" s="133"/>
+      <c r="G76" s="57"/>
       <c r="H76" s="12">
         <v>43291</v>
       </c>
       <c r="I76" s="12">
         <v>43297</v>
       </c>
-      <c r="J76" s="56"/>
+      <c r="J76" s="55"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
@@ -15694,14 +15691,14 @@
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
       <c r="S76" s="7"/>
-      <c r="T76" s="48"/>
-      <c r="U76" s="48"/>
-      <c r="V76" s="48"/>
-      <c r="W76" s="48"/>
+      <c r="T76" s="47"/>
+      <c r="U76" s="47"/>
+      <c r="V76" s="47"/>
+      <c r="W76" s="47"/>
       <c r="X76" s="7"/>
       <c r="Y76" s="7"/>
-      <c r="Z76" s="53"/>
-      <c r="AA76" s="48"/>
+      <c r="Z76" s="52"/>
+      <c r="AA76" s="47"/>
       <c r="AB76" s="7"/>
       <c r="AC76" s="7"/>
       <c r="AD76" s="7"/>
@@ -15718,20 +15715,20 @@
       <c r="AO76" s="7"/>
     </row>
     <row r="77" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A77" s="119"/>
-      <c r="B77" s="111"/>
-      <c r="C77" s="104"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="57"/>
-      <c r="F77" s="67"/>
-      <c r="G77" s="57"/>
+      <c r="A77" s="80"/>
+      <c r="B77" s="77"/>
+      <c r="C77" s="103"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="88"/>
+      <c r="G77" s="56"/>
       <c r="H77" s="12">
         <v>43291</v>
       </c>
       <c r="I77" s="12">
         <v>43299</v>
       </c>
-      <c r="J77" s="57"/>
+      <c r="J77" s="56"/>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
@@ -15741,15 +15738,15 @@
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
-      <c r="T77" s="52"/>
-      <c r="U77" s="52"/>
-      <c r="V77" s="52"/>
-      <c r="W77" s="52"/>
+      <c r="T77" s="51"/>
+      <c r="U77" s="51"/>
+      <c r="V77" s="51"/>
+      <c r="W77" s="51"/>
       <c r="X77" s="7"/>
       <c r="Y77" s="7"/>
       <c r="Z77" s="7"/>
-      <c r="AA77" s="52"/>
-      <c r="AB77" s="52"/>
+      <c r="AA77" s="51"/>
+      <c r="AB77" s="51"/>
       <c r="AC77" s="7"/>
       <c r="AD77" s="7"/>
       <c r="AE77" s="7"/>
@@ -15765,30 +15762,30 @@
       <c r="AO77" s="7"/>
     </row>
     <row r="78" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A78" s="90">
+      <c r="A78" s="64">
         <v>37</v>
       </c>
-      <c r="B78" s="90"/>
-      <c r="C78" s="107" t="s">
+      <c r="B78" s="64"/>
+      <c r="C78" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="D78" s="25" t="s">
+      <c r="D78" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E78" s="98" t="s">
+      <c r="E78" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F78" s="66" t="s">
+      <c r="F78" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G78" s="133"/>
+      <c r="G78" s="57"/>
       <c r="H78" s="12">
         <v>43291</v>
       </c>
       <c r="I78" s="12">
         <v>43297</v>
       </c>
-      <c r="J78" s="56"/>
+      <c r="J78" s="55"/>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
@@ -15798,14 +15795,14 @@
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
       <c r="S78" s="7"/>
-      <c r="T78" s="48"/>
-      <c r="U78" s="48"/>
-      <c r="V78" s="48"/>
-      <c r="W78" s="48"/>
+      <c r="T78" s="47"/>
+      <c r="U78" s="47"/>
+      <c r="V78" s="47"/>
+      <c r="W78" s="47"/>
       <c r="X78" s="7"/>
       <c r="Y78" s="7"/>
-      <c r="Z78" s="53"/>
-      <c r="AA78" s="48"/>
+      <c r="Z78" s="52"/>
+      <c r="AA78" s="47"/>
       <c r="AB78" s="7"/>
       <c r="AC78" s="7"/>
       <c r="AD78" s="7"/>
@@ -15822,20 +15819,20 @@
       <c r="AO78" s="7"/>
     </row>
     <row r="79" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A79" s="119"/>
-      <c r="B79" s="91"/>
-      <c r="C79" s="108"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="57"/>
-      <c r="F79" s="67"/>
-      <c r="G79" s="57"/>
+      <c r="A79" s="80"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="95"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="88"/>
+      <c r="G79" s="56"/>
       <c r="H79" s="12">
         <v>43291</v>
       </c>
       <c r="I79" s="12">
         <v>43299</v>
       </c>
-      <c r="J79" s="57"/>
+      <c r="J79" s="56"/>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
@@ -15845,15 +15842,15 @@
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
       <c r="S79" s="7"/>
-      <c r="T79" s="52"/>
-      <c r="U79" s="52"/>
-      <c r="V79" s="52"/>
-      <c r="W79" s="52"/>
+      <c r="T79" s="51"/>
+      <c r="U79" s="51"/>
+      <c r="V79" s="51"/>
+      <c r="W79" s="51"/>
       <c r="X79" s="7"/>
       <c r="Y79" s="7"/>
       <c r="Z79" s="7"/>
-      <c r="AA79" s="52"/>
-      <c r="AB79" s="52"/>
+      <c r="AA79" s="51"/>
+      <c r="AB79" s="51"/>
       <c r="AC79" s="7"/>
       <c r="AD79" s="7"/>
       <c r="AE79" s="7"/>
@@ -15869,30 +15866,30 @@
       <c r="AO79" s="7"/>
     </row>
     <row r="80" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A80" s="90">
+      <c r="A80" s="64">
         <v>38</v>
       </c>
-      <c r="B80" s="90"/>
-      <c r="C80" s="107" t="s">
+      <c r="B80" s="64"/>
+      <c r="C80" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="D80" s="25" t="s">
+      <c r="D80" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="E80" s="98" t="s">
+      <c r="E80" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F80" s="66" t="s">
+      <c r="F80" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G80" s="133"/>
+      <c r="G80" s="57"/>
       <c r="H80" s="12">
         <v>43291</v>
       </c>
       <c r="I80" s="12">
         <v>43297</v>
       </c>
-      <c r="J80" s="56"/>
+      <c r="J80" s="55"/>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
@@ -15902,14 +15899,14 @@
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
       <c r="S80" s="7"/>
-      <c r="T80" s="48"/>
-      <c r="U80" s="48"/>
-      <c r="V80" s="48"/>
-      <c r="W80" s="48"/>
+      <c r="T80" s="47"/>
+      <c r="U80" s="47"/>
+      <c r="V80" s="47"/>
+      <c r="W80" s="47"/>
       <c r="X80" s="7"/>
       <c r="Y80" s="7"/>
-      <c r="Z80" s="53"/>
-      <c r="AA80" s="48"/>
+      <c r="Z80" s="52"/>
+      <c r="AA80" s="47"/>
       <c r="AB80" s="7"/>
       <c r="AC80" s="7"/>
       <c r="AD80" s="7"/>
@@ -15926,20 +15923,20 @@
       <c r="AO80" s="7"/>
     </row>
     <row r="81" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A81" s="119"/>
-      <c r="B81" s="91"/>
-      <c r="C81" s="108"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="57"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="57"/>
+      <c r="A81" s="80"/>
+      <c r="B81" s="65"/>
+      <c r="C81" s="95"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="88"/>
+      <c r="G81" s="56"/>
       <c r="H81" s="12">
         <v>43291</v>
       </c>
       <c r="I81" s="12">
         <v>43299</v>
       </c>
-      <c r="J81" s="57"/>
+      <c r="J81" s="56"/>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
@@ -15949,15 +15946,15 @@
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
       <c r="S81" s="7"/>
-      <c r="T81" s="52"/>
-      <c r="U81" s="52"/>
-      <c r="V81" s="52"/>
-      <c r="W81" s="52"/>
+      <c r="T81" s="51"/>
+      <c r="U81" s="51"/>
+      <c r="V81" s="51"/>
+      <c r="W81" s="51"/>
       <c r="X81" s="7"/>
       <c r="Y81" s="7"/>
       <c r="Z81" s="7"/>
-      <c r="AA81" s="52"/>
-      <c r="AB81" s="52"/>
+      <c r="AA81" s="51"/>
+      <c r="AB81" s="51"/>
       <c r="AC81" s="7"/>
       <c r="AD81" s="7"/>
       <c r="AE81" s="7"/>
@@ -15973,30 +15970,30 @@
       <c r="AO81" s="7"/>
     </row>
     <row r="82" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A82" s="90">
+      <c r="A82" s="64">
         <v>39</v>
       </c>
-      <c r="B82" s="90"/>
-      <c r="C82" s="127" t="s">
+      <c r="B82" s="64"/>
+      <c r="C82" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="D82" s="25" t="s">
+      <c r="D82" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="E82" s="98" t="s">
+      <c r="E82" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="F82" s="66" t="s">
+      <c r="F82" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G82" s="133"/>
+      <c r="G82" s="57"/>
       <c r="H82" s="12">
         <v>43291</v>
       </c>
       <c r="I82" s="12">
         <v>43297</v>
       </c>
-      <c r="J82" s="56"/>
+      <c r="J82" s="55"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
@@ -16006,14 +16003,14 @@
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
       <c r="S82" s="7"/>
-      <c r="T82" s="48"/>
-      <c r="U82" s="48"/>
-      <c r="V82" s="48"/>
-      <c r="W82" s="48"/>
+      <c r="T82" s="47"/>
+      <c r="U82" s="47"/>
+      <c r="V82" s="47"/>
+      <c r="W82" s="47"/>
       <c r="X82" s="7"/>
       <c r="Y82" s="7"/>
-      <c r="Z82" s="53"/>
-      <c r="AA82" s="48"/>
+      <c r="Z82" s="52"/>
+      <c r="AA82" s="47"/>
       <c r="AB82" s="7"/>
       <c r="AC82" s="7"/>
       <c r="AD82" s="7"/>
@@ -16030,20 +16027,20 @@
       <c r="AO82" s="7"/>
     </row>
     <row r="83" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A83" s="119"/>
-      <c r="B83" s="91"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="57"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="57"/>
+      <c r="A83" s="80"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="88"/>
+      <c r="G83" s="56"/>
       <c r="H83" s="12">
         <v>43291</v>
       </c>
       <c r="I83" s="12">
         <v>43299</v>
       </c>
-      <c r="J83" s="57"/>
+      <c r="J83" s="56"/>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
@@ -16053,15 +16050,15 @@
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
       <c r="S83" s="7"/>
-      <c r="T83" s="52"/>
-      <c r="U83" s="52"/>
-      <c r="V83" s="52"/>
-      <c r="W83" s="52"/>
+      <c r="T83" s="51"/>
+      <c r="U83" s="51"/>
+      <c r="V83" s="51"/>
+      <c r="W83" s="51"/>
       <c r="X83" s="7"/>
       <c r="Y83" s="7"/>
       <c r="Z83" s="7"/>
-      <c r="AA83" s="52"/>
-      <c r="AB83" s="52"/>
+      <c r="AA83" s="51"/>
+      <c r="AB83" s="51"/>
       <c r="AC83" s="7"/>
       <c r="AD83" s="7"/>
       <c r="AE83" s="7"/>
@@ -16077,30 +16074,30 @@
       <c r="AO83" s="7"/>
     </row>
     <row r="84" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A84" s="90">
+      <c r="A84" s="64">
         <v>40</v>
       </c>
-      <c r="B84" s="90"/>
-      <c r="C84" s="127" t="s">
+      <c r="B84" s="64"/>
+      <c r="C84" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="D84" s="25" t="s">
+      <c r="D84" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E84" s="98" t="s">
+      <c r="E84" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="F84" s="66" t="s">
+      <c r="F84" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G84" s="133"/>
+      <c r="G84" s="57"/>
       <c r="H84" s="12">
         <v>43291</v>
       </c>
       <c r="I84" s="12">
         <v>43297</v>
       </c>
-      <c r="J84" s="56"/>
+      <c r="J84" s="55"/>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
@@ -16110,14 +16107,14 @@
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
       <c r="S84" s="7"/>
-      <c r="T84" s="48"/>
-      <c r="U84" s="48"/>
-      <c r="V84" s="48"/>
-      <c r="W84" s="48"/>
+      <c r="T84" s="47"/>
+      <c r="U84" s="47"/>
+      <c r="V84" s="47"/>
+      <c r="W84" s="47"/>
       <c r="X84" s="7"/>
       <c r="Y84" s="7"/>
-      <c r="Z84" s="53"/>
-      <c r="AA84" s="48"/>
+      <c r="Z84" s="52"/>
+      <c r="AA84" s="47"/>
       <c r="AB84" s="7"/>
       <c r="AC84" s="7"/>
       <c r="AD84" s="7"/>
@@ -16134,20 +16131,20 @@
       <c r="AO84" s="7"/>
     </row>
     <row r="85" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A85" s="119"/>
-      <c r="B85" s="91"/>
-      <c r="C85" s="57"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="57"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="57"/>
+      <c r="A85" s="80"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="88"/>
+      <c r="G85" s="56"/>
       <c r="H85" s="12">
         <v>43291</v>
       </c>
       <c r="I85" s="12">
         <v>43299</v>
       </c>
-      <c r="J85" s="57"/>
+      <c r="J85" s="56"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
@@ -16157,15 +16154,15 @@
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
       <c r="S85" s="7"/>
-      <c r="T85" s="52"/>
-      <c r="U85" s="52"/>
-      <c r="V85" s="52"/>
-      <c r="W85" s="55"/>
+      <c r="T85" s="51"/>
+      <c r="U85" s="51"/>
+      <c r="V85" s="51"/>
+      <c r="W85" s="54"/>
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
       <c r="Z85" s="7"/>
-      <c r="AA85" s="52"/>
-      <c r="AB85" s="52"/>
+      <c r="AA85" s="51"/>
+      <c r="AB85" s="51"/>
       <c r="AC85" s="7"/>
       <c r="AD85" s="7"/>
       <c r="AE85" s="7"/>
@@ -16181,30 +16178,30 @@
       <c r="AO85" s="7"/>
     </row>
     <row r="86" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A86" s="90">
+      <c r="A86" s="64">
         <v>41</v>
       </c>
-      <c r="B86" s="90"/>
-      <c r="C86" s="118" t="s">
+      <c r="B86" s="64"/>
+      <c r="C86" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="D86" s="25" t="s">
+      <c r="D86" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="E86" s="98" t="s">
+      <c r="E86" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="F86" s="66" t="s">
+      <c r="F86" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G86" s="133"/>
+      <c r="G86" s="57"/>
       <c r="H86" s="12">
         <v>43291</v>
       </c>
       <c r="I86" s="12">
         <v>43297</v>
       </c>
-      <c r="J86" s="56"/>
+      <c r="J86" s="55"/>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
@@ -16214,14 +16211,14 @@
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
       <c r="S86" s="7"/>
-      <c r="T86" s="48"/>
-      <c r="U86" s="48"/>
-      <c r="V86" s="48"/>
-      <c r="W86" s="48"/>
+      <c r="T86" s="47"/>
+      <c r="U86" s="47"/>
+      <c r="V86" s="47"/>
+      <c r="W86" s="47"/>
       <c r="X86" s="7"/>
       <c r="Y86" s="7"/>
-      <c r="Z86" s="53"/>
-      <c r="AA86" s="48"/>
+      <c r="Z86" s="52"/>
+      <c r="AA86" s="47"/>
       <c r="AB86" s="7"/>
       <c r="AC86" s="7"/>
       <c r="AD86" s="7"/>
@@ -16238,20 +16235,20 @@
       <c r="AO86" s="7"/>
     </row>
     <row r="87" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A87" s="119"/>
-      <c r="B87" s="91"/>
-      <c r="C87" s="111"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="57"/>
-      <c r="F87" s="67"/>
-      <c r="G87" s="57"/>
+      <c r="A87" s="80"/>
+      <c r="B87" s="65"/>
+      <c r="C87" s="77"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="56"/>
+      <c r="F87" s="88"/>
+      <c r="G87" s="56"/>
       <c r="H87" s="12">
         <v>43291</v>
       </c>
       <c r="I87" s="12">
         <v>43299</v>
       </c>
-      <c r="J87" s="57"/>
+      <c r="J87" s="56"/>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
@@ -16261,15 +16258,15 @@
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
       <c r="S87" s="7"/>
-      <c r="T87" s="52"/>
-      <c r="U87" s="52"/>
-      <c r="V87" s="52"/>
-      <c r="W87" s="52"/>
+      <c r="T87" s="51"/>
+      <c r="U87" s="51"/>
+      <c r="V87" s="51"/>
+      <c r="W87" s="51"/>
       <c r="X87" s="7"/>
       <c r="Y87" s="7"/>
       <c r="Z87" s="7"/>
-      <c r="AA87" s="52"/>
-      <c r="AB87" s="52"/>
+      <c r="AA87" s="51"/>
+      <c r="AB87" s="51"/>
       <c r="AC87" s="7"/>
       <c r="AD87" s="7"/>
       <c r="AE87" s="7"/>
@@ -16285,30 +16282,30 @@
       <c r="AO87" s="7"/>
     </row>
     <row r="88" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A88" s="90">
+      <c r="A88" s="64">
         <v>42</v>
       </c>
-      <c r="B88" s="110"/>
-      <c r="C88" s="118" t="s">
+      <c r="B88" s="76"/>
+      <c r="C88" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="D88" s="25" t="s">
+      <c r="D88" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="E88" s="89" t="s">
+      <c r="E88" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="F88" s="66" t="s">
+      <c r="F88" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G88" s="133"/>
+      <c r="G88" s="57"/>
       <c r="H88" s="12">
         <v>43291</v>
       </c>
       <c r="I88" s="12">
         <v>43297</v>
       </c>
-      <c r="J88" s="56"/>
+      <c r="J88" s="55"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
@@ -16318,14 +16315,14 @@
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
       <c r="S88" s="7"/>
-      <c r="T88" s="48"/>
-      <c r="U88" s="48"/>
-      <c r="V88" s="48"/>
-      <c r="W88" s="48"/>
+      <c r="T88" s="47"/>
+      <c r="U88" s="47"/>
+      <c r="V88" s="47"/>
+      <c r="W88" s="47"/>
       <c r="X88" s="7"/>
       <c r="Y88" s="7"/>
-      <c r="Z88" s="53"/>
-      <c r="AA88" s="48"/>
+      <c r="Z88" s="52"/>
+      <c r="AA88" s="47"/>
       <c r="AB88" s="7"/>
       <c r="AC88" s="7"/>
       <c r="AD88" s="7"/>
@@ -16342,20 +16339,20 @@
       <c r="AO88" s="7"/>
     </row>
     <row r="89" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A89" s="119"/>
-      <c r="B89" s="111"/>
-      <c r="C89" s="111"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="111"/>
-      <c r="F89" s="67"/>
-      <c r="G89" s="57"/>
+      <c r="A89" s="80"/>
+      <c r="B89" s="77"/>
+      <c r="C89" s="77"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="77"/>
+      <c r="F89" s="88"/>
+      <c r="G89" s="56"/>
       <c r="H89" s="12">
         <v>43291</v>
       </c>
       <c r="I89" s="12">
         <v>43299</v>
       </c>
-      <c r="J89" s="57"/>
+      <c r="J89" s="56"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
@@ -16365,15 +16362,15 @@
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
       <c r="S89" s="7"/>
-      <c r="T89" s="52"/>
-      <c r="U89" s="52"/>
-      <c r="V89" s="52"/>
-      <c r="W89" s="52"/>
+      <c r="T89" s="51"/>
+      <c r="U89" s="51"/>
+      <c r="V89" s="51"/>
+      <c r="W89" s="51"/>
       <c r="X89" s="7"/>
       <c r="Y89" s="7"/>
       <c r="Z89" s="7"/>
-      <c r="AA89" s="52"/>
-      <c r="AB89" s="52"/>
+      <c r="AA89" s="51"/>
+      <c r="AB89" s="51"/>
       <c r="AC89" s="7"/>
       <c r="AD89" s="7"/>
       <c r="AE89" s="7"/>
@@ -16389,30 +16386,30 @@
       <c r="AO89" s="7"/>
     </row>
     <row r="90" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A90" s="90">
+      <c r="A90" s="64">
         <v>43</v>
       </c>
-      <c r="B90" s="110"/>
-      <c r="C90" s="118" t="s">
+      <c r="B90" s="76"/>
+      <c r="C90" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="D90" s="25" t="s">
+      <c r="D90" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="E90" s="98" t="s">
+      <c r="E90" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="F90" s="66" t="s">
+      <c r="F90" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G90" s="133"/>
+      <c r="G90" s="57"/>
       <c r="H90" s="12">
         <v>43291</v>
       </c>
       <c r="I90" s="12">
         <v>43297</v>
       </c>
-      <c r="J90" s="56"/>
+      <c r="J90" s="55"/>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
@@ -16422,14 +16419,14 @@
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
       <c r="S90" s="7"/>
-      <c r="T90" s="48"/>
-      <c r="U90" s="48"/>
-      <c r="V90" s="48"/>
-      <c r="W90" s="48"/>
+      <c r="T90" s="47"/>
+      <c r="U90" s="47"/>
+      <c r="V90" s="47"/>
+      <c r="W90" s="47"/>
       <c r="X90" s="7"/>
       <c r="Y90" s="7"/>
-      <c r="Z90" s="53"/>
-      <c r="AA90" s="48"/>
+      <c r="Z90" s="52"/>
+      <c r="AA90" s="47"/>
       <c r="AB90" s="7"/>
       <c r="AC90" s="7"/>
       <c r="AD90" s="7"/>
@@ -16446,20 +16443,20 @@
       <c r="AO90" s="7"/>
     </row>
     <row r="91" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A91" s="119"/>
-      <c r="B91" s="111"/>
-      <c r="C91" s="111"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="57"/>
-      <c r="F91" s="67"/>
-      <c r="G91" s="57"/>
+      <c r="A91" s="80"/>
+      <c r="B91" s="77"/>
+      <c r="C91" s="77"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="88"/>
+      <c r="G91" s="56"/>
       <c r="H91" s="12">
         <v>43291</v>
       </c>
       <c r="I91" s="12">
         <v>43299</v>
       </c>
-      <c r="J91" s="57"/>
+      <c r="J91" s="56"/>
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
@@ -16469,15 +16466,15 @@
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
       <c r="S91" s="7"/>
-      <c r="T91" s="52"/>
-      <c r="U91" s="52"/>
-      <c r="V91" s="52"/>
-      <c r="W91" s="52"/>
+      <c r="T91" s="51"/>
+      <c r="U91" s="51"/>
+      <c r="V91" s="51"/>
+      <c r="W91" s="51"/>
       <c r="X91" s="7"/>
       <c r="Y91" s="7"/>
       <c r="Z91" s="7"/>
-      <c r="AA91" s="52"/>
-      <c r="AB91" s="52"/>
+      <c r="AA91" s="51"/>
+      <c r="AB91" s="51"/>
       <c r="AC91" s="7"/>
       <c r="AD91" s="7"/>
       <c r="AE91" s="7"/>
@@ -16493,30 +16490,30 @@
       <c r="AO91" s="7"/>
     </row>
     <row r="92" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A92" s="90">
+      <c r="A92" s="64">
         <v>44</v>
       </c>
-      <c r="B92" s="90"/>
-      <c r="C92" s="118" t="s">
+      <c r="B92" s="64"/>
+      <c r="C92" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="D92" s="25" t="s">
+      <c r="D92" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="E92" s="98" t="s">
+      <c r="E92" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="F92" s="66" t="s">
+      <c r="F92" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G92" s="133"/>
+      <c r="G92" s="57"/>
       <c r="H92" s="12">
         <v>43291</v>
       </c>
       <c r="I92" s="12">
         <v>43297</v>
       </c>
-      <c r="J92" s="56"/>
+      <c r="J92" s="55"/>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
@@ -16526,14 +16523,14 @@
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
       <c r="S92" s="7"/>
-      <c r="T92" s="48"/>
-      <c r="U92" s="48"/>
-      <c r="V92" s="48"/>
-      <c r="W92" s="48"/>
+      <c r="T92" s="47"/>
+      <c r="U92" s="47"/>
+      <c r="V92" s="47"/>
+      <c r="W92" s="47"/>
       <c r="X92" s="7"/>
       <c r="Y92" s="7"/>
-      <c r="Z92" s="53"/>
-      <c r="AA92" s="48"/>
+      <c r="Z92" s="52"/>
+      <c r="AA92" s="47"/>
       <c r="AB92" s="7"/>
       <c r="AC92" s="7"/>
       <c r="AD92" s="7"/>
@@ -16550,20 +16547,20 @@
       <c r="AO92" s="7"/>
     </row>
     <row r="93" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A93" s="119"/>
-      <c r="B93" s="91"/>
-      <c r="C93" s="111"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="57"/>
-      <c r="F93" s="67"/>
-      <c r="G93" s="57"/>
+      <c r="A93" s="80"/>
+      <c r="B93" s="65"/>
+      <c r="C93" s="77"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="88"/>
+      <c r="G93" s="56"/>
       <c r="H93" s="12">
         <v>43291</v>
       </c>
       <c r="I93" s="12">
         <v>43299</v>
       </c>
-      <c r="J93" s="57"/>
+      <c r="J93" s="56"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
@@ -16573,15 +16570,15 @@
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
       <c r="S93" s="7"/>
-      <c r="T93" s="52"/>
-      <c r="U93" s="52"/>
-      <c r="V93" s="52"/>
-      <c r="W93" s="52"/>
+      <c r="T93" s="51"/>
+      <c r="U93" s="51"/>
+      <c r="V93" s="51"/>
+      <c r="W93" s="51"/>
       <c r="X93" s="7"/>
       <c r="Y93" s="7"/>
       <c r="Z93" s="7"/>
-      <c r="AA93" s="52"/>
-      <c r="AB93" s="52"/>
+      <c r="AA93" s="51"/>
+      <c r="AB93" s="51"/>
       <c r="AC93" s="7"/>
       <c r="AD93" s="7"/>
       <c r="AE93" s="7"/>
@@ -16597,30 +16594,30 @@
       <c r="AO93" s="7"/>
     </row>
     <row r="94" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A94" s="90">
+      <c r="A94" s="64">
         <v>45</v>
       </c>
-      <c r="B94" s="90"/>
-      <c r="C94" s="86" t="s">
+      <c r="B94" s="64"/>
+      <c r="C94" s="111" t="s">
         <v>86</v>
       </c>
-      <c r="D94" s="25" t="s">
+      <c r="D94" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="E94" s="98" t="s">
+      <c r="E94" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="F94" s="66" t="s">
+      <c r="F94" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G94" s="133"/>
+      <c r="G94" s="57"/>
       <c r="H94" s="12">
         <v>43291</v>
       </c>
       <c r="I94" s="12">
         <v>43297</v>
       </c>
-      <c r="J94" s="56"/>
+      <c r="J94" s="55"/>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
@@ -16630,14 +16627,14 @@
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
       <c r="S94" s="7"/>
-      <c r="T94" s="48"/>
-      <c r="U94" s="48"/>
-      <c r="V94" s="48"/>
-      <c r="W94" s="48"/>
+      <c r="T94" s="47"/>
+      <c r="U94" s="47"/>
+      <c r="V94" s="47"/>
+      <c r="W94" s="47"/>
       <c r="X94" s="7"/>
       <c r="Y94" s="7"/>
-      <c r="Z94" s="53"/>
-      <c r="AA94" s="48"/>
+      <c r="Z94" s="52"/>
+      <c r="AA94" s="47"/>
       <c r="AB94" s="7"/>
       <c r="AC94" s="7"/>
       <c r="AD94" s="7"/>
@@ -16654,20 +16651,20 @@
       <c r="AO94" s="7"/>
     </row>
     <row r="95" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A95" s="119"/>
-      <c r="B95" s="91"/>
-      <c r="C95" s="87"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="57"/>
-      <c r="F95" s="67"/>
-      <c r="G95" s="57"/>
+      <c r="A95" s="80"/>
+      <c r="B95" s="65"/>
+      <c r="C95" s="94"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="56"/>
+      <c r="F95" s="88"/>
+      <c r="G95" s="56"/>
       <c r="H95" s="12">
         <v>43291</v>
       </c>
       <c r="I95" s="12">
         <v>43299</v>
       </c>
-      <c r="J95" s="57"/>
+      <c r="J95" s="56"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
@@ -16677,15 +16674,15 @@
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
       <c r="S95" s="7"/>
-      <c r="T95" s="52"/>
-      <c r="U95" s="52"/>
-      <c r="V95" s="52"/>
-      <c r="W95" s="52"/>
+      <c r="T95" s="51"/>
+      <c r="U95" s="51"/>
+      <c r="V95" s="51"/>
+      <c r="W95" s="51"/>
       <c r="X95" s="7"/>
       <c r="Y95" s="7"/>
       <c r="Z95" s="7"/>
-      <c r="AA95" s="52"/>
-      <c r="AB95" s="52"/>
+      <c r="AA95" s="51"/>
+      <c r="AB95" s="51"/>
       <c r="AC95" s="7"/>
       <c r="AD95" s="7"/>
       <c r="AE95" s="7"/>
@@ -16701,30 +16698,30 @@
       <c r="AO95" s="7"/>
     </row>
     <row r="96" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A96" s="90">
+      <c r="A96" s="64">
         <v>46</v>
       </c>
-      <c r="B96" s="90"/>
-      <c r="C96" s="86" t="s">
+      <c r="B96" s="64"/>
+      <c r="C96" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="D96" s="25" t="s">
+      <c r="D96" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="E96" s="98" t="s">
+      <c r="E96" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="F96" s="66" t="s">
+      <c r="F96" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G96" s="133"/>
+      <c r="G96" s="57"/>
       <c r="H96" s="12">
         <v>43291</v>
       </c>
       <c r="I96" s="12">
         <v>43297</v>
       </c>
-      <c r="J96" s="56"/>
+      <c r="J96" s="55"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
@@ -16734,14 +16731,14 @@
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
       <c r="S96" s="7"/>
-      <c r="T96" s="48"/>
-      <c r="U96" s="48"/>
-      <c r="V96" s="48"/>
-      <c r="W96" s="48"/>
+      <c r="T96" s="47"/>
+      <c r="U96" s="47"/>
+      <c r="V96" s="47"/>
+      <c r="W96" s="47"/>
       <c r="X96" s="7"/>
       <c r="Y96" s="7"/>
-      <c r="Z96" s="53"/>
-      <c r="AA96" s="48"/>
+      <c r="Z96" s="52"/>
+      <c r="AA96" s="47"/>
       <c r="AB96" s="7"/>
       <c r="AC96" s="7"/>
       <c r="AD96" s="7"/>
@@ -16758,20 +16755,20 @@
       <c r="AO96" s="7"/>
     </row>
     <row r="97" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A97" s="119"/>
-      <c r="B97" s="91"/>
-      <c r="C97" s="87"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="57"/>
-      <c r="F97" s="67"/>
-      <c r="G97" s="57"/>
+      <c r="A97" s="80"/>
+      <c r="B97" s="65"/>
+      <c r="C97" s="94"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="56"/>
+      <c r="F97" s="88"/>
+      <c r="G97" s="56"/>
       <c r="H97" s="12">
         <v>43291</v>
       </c>
       <c r="I97" s="12">
         <v>43299</v>
       </c>
-      <c r="J97" s="57"/>
+      <c r="J97" s="56"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
@@ -16781,15 +16778,15 @@
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
       <c r="S97" s="7"/>
-      <c r="T97" s="52"/>
-      <c r="U97" s="52"/>
-      <c r="V97" s="52"/>
-      <c r="W97" s="52"/>
+      <c r="T97" s="51"/>
+      <c r="U97" s="51"/>
+      <c r="V97" s="51"/>
+      <c r="W97" s="51"/>
       <c r="X97" s="7"/>
       <c r="Y97" s="7"/>
       <c r="Z97" s="7"/>
-      <c r="AA97" s="52"/>
-      <c r="AB97" s="52"/>
+      <c r="AA97" s="51"/>
+      <c r="AB97" s="51"/>
       <c r="AC97" s="7"/>
       <c r="AD97" s="7"/>
       <c r="AE97" s="7"/>
@@ -16805,30 +16802,30 @@
       <c r="AO97" s="7"/>
     </row>
     <row r="98" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A98" s="72">
+      <c r="A98" s="114">
         <v>47</v>
       </c>
-      <c r="B98" s="90"/>
-      <c r="C98" s="86" t="s">
+      <c r="B98" s="64"/>
+      <c r="C98" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="D98" s="25" t="s">
+      <c r="D98" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="E98" s="98" t="s">
+      <c r="E98" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="F98" s="66" t="s">
+      <c r="F98" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G98" s="133"/>
+      <c r="G98" s="57"/>
       <c r="H98" s="12">
         <v>43291</v>
       </c>
       <c r="I98" s="12">
         <v>43297</v>
       </c>
-      <c r="J98" s="56"/>
+      <c r="J98" s="55"/>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
@@ -16838,14 +16835,14 @@
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
       <c r="S98" s="7"/>
-      <c r="T98" s="48"/>
-      <c r="U98" s="48"/>
-      <c r="V98" s="48"/>
-      <c r="W98" s="48"/>
+      <c r="T98" s="47"/>
+      <c r="U98" s="47"/>
+      <c r="V98" s="47"/>
+      <c r="W98" s="47"/>
       <c r="X98" s="7"/>
       <c r="Y98" s="7"/>
-      <c r="Z98" s="53"/>
-      <c r="AA98" s="48"/>
+      <c r="Z98" s="52"/>
+      <c r="AA98" s="47"/>
       <c r="AB98" s="7"/>
       <c r="AC98" s="7"/>
       <c r="AD98" s="7"/>
@@ -16862,20 +16859,20 @@
       <c r="AO98" s="7"/>
     </row>
     <row r="99" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A99" s="73"/>
-      <c r="B99" s="91"/>
-      <c r="C99" s="87"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="57"/>
-      <c r="F99" s="67"/>
-      <c r="G99" s="57"/>
+      <c r="A99" s="115"/>
+      <c r="B99" s="65"/>
+      <c r="C99" s="94"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="56"/>
+      <c r="F99" s="88"/>
+      <c r="G99" s="56"/>
       <c r="H99" s="12">
         <v>43291</v>
       </c>
       <c r="I99" s="12">
         <v>43299</v>
       </c>
-      <c r="J99" s="57"/>
+      <c r="J99" s="56"/>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
@@ -16885,15 +16882,15 @@
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
       <c r="S99" s="7"/>
-      <c r="T99" s="52"/>
-      <c r="U99" s="52"/>
-      <c r="V99" s="52"/>
-      <c r="W99" s="52"/>
+      <c r="T99" s="51"/>
+      <c r="U99" s="51"/>
+      <c r="V99" s="51"/>
+      <c r="W99" s="51"/>
       <c r="X99" s="7"/>
       <c r="Y99" s="7"/>
-      <c r="Z99" s="53"/>
-      <c r="AA99" s="52"/>
-      <c r="AB99" s="52"/>
+      <c r="Z99" s="52"/>
+      <c r="AA99" s="51"/>
+      <c r="AB99" s="51"/>
       <c r="AC99" s="7"/>
       <c r="AD99" s="7"/>
       <c r="AE99" s="7"/>
@@ -16908,31 +16905,31 @@
       <c r="AN99" s="7"/>
       <c r="AO99" s="7"/>
     </row>
-    <row r="100" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A100" s="72">
+    <row r="100" spans="1:41" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A100" s="114">
         <v>48</v>
       </c>
-      <c r="B100" s="90"/>
-      <c r="C100" s="105" t="s">
+      <c r="B100" s="64"/>
+      <c r="C100" s="121" t="s">
         <v>87</v>
       </c>
-      <c r="D100" s="42" t="s">
+      <c r="D100" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="E100" s="123" t="s">
+      <c r="E100" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="F100" s="66" t="s">
+      <c r="F100" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G100" s="133"/>
+      <c r="G100" s="57"/>
       <c r="H100" s="12">
         <v>43291</v>
       </c>
       <c r="I100" s="12">
         <v>43297</v>
       </c>
-      <c r="J100" s="56"/>
+      <c r="J100" s="55"/>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
@@ -16942,14 +16939,14 @@
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
       <c r="S100" s="7"/>
-      <c r="T100" s="48"/>
-      <c r="U100" s="48"/>
-      <c r="V100" s="48"/>
-      <c r="W100" s="48"/>
+      <c r="T100" s="47"/>
+      <c r="U100" s="47"/>
+      <c r="V100" s="47"/>
+      <c r="W100" s="47"/>
       <c r="X100" s="7"/>
       <c r="Y100" s="7"/>
       <c r="Z100" s="7"/>
-      <c r="AA100" s="48"/>
+      <c r="AA100" s="47"/>
       <c r="AB100" s="7"/>
       <c r="AC100" s="7"/>
       <c r="AD100" s="7"/>
@@ -16965,21 +16962,21 @@
       <c r="AN100" s="7"/>
       <c r="AO100" s="7"/>
     </row>
-    <row r="101" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A101" s="73"/>
-      <c r="B101" s="91"/>
-      <c r="C101" s="106"/>
-      <c r="D101" s="21"/>
-      <c r="E101" s="65"/>
-      <c r="F101" s="67"/>
-      <c r="G101" s="57"/>
+    <row r="101" spans="1:41" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A101" s="115"/>
+      <c r="B101" s="65"/>
+      <c r="C101" s="122"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="60"/>
+      <c r="F101" s="88"/>
+      <c r="G101" s="56"/>
       <c r="H101" s="12">
         <v>43291</v>
       </c>
       <c r="I101" s="12">
         <v>43299</v>
       </c>
-      <c r="J101" s="57"/>
+      <c r="J101" s="56"/>
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
       <c r="M101" s="7"/>
@@ -16989,15 +16986,15 @@
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
       <c r="S101" s="7"/>
-      <c r="T101" s="52"/>
-      <c r="U101" s="52"/>
-      <c r="V101" s="52"/>
-      <c r="W101" s="52"/>
+      <c r="T101" s="51"/>
+      <c r="U101" s="51"/>
+      <c r="V101" s="51"/>
+      <c r="W101" s="51"/>
       <c r="X101" s="7"/>
       <c r="Y101" s="7"/>
       <c r="Z101" s="7"/>
-      <c r="AA101" s="52"/>
-      <c r="AB101" s="52"/>
+      <c r="AA101" s="51"/>
+      <c r="AB101" s="51"/>
       <c r="AC101" s="7"/>
       <c r="AD101" s="7"/>
       <c r="AE101" s="7"/>
@@ -17013,30 +17010,30 @@
       <c r="AO101" s="7"/>
     </row>
     <row r="102" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A102" s="72">
+      <c r="A102" s="114">
         <v>49</v>
       </c>
-      <c r="B102" s="90"/>
-      <c r="C102" s="105" t="s">
+      <c r="B102" s="64"/>
+      <c r="C102" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="D102" s="46" t="s">
+      <c r="D102" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="E102" s="123" t="s">
+      <c r="E102" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="F102" s="66" t="s">
+      <c r="F102" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G102" s="133"/>
+      <c r="G102" s="57"/>
       <c r="H102" s="12">
         <v>43291</v>
       </c>
       <c r="I102" s="12">
         <v>43297</v>
       </c>
-      <c r="J102" s="56"/>
+      <c r="J102" s="55"/>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
       <c r="M102" s="7"/>
@@ -17046,14 +17043,14 @@
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
       <c r="S102" s="7"/>
-      <c r="T102" s="48"/>
-      <c r="U102" s="48"/>
-      <c r="V102" s="48"/>
-      <c r="W102" s="48"/>
+      <c r="T102" s="47"/>
+      <c r="U102" s="47"/>
+      <c r="V102" s="47"/>
+      <c r="W102" s="47"/>
       <c r="X102" s="7"/>
       <c r="Y102" s="7"/>
       <c r="Z102" s="7"/>
-      <c r="AA102" s="48"/>
+      <c r="AA102" s="47"/>
       <c r="AB102" s="7"/>
       <c r="AC102" s="7"/>
       <c r="AD102" s="7"/>
@@ -17070,20 +17067,20 @@
       <c r="AO102" s="7"/>
     </row>
     <row r="103" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A103" s="73"/>
-      <c r="B103" s="91"/>
-      <c r="C103" s="106"/>
-      <c r="D103" s="47"/>
-      <c r="E103" s="65"/>
-      <c r="F103" s="67"/>
-      <c r="G103" s="57"/>
+      <c r="A103" s="115"/>
+      <c r="B103" s="65"/>
+      <c r="C103" s="122"/>
+      <c r="D103" s="46"/>
+      <c r="E103" s="60"/>
+      <c r="F103" s="88"/>
+      <c r="G103" s="56"/>
       <c r="H103" s="12">
         <v>43291</v>
       </c>
       <c r="I103" s="12">
         <v>43299</v>
       </c>
-      <c r="J103" s="57"/>
+      <c r="J103" s="56"/>
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
@@ -17093,15 +17090,15 @@
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
       <c r="S103" s="7"/>
-      <c r="T103" s="52"/>
-      <c r="U103" s="52"/>
-      <c r="V103" s="52"/>
-      <c r="W103" s="52"/>
+      <c r="T103" s="51"/>
+      <c r="U103" s="51"/>
+      <c r="V103" s="51"/>
+      <c r="W103" s="51"/>
       <c r="X103" s="7"/>
       <c r="Y103" s="7"/>
       <c r="Z103" s="7"/>
-      <c r="AA103" s="52"/>
-      <c r="AB103" s="52"/>
+      <c r="AA103" s="51"/>
+      <c r="AB103" s="51"/>
       <c r="AC103" s="7"/>
       <c r="AD103" s="7"/>
       <c r="AE103" s="7"/>
@@ -17117,30 +17114,30 @@
       <c r="AO103" s="7"/>
     </row>
     <row r="104" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A104" s="72">
+      <c r="A104" s="114">
         <v>50</v>
       </c>
-      <c r="B104" s="90"/>
-      <c r="C104" s="115" t="s">
+      <c r="B104" s="64"/>
+      <c r="C104" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="D104" s="46" t="s">
+      <c r="D104" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="E104" s="123" t="s">
+      <c r="E104" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="F104" s="66" t="s">
+      <c r="F104" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G104" s="133"/>
+      <c r="G104" s="57"/>
       <c r="H104" s="12">
         <v>43291</v>
       </c>
       <c r="I104" s="12">
         <v>43297</v>
       </c>
-      <c r="J104" s="56"/>
+      <c r="J104" s="55"/>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
       <c r="M104" s="7"/>
@@ -17150,14 +17147,14 @@
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
       <c r="S104" s="7"/>
-      <c r="T104" s="48"/>
-      <c r="U104" s="48"/>
-      <c r="V104" s="48"/>
-      <c r="W104" s="48"/>
+      <c r="T104" s="47"/>
+      <c r="U104" s="47"/>
+      <c r="V104" s="47"/>
+      <c r="W104" s="47"/>
       <c r="X104" s="7"/>
       <c r="Y104" s="7"/>
       <c r="Z104" s="7"/>
-      <c r="AA104" s="48"/>
+      <c r="AA104" s="47"/>
       <c r="AB104" s="7"/>
       <c r="AC104" s="7"/>
       <c r="AD104" s="7"/>
@@ -17174,20 +17171,20 @@
       <c r="AO104" s="7"/>
     </row>
     <row r="105" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A105" s="73"/>
-      <c r="B105" s="91"/>
-      <c r="C105" s="109"/>
-      <c r="D105" s="47"/>
-      <c r="E105" s="111"/>
-      <c r="F105" s="67"/>
-      <c r="G105" s="57"/>
+      <c r="A105" s="115"/>
+      <c r="B105" s="65"/>
+      <c r="C105" s="105"/>
+      <c r="D105" s="46"/>
+      <c r="E105" s="77"/>
+      <c r="F105" s="88"/>
+      <c r="G105" s="56"/>
       <c r="H105" s="12">
         <v>43291</v>
       </c>
       <c r="I105" s="12">
         <v>43299</v>
       </c>
-      <c r="J105" s="57"/>
+      <c r="J105" s="56"/>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
@@ -17197,15 +17194,15 @@
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
       <c r="S105" s="7"/>
-      <c r="T105" s="52"/>
-      <c r="U105" s="52"/>
-      <c r="V105" s="52"/>
-      <c r="W105" s="52"/>
+      <c r="T105" s="51"/>
+      <c r="U105" s="51"/>
+      <c r="V105" s="51"/>
+      <c r="W105" s="51"/>
       <c r="X105" s="7"/>
       <c r="Y105" s="7"/>
       <c r="Z105" s="7"/>
-      <c r="AA105" s="52"/>
-      <c r="AB105" s="52"/>
+      <c r="AA105" s="51"/>
+      <c r="AB105" s="51"/>
       <c r="AC105" s="7"/>
       <c r="AD105" s="7"/>
       <c r="AE105" s="7"/>
@@ -17221,30 +17218,30 @@
       <c r="AO105" s="7"/>
     </row>
     <row r="106" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A106" s="72">
+      <c r="A106" s="114">
         <v>51</v>
       </c>
-      <c r="B106" s="90"/>
-      <c r="C106" s="115" t="s">
+      <c r="B106" s="64"/>
+      <c r="C106" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="D106" s="42" t="s">
+      <c r="D106" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="E106" s="124" t="s">
+      <c r="E106" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="F106" s="66" t="s">
+      <c r="F106" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G106" s="133"/>
+      <c r="G106" s="57"/>
       <c r="H106" s="12">
         <v>43291</v>
       </c>
       <c r="I106" s="12">
         <v>43297</v>
       </c>
-      <c r="J106" s="56"/>
+      <c r="J106" s="55"/>
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
@@ -17254,14 +17251,14 @@
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
       <c r="S106" s="7"/>
-      <c r="T106" s="48"/>
-      <c r="U106" s="48"/>
-      <c r="V106" s="48"/>
-      <c r="W106" s="48"/>
+      <c r="T106" s="47"/>
+      <c r="U106" s="47"/>
+      <c r="V106" s="47"/>
+      <c r="W106" s="47"/>
       <c r="X106" s="7"/>
       <c r="Y106" s="7"/>
       <c r="Z106" s="7"/>
-      <c r="AA106" s="48"/>
+      <c r="AA106" s="47"/>
       <c r="AB106" s="7"/>
       <c r="AC106" s="7"/>
       <c r="AD106" s="7"/>
@@ -17278,20 +17275,20 @@
       <c r="AO106" s="7"/>
     </row>
     <row r="107" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A107" s="73"/>
-      <c r="B107" s="87"/>
-      <c r="C107" s="109"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="125"/>
-      <c r="F107" s="67"/>
-      <c r="G107" s="57"/>
+      <c r="A107" s="115"/>
+      <c r="B107" s="94"/>
+      <c r="C107" s="105"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="119"/>
+      <c r="F107" s="88"/>
+      <c r="G107" s="56"/>
       <c r="H107" s="12">
         <v>43291</v>
       </c>
       <c r="I107" s="12">
         <v>43299</v>
       </c>
-      <c r="J107" s="57"/>
+      <c r="J107" s="56"/>
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
@@ -17301,15 +17298,15 @@
       <c r="Q107" s="7"/>
       <c r="R107" s="7"/>
       <c r="S107" s="7"/>
-      <c r="T107" s="52"/>
-      <c r="U107" s="52"/>
-      <c r="V107" s="52"/>
-      <c r="W107" s="52"/>
+      <c r="T107" s="51"/>
+      <c r="U107" s="51"/>
+      <c r="V107" s="51"/>
+      <c r="W107" s="51"/>
       <c r="X107" s="7"/>
       <c r="Y107" s="7"/>
       <c r="Z107" s="7"/>
-      <c r="AA107" s="52"/>
-      <c r="AB107" s="52"/>
+      <c r="AA107" s="51"/>
+      <c r="AB107" s="51"/>
       <c r="AC107" s="7"/>
       <c r="AD107" s="7"/>
       <c r="AE107" s="7"/>
@@ -17325,30 +17322,30 @@
       <c r="AO107" s="7"/>
     </row>
     <row r="108" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A108" s="72">
+      <c r="A108" s="114">
         <v>52</v>
       </c>
-      <c r="B108" s="66"/>
-      <c r="C108" s="115" t="s">
+      <c r="B108" s="87"/>
+      <c r="C108" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="D108" s="43" t="s">
+      <c r="D108" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="E108" s="114" t="s">
+      <c r="E108" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="F108" s="66" t="s">
+      <c r="F108" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G108" s="136"/>
+      <c r="G108" s="59"/>
       <c r="H108" s="12">
         <v>43291</v>
       </c>
       <c r="I108" s="12">
         <v>43297</v>
       </c>
-      <c r="J108" s="56"/>
+      <c r="J108" s="55"/>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
       <c r="M108" s="7"/>
@@ -17358,14 +17355,14 @@
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
       <c r="S108" s="7"/>
-      <c r="T108" s="48"/>
-      <c r="U108" s="48"/>
-      <c r="V108" s="48"/>
-      <c r="W108" s="48"/>
+      <c r="T108" s="47"/>
+      <c r="U108" s="47"/>
+      <c r="V108" s="47"/>
+      <c r="W108" s="47"/>
       <c r="X108" s="7"/>
       <c r="Y108" s="7"/>
       <c r="Z108" s="7"/>
-      <c r="AA108" s="48"/>
+      <c r="AA108" s="47"/>
       <c r="AB108" s="7"/>
       <c r="AC108" s="7"/>
       <c r="AD108" s="7"/>
@@ -17382,20 +17379,20 @@
       <c r="AO108" s="7"/>
     </row>
     <row r="109" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A109" s="73"/>
-      <c r="B109" s="87"/>
-      <c r="C109" s="109"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="113"/>
-      <c r="F109" s="67"/>
-      <c r="G109" s="65"/>
+      <c r="A109" s="115"/>
+      <c r="B109" s="94"/>
+      <c r="C109" s="105"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="117"/>
+      <c r="F109" s="88"/>
+      <c r="G109" s="60"/>
       <c r="H109" s="12">
         <v>43291</v>
       </c>
       <c r="I109" s="12">
         <v>43299</v>
       </c>
-      <c r="J109" s="57"/>
+      <c r="J109" s="56"/>
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
@@ -17405,15 +17402,15 @@
       <c r="Q109" s="7"/>
       <c r="R109" s="7"/>
       <c r="S109" s="7"/>
-      <c r="T109" s="52"/>
-      <c r="U109" s="52"/>
-      <c r="V109" s="52"/>
-      <c r="W109" s="52"/>
+      <c r="T109" s="51"/>
+      <c r="U109" s="51"/>
+      <c r="V109" s="51"/>
+      <c r="W109" s="51"/>
       <c r="X109" s="7"/>
       <c r="Y109" s="7"/>
       <c r="Z109" s="7"/>
-      <c r="AA109" s="52"/>
-      <c r="AB109" s="52"/>
+      <c r="AA109" s="51"/>
+      <c r="AB109" s="51"/>
       <c r="AC109" s="7"/>
       <c r="AD109" s="7"/>
       <c r="AE109" s="7"/>
@@ -17429,30 +17426,30 @@
       <c r="AO109" s="7"/>
     </row>
     <row r="110" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A110" s="72">
+      <c r="A110" s="114">
         <v>53</v>
       </c>
-      <c r="B110" s="112"/>
-      <c r="C110" s="115" t="s">
+      <c r="B110" s="123"/>
+      <c r="C110" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="D110" s="43" t="s">
+      <c r="D110" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E110" s="114" t="s">
+      <c r="E110" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="F110" s="66" t="s">
+      <c r="F110" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G110" s="136"/>
+      <c r="G110" s="59"/>
       <c r="H110" s="12">
         <v>43291</v>
       </c>
       <c r="I110" s="12">
         <v>43297</v>
       </c>
-      <c r="J110" s="56"/>
+      <c r="J110" s="55"/>
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
       <c r="M110" s="7"/>
@@ -17462,14 +17459,14 @@
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
       <c r="S110" s="7"/>
-      <c r="T110" s="48"/>
-      <c r="U110" s="48"/>
-      <c r="V110" s="48"/>
-      <c r="W110" s="48"/>
+      <c r="T110" s="47"/>
+      <c r="U110" s="47"/>
+      <c r="V110" s="47"/>
+      <c r="W110" s="47"/>
       <c r="X110" s="7"/>
       <c r="Y110" s="7"/>
       <c r="Z110" s="7"/>
-      <c r="AA110" s="48"/>
+      <c r="AA110" s="47"/>
       <c r="AB110" s="7"/>
       <c r="AC110" s="7"/>
       <c r="AD110" s="7"/>
@@ -17486,20 +17483,20 @@
       <c r="AO110" s="7"/>
     </row>
     <row r="111" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A111" s="73"/>
-      <c r="B111" s="113"/>
-      <c r="C111" s="109"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="113"/>
-      <c r="F111" s="67"/>
-      <c r="G111" s="65"/>
+      <c r="A111" s="115"/>
+      <c r="B111" s="117"/>
+      <c r="C111" s="105"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="117"/>
+      <c r="F111" s="88"/>
+      <c r="G111" s="60"/>
       <c r="H111" s="12">
         <v>43291</v>
       </c>
       <c r="I111" s="12">
         <v>43299</v>
       </c>
-      <c r="J111" s="57"/>
+      <c r="J111" s="56"/>
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
@@ -17509,15 +17506,15 @@
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
       <c r="S111" s="7"/>
-      <c r="T111" s="52"/>
-      <c r="U111" s="52"/>
-      <c r="V111" s="52"/>
-      <c r="W111" s="52"/>
+      <c r="T111" s="51"/>
+      <c r="U111" s="51"/>
+      <c r="V111" s="51"/>
+      <c r="W111" s="51"/>
       <c r="X111" s="7"/>
       <c r="Y111" s="7"/>
       <c r="Z111" s="7"/>
-      <c r="AA111" s="52"/>
-      <c r="AB111" s="52"/>
+      <c r="AA111" s="51"/>
+      <c r="AB111" s="51"/>
       <c r="AC111" s="7"/>
       <c r="AD111" s="7"/>
       <c r="AE111" s="7"/>
@@ -17533,30 +17530,30 @@
       <c r="AO111" s="7"/>
     </row>
     <row r="112" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A112" s="72">
+      <c r="A112" s="114">
         <v>54</v>
       </c>
-      <c r="B112" s="112"/>
-      <c r="C112" s="115" t="s">
+      <c r="B112" s="123"/>
+      <c r="C112" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="D112" s="43" t="s">
+      <c r="D112" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="E112" s="114" t="s">
+      <c r="E112" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="F112" s="66" t="s">
+      <c r="F112" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G112" s="136"/>
+      <c r="G112" s="59"/>
       <c r="H112" s="12">
         <v>43291</v>
       </c>
       <c r="I112" s="12">
         <v>43297</v>
       </c>
-      <c r="J112" s="56"/>
+      <c r="J112" s="55"/>
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
@@ -17566,14 +17563,14 @@
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
       <c r="S112" s="7"/>
-      <c r="T112" s="48"/>
-      <c r="U112" s="48"/>
-      <c r="V112" s="48"/>
-      <c r="W112" s="48"/>
+      <c r="T112" s="47"/>
+      <c r="U112" s="47"/>
+      <c r="V112" s="47"/>
+      <c r="W112" s="47"/>
       <c r="X112" s="7"/>
       <c r="Y112" s="7"/>
       <c r="Z112" s="7"/>
-      <c r="AA112" s="48"/>
+      <c r="AA112" s="47"/>
       <c r="AB112" s="7"/>
       <c r="AC112" s="7"/>
       <c r="AD112" s="7"/>
@@ -17590,20 +17587,20 @@
       <c r="AO112" s="7"/>
     </row>
     <row r="113" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A113" s="73"/>
-      <c r="B113" s="113"/>
-      <c r="C113" s="109"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="113"/>
-      <c r="F113" s="67"/>
-      <c r="G113" s="65"/>
+      <c r="A113" s="115"/>
+      <c r="B113" s="117"/>
+      <c r="C113" s="105"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="117"/>
+      <c r="F113" s="88"/>
+      <c r="G113" s="60"/>
       <c r="H113" s="12">
         <v>43291</v>
       </c>
       <c r="I113" s="12">
         <v>43299</v>
       </c>
-      <c r="J113" s="57"/>
+      <c r="J113" s="56"/>
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
       <c r="M113" s="7"/>
@@ -17613,15 +17610,15 @@
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
       <c r="S113" s="7"/>
-      <c r="T113" s="52"/>
-      <c r="U113" s="52"/>
-      <c r="V113" s="52"/>
-      <c r="W113" s="52"/>
+      <c r="T113" s="51"/>
+      <c r="U113" s="51"/>
+      <c r="V113" s="51"/>
+      <c r="W113" s="51"/>
       <c r="X113" s="7"/>
       <c r="Y113" s="7"/>
       <c r="Z113" s="7"/>
-      <c r="AA113" s="52"/>
-      <c r="AB113" s="52"/>
+      <c r="AA113" s="51"/>
+      <c r="AB113" s="51"/>
       <c r="AC113" s="7"/>
       <c r="AD113" s="7"/>
       <c r="AE113" s="7"/>
@@ -17637,30 +17634,30 @@
       <c r="AO113" s="7"/>
     </row>
     <row r="114" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A114" s="72">
+      <c r="A114" s="114">
         <v>55</v>
       </c>
-      <c r="B114" s="112"/>
-      <c r="C114" s="116" t="s">
+      <c r="B114" s="123"/>
+      <c r="C114" s="125" t="s">
         <v>106</v>
       </c>
-      <c r="D114" s="43" t="s">
+      <c r="D114" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="E114" s="114" t="s">
+      <c r="E114" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="F114" s="66" t="s">
+      <c r="F114" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G114" s="136"/>
+      <c r="G114" s="59"/>
       <c r="H114" s="12">
         <v>43291</v>
       </c>
       <c r="I114" s="12">
         <v>43297</v>
       </c>
-      <c r="J114" s="56"/>
+      <c r="J114" s="55"/>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
       <c r="M114" s="7"/>
@@ -17670,14 +17667,14 @@
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
       <c r="S114" s="7"/>
-      <c r="T114" s="48"/>
-      <c r="U114" s="48"/>
-      <c r="V114" s="48"/>
-      <c r="W114" s="48"/>
+      <c r="T114" s="47"/>
+      <c r="U114" s="47"/>
+      <c r="V114" s="47"/>
+      <c r="W114" s="47"/>
       <c r="X114" s="7"/>
       <c r="Y114" s="7"/>
       <c r="Z114" s="7"/>
-      <c r="AA114" s="48"/>
+      <c r="AA114" s="47"/>
       <c r="AB114" s="7"/>
       <c r="AC114" s="7"/>
       <c r="AD114" s="7"/>
@@ -17694,20 +17691,20 @@
       <c r="AO114" s="7"/>
     </row>
     <row r="115" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A115" s="73"/>
-      <c r="B115" s="113"/>
-      <c r="C115" s="117"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="113"/>
-      <c r="F115" s="67"/>
-      <c r="G115" s="65"/>
+      <c r="A115" s="115"/>
+      <c r="B115" s="117"/>
+      <c r="C115" s="126"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="117"/>
+      <c r="F115" s="88"/>
+      <c r="G115" s="60"/>
       <c r="H115" s="12">
         <v>43291</v>
       </c>
       <c r="I115" s="12">
         <v>43299</v>
       </c>
-      <c r="J115" s="57"/>
+      <c r="J115" s="56"/>
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
       <c r="M115" s="7"/>
@@ -17717,15 +17714,15 @@
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
       <c r="S115" s="7"/>
-      <c r="T115" s="52"/>
-      <c r="U115" s="52"/>
-      <c r="V115" s="52"/>
-      <c r="W115" s="52"/>
+      <c r="T115" s="51"/>
+      <c r="U115" s="51"/>
+      <c r="V115" s="51"/>
+      <c r="W115" s="51"/>
       <c r="X115" s="7"/>
       <c r="Y115" s="7"/>
       <c r="Z115" s="7"/>
-      <c r="AA115" s="52"/>
-      <c r="AB115" s="52"/>
+      <c r="AA115" s="51"/>
+      <c r="AB115" s="51"/>
       <c r="AC115" s="7"/>
       <c r="AD115" s="7"/>
       <c r="AE115" s="7"/>
@@ -17741,30 +17738,30 @@
       <c r="AO115" s="7"/>
     </row>
     <row r="116" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A116" s="72">
+      <c r="A116" s="114">
         <v>56</v>
       </c>
-      <c r="B116" s="112"/>
-      <c r="C116" s="118" t="s">
+      <c r="B116" s="123"/>
+      <c r="C116" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="D116" s="43" t="s">
+      <c r="D116" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="E116" s="114" t="s">
+      <c r="E116" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="F116" s="66" t="s">
+      <c r="F116" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G116" s="136"/>
+      <c r="G116" s="59"/>
       <c r="H116" s="12">
         <v>43291</v>
       </c>
       <c r="I116" s="12">
         <v>43297</v>
       </c>
-      <c r="J116" s="56"/>
+      <c r="J116" s="55"/>
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
       <c r="M116" s="7"/>
@@ -17774,14 +17771,14 @@
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
       <c r="S116" s="7"/>
-      <c r="T116" s="48"/>
-      <c r="U116" s="48"/>
-      <c r="V116" s="48"/>
-      <c r="W116" s="48"/>
+      <c r="T116" s="47"/>
+      <c r="U116" s="47"/>
+      <c r="V116" s="47"/>
+      <c r="W116" s="47"/>
       <c r="X116" s="7"/>
       <c r="Y116" s="7"/>
       <c r="Z116" s="7"/>
-      <c r="AA116" s="48"/>
+      <c r="AA116" s="47"/>
       <c r="AB116" s="7"/>
       <c r="AC116" s="7"/>
       <c r="AD116" s="7"/>
@@ -17798,20 +17795,20 @@
       <c r="AO116" s="7"/>
     </row>
     <row r="117" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A117" s="73"/>
-      <c r="B117" s="113"/>
-      <c r="C117" s="111"/>
-      <c r="D117" s="24"/>
-      <c r="E117" s="111"/>
-      <c r="F117" s="67"/>
-      <c r="G117" s="111"/>
+      <c r="A117" s="115"/>
+      <c r="B117" s="117"/>
+      <c r="C117" s="77"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="77"/>
+      <c r="F117" s="88"/>
+      <c r="G117" s="77"/>
       <c r="H117" s="12">
         <v>43291</v>
       </c>
       <c r="I117" s="12">
         <v>43299</v>
       </c>
-      <c r="J117" s="57"/>
+      <c r="J117" s="56"/>
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
       <c r="M117" s="7"/>
@@ -17821,15 +17818,15 @@
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
       <c r="S117" s="7"/>
-      <c r="T117" s="52"/>
-      <c r="U117" s="52"/>
-      <c r="V117" s="52"/>
-      <c r="W117" s="52"/>
+      <c r="T117" s="51"/>
+      <c r="U117" s="51"/>
+      <c r="V117" s="51"/>
+      <c r="W117" s="51"/>
       <c r="X117" s="7"/>
       <c r="Y117" s="7"/>
       <c r="Z117" s="7"/>
-      <c r="AA117" s="52"/>
-      <c r="AB117" s="52"/>
+      <c r="AA117" s="51"/>
+      <c r="AB117" s="51"/>
       <c r="AC117" s="7"/>
       <c r="AD117" s="7"/>
       <c r="AE117" s="7"/>
@@ -17845,30 +17842,30 @@
       <c r="AO117" s="7"/>
     </row>
     <row r="118" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A118" s="72">
+      <c r="A118" s="114">
         <v>57</v>
       </c>
-      <c r="B118" s="112"/>
-      <c r="C118" s="86" t="s">
+      <c r="B118" s="123"/>
+      <c r="C118" s="111" t="s">
         <v>94</v>
       </c>
-      <c r="D118" s="47" t="s">
+      <c r="D118" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="E118" s="88" t="s">
+      <c r="E118" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="F118" s="66" t="s">
+      <c r="F118" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G118" s="79"/>
+      <c r="G118" s="89"/>
       <c r="H118" s="12">
         <v>43291</v>
       </c>
       <c r="I118" s="12">
         <v>43297</v>
       </c>
-      <c r="J118" s="56"/>
+      <c r="J118" s="55"/>
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
       <c r="M118" s="7"/>
@@ -17878,14 +17875,14 @@
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
       <c r="S118" s="7"/>
-      <c r="T118" s="48"/>
-      <c r="U118" s="48"/>
-      <c r="V118" s="48"/>
-      <c r="W118" s="48"/>
+      <c r="T118" s="47"/>
+      <c r="U118" s="47"/>
+      <c r="V118" s="47"/>
+      <c r="W118" s="47"/>
       <c r="X118" s="7"/>
       <c r="Y118" s="7"/>
       <c r="Z118" s="7"/>
-      <c r="AA118" s="48"/>
+      <c r="AA118" s="47"/>
       <c r="AB118" s="7"/>
       <c r="AC118" s="7"/>
       <c r="AD118" s="7"/>
@@ -17902,20 +17899,20 @@
       <c r="AO118" s="7"/>
     </row>
     <row r="119" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A119" s="73"/>
-      <c r="B119" s="113"/>
-      <c r="C119" s="87"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="78"/>
-      <c r="F119" s="67"/>
-      <c r="G119" s="80"/>
+      <c r="A119" s="115"/>
+      <c r="B119" s="117"/>
+      <c r="C119" s="94"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="128"/>
+      <c r="F119" s="88"/>
+      <c r="G119" s="90"/>
       <c r="H119" s="12">
         <v>43291</v>
       </c>
       <c r="I119" s="12">
         <v>43299</v>
       </c>
-      <c r="J119" s="57"/>
+      <c r="J119" s="56"/>
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
       <c r="M119" s="7"/>
@@ -17925,15 +17922,15 @@
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
       <c r="S119" s="7"/>
-      <c r="T119" s="52"/>
-      <c r="U119" s="52"/>
-      <c r="V119" s="52"/>
-      <c r="W119" s="52"/>
+      <c r="T119" s="51"/>
+      <c r="U119" s="51"/>
+      <c r="V119" s="51"/>
+      <c r="W119" s="51"/>
       <c r="X119" s="7"/>
       <c r="Y119" s="7"/>
       <c r="Z119" s="7"/>
-      <c r="AA119" s="52"/>
-      <c r="AB119" s="52"/>
+      <c r="AA119" s="51"/>
+      <c r="AB119" s="51"/>
       <c r="AC119" s="7"/>
       <c r="AD119" s="7"/>
       <c r="AE119" s="7"/>
@@ -17949,30 +17946,30 @@
       <c r="AO119" s="7"/>
     </row>
     <row r="120" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A120" s="72">
+      <c r="A120" s="114">
         <v>58</v>
       </c>
-      <c r="B120" s="64"/>
-      <c r="C120" s="86" t="s">
+      <c r="B120" s="124"/>
+      <c r="C120" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="D120" s="47" t="s">
+      <c r="D120" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="E120" s="89" t="s">
+      <c r="E120" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="F120" s="66" t="s">
+      <c r="F120" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G120" s="68"/>
+      <c r="G120" s="86"/>
       <c r="H120" s="12">
         <v>43291</v>
       </c>
       <c r="I120" s="12">
         <v>43297</v>
       </c>
-      <c r="J120" s="56"/>
+      <c r="J120" s="55"/>
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
       <c r="M120" s="7"/>
@@ -17982,14 +17979,14 @@
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
       <c r="S120" s="7"/>
-      <c r="T120" s="48"/>
-      <c r="U120" s="48"/>
-      <c r="V120" s="48"/>
-      <c r="W120" s="48"/>
+      <c r="T120" s="47"/>
+      <c r="U120" s="47"/>
+      <c r="V120" s="47"/>
+      <c r="W120" s="47"/>
       <c r="X120" s="7"/>
       <c r="Y120" s="7"/>
       <c r="Z120" s="7"/>
-      <c r="AA120" s="48"/>
+      <c r="AA120" s="47"/>
       <c r="AB120" s="7"/>
       <c r="AC120" s="7"/>
       <c r="AD120" s="7"/>
@@ -18006,20 +18003,20 @@
       <c r="AO120" s="7"/>
     </row>
     <row r="121" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A121" s="73"/>
-      <c r="B121" s="65"/>
-      <c r="C121" s="87"/>
-      <c r="D121" s="24"/>
-      <c r="E121" s="65"/>
-      <c r="F121" s="67"/>
-      <c r="G121" s="57"/>
+      <c r="A121" s="115"/>
+      <c r="B121" s="60"/>
+      <c r="C121" s="94"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="60"/>
+      <c r="F121" s="88"/>
+      <c r="G121" s="56"/>
       <c r="H121" s="12">
         <v>43291</v>
       </c>
       <c r="I121" s="12">
         <v>43299</v>
       </c>
-      <c r="J121" s="57"/>
+      <c r="J121" s="56"/>
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
       <c r="M121" s="7"/>
@@ -18029,15 +18026,15 @@
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
       <c r="S121" s="7"/>
-      <c r="T121" s="52"/>
-      <c r="U121" s="52"/>
-      <c r="V121" s="52"/>
-      <c r="W121" s="52"/>
+      <c r="T121" s="51"/>
+      <c r="U121" s="51"/>
+      <c r="V121" s="51"/>
+      <c r="W121" s="51"/>
       <c r="X121" s="7"/>
       <c r="Y121" s="7"/>
       <c r="Z121" s="7"/>
-      <c r="AA121" s="52"/>
-      <c r="AB121" s="52"/>
+      <c r="AA121" s="51"/>
+      <c r="AB121" s="51"/>
       <c r="AC121" s="7"/>
       <c r="AD121" s="7"/>
       <c r="AE121" s="7"/>
@@ -18053,30 +18050,30 @@
       <c r="AO121" s="7"/>
     </row>
     <row r="122" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A122" s="72">
+      <c r="A122" s="114">
         <v>59</v>
       </c>
-      <c r="B122" s="64"/>
-      <c r="C122" s="86" t="s">
+      <c r="B122" s="124"/>
+      <c r="C122" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="D122" s="47" t="s">
+      <c r="D122" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="E122" s="88" t="s">
+      <c r="E122" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="F122" s="66" t="s">
+      <c r="F122" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G122" s="79"/>
+      <c r="G122" s="89"/>
       <c r="H122" s="12">
         <v>43291</v>
       </c>
       <c r="I122" s="12">
         <v>43297</v>
       </c>
-      <c r="J122" s="69"/>
+      <c r="J122" s="91"/>
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
@@ -18086,14 +18083,14 @@
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
       <c r="S122" s="7"/>
-      <c r="T122" s="48"/>
-      <c r="U122" s="48"/>
-      <c r="V122" s="48"/>
-      <c r="W122" s="48"/>
+      <c r="T122" s="47"/>
+      <c r="U122" s="47"/>
+      <c r="V122" s="47"/>
+      <c r="W122" s="47"/>
       <c r="X122" s="7"/>
       <c r="Y122" s="7"/>
       <c r="Z122" s="7"/>
-      <c r="AA122" s="48"/>
+      <c r="AA122" s="47"/>
       <c r="AB122" s="7"/>
       <c r="AC122" s="7"/>
       <c r="AD122" s="7"/>
@@ -18110,20 +18107,20 @@
       <c r="AO122" s="7"/>
     </row>
     <row r="123" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A123" s="73"/>
-      <c r="B123" s="65"/>
-      <c r="C123" s="87"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="78"/>
-      <c r="F123" s="67"/>
-      <c r="G123" s="80"/>
+      <c r="A123" s="115"/>
+      <c r="B123" s="60"/>
+      <c r="C123" s="94"/>
+      <c r="D123" s="22"/>
+      <c r="E123" s="128"/>
+      <c r="F123" s="88"/>
+      <c r="G123" s="90"/>
       <c r="H123" s="12">
         <v>43291</v>
       </c>
       <c r="I123" s="12">
         <v>43299</v>
       </c>
-      <c r="J123" s="65"/>
+      <c r="J123" s="60"/>
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
       <c r="M123" s="7"/>
@@ -18133,15 +18130,15 @@
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
       <c r="S123" s="7"/>
-      <c r="T123" s="52"/>
-      <c r="U123" s="52"/>
-      <c r="V123" s="52"/>
-      <c r="W123" s="52"/>
+      <c r="T123" s="51"/>
+      <c r="U123" s="51"/>
+      <c r="V123" s="51"/>
+      <c r="W123" s="51"/>
       <c r="X123" s="7"/>
       <c r="Y123" s="7"/>
       <c r="Z123" s="7"/>
-      <c r="AA123" s="52"/>
-      <c r="AB123" s="52"/>
+      <c r="AA123" s="51"/>
+      <c r="AB123" s="51"/>
       <c r="AC123" s="7"/>
       <c r="AD123" s="7"/>
       <c r="AE123" s="7"/>
@@ -18156,31 +18153,31 @@
       <c r="AN123" s="7"/>
       <c r="AO123" s="7"/>
     </row>
-    <row r="124" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A124" s="72">
+    <row r="124" spans="1:41" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A124" s="114">
         <v>60</v>
       </c>
-      <c r="B124" s="64"/>
-      <c r="C124" s="86" t="s">
+      <c r="B124" s="124"/>
+      <c r="C124" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="D124" s="47" t="s">
+      <c r="D124" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="E124" s="89" t="s">
+      <c r="E124" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="F124" s="66" t="s">
+      <c r="F124" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G124" s="68"/>
+      <c r="G124" s="86"/>
       <c r="H124" s="12">
         <v>43291</v>
       </c>
       <c r="I124" s="12">
         <v>43297</v>
       </c>
-      <c r="J124" s="56"/>
+      <c r="J124" s="55"/>
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
       <c r="M124" s="7"/>
@@ -18190,14 +18187,14 @@
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
       <c r="S124" s="7"/>
-      <c r="T124" s="48"/>
-      <c r="U124" s="48"/>
-      <c r="V124" s="48"/>
-      <c r="W124" s="48"/>
+      <c r="T124" s="47"/>
+      <c r="U124" s="47"/>
+      <c r="V124" s="47"/>
+      <c r="W124" s="47"/>
       <c r="X124" s="7"/>
       <c r="Y124" s="7"/>
       <c r="Z124" s="7"/>
-      <c r="AA124" s="48"/>
+      <c r="AA124" s="47"/>
       <c r="AB124" s="7"/>
       <c r="AC124" s="7"/>
       <c r="AD124" s="7"/>
@@ -18213,21 +18210,21 @@
       <c r="AN124" s="7"/>
       <c r="AO124" s="7"/>
     </row>
-    <row r="125" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A125" s="73"/>
-      <c r="B125" s="65"/>
-      <c r="C125" s="87"/>
-      <c r="D125" s="24"/>
-      <c r="E125" s="65"/>
-      <c r="F125" s="67"/>
-      <c r="G125" s="57"/>
+    <row r="125" spans="1:41" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A125" s="115"/>
+      <c r="B125" s="60"/>
+      <c r="C125" s="94"/>
+      <c r="D125" s="23"/>
+      <c r="E125" s="60"/>
+      <c r="F125" s="88"/>
+      <c r="G125" s="56"/>
       <c r="H125" s="12">
         <v>43291</v>
       </c>
       <c r="I125" s="12">
         <v>43299</v>
       </c>
-      <c r="J125" s="57"/>
+      <c r="J125" s="56"/>
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
       <c r="M125" s="7"/>
@@ -18237,15 +18234,15 @@
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
       <c r="S125" s="7"/>
-      <c r="T125" s="52"/>
-      <c r="U125" s="52"/>
-      <c r="V125" s="52"/>
-      <c r="W125" s="52"/>
+      <c r="T125" s="51"/>
+      <c r="U125" s="51"/>
+      <c r="V125" s="51"/>
+      <c r="W125" s="51"/>
       <c r="X125" s="7"/>
       <c r="Y125" s="7"/>
       <c r="Z125" s="7"/>
-      <c r="AA125" s="52"/>
-      <c r="AB125" s="52"/>
+      <c r="AA125" s="51"/>
+      <c r="AB125" s="51"/>
       <c r="AC125" s="7"/>
       <c r="AD125" s="7"/>
       <c r="AE125" s="7"/>
@@ -18260,31 +18257,31 @@
       <c r="AN125" s="7"/>
       <c r="AO125" s="7"/>
     </row>
-    <row r="126" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A126" s="72">
+    <row r="126" spans="1:41" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A126" s="114">
         <v>61</v>
       </c>
-      <c r="B126" s="64"/>
-      <c r="C126" s="86" t="s">
+      <c r="B126" s="124"/>
+      <c r="C126" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="D126" s="47" t="s">
+      <c r="D126" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="E126" s="88" t="s">
+      <c r="E126" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="F126" s="66" t="s">
+      <c r="F126" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G126" s="79"/>
+      <c r="G126" s="89"/>
       <c r="H126" s="12">
         <v>43291</v>
       </c>
       <c r="I126" s="12">
         <v>43297</v>
       </c>
-      <c r="J126" s="69"/>
+      <c r="J126" s="91"/>
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
@@ -18294,14 +18291,14 @@
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
       <c r="S126" s="7"/>
-      <c r="T126" s="48"/>
-      <c r="U126" s="48"/>
-      <c r="V126" s="48"/>
-      <c r="W126" s="48"/>
+      <c r="T126" s="47"/>
+      <c r="U126" s="47"/>
+      <c r="V126" s="47"/>
+      <c r="W126" s="47"/>
       <c r="X126" s="7"/>
       <c r="Y126" s="7"/>
-      <c r="Z126" s="53"/>
-      <c r="AA126" s="48"/>
+      <c r="Z126" s="52"/>
+      <c r="AA126" s="47"/>
       <c r="AB126" s="7"/>
       <c r="AC126" s="7"/>
       <c r="AD126" s="7"/>
@@ -18317,21 +18314,21 @@
       <c r="AN126" s="7"/>
       <c r="AO126" s="7"/>
     </row>
-    <row r="127" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A127" s="73"/>
-      <c r="B127" s="65"/>
-      <c r="C127" s="87"/>
-      <c r="D127" s="23"/>
-      <c r="E127" s="78"/>
-      <c r="F127" s="67"/>
-      <c r="G127" s="80"/>
+    <row r="127" spans="1:41" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A127" s="115"/>
+      <c r="B127" s="60"/>
+      <c r="C127" s="94"/>
+      <c r="D127" s="22"/>
+      <c r="E127" s="128"/>
+      <c r="F127" s="88"/>
+      <c r="G127" s="90"/>
       <c r="H127" s="12">
         <v>43291</v>
       </c>
       <c r="I127" s="12">
         <v>43299</v>
       </c>
-      <c r="J127" s="65"/>
+      <c r="J127" s="60"/>
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
       <c r="M127" s="7"/>
@@ -18341,15 +18338,15 @@
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
       <c r="S127" s="7"/>
-      <c r="T127" s="52"/>
-      <c r="U127" s="52"/>
-      <c r="V127" s="52"/>
-      <c r="W127" s="52"/>
+      <c r="T127" s="51"/>
+      <c r="U127" s="51"/>
+      <c r="V127" s="51"/>
+      <c r="W127" s="51"/>
       <c r="X127" s="7"/>
       <c r="Y127" s="7"/>
       <c r="Z127" s="7"/>
-      <c r="AA127" s="52"/>
-      <c r="AB127" s="52"/>
+      <c r="AA127" s="51"/>
+      <c r="AB127" s="51"/>
       <c r="AC127" s="7"/>
       <c r="AD127" s="7"/>
       <c r="AE127" s="7"/>
@@ -18364,31 +18361,31 @@
       <c r="AN127" s="7"/>
       <c r="AO127" s="7"/>
     </row>
-    <row r="128" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A128" s="72">
+    <row r="128" spans="1:41" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A128" s="114">
         <v>62</v>
       </c>
-      <c r="B128" s="64"/>
-      <c r="C128" s="86" t="s">
+      <c r="B128" s="124"/>
+      <c r="C128" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="D128" s="47" t="s">
+      <c r="D128" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="E128" s="89" t="s">
+      <c r="E128" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="F128" s="66" t="s">
+      <c r="F128" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G128" s="68"/>
+      <c r="G128" s="86"/>
       <c r="H128" s="12">
         <v>43291</v>
       </c>
       <c r="I128" s="12">
         <v>43297</v>
       </c>
-      <c r="J128" s="56"/>
+      <c r="J128" s="55"/>
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
       <c r="M128" s="7"/>
@@ -18398,14 +18395,14 @@
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
       <c r="S128" s="7"/>
-      <c r="T128" s="48"/>
-      <c r="U128" s="48"/>
-      <c r="V128" s="48"/>
-      <c r="W128" s="48"/>
+      <c r="T128" s="47"/>
+      <c r="U128" s="47"/>
+      <c r="V128" s="47"/>
+      <c r="W128" s="47"/>
       <c r="X128" s="7"/>
       <c r="Y128" s="7"/>
       <c r="Z128" s="7"/>
-      <c r="AA128" s="48"/>
+      <c r="AA128" s="47"/>
       <c r="AB128" s="7"/>
       <c r="AC128" s="7"/>
       <c r="AD128" s="7"/>
@@ -18421,21 +18418,21 @@
       <c r="AN128" s="7"/>
       <c r="AO128" s="7"/>
     </row>
-    <row r="129" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A129" s="73"/>
-      <c r="B129" s="65"/>
-      <c r="C129" s="87"/>
-      <c r="D129" s="24"/>
-      <c r="E129" s="65"/>
-      <c r="F129" s="67"/>
-      <c r="G129" s="57"/>
+    <row r="129" spans="1:41" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A129" s="115"/>
+      <c r="B129" s="60"/>
+      <c r="C129" s="94"/>
+      <c r="D129" s="23"/>
+      <c r="E129" s="60"/>
+      <c r="F129" s="88"/>
+      <c r="G129" s="56"/>
       <c r="H129" s="12">
         <v>43291</v>
       </c>
       <c r="I129" s="12">
         <v>43299</v>
       </c>
-      <c r="J129" s="57"/>
+      <c r="J129" s="56"/>
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
       <c r="M129" s="7"/>
@@ -18445,15 +18442,15 @@
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
       <c r="S129" s="7"/>
-      <c r="T129" s="52"/>
-      <c r="U129" s="52"/>
-      <c r="V129" s="52"/>
-      <c r="W129" s="52"/>
+      <c r="T129" s="51"/>
+      <c r="U129" s="51"/>
+      <c r="V129" s="51"/>
+      <c r="W129" s="51"/>
       <c r="X129" s="7"/>
       <c r="Y129" s="7"/>
       <c r="Z129" s="7"/>
-      <c r="AA129" s="52"/>
-      <c r="AB129" s="52"/>
+      <c r="AA129" s="51"/>
+      <c r="AB129" s="51"/>
       <c r="AC129" s="7"/>
       <c r="AD129" s="7"/>
       <c r="AE129" s="7"/>
@@ -18468,19 +18465,19 @@
       <c r="AN129" s="7"/>
       <c r="AO129" s="7"/>
     </row>
-    <row r="130" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A130" s="72">
+    <row r="130" spans="1:41" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A130" s="114">
         <v>63</v>
       </c>
-      <c r="B130" s="81"/>
-      <c r="C130" s="83"/>
-      <c r="D130" s="22"/>
-      <c r="E130" s="77"/>
-      <c r="F130" s="66"/>
-      <c r="G130" s="79"/>
+      <c r="B130" s="138"/>
+      <c r="C130" s="135"/>
+      <c r="D130" s="21"/>
+      <c r="E130" s="136"/>
+      <c r="F130" s="87"/>
+      <c r="G130" s="89"/>
       <c r="H130" s="12"/>
       <c r="I130" s="12"/>
-      <c r="J130" s="69"/>
+      <c r="J130" s="91"/>
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
@@ -18513,17 +18510,17 @@
       <c r="AN130" s="7"/>
       <c r="AO130" s="7"/>
     </row>
-    <row r="131" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A131" s="73"/>
+    <row r="131" spans="1:41" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A131" s="115"/>
       <c r="B131" s="82"/>
-      <c r="C131" s="84"/>
-      <c r="D131" s="23"/>
-      <c r="E131" s="78"/>
-      <c r="F131" s="67"/>
-      <c r="G131" s="80"/>
+      <c r="C131" s="96"/>
+      <c r="D131" s="22"/>
+      <c r="E131" s="128"/>
+      <c r="F131" s="88"/>
+      <c r="G131" s="90"/>
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
-      <c r="J131" s="65"/>
+      <c r="J131" s="60"/>
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
@@ -18556,29 +18553,29 @@
       <c r="AN131" s="7"/>
       <c r="AO131" s="7"/>
     </row>
-    <row r="132" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A132" s="72">
+    <row r="132" spans="1:41" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A132" s="114">
         <v>64</v>
       </c>
-      <c r="B132" s="74" t="s">
+      <c r="B132" s="133" t="s">
         <v>100</v>
       </c>
-      <c r="C132" s="85" t="s">
+      <c r="C132" s="137" t="s">
         <v>101</v>
       </c>
-      <c r="D132" s="22"/>
-      <c r="E132" s="64"/>
-      <c r="F132" s="66" t="s">
+      <c r="D132" s="21"/>
+      <c r="E132" s="124"/>
+      <c r="F132" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G132" s="68"/>
+      <c r="G132" s="86"/>
       <c r="H132" s="12">
         <v>43299</v>
       </c>
       <c r="I132" s="12">
         <v>43306</v>
       </c>
-      <c r="J132" s="56"/>
+      <c r="J132" s="55"/>
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
       <c r="M132" s="7"/>
@@ -18596,14 +18593,14 @@
       <c r="Y132" s="7"/>
       <c r="Z132" s="7"/>
       <c r="AA132" s="7"/>
-      <c r="AB132" s="48"/>
-      <c r="AC132" s="48"/>
-      <c r="AD132" s="48"/>
+      <c r="AB132" s="47"/>
+      <c r="AC132" s="47"/>
+      <c r="AD132" s="47"/>
       <c r="AE132" s="7"/>
       <c r="AF132" s="7"/>
-      <c r="AG132" s="48"/>
-      <c r="AH132" s="48"/>
-      <c r="AI132" s="48"/>
+      <c r="AG132" s="47"/>
+      <c r="AH132" s="47"/>
+      <c r="AI132" s="47"/>
       <c r="AJ132" s="7"/>
       <c r="AK132" s="7"/>
       <c r="AL132" s="7"/>
@@ -18611,30 +18608,30 @@
       <c r="AN132" s="7"/>
       <c r="AO132" s="7"/>
     </row>
-    <row r="133" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A133" s="73"/>
-      <c r="B133" s="75"/>
-      <c r="C133" s="75"/>
-      <c r="D133" s="24"/>
-      <c r="E133" s="65"/>
-      <c r="F133" s="67"/>
-      <c r="G133" s="57"/>
+    <row r="133" spans="1:41" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A133" s="115"/>
+      <c r="B133" s="134"/>
+      <c r="C133" s="134"/>
+      <c r="D133" s="23"/>
+      <c r="E133" s="60"/>
+      <c r="F133" s="88"/>
+      <c r="G133" s="56"/>
       <c r="H133" s="12">
         <v>43287</v>
       </c>
       <c r="I133" s="12">
         <v>43290</v>
       </c>
-      <c r="J133" s="57"/>
+      <c r="J133" s="56"/>
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
       <c r="M133" s="7"/>
       <c r="N133" s="7"/>
       <c r="O133" s="7"/>
-      <c r="P133" s="52"/>
+      <c r="P133" s="51"/>
       <c r="Q133" s="7"/>
       <c r="R133" s="7"/>
-      <c r="S133" s="52"/>
+      <c r="S133" s="51"/>
       <c r="T133" s="7"/>
       <c r="U133" s="7"/>
       <c r="V133" s="7"/>
@@ -18643,7 +18640,7 @@
       <c r="Y133" s="7"/>
       <c r="Z133" s="7"/>
       <c r="AA133" s="7"/>
-      <c r="AB133" s="52"/>
+      <c r="AB133" s="51"/>
       <c r="AC133" s="7"/>
       <c r="AD133" s="7"/>
       <c r="AE133" s="7"/>
@@ -18658,27 +18655,27 @@
       <c r="AN133" s="7"/>
       <c r="AO133" s="7"/>
     </row>
-    <row r="134" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A134" s="72">
+    <row r="134" spans="1:41" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A134" s="114">
         <v>65</v>
       </c>
-      <c r="B134" s="74"/>
-      <c r="C134" s="62" t="s">
+      <c r="B134" s="133"/>
+      <c r="C134" s="139" t="s">
         <v>102</v>
       </c>
-      <c r="D134" s="22"/>
-      <c r="E134" s="77"/>
-      <c r="F134" s="66" t="s">
+      <c r="D134" s="21"/>
+      <c r="E134" s="136"/>
+      <c r="F134" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G134" s="79"/>
+      <c r="G134" s="89"/>
       <c r="H134" s="12">
         <v>43299</v>
       </c>
       <c r="I134" s="12">
         <v>43306</v>
       </c>
-      <c r="J134" s="69"/>
+      <c r="J134" s="91"/>
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
@@ -18696,14 +18693,14 @@
       <c r="Y134" s="7"/>
       <c r="Z134" s="7"/>
       <c r="AA134" s="7"/>
-      <c r="AB134" s="48"/>
-      <c r="AC134" s="48"/>
-      <c r="AD134" s="48"/>
+      <c r="AB134" s="47"/>
+      <c r="AC134" s="47"/>
+      <c r="AD134" s="47"/>
       <c r="AE134" s="7"/>
       <c r="AF134" s="7"/>
-      <c r="AG134" s="48"/>
-      <c r="AH134" s="48"/>
-      <c r="AI134" s="48"/>
+      <c r="AG134" s="47"/>
+      <c r="AH134" s="47"/>
+      <c r="AI134" s="47"/>
       <c r="AJ134" s="7"/>
       <c r="AK134" s="7"/>
       <c r="AL134" s="7"/>
@@ -18711,21 +18708,21 @@
       <c r="AN134" s="7"/>
       <c r="AO134" s="7"/>
     </row>
-    <row r="135" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A135" s="73"/>
-      <c r="B135" s="75"/>
-      <c r="C135" s="76"/>
-      <c r="D135" s="23"/>
-      <c r="E135" s="78"/>
-      <c r="F135" s="67"/>
-      <c r="G135" s="80"/>
-      <c r="H135" s="45">
+    <row r="135" spans="1:41" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A135" s="115"/>
+      <c r="B135" s="134"/>
+      <c r="C135" s="140"/>
+      <c r="D135" s="22"/>
+      <c r="E135" s="128"/>
+      <c r="F135" s="88"/>
+      <c r="G135" s="90"/>
+      <c r="H135" s="44">
         <v>43299</v>
       </c>
       <c r="I135" s="12">
         <v>43299</v>
       </c>
-      <c r="J135" s="65"/>
+      <c r="J135" s="60"/>
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
       <c r="M135" s="7"/>
@@ -18743,7 +18740,7 @@
       <c r="Y135" s="7"/>
       <c r="Z135" s="7"/>
       <c r="AA135" s="7"/>
-      <c r="AB135" s="52"/>
+      <c r="AB135" s="51"/>
       <c r="AC135" s="7"/>
       <c r="AD135" s="7"/>
       <c r="AE135" s="7"/>
@@ -18758,29 +18755,29 @@
       <c r="AN135" s="7"/>
       <c r="AO135" s="7"/>
     </row>
-    <row r="136" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A136" s="72">
+    <row r="136" spans="1:41" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A136" s="114">
         <v>66</v>
       </c>
-      <c r="B136" s="74" t="s">
+      <c r="B136" s="133" t="s">
         <v>103</v>
       </c>
-      <c r="C136" s="62" t="s">
+      <c r="C136" s="139" t="s">
         <v>104</v>
       </c>
-      <c r="D136" s="22"/>
-      <c r="E136" s="64"/>
-      <c r="F136" s="66" t="s">
+      <c r="D136" s="21"/>
+      <c r="E136" s="124"/>
+      <c r="F136" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G136" s="68"/>
+      <c r="G136" s="86"/>
       <c r="H136" s="12">
         <v>43304</v>
       </c>
-      <c r="I136" s="45">
+      <c r="I136" s="44">
         <v>43312</v>
       </c>
-      <c r="J136" s="56"/>
+      <c r="J136" s="55"/>
       <c r="K136" s="7"/>
       <c r="L136" s="7"/>
       <c r="M136" s="7"/>
@@ -18803,31 +18800,31 @@
       <c r="AD136" s="7"/>
       <c r="AE136" s="7"/>
       <c r="AF136" s="7"/>
-      <c r="AG136" s="48"/>
-      <c r="AH136" s="48"/>
-      <c r="AI136" s="48"/>
-      <c r="AJ136" s="48"/>
-      <c r="AK136" s="48"/>
+      <c r="AG136" s="47"/>
+      <c r="AH136" s="47"/>
+      <c r="AI136" s="47"/>
+      <c r="AJ136" s="47"/>
+      <c r="AK136" s="47"/>
       <c r="AL136" s="7"/>
       <c r="AM136" s="7"/>
-      <c r="AN136" s="48"/>
-      <c r="AO136" s="48"/>
+      <c r="AN136" s="47"/>
+      <c r="AO136" s="47"/>
     </row>
-    <row r="137" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A137" s="73"/>
-      <c r="B137" s="75"/>
-      <c r="C137" s="76"/>
-      <c r="D137" s="24"/>
-      <c r="E137" s="65"/>
-      <c r="F137" s="67"/>
-      <c r="G137" s="57"/>
+    <row r="137" spans="1:41" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A137" s="115"/>
+      <c r="B137" s="134"/>
+      <c r="C137" s="140"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="60"/>
+      <c r="F137" s="88"/>
+      <c r="G137" s="56"/>
       <c r="H137" s="12">
         <v>43300</v>
       </c>
       <c r="I137" s="12">
         <v>43301</v>
       </c>
-      <c r="J137" s="57"/>
+      <c r="J137" s="56"/>
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
       <c r="M137" s="7"/>
@@ -18846,8 +18843,8 @@
       <c r="Z137" s="7"/>
       <c r="AA137" s="7"/>
       <c r="AB137" s="7"/>
-      <c r="AC137" s="52"/>
-      <c r="AD137" s="52"/>
+      <c r="AC137" s="51"/>
+      <c r="AD137" s="51"/>
       <c r="AE137" s="7"/>
       <c r="AF137" s="7"/>
       <c r="AG137" s="7"/>
@@ -18860,27 +18857,27 @@
       <c r="AN137" s="7"/>
       <c r="AO137" s="7"/>
     </row>
-    <row r="138" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A138" s="72">
+    <row r="138" spans="1:41" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A138" s="114">
         <v>67</v>
       </c>
-      <c r="B138" s="74"/>
-      <c r="C138" s="62" t="s">
+      <c r="B138" s="133"/>
+      <c r="C138" s="139" t="s">
         <v>102</v>
       </c>
-      <c r="D138" s="22"/>
-      <c r="E138" s="77"/>
-      <c r="F138" s="66" t="s">
+      <c r="D138" s="21"/>
+      <c r="E138" s="136"/>
+      <c r="F138" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="G138" s="79"/>
+      <c r="G138" s="89"/>
       <c r="H138" s="12">
         <v>43304</v>
       </c>
-      <c r="I138" s="45">
+      <c r="I138" s="44">
         <v>43312</v>
       </c>
-      <c r="J138" s="69"/>
+      <c r="J138" s="91"/>
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
       <c r="M138" s="7"/>
@@ -18903,31 +18900,31 @@
       <c r="AD138" s="7"/>
       <c r="AE138" s="7"/>
       <c r="AF138" s="7"/>
-      <c r="AG138" s="48"/>
-      <c r="AH138" s="48"/>
-      <c r="AI138" s="48"/>
-      <c r="AJ138" s="48"/>
-      <c r="AK138" s="48"/>
+      <c r="AG138" s="47"/>
+      <c r="AH138" s="47"/>
+      <c r="AI138" s="47"/>
+      <c r="AJ138" s="47"/>
+      <c r="AK138" s="47"/>
       <c r="AL138" s="7"/>
       <c r="AM138" s="7"/>
-      <c r="AN138" s="48"/>
-      <c r="AO138" s="48"/>
+      <c r="AN138" s="47"/>
+      <c r="AO138" s="47"/>
     </row>
-    <row r="139" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A139" s="73"/>
-      <c r="B139" s="75"/>
-      <c r="C139" s="76"/>
-      <c r="D139" s="23"/>
-      <c r="E139" s="78"/>
-      <c r="F139" s="67"/>
-      <c r="G139" s="80"/>
+    <row r="139" spans="1:41" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A139" s="115"/>
+      <c r="B139" s="134"/>
+      <c r="C139" s="140"/>
+      <c r="D139" s="22"/>
+      <c r="E139" s="128"/>
+      <c r="F139" s="88"/>
+      <c r="G139" s="90"/>
       <c r="H139" s="12">
         <v>43300</v>
       </c>
       <c r="I139" s="12">
         <v>43301</v>
       </c>
-      <c r="J139" s="65"/>
+      <c r="J139" s="60"/>
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
       <c r="M139" s="7"/>
@@ -18946,8 +18943,8 @@
       <c r="Z139" s="7"/>
       <c r="AA139" s="7"/>
       <c r="AB139" s="7"/>
-      <c r="AC139" s="52"/>
-      <c r="AD139" s="52"/>
+      <c r="AC139" s="51"/>
+      <c r="AD139" s="51"/>
       <c r="AE139" s="7"/>
       <c r="AF139" s="7"/>
       <c r="AG139" s="7"/>
@@ -18960,29 +18957,29 @@
       <c r="AN139" s="7"/>
       <c r="AO139" s="7"/>
     </row>
-    <row r="140" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A140" s="72">
+    <row r="140" spans="1:41" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A140" s="114">
         <v>68</v>
       </c>
-      <c r="B140" s="60" t="s">
+      <c r="B140" s="142" t="s">
         <v>105</v>
       </c>
-      <c r="C140" s="62" t="s">
+      <c r="C140" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="D140" s="22"/>
-      <c r="E140" s="64"/>
-      <c r="F140" s="66" t="s">
+      <c r="D140" s="21"/>
+      <c r="E140" s="124"/>
+      <c r="F140" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="G140" s="68"/>
+      <c r="G140" s="86"/>
       <c r="H140" s="12">
         <v>43306</v>
       </c>
-      <c r="I140" s="45">
+      <c r="I140" s="44">
         <v>43312</v>
       </c>
-      <c r="J140" s="56"/>
+      <c r="J140" s="55"/>
       <c r="K140" s="7"/>
       <c r="L140" s="7"/>
       <c r="M140" s="7"/>
@@ -19007,27 +19004,29 @@
       <c r="AF140" s="7"/>
       <c r="AG140" s="7"/>
       <c r="AH140" s="7"/>
-      <c r="AI140" s="48"/>
-      <c r="AJ140" s="48"/>
-      <c r="AK140" s="48"/>
+      <c r="AI140" s="47"/>
+      <c r="AJ140" s="47"/>
+      <c r="AK140" s="47"/>
       <c r="AL140" s="7"/>
       <c r="AM140" s="7"/>
-      <c r="AN140" s="48"/>
-      <c r="AO140" s="48"/>
+      <c r="AN140" s="47"/>
+      <c r="AO140" s="47"/>
     </row>
-    <row r="141" spans="1:41" s="29" customFormat="1" ht="14" customHeight="1">
-      <c r="A141" s="73"/>
-      <c r="B141" s="61"/>
-      <c r="C141" s="63"/>
-      <c r="D141" s="24"/>
-      <c r="E141" s="65"/>
-      <c r="F141" s="67"/>
-      <c r="G141" s="57"/>
+    <row r="141" spans="1:41" s="28" customFormat="1" ht="14" customHeight="1">
+      <c r="A141" s="115"/>
+      <c r="B141" s="143"/>
+      <c r="C141" s="144"/>
+      <c r="D141" s="23"/>
+      <c r="E141" s="60"/>
+      <c r="F141" s="88"/>
+      <c r="G141" s="56"/>
       <c r="H141" s="12">
         <v>43304</v>
       </c>
-      <c r="I141" s="12"/>
-      <c r="J141" s="57"/>
+      <c r="I141" s="44">
+        <v>43312</v>
+      </c>
+      <c r="J141" s="56"/>
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
       <c r="M141" s="7"/>
@@ -19051,36 +19050,36 @@
       <c r="AE141" s="7"/>
       <c r="AF141" s="7"/>
       <c r="AG141" s="7"/>
-      <c r="AH141" s="52"/>
-      <c r="AI141" s="52"/>
-      <c r="AJ141" s="52"/>
-      <c r="AK141" s="52"/>
+      <c r="AH141" s="51"/>
+      <c r="AI141" s="51"/>
+      <c r="AJ141" s="51"/>
+      <c r="AK141" s="51"/>
       <c r="AL141" s="7"/>
       <c r="AM141" s="7"/>
-      <c r="AN141" s="52"/>
-      <c r="AO141" s="7"/>
+      <c r="AN141" s="51"/>
+      <c r="AO141" s="51"/>
     </row>
-    <row r="142" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A142" s="58">
+    <row r="142" spans="1:41" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A142" s="129">
         <v>69</v>
       </c>
-      <c r="B142" s="60"/>
-      <c r="C142" s="70" t="s">
+      <c r="B142" s="142"/>
+      <c r="C142" s="145" t="s">
         <v>102</v>
       </c>
-      <c r="D142" s="22"/>
-      <c r="E142" s="64"/>
-      <c r="F142" s="66" t="s">
+      <c r="D142" s="21"/>
+      <c r="E142" s="124"/>
+      <c r="F142" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="G142" s="68"/>
+      <c r="G142" s="86"/>
       <c r="H142" s="12">
         <v>43306</v>
       </c>
-      <c r="I142" s="45">
+      <c r="I142" s="44">
         <v>43312</v>
       </c>
-      <c r="J142" s="69"/>
+      <c r="J142" s="91"/>
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
       <c r="M142" s="7"/>
@@ -19105,27 +19104,29 @@
       <c r="AF142" s="7"/>
       <c r="AG142" s="7"/>
       <c r="AH142" s="7"/>
-      <c r="AI142" s="48"/>
-      <c r="AJ142" s="48"/>
-      <c r="AK142" s="48"/>
+      <c r="AI142" s="47"/>
+      <c r="AJ142" s="47"/>
+      <c r="AK142" s="47"/>
       <c r="AL142" s="7"/>
       <c r="AM142" s="7"/>
-      <c r="AN142" s="48"/>
-      <c r="AO142" s="48"/>
+      <c r="AN142" s="47"/>
+      <c r="AO142" s="47"/>
     </row>
-    <row r="143" spans="1:41" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A143" s="59"/>
-      <c r="B143" s="61"/>
-      <c r="C143" s="71"/>
-      <c r="D143" s="24"/>
-      <c r="E143" s="65"/>
-      <c r="F143" s="67"/>
-      <c r="G143" s="57"/>
+    <row r="143" spans="1:41" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A143" s="141"/>
+      <c r="B143" s="143"/>
+      <c r="C143" s="146"/>
+      <c r="D143" s="23"/>
+      <c r="E143" s="60"/>
+      <c r="F143" s="88"/>
+      <c r="G143" s="56"/>
       <c r="H143" s="12">
         <v>43304</v>
       </c>
-      <c r="I143" s="17"/>
-      <c r="J143" s="65"/>
+      <c r="I143" s="44">
+        <v>43312</v>
+      </c>
+      <c r="J143" s="60"/>
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
       <c r="M143" s="7"/>
@@ -19149,16 +19150,18 @@
       <c r="AE143" s="7"/>
       <c r="AF143" s="7"/>
       <c r="AG143" s="7"/>
-      <c r="AH143" s="52"/>
-      <c r="AI143" s="52"/>
-      <c r="AJ143" s="52"/>
-      <c r="AK143" s="52"/>
+      <c r="AH143" s="51"/>
+      <c r="AI143" s="51"/>
+      <c r="AJ143" s="51"/>
+      <c r="AK143" s="51"/>
       <c r="AL143" s="7"/>
       <c r="AM143" s="7"/>
-      <c r="AN143" s="52"/>
-      <c r="AO143" s="7"/>
+      <c r="AN143" s="51"/>
+      <c r="AO143" s="51"/>
     </row>
-    <row r="144" spans="1:41" ht="15.75" customHeight="1"/>
+    <row r="144" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AO144" s="28"/>
+    </row>
     <row r="145" ht="15.75" customHeight="1"/>
     <row r="146" ht="15.75" customHeight="1"/>
     <row r="147" ht="15.75" customHeight="1"/>
@@ -20002,46 +20005,408 @@
     <row r="985" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="466">
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="J140:J141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="J142:J143"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="G142:G143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="J134:J135"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="J130:J131"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="J126:J127"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="J136:J137"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="J124:J125"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="J128:J129"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="J132:J133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="F128:F129"/>
+    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="J122:J123"/>
+    <mergeCell ref="J120:J121"/>
+    <mergeCell ref="J118:J119"/>
+    <mergeCell ref="J116:J117"/>
+    <mergeCell ref="J96:J97"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="J106:J107"/>
+    <mergeCell ref="J110:J111"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="J112:J113"/>
+    <mergeCell ref="J114:J115"/>
+    <mergeCell ref="J102:J103"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="J92:J93"/>
+    <mergeCell ref="J100:J101"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B20:B21"/>
@@ -20066,408 +20431,46 @@
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="J86:J87"/>
-    <mergeCell ref="J122:J123"/>
-    <mergeCell ref="J120:J121"/>
-    <mergeCell ref="J118:J119"/>
-    <mergeCell ref="J116:J117"/>
-    <mergeCell ref="J96:J97"/>
-    <mergeCell ref="J94:J95"/>
-    <mergeCell ref="J104:J105"/>
-    <mergeCell ref="J106:J107"/>
-    <mergeCell ref="J110:J111"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="J112:J113"/>
-    <mergeCell ref="J114:J115"/>
-    <mergeCell ref="J102:J103"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="J90:J91"/>
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="J92:J93"/>
-    <mergeCell ref="J100:J101"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C32:C37"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="G128:G129"/>
-    <mergeCell ref="J124:J125"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="J128:J129"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="J132:J133"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="J134:J135"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="J130:J131"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="J126:J127"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="J136:J137"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="J138:J139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="G138:G139"/>
-    <mergeCell ref="J140:J141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="G140:G141"/>
-    <mergeCell ref="J142:J143"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="G142:G143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G18:G19"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="K8">
@@ -21370,7 +21373,7 @@
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:N5 O4:P6 K6:L7 N6 K17 Q4:AO20 AA131:AO132 K24:AO24 T100:Y100 T102:Y102 T104:Y104 T106:Y106 T108:Y108 T110:Y110 T112:U112 T114:Y114 T116:Y116 T118:Y118 T120:Y120 T122:Y122 T124:Y124 T126:Y126 T128:Y128 K8:N8 K10:P10 K18:P18 K9:L9 K12:P12 K11:L11 K16:P16 K15:L15 K20:P20 K19:L19 K23:L23 Q23:AO23 K26:AO26 K25:L25 Q25:AO25 K28:AO28 K27:L27 Q27:AO27 K30:AO30 K29:L29 Q29:AO29 K34:AO34 K33:L33 Q33:AO33 K36:AO36 K35:L35 Q35:AO35 K38:AO38 K37:L37 Q37:AO37 K42:AO42 K41:L41 Q41:AO41 K43:L43 K50:AO50 K49:L49 Q49:AO49 K52:AO52 K51:L51 Q51:AO51 K54:AO54 K53:L53 Q53:AO53 K56:AO56 K55:L55 Q55:AO55 K58:AO58 K57:L57 Q57:AO57 K60:AO60 K59:L59 Q59:AO59 K62:AO62 K61:L61 Q61:AO61 K46:AO46 K44:M45 K14:P14 K13:M13 K32:AO32 K31:M31 Q31:AO31 K40:AO40 K39:M39 Q39:AO39 O44:AO44 K48:AO48 K47:M47 Q47:AO47 K64:AO64 K63:M63 Q63:AO63 K66:AO66 K65:M65 Q65:AO65 K68:AO68 K67:M67 Q67:AO67 K69:M69 Q69:AO69 K72:Y72 K71:M71 P71:R71 Q43:AO43 Q45:AO45 K70:AO70 T71:AO71 K73:S73 X73:Z73 K75:S75 X75:Z75 K77:S77 X77:Z77 K79:S79 X79:Z79 K81:S81 X81:Z81 K83:S83 X83:Z83 K85:S85 X85:Z85 K87:S87 X87:Z87 K89:S89 X89:Z89 K91:S91 X91:Z91 K93:S93 X93:Z93 K95:S95 X95:Z95 K97:S97 X97:Z97 K99:S99 X99:Y99 AB72:AO72 K74:Y74 K76:Y76 K78:Y78 K80:Y80 K82:Y82 K84:Y84 K86:Y86 K88:Y88 K90:Y90 K92:Y92 K94:Y94 K96:Y96 K98:Y98 AA96:AO96 AA94:AO94 AA92:AO92 AA98:AO98 AA90:AO90 AA88:AO88 AA86:AO86 AA84:AO84 AA82:AO82 AA80:AO80 AA78:AO78 AA76:AO76 AA74:AO74 AB130:AO130 X112:Y112 AC73:AO73 AC75:AO75 AC77:AO77 AC79:AO79 AC81:AO81 AC83:AO83 AC85:AO85 AC87:AO87 AC89:AO89 AC91:AO91 AC93:AO93 AC95:AO95 AC97:AO97 AC99:AO99 AA134:AO134 AA133 AC133:AO133 AA136:AO136 AA135 AC135:AO135 AA142:AO142 AA141:AG141 AL141:AM141 AA138:AO138 AA137:AB137 AE137:AO137 AA140:AO140 AA139:AB139 AE139:AO139 AO141">
+  <conditionalFormatting sqref="K4:N5 O4:P6 K6:L7 N6 K17 Q4:AO20 AA131:AO132 K24:AO24 T100:Y100 T102:Y102 T104:Y104 T106:Y106 T108:Y108 T110:Y110 T112:U112 T114:Y114 T116:Y116 T118:Y118 T120:Y120 T122:Y122 T124:Y124 T126:Y126 T128:Y128 K8:N8 K10:P10 K18:P18 K9:L9 K12:P12 K11:L11 K16:P16 K15:L15 K20:P20 K19:L19 K23:L23 Q23:AO23 K26:AO26 K25:L25 Q25:AO25 K28:AO28 K27:L27 Q27:AO27 K30:AO30 K29:L29 Q29:AO29 K34:AO34 K33:L33 Q33:AO33 K36:AO36 K35:L35 Q35:AO35 K38:AO38 K37:L37 Q37:AO37 K42:AO42 K41:L41 Q41:AO41 K43:L43 K50:AO50 K49:L49 Q49:AO49 K52:AO52 K51:L51 Q51:AO51 K54:AO54 K53:L53 Q53:AO53 K56:AO56 K55:L55 Q55:AO55 K58:AO58 K57:L57 Q57:AO57 K60:AO60 K59:L59 Q59:AO59 K62:AO62 K61:L61 Q61:AO61 K46:AO46 K44:M45 K14:P14 K13:M13 K32:AO32 K31:M31 Q31:AO31 K40:AO40 K39:M39 Q39:AO39 O44:AO44 K48:AO48 K47:M47 Q47:AO47 K64:AO64 K63:M63 Q63:AO63 K66:AO66 K65:M65 Q65:AO65 K68:AO68 K67:M67 Q67:AO67 K69:M69 Q69:AO69 K72:Y72 K71:M71 P71:R71 Q43:AO43 Q45:AO45 K70:AO70 T71:AO71 K73:S73 X73:Z73 K75:S75 X75:Z75 K77:S77 X77:Z77 K79:S79 X79:Z79 K81:S81 X81:Z81 K83:S83 X83:Z83 K85:S85 X85:Z85 K87:S87 X87:Z87 K89:S89 X89:Z89 K91:S91 X91:Z91 K93:S93 X93:Z93 K95:S95 X95:Z95 K97:S97 X97:Z97 K99:S99 X99:Y99 AB72:AO72 K74:Y74 K76:Y76 K78:Y78 K80:Y80 K82:Y82 K84:Y84 K86:Y86 K88:Y88 K90:Y90 K92:Y92 K94:Y94 K96:Y96 K98:Y98 AA96:AO96 AA94:AO94 AA92:AO92 AA98:AO98 AA90:AO90 AA88:AO88 AA86:AO86 AA84:AO84 AA82:AO82 AA80:AO80 AA78:AO78 AA76:AO76 AA74:AO74 AB130:AO130 X112:Y112 AC73:AO73 AC75:AO75 AC77:AO77 AC79:AO79 AC81:AO81 AC83:AO83 AC85:AO85 AC87:AO87 AC89:AO89 AC91:AO91 AC93:AO93 AC95:AO95 AC97:AO97 AC99:AO99 AA134:AO134 AA133 AC133:AO133 AA136:AO136 AA135 AC135:AO135 AA142:AO142 AA141:AG141 AL141:AM141 AA138:AO138 AA137:AB137 AE137:AO137 AA140:AO140 AA139:AB139 AE139:AO139">
     <cfRule type="expression" dxfId="1000" priority="1313" stopIfTrue="1">
       <formula>AND(K$2&gt;=$H4,K$2&lt;=$I4)</formula>
     </cfRule>
@@ -25770,7 +25773,7 @@
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K143:AG143 K130:Z132 AB102:AO102 AB104:AO104 AB106:AO106 AB108:AO108 AB116:AO116 AB118:AO118 AB120:AO120 AB122:AO122 AB124:AO124 AB126:AO126 K102:S129 AB128:AO128 X103:Z103 X105:Z105 X107:Z107 X109:Z109 X111:Z111 X113:Z113 X115:Z115 X117:Z117 X119:Z119 X121:Z121 X123:Z123 X125:Z125 X127:Z127 X129:Z129 AB114:AO114 AB110:AO110 AC103:AO103 AC105:AO105 AC107:AO107 AC109:AO109 AB112:AO112 AC111:AO111 AC113:AO113 AC115:AO115 AC117:AO117 AC119:AO119 AC121:AO121 AC123:AO123 AC125:AO125 AC127:AO127 AC129:AO129 K134:Z142 K133:O133 Q133:R133 T133:Z133 AL143:AM143 AO143">
+  <conditionalFormatting sqref="K143:AG143 K130:Z132 AB102:AO102 AB104:AO104 AB106:AO106 AB108:AO108 AB116:AO116 AB118:AO118 AB120:AO120 AB122:AO122 AB124:AO124 AB126:AO126 K102:S129 AB128:AO128 X103:Z103 X105:Z105 X107:Z107 X109:Z109 X111:Z111 X113:Z113 X115:Z115 X117:Z117 X119:Z119 X121:Z121 X123:Z123 X125:Z125 X127:Z127 X129:Z129 AB114:AO114 AB110:AO110 AC103:AO103 AC105:AO105 AC107:AO107 AC109:AO109 AB112:AO112 AC111:AO111 AC113:AO113 AC115:AO115 AC117:AO117 AC119:AO119 AC121:AO121 AC123:AO123 AC125:AO125 AC127:AO127 AC129:AO129 K134:Z142 K133:O133 Q133:R133 T133:Z133 AL143:AM143">
     <cfRule type="expression" dxfId="120" priority="1348" stopIfTrue="1">
       <formula>AND(K$2&gt;=$H100,K$2&lt;=$I100)</formula>
     </cfRule>
